--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lg\repos\leonardguy\dunedin-zen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB07115-8754-482D-B2A9-1AFA2DABE116}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00525090-E516-4492-AC03-2556A39386DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="1" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="2" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="5" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="442">
   <si>
     <t>g</t>
   </si>
@@ -529,12 +529,6 @@
   </si>
   <si>
     <t>peanut sauce</t>
-  </si>
-  <si>
-    <t>choppers book</t>
-  </si>
-  <si>
-    <t>what to soak the night before</t>
   </si>
   <si>
     <t>round
@@ -1139,9 +1133,6 @@
     <t>dried brown lentils</t>
   </si>
   <si>
-    <t>what needs to be peeled?</t>
-  </si>
-  <si>
     <t>2. SWEAT in a minimal amount of oil</t>
   </si>
   <si>
@@ -1224,9 +1215,6 @@
   </si>
   <si>
     <t>goodies see 2016</t>
-  </si>
-  <si>
-    <t>nothing</t>
   </si>
   <si>
     <t>safe meal will be cooked 3x during the week &amp; stashed</t>
@@ -3168,33 +3156,33 @@
   <sheetData>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="99" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="G2" s="99" t="s">
         <v>391</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="H2" s="99" t="s">
         <v>392</v>
       </c>
-      <c r="E2" s="99" t="s">
-        <v>393</v>
-      </c>
-      <c r="F2" s="99" t="s">
-        <v>394</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>395</v>
-      </c>
-      <c r="H2" s="99" t="s">
-        <v>396</v>
-      </c>
       <c r="K2" s="99" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B3" s="107">
         <v>10</v>
@@ -3218,19 +3206,19 @@
         <v>10</v>
       </c>
       <c r="I3" s="101" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K3" s="107">
         <f>SUM(B3:H3)</f>
         <v>70</v>
       </c>
       <c r="L3" s="101" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B4" s="107">
         <v>1</v>
@@ -3254,19 +3242,19 @@
         <v>1</v>
       </c>
       <c r="I4" s="102" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K4" s="107">
         <f>SUM(B4:H4)</f>
         <v>7</v>
       </c>
       <c r="L4" s="101" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B5" s="107">
         <v>10</v>
@@ -3288,19 +3276,19 @@
       </c>
       <c r="H5" s="110"/>
       <c r="I5" s="102" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K5" s="107">
         <f>SUM(B5:H5)</f>
         <v>60</v>
       </c>
       <c r="L5" s="101" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B6" s="107">
         <v>1</v>
@@ -3322,19 +3310,19 @@
       </c>
       <c r="H6" s="110"/>
       <c r="I6" s="102" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K6" s="107">
         <f>SUM(B6:H6)</f>
         <v>6</v>
       </c>
       <c r="L6" s="101" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B7" s="107">
         <v>10</v>
@@ -3356,19 +3344,19 @@
       </c>
       <c r="H7" s="110"/>
       <c r="I7" s="102" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K7" s="107">
         <f>SUM(B7:H7)</f>
         <v>60</v>
       </c>
       <c r="L7" s="101" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B8" s="107">
         <v>1</v>
@@ -3390,37 +3378,37 @@
       </c>
       <c r="H8" s="110"/>
       <c r="I8" s="103" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K8" s="107">
         <f>SUM(B8:H8)</f>
         <v>6</v>
       </c>
       <c r="L8" s="101" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="104" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" s="105" t="s">
         <v>375</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="G9" s="105" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="H9" s="106" t="s">
         <v>377</v>
-      </c>
-      <c r="E9" s="105" t="s">
-        <v>378</v>
-      </c>
-      <c r="F9" s="105" t="s">
-        <v>379</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>380</v>
-      </c>
-      <c r="H9" s="106" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3432,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D8F90-B49A-4F27-A51C-C9DAC7C45CC5}">
   <dimension ref="A1:AE402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3472,13 +3460,13 @@
   <sheetData>
     <row r="1" spans="1:31" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
       <c r="E1" s="51" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F1" s="80"/>
       <c r="G1" s="80"/>
@@ -3497,7 +3485,7 @@
     </row>
     <row r="2" spans="1:31" s="79" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="81" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
@@ -3522,61 +3510,61 @@
         <v>56</v>
       </c>
       <c r="M2" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="P2" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O2" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P2" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q2" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R2" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S2" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T2" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U2" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V2" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W2" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X2" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y2" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z2" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA2" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB2" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC2" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W2" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X2" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y2" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z2" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA2" s="91" t="s">
+      <c r="AD2" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB2" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC2" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD2" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE2" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3585,7 +3573,7 @@
       <c r="C3" s="82"/>
       <c r="D3" s="82"/>
       <c r="E3" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F3" s="111">
         <v>10</v>
@@ -3606,20 +3594,20 @@
     </row>
     <row r="4" spans="1:31" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B4" s="82"/>
       <c r="C4" s="82"/>
       <c r="D4" s="82"/>
       <c r="E4" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F4" s="59">
         <f>F3/F2</f>
         <v>1</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I4" s="55"/>
       <c r="L4" s="54"/>
@@ -3656,7 +3644,7 @@
       </c>
       <c r="J5" s="64"/>
       <c r="K5" s="64" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L5" s="65"/>
       <c r="M5" s="55">
@@ -3743,7 +3731,7 @@
         <v>sliced cucumbers</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F6" s="79">
         <f>totalLuCount + totalSluCount</f>
@@ -3755,7 +3743,7 @@
       </c>
       <c r="J6" s="64"/>
       <c r="K6" s="64" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L6" s="65"/>
       <c r="M6" s="55">
@@ -3842,14 +3830,14 @@
         <v>grated carrots</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F7" s="59">
         <f>F6/F3</f>
         <v>6.6</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H7" s="62"/>
       <c r="I7" s="63">
@@ -3857,7 +3845,7 @@
       </c>
       <c r="J7" s="64"/>
       <c r="K7" s="64" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L7" s="65"/>
       <c r="M7" s="55">
@@ -3949,7 +3937,7 @@
       </c>
       <c r="J8" s="64"/>
       <c r="K8" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L8" s="65"/>
       <c r="M8" s="55">
@@ -4041,7 +4029,7 @@
       </c>
       <c r="J9" s="64"/>
       <c r="K9" s="64" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L9" s="65"/>
       <c r="M9" s="55">
@@ -4133,7 +4121,7 @@
       </c>
       <c r="J10" s="64"/>
       <c r="K10" s="64" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L10" s="65"/>
       <c r="M10" s="55">
@@ -4223,7 +4211,7 @@
       <c r="I11" s="63"/>
       <c r="J11" s="64"/>
       <c r="K11" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L11" s="65"/>
       <c r="M11" s="55">
@@ -4313,7 +4301,7 @@
       <c r="I12" s="63"/>
       <c r="J12" s="64"/>
       <c r="K12" s="64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L12" s="65"/>
       <c r="M12" s="55">
@@ -4349,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V12" s="79" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K12, itemNames, 0))="chop"</f>
@@ -4406,7 +4394,7 @@
       <c r="I13" s="63"/>
       <c r="J13" s="64"/>
       <c r="K13" s="64" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L13" s="65"/>
       <c r="M13" s="55">
@@ -4496,7 +4484,7 @@
     </row>
     <row r="15" spans="1:31" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
@@ -4516,20 +4504,20 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
       <c r="E16" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F16" s="80"/>
       <c r="G16" s="80"/>
     </row>
     <row r="17" spans="1:31" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="81"/>
@@ -4554,61 +4542,61 @@
         <v>56</v>
       </c>
       <c r="M17" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N17" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N17" s="90" t="s">
+      <c r="P17" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O17" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P17" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q17" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R17" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S17" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T17" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U17" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V17" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W17" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X17" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y17" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z17" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA17" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB17" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC17" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W17" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X17" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y17" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z17" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA17" s="91" t="s">
+      <c r="AD17" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB17" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC17" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD17" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE17" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4617,7 +4605,7 @@
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
       <c r="E18" s="50" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F18" s="111">
         <v>3</v>
@@ -4627,20 +4615,20 @@
     </row>
     <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
       <c r="D19" s="82"/>
       <c r="E19" s="50" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F19" s="59">
         <f>F18/F17</f>
         <v>0.75</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I19" s="55"/>
     </row>
@@ -4665,10 +4653,10 @@
         <v>12</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L20" s="65" t="s">
         <v>12</v>
@@ -4757,7 +4745,7 @@
         <v>gluten free soy sauce</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F21" s="79">
         <f>totalSluCount</f>
@@ -4772,7 +4760,7 @@
         <v>15</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L21" s="65" t="s">
         <v>15</v>
@@ -4861,14 +4849,14 @@
         <v>juiced lemons</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F22" s="59">
         <f>F21/F18</f>
         <v>2</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H22" s="62"/>
       <c r="I22" s="63">
@@ -4878,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L22" s="65" t="s">
         <v>15</v>
@@ -4974,7 +4962,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L23" s="65" t="s">
         <v>15</v>
@@ -5070,7 +5058,7 @@
         <v>15</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L24" s="65" t="s">
         <v>15</v>
@@ -5152,7 +5140,7 @@
       </c>
       <c r="I25" s="55"/>
       <c r="U25" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W25" s="95"/>
       <c r="X25" s="95"/>
@@ -5182,7 +5170,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B27" s="82"/>
       <c r="C27" s="82"/>
@@ -5414,7 +5402,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L30" s="65" t="s">
         <v>16</v>
@@ -5510,7 +5498,7 @@
         <v>16</v>
       </c>
       <c r="K31" s="64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L31" s="65" t="s">
         <v>16</v>
@@ -5606,7 +5594,7 @@
         <v>16</v>
       </c>
       <c r="K32" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L32" s="65" t="s">
         <v>16</v>
@@ -5700,7 +5688,7 @@
       </c>
       <c r="J33" s="64"/>
       <c r="K33" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L33" s="65"/>
       <c r="M33" s="55">
@@ -5780,40 +5768,40 @@
     </row>
     <row r="35" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="C35" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I35" s="55"/>
       <c r="L35" s="52"/>
     </row>
     <row r="36" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="C36" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D36" s="69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I36" s="55"/>
       <c r="L36" s="52"/>
     </row>
     <row r="37" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="C37" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D37" s="69" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I37" s="55"/>
       <c r="L37" s="52"/>
     </row>
     <row r="38" spans="1:31" ht="105" x14ac:dyDescent="0.25">
       <c r="C38" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D38" s="69" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I38" s="55"/>
       <c r="L38" s="52"/>
@@ -5826,7 +5814,7 @@
       <c r="C39" s="81"/>
       <c r="D39" s="81"/>
       <c r="E39" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F39" s="80" t="s">
         <v>99</v>
@@ -5861,61 +5849,61 @@
         <v>56</v>
       </c>
       <c r="M40" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N40" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O40" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N40" s="90" t="s">
+      <c r="P40" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O40" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P40" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q40" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R40" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S40" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T40" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U40" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V40" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W40" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X40" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y40" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z40" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA40" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB40" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC40" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W40" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X40" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y40" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z40" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA40" s="91" t="s">
+      <c r="AD40" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB40" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC40" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD40" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE40" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5924,7 +5912,7 @@
       <c r="C41" s="84"/>
       <c r="D41" s="84"/>
       <c r="E41" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F41" s="111">
         <f>saLuCount</f>
@@ -5954,14 +5942,14 @@
       <c r="C42" s="82"/>
       <c r="D42" s="82"/>
       <c r="E42" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F42" s="59">
         <f>F41/F40</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
@@ -6031,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V43" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K43, itemNames, 0))="chop"</f>
@@ -6085,7 +6073,7 @@
         <v>split peas (50 minutes or so). Soaked by Tenzo the night before. Rinse and drain first</v>
       </c>
       <c r="E44" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F44" s="79">
         <f>saLuCount</f>
@@ -6137,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="V44" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K44, itemNames, 0))="chop"</f>
@@ -6180,14 +6168,14 @@
       <c r="C45" s="82"/>
       <c r="D45" s="82"/>
       <c r="E45" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F45" s="59">
         <f>F44/F41</f>
         <v>1</v>
       </c>
       <c r="G45" s="60" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I45" s="55"/>
       <c r="M45" s="52"/>
@@ -6279,7 +6267,7 @@
         <v>6.25</v>
       </c>
       <c r="U47" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V47" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K47, itemNames, 0))="chop"</f>
@@ -6427,7 +6415,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B50" s="82"/>
       <c r="C50" s="82"/>
@@ -6658,7 +6646,7 @@
         <v>13</v>
       </c>
       <c r="K53" s="64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L53" s="65" t="s">
         <v>13</v>
@@ -6928,7 +6916,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B57" s="82"/>
       <c r="C57" s="82"/>
@@ -6947,7 +6935,7 @@
       </c>
       <c r="I58" s="55"/>
       <c r="U58" s="52" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="W58" s="52"/>
     </row>
@@ -6971,7 +6959,7 @@
       <c r="O59" s="57"/>
       <c r="P59" s="57"/>
       <c r="U59" s="52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="W59" s="52"/>
     </row>
@@ -6985,7 +6973,7 @@
       </c>
       <c r="I60" s="55"/>
       <c r="U60" s="52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
@@ -6996,7 +6984,7 @@
       <c r="C61" s="81"/>
       <c r="D61" s="81"/>
       <c r="E61" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F61" s="80" t="s">
         <v>100</v>
@@ -7029,61 +7017,61 @@
         <v>56</v>
       </c>
       <c r="M62" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N62" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O62" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N62" s="90" t="s">
+      <c r="P62" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O62" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P62" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q62" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R62" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S62" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T62" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U62" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V62" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W62" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X62" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y62" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z62" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA62" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB62" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC62" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W62" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X62" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y62" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z62" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA62" s="91" t="s">
+      <c r="AD62" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB62" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC62" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD62" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE62" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7092,7 +7080,7 @@
       <c r="C63" s="85"/>
       <c r="D63" s="85"/>
       <c r="E63" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F63" s="111">
         <f>saDiCount</f>
@@ -7121,14 +7109,14 @@
       <c r="C64" s="82"/>
       <c r="D64" s="82"/>
       <c r="E64" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F64" s="59">
         <f>F63/F62</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="G64" s="60" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H64" s="55"/>
       <c r="I64" s="55"/>
@@ -7198,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="V65" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K65, itemNames, 0))="chop"</f>
@@ -7241,7 +7229,7 @@
       <c r="C66" s="82"/>
       <c r="D66" s="82"/>
       <c r="E66" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F66" s="79">
         <f>saDiCount</f>
@@ -7265,20 +7253,20 @@
     </row>
     <row r="67" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="82" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B67" s="82"/>
       <c r="C67" s="82"/>
       <c r="D67" s="82"/>
       <c r="E67" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F67" s="59">
         <f>F66/F63</f>
         <v>1</v>
       </c>
       <c r="G67" s="60" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I67" s="55"/>
       <c r="M67" s="52"/>
@@ -7594,7 +7582,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="82" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B72" s="82"/>
       <c r="C72" s="82"/>
@@ -7732,7 +7720,7 @@
         <v>13</v>
       </c>
       <c r="K74" s="64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L74" s="65" t="s">
         <v>13</v>
@@ -8146,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="V78" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K78, itemNames, 0))="chop"</f>
@@ -8205,7 +8193,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="82" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B80" s="82"/>
       <c r="C80" s="82"/>
@@ -8247,7 +8235,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B82" s="82"/>
       <c r="C82" s="82"/>
@@ -8288,7 +8276,7 @@
       </c>
       <c r="J83" s="64"/>
       <c r="K83" s="64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L83" s="65" t="s">
         <v>16</v>
@@ -8373,7 +8361,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B85" s="82"/>
       <c r="C85" s="82"/>
@@ -8405,7 +8393,7 @@
       <c r="C87" s="81"/>
       <c r="D87" s="81"/>
       <c r="E87" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F87" s="88" t="s">
         <v>81</v>
@@ -8415,7 +8403,7 @@
     </row>
     <row r="88" spans="1:31" ht="24" x14ac:dyDescent="0.2">
       <c r="A88" s="81" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B88" s="81"/>
       <c r="C88" s="81"/>
@@ -8441,61 +8429,61 @@
         <v>56</v>
       </c>
       <c r="M88" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N88" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O88" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N88" s="90" t="s">
+      <c r="P88" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O88" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P88" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q88" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R88" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S88" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T88" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U88" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V88" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W88" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X88" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y88" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z88" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA88" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB88" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC88" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W88" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X88" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y88" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z88" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA88" s="91" t="s">
+      <c r="AD88" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB88" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC88" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD88" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE88" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8504,7 +8492,7 @@
       <c r="C89" s="85"/>
       <c r="D89" s="85"/>
       <c r="E89" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F89" s="111">
         <f>suLuCount</f>
@@ -8524,20 +8512,20 @@
     </row>
     <row r="90" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B90" s="82"/>
       <c r="C90" s="82"/>
       <c r="D90" s="82"/>
       <c r="E90" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F90" s="59">
         <f>F89/F88</f>
         <v>0.47619047619047616</v>
       </c>
       <c r="G90" s="60" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H90" s="62"/>
       <c r="I90" s="73"/>
@@ -8614,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V91" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K91, itemNames, 0))="chop"</f>
@@ -8657,7 +8645,7 @@
       <c r="C92" s="82"/>
       <c r="D92" s="82"/>
       <c r="E92" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F92" s="111">
         <f>suLuCount</f>
@@ -8681,20 +8669,20 @@
     </row>
     <row r="93" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="82" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B93" s="82"/>
       <c r="C93" s="82"/>
       <c r="D93" s="82"/>
       <c r="E93" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F93" s="59">
         <f>F92/F89</f>
         <v>1</v>
       </c>
       <c r="G93" s="60" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I93" s="55"/>
       <c r="M93" s="52"/>
@@ -8721,7 +8709,7 @@
       </c>
       <c r="I94" s="55"/>
       <c r="U94" s="52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="W94" s="95"/>
       <c r="X94" s="95"/>
@@ -8756,7 +8744,7 @@
         <v>13</v>
       </c>
       <c r="K95" s="64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L95" s="65" t="s">
         <v>15</v>
@@ -8945,7 +8933,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="82" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B98" s="82"/>
       <c r="C98" s="82"/>
@@ -9022,7 +9010,7 @@
         <v>1.5</v>
       </c>
       <c r="U99" s="52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="V99" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K99, itemNames, 0))="chop"</f>
@@ -9080,7 +9068,7 @@
       </c>
       <c r="J100" s="64"/>
       <c r="K100" s="64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L100" s="65"/>
       <c r="M100" s="55">
@@ -9172,7 +9160,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B102" s="82"/>
       <c r="C102" s="82"/>
@@ -9496,7 +9484,7 @@
         <v>15</v>
       </c>
       <c r="K106" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L106" s="65" t="s">
         <v>15</v>
@@ -9587,7 +9575,7 @@
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="82" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B108" s="82"/>
       <c r="C108" s="82"/>
@@ -9615,7 +9603,7 @@
       <c r="I109" s="52"/>
       <c r="L109" s="52"/>
       <c r="U109" s="52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="W109" s="95"/>
       <c r="X109" s="95"/>
@@ -9638,7 +9626,7 @@
       <c r="I110" s="52"/>
       <c r="L110" s="52"/>
       <c r="U110" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="W110" s="95"/>
       <c r="X110" s="95"/>
@@ -9661,7 +9649,7 @@
       <c r="I111" s="52"/>
       <c r="L111" s="52"/>
       <c r="U111" s="52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="W111" s="95"/>
       <c r="X111" s="95"/>
@@ -9692,7 +9680,7 @@
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="82" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B113" s="82"/>
       <c r="C113" s="82"/>
@@ -9823,7 +9811,7 @@
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="82" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B116" s="82"/>
       <c r="C116" s="82"/>
@@ -10049,7 +10037,7 @@
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B120" s="82"/>
       <c r="C120" s="82"/>
@@ -10082,7 +10070,7 @@
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B122" s="82"/>
       <c r="C122" s="82"/>
@@ -10123,7 +10111,7 @@
       <c r="O123" s="70"/>
       <c r="P123" s="70"/>
       <c r="U123" s="52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V123" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K123, itemNames, 0))="chop"</f>
@@ -10168,7 +10156,7 @@
       <c r="C124" s="81"/>
       <c r="D124" s="81"/>
       <c r="E124" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F124" s="80" t="s">
         <v>89</v>
@@ -10204,61 +10192,61 @@
         <v>56</v>
       </c>
       <c r="M125" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N125" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O125" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N125" s="90" t="s">
+      <c r="P125" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O125" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P125" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q125" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R125" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S125" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T125" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U125" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V125" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W125" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X125" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y125" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z125" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA125" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB125" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC125" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W125" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X125" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y125" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z125" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA125" s="91" t="s">
+      <c r="AD125" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB125" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC125" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD125" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE125" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10267,7 +10255,7 @@
       <c r="C126" s="82"/>
       <c r="D126" s="82"/>
       <c r="E126" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F126" s="111">
         <f>suDiCount</f>
@@ -10288,20 +10276,20 @@
     </row>
     <row r="127" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="82" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B127" s="82"/>
       <c r="C127" s="82"/>
       <c r="D127" s="82"/>
       <c r="E127" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F127" s="59">
         <f>F126/F125</f>
         <v>0.47619047619047616</v>
       </c>
       <c r="G127" s="60" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I127" s="52"/>
       <c r="L127" s="52"/>
@@ -10430,7 +10418,7 @@
         <v>diced carrots</v>
       </c>
       <c r="E129" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F129" s="111">
         <f>suDiCount</f>
@@ -10529,14 +10517,14 @@
         <v>diced celery stalks</v>
       </c>
       <c r="E130" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F130" s="59">
         <f>F129/F126</f>
         <v>1</v>
       </c>
       <c r="G130" s="60" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I130" s="63">
         <v>6</v>
@@ -11131,7 +11119,7 @@
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="82" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B139" s="82"/>
       <c r="C139" s="82"/>
@@ -11270,7 +11258,7 @@
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="82" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B142" s="82"/>
       <c r="C142" s="82"/>
@@ -11314,7 +11302,7 @@
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="82" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B144" s="82"/>
       <c r="C144" s="82"/>
@@ -11354,7 +11342,7 @@
       <c r="O145" s="52"/>
       <c r="P145" s="52"/>
       <c r="U145" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V145" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K145, itemNames, 0))="chop"</f>
@@ -11414,7 +11402,7 @@
       <c r="O146" s="52"/>
       <c r="P146" s="52"/>
       <c r="U146" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V146" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K146, itemNames, 0))="chop"</f>
@@ -11459,10 +11447,10 @@
       <c r="C147" s="81"/>
       <c r="D147" s="81"/>
       <c r="E147" s="51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F147" s="80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G147" s="80"/>
       <c r="H147" s="55"/>
@@ -11495,61 +11483,61 @@
         <v>56</v>
       </c>
       <c r="M148" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N148" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O148" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N148" s="90" t="s">
+      <c r="P148" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O148" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P148" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q148" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R148" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S148" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T148" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U148" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V148" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W148" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X148" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y148" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z148" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA148" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB148" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC148" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W148" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X148" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y148" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z148" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA148" s="91" t="s">
+      <c r="AD148" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB148" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC148" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD148" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE148" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11558,7 +11546,7 @@
       <c r="C149" s="82"/>
       <c r="D149" s="82"/>
       <c r="E149" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F149" s="111">
         <f>moLuCount</f>
@@ -11582,20 +11570,20 @@
     </row>
     <row r="150" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B150" s="82"/>
       <c r="C150" s="82"/>
       <c r="D150" s="82"/>
       <c r="E150" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F150" s="59">
         <f>F149/F148</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G150" s="60" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H150" s="55"/>
       <c r="I150" s="73"/>
@@ -11728,7 +11716,7 @@
         <v>garlic cloves. Remove from oil once cooked</v>
       </c>
       <c r="E152" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F152" s="111">
         <f>moLuCount</f>
@@ -11776,7 +11764,7 @@
         <v>5.25</v>
       </c>
       <c r="U152" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V152" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K152, itemNames, 0))="chop"</f>
@@ -11830,14 +11818,14 @@
         <v>chopped onions</v>
       </c>
       <c r="E153" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F153" s="59">
         <f>F152/F149</f>
         <v>1</v>
       </c>
       <c r="G153" s="60" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I153" s="63">
         <v>3</v>
@@ -11938,7 +11926,7 @@
         <v>15</v>
       </c>
       <c r="K154" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L154" s="65" t="s">
         <v>15</v>
@@ -12034,7 +12022,7 @@
         <v>15</v>
       </c>
       <c r="K155" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L155" s="65" t="s">
         <v>15</v>
@@ -12140,7 +12128,7 @@
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157" s="82" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B157" s="82"/>
       <c r="C157" s="82"/>
@@ -12397,7 +12385,7 @@
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161" s="82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B161" s="82"/>
       <c r="C161" s="82"/>
@@ -12450,7 +12438,7 @@
       </c>
       <c r="J162" s="64"/>
       <c r="K162" s="64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L162" s="65"/>
       <c r="M162" s="55">
@@ -12645,7 +12633,7 @@
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165" s="82" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B165" s="82"/>
       <c r="C165" s="82"/>
@@ -12698,7 +12686,7 @@
       </c>
       <c r="J166" s="64"/>
       <c r="K166" s="64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L166" s="65"/>
       <c r="M166" s="55">
@@ -13079,7 +13067,7 @@
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171" s="82" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B171" s="82"/>
       <c r="C171" s="82"/>
@@ -13259,7 +13247,7 @@
         <v>4</v>
       </c>
       <c r="U173" s="52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V173" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K173, itemNames, 0))="chop"</f>
@@ -13319,7 +13307,7 @@
       <c r="O174" s="52"/>
       <c r="P174" s="52"/>
       <c r="U174" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V174" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K174, itemNames, 0))="chop"</f>
@@ -13379,7 +13367,7 @@
       <c r="O175" s="52"/>
       <c r="P175" s="52"/>
       <c r="U175" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V175" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K175, itemNames, 0))="chop"</f>
@@ -13439,7 +13427,7 @@
       <c r="O176" s="52"/>
       <c r="P176" s="52"/>
       <c r="U176" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V176" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K176, itemNames, 0))="chop"</f>
@@ -13501,7 +13489,7 @@
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178" s="82" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B178" s="82"/>
       <c r="C178" s="82"/>
@@ -13532,7 +13520,7 @@
       <c r="C179" s="81"/>
       <c r="D179" s="81"/>
       <c r="E179" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F179" s="80" t="s">
         <v>86</v>
@@ -13542,7 +13530,7 @@
     </row>
     <row r="180" spans="1:31" ht="24" x14ac:dyDescent="0.2">
       <c r="A180" s="81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B180" s="81"/>
       <c r="C180" s="81"/>
@@ -13568,61 +13556,61 @@
         <v>56</v>
       </c>
       <c r="M180" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N180" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O180" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N180" s="90" t="s">
+      <c r="P180" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O180" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P180" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q180" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R180" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S180" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T180" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U180" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V180" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W180" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X180" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y180" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z180" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA180" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB180" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC180" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W180" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X180" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y180" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z180" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA180" s="91" t="s">
+      <c r="AD180" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB180" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC180" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD180" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE180" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13631,7 +13619,7 @@
       <c r="C181" s="82"/>
       <c r="D181" s="82"/>
       <c r="E181" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F181" s="111">
         <f>moDiCount</f>
@@ -13665,20 +13653,20 @@
     </row>
     <row r="182" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="82" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B182" s="82"/>
       <c r="C182" s="82"/>
       <c r="D182" s="82"/>
       <c r="E182" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F182" s="59">
         <f>F181/F180</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G182" s="60" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H182" s="62"/>
       <c r="I182" s="55"/>
@@ -13787,7 +13775,7 @@
       <c r="C184" s="85"/>
       <c r="D184" s="85"/>
       <c r="E184" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F184" s="111">
         <f>moDiCount</f>
@@ -13826,14 +13814,14 @@
       <c r="C185" s="82"/>
       <c r="D185" s="82"/>
       <c r="E185" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F185" s="59">
         <f>F184/F181</f>
         <v>1</v>
       </c>
       <c r="G185" s="60" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H185" s="55"/>
       <c r="I185" s="73"/>
@@ -13880,7 +13868,7 @@
       </c>
       <c r="J186" s="64"/>
       <c r="K186" s="64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L186" s="65"/>
       <c r="M186" s="55">
@@ -14064,7 +14052,7 @@
       <c r="O188" s="52"/>
       <c r="P188" s="52"/>
       <c r="U188" s="52" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="V188" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K188, itemNames, 0))="chop"</f>
@@ -14135,7 +14123,7 @@
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190" s="82" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B190" s="82"/>
       <c r="C190" s="82"/>
@@ -14201,7 +14189,7 @@
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192" s="82" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B192" s="82"/>
       <c r="C192" s="82"/>
@@ -14267,7 +14255,7 @@
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194" s="82" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B194" s="82"/>
       <c r="C194" s="82"/>
@@ -14614,7 +14602,7 @@
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199" s="82" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B199" s="82"/>
       <c r="C199" s="82"/>
@@ -14852,7 +14840,7 @@
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203" s="82" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B203" s="82"/>
       <c r="C203" s="82"/>
@@ -14885,7 +14873,7 @@
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205" s="82" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B205" s="82"/>
       <c r="C205" s="82"/>
@@ -14925,7 +14913,7 @@
       <c r="O206" s="52"/>
       <c r="P206" s="52"/>
       <c r="U206" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V206" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K206, itemNames, 0))="chop"</f>
@@ -14985,7 +14973,7 @@
       <c r="O207" s="52"/>
       <c r="P207" s="52"/>
       <c r="U207" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V207" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K207, itemNames, 0))="chop"</f>
@@ -15038,7 +15026,7 @@
     </row>
     <row r="209" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209" s="82" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B209" s="82"/>
       <c r="C209" s="82"/>
@@ -15078,7 +15066,7 @@
       <c r="O210" s="52"/>
       <c r="P210" s="52"/>
       <c r="U210" s="52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V210" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K210, itemNames, 0))="chop"</f>
@@ -15123,7 +15111,7 @@
       <c r="C211" s="81"/>
       <c r="D211" s="81"/>
       <c r="E211" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F211" s="80" t="s">
         <v>101</v>
@@ -15159,61 +15147,61 @@
         <v>56</v>
       </c>
       <c r="M212" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N212" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O212" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N212" s="90" t="s">
+      <c r="P212" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O212" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P212" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q212" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R212" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S212" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T212" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U212" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V212" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W212" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X212" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y212" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z212" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA212" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB212" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC212" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W212" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X212" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y212" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z212" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA212" s="91" t="s">
+      <c r="AD212" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB212" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC212" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD212" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE212" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="213" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15222,7 +15210,7 @@
       <c r="C213" s="85"/>
       <c r="D213" s="85"/>
       <c r="E213" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F213" s="111">
         <f>tuLuCount</f>
@@ -15252,14 +15240,14 @@
       <c r="C214" s="82"/>
       <c r="D214" s="82"/>
       <c r="E214" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F214" s="59">
         <f>F213/F212</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G214" s="60" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H214" s="62"/>
       <c r="I214" s="55"/>
@@ -15379,7 +15367,7 @@
         <v>hot water</v>
       </c>
       <c r="E216" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F216" s="111">
         <f>tuLuCount</f>
@@ -15471,14 +15459,14 @@
       <c r="C217" s="82"/>
       <c r="D217" s="82"/>
       <c r="E217" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F217" s="59">
         <f>F216/F213</f>
         <v>1</v>
       </c>
       <c r="G217" s="60" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I217" s="55"/>
       <c r="W217" s="95"/>
@@ -15754,7 +15742,7 @@
       </c>
       <c r="J223" s="64"/>
       <c r="K223" s="64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L223" s="65"/>
       <c r="M223" s="55">
@@ -15806,7 +15794,7 @@
         <v>blocks tofu, cut into cubes</v>
       </c>
       <c r="Z223" s="68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA223" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K223, itemNames, 0))="soak"</f>
@@ -15917,7 +15905,7 @@
         <v>3.5</v>
       </c>
       <c r="U226" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V226" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K226, itemNames, 0))="chop"</f>
@@ -16068,7 +16056,7 @@
         <v>16</v>
       </c>
       <c r="K228" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L228" s="65" t="s">
         <v>16</v>
@@ -16286,7 +16274,7 @@
       </c>
       <c r="J232" s="64"/>
       <c r="K232" s="64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L232" s="65"/>
       <c r="M232" s="55">
@@ -16580,7 +16568,7 @@
       <c r="C237" s="81"/>
       <c r="D237" s="81"/>
       <c r="E237" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F237" s="80" t="s">
         <v>85</v>
@@ -16616,61 +16604,61 @@
         <v>56</v>
       </c>
       <c r="M238" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N238" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O238" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N238" s="90" t="s">
+      <c r="P238" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O238" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P238" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q238" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R238" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S238" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T238" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U238" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V238" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W238" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X238" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y238" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z238" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA238" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB238" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC238" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W238" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X238" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y238" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z238" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA238" s="91" t="s">
+      <c r="AD238" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB238" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC238" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD238" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE238" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="239" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16679,7 +16667,7 @@
       <c r="C239" s="82"/>
       <c r="D239" s="82"/>
       <c r="E239" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F239" s="111">
         <f>tuDiCount</f>
@@ -16690,20 +16678,20 @@
     </row>
     <row r="240" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="82" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B240" s="82"/>
       <c r="C240" s="82"/>
       <c r="D240" s="82"/>
       <c r="E240" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F240" s="59">
         <f>F239/F238</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G240" s="60" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I240" s="55"/>
       <c r="W240" s="66"/>
@@ -16741,7 +16729,7 @@
         <v>15</v>
       </c>
       <c r="K241" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L241" s="65" t="s">
         <v>15</v>
@@ -16830,7 +16818,7 @@
         <v>thinly sliced carrots</v>
       </c>
       <c r="E242" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F242" s="111">
         <f>tuDiCount</f>
@@ -16929,14 +16917,14 @@
         <v>thinly sliced celery stalks</v>
       </c>
       <c r="E243" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F243" s="59">
         <f>F242/F239</f>
         <v>1</v>
       </c>
       <c r="G243" s="60" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I243" s="63">
         <v>5</v>
@@ -17121,7 +17109,7 @@
     </row>
     <row r="246" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246" s="82" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B246" s="82"/>
       <c r="C246" s="82"/>
@@ -17248,7 +17236,7 @@
     </row>
     <row r="249" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249" s="82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B249" s="82"/>
       <c r="C249" s="82"/>
@@ -17280,7 +17268,7 @@
     </row>
     <row r="251" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251" s="82" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B251" s="82"/>
       <c r="C251" s="82"/>
@@ -17318,7 +17306,7 @@
         <v>12</v>
       </c>
       <c r="K252" s="64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L252" s="65" t="s">
         <v>12</v>
@@ -17407,7 +17395,7 @@
     </row>
     <row r="254" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254" s="82" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B254" s="82"/>
       <c r="C254" s="82"/>
@@ -17486,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="U255" s="52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="V255" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K255, itemNames, 0))="chop"</f>
@@ -17540,7 +17528,7 @@
     </row>
     <row r="257" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257" s="82" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B257" s="82"/>
       <c r="C257" s="82"/>
@@ -17668,7 +17656,7 @@
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260" s="82" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B260" s="82"/>
       <c r="C260" s="82"/>
@@ -17694,7 +17682,7 @@
       </c>
       <c r="I261" s="55"/>
       <c r="U261" s="54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="V261" s="79"/>
       <c r="W261" s="79"/>
@@ -17717,7 +17705,7 @@
       </c>
       <c r="I262" s="55"/>
       <c r="U262" s="54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="V262" s="79"/>
       <c r="W262" s="79"/>
@@ -17738,7 +17726,7 @@
       <c r="C263" s="81"/>
       <c r="D263" s="81"/>
       <c r="E263" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F263" s="86"/>
       <c r="G263" s="86"/>
@@ -17746,7 +17734,7 @@
     </row>
     <row r="264" spans="1:31" ht="24" x14ac:dyDescent="0.2">
       <c r="A264" s="81" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B264" s="81"/>
       <c r="C264" s="81"/>
@@ -17772,61 +17760,61 @@
         <v>56</v>
       </c>
       <c r="M264" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N264" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O264" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N264" s="90" t="s">
+      <c r="P264" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O264" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P264" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q264" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R264" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S264" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T264" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U264" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V264" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W264" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X264" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y264" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z264" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA264" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB264" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC264" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W264" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X264" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y264" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z264" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA264" s="91" t="s">
+      <c r="AD264" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB264" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC264" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD264" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE264" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="265" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17835,7 +17823,7 @@
       <c r="C265" s="82"/>
       <c r="D265" s="82"/>
       <c r="E265" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F265" s="111">
         <f>weLuCount</f>
@@ -17846,20 +17834,20 @@
     </row>
     <row r="266" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="89" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B266" s="89"/>
       <c r="C266" s="89"/>
       <c r="D266" s="89"/>
       <c r="E266" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F266" s="59">
         <f>F265/F264</f>
         <v>1</v>
       </c>
       <c r="G266" s="60" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H266" s="55"/>
     </row>
@@ -17884,13 +17872,13 @@
     </row>
     <row r="268" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="82" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B268" s="82"/>
       <c r="C268" s="82"/>
       <c r="D268" s="82"/>
       <c r="E268" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F268" s="111">
         <f>weLuCount</f>
@@ -17925,14 +17913,14 @@
         <v>dried brown lentils</v>
       </c>
       <c r="E269" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F269" s="59">
         <f>F268/F265</f>
         <v>1</v>
       </c>
       <c r="G269" s="60" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I269" s="63">
         <v>2</v>
@@ -17941,7 +17929,7 @@
         <v>16</v>
       </c>
       <c r="K269" s="64" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L269" s="65" t="s">
         <v>16</v>
@@ -18122,7 +18110,7 @@
     </row>
     <row r="272" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272" s="82" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B272" s="82"/>
       <c r="C272" s="82"/>
@@ -18346,7 +18334,7 @@
         <v>15</v>
       </c>
       <c r="K275" s="64" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L275" s="65" t="s">
         <v>15</v>
@@ -18436,7 +18424,7 @@
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277" s="82" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B277" s="82"/>
       <c r="C277" s="82"/>
@@ -18478,7 +18466,7 @@
         <v>16</v>
       </c>
       <c r="K278" s="64" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L278" s="65" t="s">
         <v>16</v>
@@ -18568,7 +18556,7 @@
     </row>
     <row r="280" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280" s="82" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B280" s="82"/>
       <c r="C280" s="82"/>
@@ -18605,7 +18593,7 @@
     </row>
     <row r="282" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282" s="89" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B282" s="89"/>
       <c r="C282" s="89"/>
@@ -18642,7 +18630,7 @@
     </row>
     <row r="284" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284" s="82" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B284" s="82"/>
       <c r="C284" s="82"/>
@@ -18721,7 +18709,7 @@
         <v>15</v>
       </c>
       <c r="K287" s="64" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L287" s="65" t="s">
         <v>15</v>
@@ -18911,7 +18899,7 @@
         <v>13</v>
       </c>
       <c r="K289" s="64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L289" s="65" t="s">
         <v>13</v>
@@ -19101,7 +19089,7 @@
         <v>16</v>
       </c>
       <c r="K291" s="64" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L291" s="65" t="s">
         <v>16</v>
@@ -19191,7 +19179,7 @@
     </row>
     <row r="293" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A293" s="82" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B293" s="82"/>
       <c r="C293" s="82"/>
@@ -19228,7 +19216,7 @@
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A295" s="82" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B295" s="82"/>
       <c r="C295" s="82"/>
@@ -19246,10 +19234,10 @@
       <c r="C296" s="81"/>
       <c r="D296" s="81"/>
       <c r="E296" s="51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F296" s="80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G296" s="80"/>
     </row>
@@ -19280,61 +19268,61 @@
         <v>56</v>
       </c>
       <c r="M297" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N297" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O297" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N297" s="90" t="s">
+      <c r="P297" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O297" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P297" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q297" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R297" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S297" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T297" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U297" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V297" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W297" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X297" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y297" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z297" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA297" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB297" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC297" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W297" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X297" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y297" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z297" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA297" s="91" t="s">
+      <c r="AD297" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB297" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC297" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD297" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE297" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="298" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19343,7 +19331,7 @@
       <c r="C298" s="85"/>
       <c r="D298" s="85"/>
       <c r="E298" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F298" s="111">
         <f>weDiCount</f>
@@ -19366,20 +19354,20 @@
     </row>
     <row r="299" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B299" s="82"/>
       <c r="C299" s="82"/>
       <c r="D299" s="82"/>
       <c r="E299" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F299" s="59">
         <f>F298/F297</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G299" s="60" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I299" s="55"/>
     </row>
@@ -19395,13 +19383,13 @@
     </row>
     <row r="301" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="82" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B301" s="82"/>
       <c r="C301" s="82"/>
       <c r="D301" s="82"/>
       <c r="E301" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F301" s="111">
         <f>weDiCount</f>
@@ -19427,14 +19415,14 @@
         <v>garlic cloves. Remove from oil once cooked</v>
       </c>
       <c r="E302" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F302" s="59">
         <f>F301/F298</f>
         <v>1</v>
       </c>
       <c r="G302" s="60" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I302" s="72">
         <v>9</v>
@@ -19477,7 +19465,7 @@
         <v>6</v>
       </c>
       <c r="U302" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V302" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K302, itemNames, 0))="chop"</f>
@@ -19535,7 +19523,7 @@
     </row>
     <row r="304" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A304" s="82" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B304" s="82"/>
       <c r="C304" s="82"/>
@@ -19669,7 +19657,7 @@
         <v>15</v>
       </c>
       <c r="K306" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L306" s="65" t="s">
         <v>15</v>
@@ -19762,7 +19750,7 @@
       </c>
       <c r="J307" s="64"/>
       <c r="K307" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L307" s="65"/>
       <c r="M307" s="55">
@@ -20045,7 +20033,7 @@
         <v>15</v>
       </c>
       <c r="K310" s="64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L310" s="65" t="s">
         <v>15</v>
@@ -20140,7 +20128,7 @@
         <v>15</v>
       </c>
       <c r="K311" s="64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L311" s="65" t="s">
         <v>15</v>
@@ -20332,7 +20320,7 @@
     </row>
     <row r="314" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A314" s="82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B314" s="82"/>
       <c r="C314" s="82"/>
@@ -20412,7 +20400,7 @@
         <v>0</v>
       </c>
       <c r="U315" s="52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="V315" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K315, itemNames, 0))="chop"</f>
@@ -20561,7 +20549,7 @@
       </c>
       <c r="J317" s="64"/>
       <c r="K317" s="64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L317" s="65"/>
       <c r="M317" s="55">
@@ -20652,7 +20640,7 @@
       </c>
       <c r="J318" s="64"/>
       <c r="K318" s="64" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L318" s="65"/>
       <c r="M318" s="55">
@@ -20688,7 +20676,7 @@
         <v>2</v>
       </c>
       <c r="U318" s="52" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="V318" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K318, itemNames, 0))="chop"</f>
@@ -20750,7 +20738,7 @@
     </row>
     <row r="320" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A320" s="82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B320" s="82"/>
       <c r="C320" s="82"/>
@@ -20794,7 +20782,7 @@
     </row>
     <row r="322" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A322" s="82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B322" s="82"/>
       <c r="C322" s="82"/>
@@ -20925,7 +20913,7 @@
       </c>
       <c r="J324" s="64"/>
       <c r="K324" s="64" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L324" s="65"/>
       <c r="M324" s="55">
@@ -21018,7 +21006,7 @@
       <c r="O325" s="52"/>
       <c r="P325" s="52"/>
       <c r="U325" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V325" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K325, itemNames, 0))="chop"</f>
@@ -21078,7 +21066,7 @@
       <c r="O326" s="52"/>
       <c r="P326" s="52"/>
       <c r="U326" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V326" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K326, itemNames, 0))="chop"</f>
@@ -21138,7 +21126,7 @@
       <c r="O327" s="52"/>
       <c r="P327" s="52"/>
       <c r="U327" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V327" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K327, itemNames, 0))="chop"</f>
@@ -21191,7 +21179,7 @@
     </row>
     <row r="329" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A329" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B329" s="82"/>
       <c r="C329" s="82"/>
@@ -21209,10 +21197,10 @@
       <c r="C330" s="81"/>
       <c r="D330" s="81"/>
       <c r="E330" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F330" s="80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G330" s="80"/>
     </row>
@@ -21243,61 +21231,61 @@
         <v>56</v>
       </c>
       <c r="M331" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N331" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O331" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N331" s="90" t="s">
+      <c r="P331" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O331" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P331" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q331" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R331" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S331" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T331" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U331" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V331" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W331" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X331" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y331" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z331" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA331" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB331" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC331" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W331" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X331" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y331" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z331" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA331" s="91" t="s">
+      <c r="AD331" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB331" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC331" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD331" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE331" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="332" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21306,7 +21294,7 @@
       <c r="C332" s="82"/>
       <c r="D332" s="82"/>
       <c r="E332" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F332" s="111">
         <f>thLuCount</f>
@@ -21317,20 +21305,20 @@
     </row>
     <row r="333" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B333" s="82"/>
       <c r="C333" s="82"/>
       <c r="D333" s="82"/>
       <c r="E333" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F333" s="59">
         <f>F332/F331</f>
         <v>0.625</v>
       </c>
       <c r="G333" s="60" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I333" s="55"/>
     </row>
@@ -21415,7 +21403,7 @@
         <v>blocks tofu, cut into cubes</v>
       </c>
       <c r="E335" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F335" s="111">
         <f>thLuCount</f>
@@ -21429,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="K335" s="64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L335" s="65" t="s">
         <v>0</v>
@@ -21483,7 +21471,7 @@
         <v>blocks tofu, cut into cubes</v>
       </c>
       <c r="Z335" s="68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA335" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K335, itemNames, 0))="soak"</f>
@@ -21520,14 +21508,14 @@
         <v>tamari</v>
       </c>
       <c r="E336" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F336" s="59">
         <f>F335/F332</f>
         <v>1</v>
       </c>
       <c r="G336" s="60" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I336" s="72">
         <v>0.3</v>
@@ -21536,7 +21524,7 @@
         <v>16</v>
       </c>
       <c r="K336" s="64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L336" s="65" t="s">
         <v>15</v>
@@ -21629,7 +21617,7 @@
     </row>
     <row r="338" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A338" s="82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B338" s="82"/>
       <c r="C338" s="82"/>
@@ -21671,7 +21659,7 @@
         <v>15</v>
       </c>
       <c r="K339" s="64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L339" s="65" t="s">
         <v>15</v>
@@ -21766,7 +21754,7 @@
         <v>15</v>
       </c>
       <c r="K340" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L340" s="65" t="s">
         <v>15</v>
@@ -21952,7 +21940,7 @@
         <v>15</v>
       </c>
       <c r="K342" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L342" s="65" t="s">
         <v>15</v>
@@ -22045,7 +22033,7 @@
       </c>
       <c r="J343" s="64"/>
       <c r="K343" s="64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L343" s="65"/>
       <c r="M343" s="55">
@@ -22136,7 +22124,7 @@
     </row>
     <row r="345" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A345" s="82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B345" s="82"/>
       <c r="C345" s="82"/>
@@ -22362,7 +22350,7 @@
       </c>
       <c r="J348" s="64"/>
       <c r="K348" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L348" s="65"/>
       <c r="M348" s="55">
@@ -22453,7 +22441,7 @@
       </c>
       <c r="J349" s="64"/>
       <c r="K349" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L349" s="65"/>
       <c r="M349" s="55">
@@ -22544,7 +22532,7 @@
       </c>
       <c r="J350" s="64"/>
       <c r="K350" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L350" s="65"/>
       <c r="M350" s="55">
@@ -22635,7 +22623,7 @@
     </row>
     <row r="352" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A352" s="82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B352" s="82"/>
       <c r="C352" s="82"/>
@@ -22675,7 +22663,7 @@
       </c>
       <c r="J353" s="64"/>
       <c r="K353" s="64" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L353" s="65"/>
       <c r="M353" s="55">
@@ -22768,7 +22756,7 @@
         <v>12</v>
       </c>
       <c r="K354" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L354" s="65" t="s">
         <v>0</v>
@@ -22952,7 +22940,7 @@
     </row>
     <row r="357" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A357" s="82" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B357" s="82"/>
       <c r="C357" s="82"/>
@@ -22992,7 +22980,7 @@
     </row>
     <row r="359" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A359" s="82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B359" s="82"/>
       <c r="C359" s="82"/>
@@ -23034,7 +23022,7 @@
         <v>16</v>
       </c>
       <c r="K360" s="64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L360" s="65" t="s">
         <v>16</v>
@@ -23167,7 +23155,7 @@
       <c r="O362" s="70"/>
       <c r="P362" s="70"/>
       <c r="U362" s="52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V362" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K362, itemNames, 0))="chop"</f>
@@ -23212,10 +23200,10 @@
       <c r="C363" s="81"/>
       <c r="D363" s="81"/>
       <c r="E363" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F363" s="80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G363" s="80"/>
     </row>
@@ -23246,61 +23234,61 @@
         <v>56</v>
       </c>
       <c r="M364" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="N364" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="O364" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="N364" s="90" t="s">
+      <c r="P364" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="O364" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P364" s="90" t="s">
-        <v>158</v>
-      </c>
       <c r="Q364" s="91" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R364" s="93" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S364" s="93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T364" s="90" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U364" s="91" t="s">
         <v>22</v>
       </c>
       <c r="V364" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="W364" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X364" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y364" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z364" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA364" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB364" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC364" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="W364" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="X364" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y364" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z364" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA364" s="91" t="s">
+      <c r="AD364" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="AB364" s="94" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC364" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD364" s="91" t="s">
-        <v>250</v>
-      </c>
       <c r="AE364" s="91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="365" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23309,7 +23297,7 @@
       <c r="C365" s="82"/>
       <c r="D365" s="82"/>
       <c r="E365" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F365" s="111">
         <f>thDiCount</f>
@@ -23332,20 +23320,20 @@
     </row>
     <row r="366" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B366" s="82"/>
       <c r="C366" s="82"/>
       <c r="D366" s="82"/>
       <c r="E366" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F366" s="59">
         <f>F365/F364</f>
         <v>0.625</v>
       </c>
       <c r="G366" s="60" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I366" s="73"/>
       <c r="J366" s="50"/>
@@ -23373,13 +23361,13 @@
     </row>
     <row r="368" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B368" s="82"/>
       <c r="C368" s="82"/>
       <c r="D368" s="82"/>
       <c r="E368" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F368" s="111">
         <f>thDiCount</f>
@@ -23405,14 +23393,14 @@
         <v>split peas. Soaked by Tenzo the night before. Rinse and drain first</v>
       </c>
       <c r="E369" s="78" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F369" s="59">
         <f>F368/F365</f>
         <v>1</v>
       </c>
       <c r="G369" s="60" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I369" s="72">
         <v>2</v>
@@ -23459,7 +23447,7 @@
         <v>0</v>
       </c>
       <c r="U369" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="V369" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K369, itemNames, 0))="chop"</f>
@@ -23513,7 +23501,7 @@
     </row>
     <row r="371" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A371" s="82" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B371" s="82"/>
       <c r="C371" s="82"/>
@@ -23680,7 +23668,7 @@
         <v>5</v>
       </c>
       <c r="U373" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V373" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K373, itemNames, 0))="chop"</f>
@@ -23740,7 +23728,7 @@
         <v>15</v>
       </c>
       <c r="K374" s="64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L374" s="65" t="s">
         <v>15</v>
@@ -23930,7 +23918,7 @@
         <v>15</v>
       </c>
       <c r="K376" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L376" s="65" t="s">
         <v>15</v>
@@ -24028,7 +24016,7 @@
     </row>
     <row r="378" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A378" s="82" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B378" s="82"/>
       <c r="C378" s="82"/>
@@ -24113,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="U379" s="52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="V379" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K379, itemNames, 0))="chop"</f>
@@ -24262,7 +24250,7 @@
       </c>
       <c r="J381" s="64"/>
       <c r="K381" s="64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L381" s="65"/>
       <c r="M381" s="55">
@@ -24353,7 +24341,7 @@
       </c>
       <c r="J382" s="64"/>
       <c r="K382" s="64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L382" s="65"/>
       <c r="M382" s="55">
@@ -24443,7 +24431,7 @@
     </row>
     <row r="384" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A384" s="82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B384" s="82"/>
       <c r="C384" s="82"/>
@@ -24576,7 +24564,7 @@
       <c r="S386" s="52"/>
       <c r="T386" s="52"/>
       <c r="U386" s="52" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="W386" s="66"/>
       <c r="X386" s="67"/>
@@ -24610,7 +24598,7 @@
       <c r="O387" s="52"/>
       <c r="P387" s="52"/>
       <c r="U387" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V387" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K387, itemNames, 0))="chop"</f>
@@ -24660,7 +24648,7 @@
         <v>11</v>
       </c>
       <c r="U388" s="54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V388" s="52" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K388, itemNames, 0))="chop"</f>
@@ -24707,7 +24695,7 @@
     </row>
     <row r="390" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A390" s="82" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B390" s="82"/>
       <c r="C390" s="82"/>
@@ -24733,7 +24721,7 @@
     </row>
     <row r="397" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B397" s="85"/>
       <c r="C397" s="85"/>
@@ -24741,22 +24729,22 @@
     </row>
     <row r="399" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D399" s="48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="400" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D400" s="48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="401" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D401" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="402" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D402" s="48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -25121,10 +25109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41010D3-4AF6-4C9A-8055-372F9FC0E129}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A3:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25132,96 +25120,78 @@
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" t="s">
-        <v>356</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -25258,28 +25228,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>120</v>
@@ -25292,13 +25262,13 @@
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -25340,7 +25310,7 @@
         <v>0.25</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25382,13 +25352,13 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -25396,7 +25366,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -25433,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -25441,7 +25411,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>68</v>
@@ -25485,7 +25455,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>68</v>
@@ -25520,10 +25490,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>68</v>
@@ -25558,10 +25528,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>68</v>
@@ -25599,7 +25569,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>68</v>
@@ -25634,11 +25604,11 @@
     </row>
     <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -25670,13 +25640,13 @@
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -25706,10 +25676,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>67</v>
@@ -25745,7 +25715,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>67</v>
@@ -25777,10 +25747,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>67</v>
@@ -25815,7 +25785,7 @@
         <v>65</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>67</v>
@@ -25958,13 +25928,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -26147,11 +26117,11 @@
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -26183,7 +26153,7 @@
         <v>102</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>103</v>
@@ -26224,7 +26194,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>104</v>
@@ -26262,11 +26232,11 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -26298,10 +26268,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D28" s="18">
         <v>1</v>
@@ -26339,7 +26309,7 @@
         <v>87</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>88</v>
@@ -26404,11 +26374,11 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -26470,11 +26440,11 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -26608,10 +26578,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>73</v>
@@ -26643,11 +26613,11 @@
     </row>
     <row r="38" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -26676,11 +26646,11 @@
     </row>
     <row r="39" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -26709,13 +26679,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D40" s="5">
         <v>2</v>
@@ -26750,13 +26720,13 @@
     </row>
     <row r="41" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -26786,13 +26756,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -26825,7 +26795,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>49</v>
@@ -26896,11 +26866,11 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B45" s="42"/>
       <c r="C45" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -26968,11 +26938,11 @@
     </row>
     <row r="47" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B47" s="42"/>
       <c r="C47" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D47" s="18">
         <v>1</v>
@@ -27007,10 +26977,10 @@
     </row>
     <row r="48" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3</v>
@@ -27046,11 +27016,11 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B49" s="42"/>
       <c r="C49" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -27080,13 +27050,13 @@
     </row>
     <row r="50" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -27119,13 +27089,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -27289,7 +27259,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>69</v>
@@ -27435,7 +27405,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>70</v>
@@ -27506,13 +27476,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -27541,11 +27511,11 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B63" s="42"/>
       <c r="C63" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -27613,11 +27583,11 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B65" s="42"/>
       <c r="C65" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -27646,10 +27616,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>97</v>
@@ -27684,7 +27654,7 @@
         <v>117</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>97</v>
@@ -27719,7 +27689,7 @@
         <v>98</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>97</v>
@@ -27786,11 +27756,11 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B70" s="42"/>
       <c r="C70" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -27819,11 +27789,11 @@
     </row>
     <row r="71" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B71" s="42"/>
       <c r="C71" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -27853,11 +27823,11 @@
     </row>
     <row r="72" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B72" s="42"/>
       <c r="C72" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -27886,11 +27856,11 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B73" s="42"/>
       <c r="C73" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -27920,11 +27890,11 @@
     </row>
     <row r="74" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B74" s="42"/>
       <c r="C74" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -27953,11 +27923,11 @@
     </row>
     <row r="75" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B75" s="42"/>
       <c r="C75" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -27987,11 +27957,11 @@
     </row>
     <row r="76" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B76" s="42"/>
       <c r="C76" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -28188,11 +28158,11 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -28221,10 +28191,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>66</v>
@@ -28256,10 +28226,10 @@
     </row>
     <row r="84" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>66</v>
@@ -28291,10 +28261,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B85" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>66</v>
@@ -28326,10 +28296,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="25" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>74</v>
@@ -28512,7 +28482,7 @@
         <v>108</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>75</v>
@@ -28544,13 +28514,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -28579,11 +28549,11 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -28612,13 +28582,13 @@
     </row>
     <row r="94" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -28647,13 +28617,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -28682,10 +28652,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>71</v>
@@ -28720,7 +28690,7 @@
         <v>107</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>71</v>
@@ -28755,7 +28725,7 @@
         <v>115</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C98" s="23" t="s">
         <v>71</v>
@@ -28884,7 +28854,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28910,7 +28880,7 @@
         <v>119</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -28987,7 +28957,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="33">
         <f>SUMIF(support!C:C,A6,support!I:I)</f>
@@ -29005,7 +28975,7 @@
     </row>
     <row r="7" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" s="33">
         <f>SUMIF(support!C:C,A7,support!I:I)</f>
@@ -29095,7 +29065,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="33">
         <f>SUMIF(support!C:C,A12,support!I:I)</f>
@@ -29185,7 +29155,7 @@
     </row>
     <row r="17" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B17" s="33">
         <f>SUMIF(support!C:C,A17,support!I:I)</f>
@@ -29239,7 +29209,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B20" s="33">
         <f>SUMIF(support!C:C,A20,support!I:I)</f>
@@ -29257,7 +29227,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B21" s="33">
         <f>SUMIF(support!C:C,A21,support!I:I)</f>
@@ -29311,7 +29281,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B24" s="33">
         <f>SUMIF(support!C:C,A24,support!I:I)</f>
@@ -29347,7 +29317,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B26" s="33">
         <f>SUMIF(support!C:C,A26,support!I:I)</f>
@@ -29437,7 +29407,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" s="33">
         <f>SUMIF(support!C:C,A31,support!I:I)</f>
@@ -29452,12 +29422,12 @@
         <v>0</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B32" s="33">
         <f>SUMIF(support!C:C,A32,support!I:I)</f>
@@ -29472,12 +29442,12 @@
         <v>0</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B33" s="33">
         <f>SUMIF(support!C:C,A33,support!I:I)</f>
@@ -29531,7 +29501,7 @@
     </row>
     <row r="36" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B36" s="33">
         <f>SUMIF(support!C:C,A36,support!I:I)</f>
@@ -29567,7 +29537,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B38" s="33">
         <f>SUMIF(support!C:C,A38,support!I:I)</f>
@@ -29603,7 +29573,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B40" s="33">
         <f>SUMIF(support!C:C,A40,support!I:I)</f>
@@ -29621,7 +29591,7 @@
     </row>
     <row r="41" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41" s="33">
         <f>SUMIF(support!C:C,A41,support!I:I)</f>
@@ -29639,7 +29609,7 @@
     </row>
     <row r="42" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B42" s="33">
         <f>SUMIF(support!C:C,A42,support!I:I)</f>
@@ -29819,7 +29789,7 @@
     </row>
     <row r="52" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B52" s="33">
         <f>SUMIF(support!C:C,A52,support!I:I)</f>
@@ -29837,7 +29807,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B53" s="33">
         <f>SUMIF(support!C:C,A53,support!I:I)</f>
@@ -29873,7 +29843,7 @@
     </row>
     <row r="55" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B55" s="33">
         <f>SUMIF(support!C:C,A55,support!I:I)</f>
@@ -29924,12 +29894,12 @@
         <v>0</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B58" s="33">
         <f>SUMIF(support!C:C,A58,support!I:I)</f>
@@ -29947,7 +29917,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B59" s="33">
         <f>SUMIF(support!C:C,A59,support!I:I)</f>
@@ -29965,7 +29935,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B60" s="33">
         <f>SUMIF(support!C:C,A60,support!I:I)</f>
@@ -29983,7 +29953,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B61" s="33">
         <f>SUMIF(support!C:C,A61,support!I:I)</f>
@@ -30001,7 +29971,7 @@
     </row>
     <row r="62" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B62" s="33">
         <f>SUMIF(support!C:C,A62,support!I:I)</f>
@@ -30019,7 +29989,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B63" s="33">
         <f>SUMIF(support!C:C,A63,support!I:I)</f>
@@ -30034,12 +30004,12 @@
         <v>3.75</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B64" s="33">
         <f>SUMIF(support!C:C,A64,support!I:I)</f>
@@ -30108,7 +30078,7 @@
         <v>4.75</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -30149,7 +30119,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B70" s="33">
         <f>SUMIF(support!C:C,A70,support!I:I)</f>
@@ -30164,7 +30134,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -30220,7 +30190,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="76" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -30279,7 +30249,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B77" s="33">
         <f>SUMIF(support!C:C,A77,support!I:I)</f>
@@ -30297,7 +30267,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B78" s="33">
         <f>SUMIF(support!C:C,A78,support!I:I)</f>
@@ -30315,7 +30285,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B79" s="33">
         <f>SUMIF(support!C:C,A79,support!I:I)</f>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lg\repos\leonardguy\dunedin-zen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45713F75-D4D5-4BDE-9A3C-9BAD1AF8F0DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4409F2-9EE6-44AD-A9D2-D5215CD939D2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="1" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
   </bookViews>
@@ -4804,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D8F90-B49A-4F27-A51C-C9DAC7C45CC5}">
   <dimension ref="A1:AD414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183:C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14939,11 +14939,11 @@
       <c r="A183" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B183" s="52">
+      <c r="B183" s="61">
         <f t="shared" ref="B183" si="194">Q183</f>
         <v>750</v>
       </c>
-      <c r="C183" s="39" t="str">
+      <c r="C183" s="91" t="str">
         <f t="shared" ref="C183" si="195">IF(L183="","",L183)</f>
         <v>g</v>
       </c>
@@ -26427,79 +26427,97 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="111"/>
       <c r="B401" s="111"/>
       <c r="C401" s="111"/>
       <c r="D401" s="111"/>
-      <c r="I401" s="44"/>
-      <c r="L401" s="44"/>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="111" t="s">
         <v>303</v>
       </c>
       <c r="B402" s="111"/>
       <c r="C402" s="111"/>
       <c r="D402" s="111"/>
-      <c r="I402" s="44"/>
-      <c r="L402" s="44"/>
-    </row>
-    <row r="403" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:12" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="112" t="s">
         <v>37</v>
       </c>
       <c r="B403" s="112"/>
       <c r="C403" s="112"/>
       <c r="D403" s="112"/>
-    </row>
-    <row r="404" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I403" s="45"/>
+      <c r="L403" s="46"/>
+    </row>
+    <row r="404" spans="1:12" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B404" s="114"/>
       <c r="C404" s="114"/>
       <c r="D404" s="114"/>
-    </row>
-    <row r="409" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I404" s="45"/>
+      <c r="L404" s="46"/>
+    </row>
+    <row r="409" spans="1:12" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="112" t="s">
         <v>152</v>
       </c>
       <c r="B409" s="112"/>
       <c r="C409" s="112"/>
       <c r="D409" s="112"/>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I409" s="45"/>
+      <c r="L409" s="46"/>
+    </row>
+    <row r="411" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="40"/>
+      <c r="B411" s="40"/>
       <c r="C411" s="93" t="s">
         <v>416</v>
       </c>
       <c r="D411" s="40" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I411" s="45"/>
+      <c r="L411" s="46"/>
+    </row>
+    <row r="412" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="40"/>
+      <c r="B412" s="40"/>
       <c r="C412" s="93" t="s">
         <v>418</v>
       </c>
       <c r="D412" s="40" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I412" s="45"/>
+      <c r="L412" s="46"/>
+    </row>
+    <row r="413" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="40"/>
+      <c r="B413" s="40"/>
       <c r="C413" s="93" t="s">
         <v>419</v>
       </c>
       <c r="D413" s="40" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I413" s="45"/>
+      <c r="L413" s="46"/>
+    </row>
+    <row r="414" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="40"/>
+      <c r="B414" s="40"/>
       <c r="C414" s="93" t="s">
         <v>422</v>
       </c>
       <c r="D414" s="40" t="s">
         <v>421</v>
       </c>
+      <c r="I414" s="45"/>
+      <c r="L414" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="205">

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lg\repos\leonardguy\dunedin-zen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A4C33A-B566-4A0B-9FA0-4BEB928C8F02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B228C24-CD9D-4B95-908B-6696171C84AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="1" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="4" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="5" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="463">
   <si>
     <t>g</t>
   </si>
@@ -1628,6 +1628,15 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>7x 400g tins left over from last year</t>
+  </si>
+  <si>
+    <t>18x 380g tins left over from last year</t>
+  </si>
+  <si>
+    <t>2x 50g packets left over from last year</t>
   </si>
 </sst>
 </file>
@@ -2461,17 +2470,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4960,7 +4969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D8F90-B49A-4F27-A51C-C9DAC7C45CC5}">
   <dimension ref="A1:AD428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K190" sqref="K190"/>
     </sheetView>
   </sheetViews>
@@ -8122,12 +8131,12 @@
       <c r="G54" s="100"/>
     </row>
     <row r="55" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="39" t="s">
         <v>53</v>
       </c>
@@ -15920,10 +15929,10 @@
       </c>
     </row>
     <row r="205" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="118"/>
-      <c r="B205" s="118"/>
-      <c r="C205" s="118"/>
-      <c r="D205" s="118"/>
+      <c r="A205" s="119"/>
+      <c r="B205" s="119"/>
+      <c r="C205" s="119"/>
+      <c r="D205" s="119"/>
       <c r="E205" s="63" t="s">
         <v>352</v>
       </c>
@@ -16227,10 +16236,10 @@
       </c>
     </row>
     <row r="210" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="118"/>
-      <c r="B210" s="118"/>
-      <c r="C210" s="118"/>
-      <c r="D210" s="118"/>
+      <c r="A210" s="119"/>
+      <c r="B210" s="119"/>
+      <c r="C210" s="119"/>
+      <c r="D210" s="119"/>
       <c r="E210" s="39"/>
       <c r="F210" s="39"/>
       <c r="G210" s="44"/>
@@ -16291,10 +16300,10 @@
       <c r="AD211" s="71"/>
     </row>
     <row r="212" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="118"/>
-      <c r="B212" s="118"/>
-      <c r="C212" s="118"/>
-      <c r="D212" s="118"/>
+      <c r="A212" s="119"/>
+      <c r="B212" s="119"/>
+      <c r="C212" s="119"/>
+      <c r="D212" s="119"/>
       <c r="E212" s="39"/>
       <c r="F212" s="39"/>
       <c r="G212" s="44"/>
@@ -16355,10 +16364,10 @@
       <c r="AD213" s="71"/>
     </row>
     <row r="214" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="118"/>
-      <c r="B214" s="118"/>
-      <c r="C214" s="118"/>
-      <c r="D214" s="118"/>
+      <c r="A214" s="119"/>
+      <c r="B214" s="119"/>
+      <c r="C214" s="119"/>
+      <c r="D214" s="119"/>
       <c r="E214" s="39"/>
       <c r="F214" s="39"/>
       <c r="G214" s="44"/>
@@ -16697,10 +16706,10 @@
       </c>
     </row>
     <row r="219" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="118"/>
-      <c r="B219" s="118"/>
-      <c r="C219" s="118"/>
-      <c r="D219" s="118"/>
+      <c r="A219" s="119"/>
+      <c r="B219" s="119"/>
+      <c r="C219" s="119"/>
+      <c r="D219" s="119"/>
       <c r="E219" s="39"/>
       <c r="F219" s="39"/>
       <c r="G219" s="44"/>
@@ -19975,12 +19984,12 @@
       <c r="Z289" s="46"/>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A290" s="119" t="s">
+      <c r="A290" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="B290" s="119"/>
-      <c r="C290" s="119"/>
-      <c r="D290" s="119"/>
+      <c r="B290" s="121"/>
+      <c r="C290" s="121"/>
+      <c r="D290" s="121"/>
       <c r="E290" s="64"/>
       <c r="F290" s="64"/>
       <c r="G290" s="64"/>
@@ -20709,12 +20718,12 @@
       <c r="AD305" s="71"/>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A306" s="119" t="s">
+      <c r="A306" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="B306" s="119"/>
-      <c r="C306" s="119"/>
-      <c r="D306" s="119"/>
+      <c r="B306" s="121"/>
+      <c r="C306" s="121"/>
+      <c r="D306" s="121"/>
       <c r="E306" s="40"/>
       <c r="F306" s="57"/>
       <c r="G306" s="57"/>
@@ -23961,10 +23970,10 @@
       </c>
     </row>
     <row r="365" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A365" s="118"/>
-      <c r="B365" s="118"/>
-      <c r="C365" s="118"/>
-      <c r="D365" s="118"/>
+      <c r="A365" s="119"/>
+      <c r="B365" s="119"/>
+      <c r="C365" s="119"/>
+      <c r="D365" s="119"/>
       <c r="E365" s="39"/>
       <c r="F365" s="39"/>
       <c r="G365" s="44"/>
@@ -24214,10 +24223,10 @@
       </c>
     </row>
     <row r="369" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="118"/>
-      <c r="B369" s="118"/>
-      <c r="C369" s="118"/>
-      <c r="D369" s="118"/>
+      <c r="A369" s="119"/>
+      <c r="B369" s="119"/>
+      <c r="C369" s="119"/>
+      <c r="D369" s="119"/>
       <c r="E369" s="39"/>
       <c r="F369" s="39"/>
       <c r="G369" s="44"/>
@@ -24458,10 +24467,10 @@
       </c>
     </row>
     <row r="373" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="118"/>
-      <c r="B373" s="118"/>
-      <c r="C373" s="118"/>
-      <c r="D373" s="118"/>
+      <c r="A373" s="119"/>
+      <c r="B373" s="119"/>
+      <c r="C373" s="119"/>
+      <c r="D373" s="119"/>
       <c r="E373" s="39"/>
       <c r="F373" s="39"/>
       <c r="G373" s="44"/>
@@ -24886,10 +24895,10 @@
       </c>
     </row>
     <row r="379" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="118"/>
-      <c r="B379" s="118"/>
-      <c r="C379" s="118"/>
-      <c r="D379" s="118"/>
+      <c r="A379" s="119"/>
+      <c r="B379" s="119"/>
+      <c r="C379" s="119"/>
+      <c r="D379" s="119"/>
       <c r="E379" s="39"/>
       <c r="F379" s="39"/>
       <c r="G379" s="44"/>
@@ -25310,10 +25319,10 @@
       </c>
     </row>
     <row r="386" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="118"/>
-      <c r="B386" s="118"/>
-      <c r="C386" s="118"/>
-      <c r="D386" s="118"/>
+      <c r="A386" s="119"/>
+      <c r="B386" s="119"/>
+      <c r="C386" s="119"/>
+      <c r="D386" s="119"/>
       <c r="E386" s="39"/>
       <c r="F386" s="39"/>
       <c r="G386" s="44"/>
@@ -27011,17 +27020,191 @@
     </row>
   </sheetData>
   <mergeCells count="220">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A358:D358"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A268:D268"/>
+    <mergeCell ref="A269:D269"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A317:D317"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A388:D388"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A319:D319"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="A353:D353"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A326:D326"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A309:D309"/>
+    <mergeCell ref="A310:D310"/>
+    <mergeCell ref="A366:D366"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A192:D192"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A356:D356"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A329:D329"/>
+    <mergeCell ref="A339:D339"/>
+    <mergeCell ref="A338:D338"/>
+    <mergeCell ref="A344:D344"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A292:D292"/>
+    <mergeCell ref="A291:D291"/>
+    <mergeCell ref="A295:D295"/>
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="A300:D300"/>
+    <mergeCell ref="A301:D301"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A387:D387"/>
+    <mergeCell ref="A409:D409"/>
+    <mergeCell ref="A410:D410"/>
+    <mergeCell ref="A415:D415"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="A418:D418"/>
+    <mergeCell ref="A354:D354"/>
+    <mergeCell ref="A322:D322"/>
+    <mergeCell ref="A328:D328"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A404:D404"/>
+    <mergeCell ref="A369:D369"/>
+    <mergeCell ref="A394:D394"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A417:D417"/>
+    <mergeCell ref="A389:D389"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="A321:D321"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A380:D380"/>
+    <mergeCell ref="A386:D386"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:D56"/>
@@ -27046,191 +27229,17 @@
     <mergeCell ref="A261:D261"/>
     <mergeCell ref="A393:D393"/>
     <mergeCell ref="A396:D396"/>
-    <mergeCell ref="A394:D394"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A417:D417"/>
-    <mergeCell ref="A389:D389"/>
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A320:D320"/>
-    <mergeCell ref="A321:D321"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A380:D380"/>
-    <mergeCell ref="A386:D386"/>
-    <mergeCell ref="A387:D387"/>
-    <mergeCell ref="A409:D409"/>
-    <mergeCell ref="A410:D410"/>
-    <mergeCell ref="A415:D415"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="A418:D418"/>
-    <mergeCell ref="A354:D354"/>
-    <mergeCell ref="A322:D322"/>
-    <mergeCell ref="A328:D328"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A404:D404"/>
-    <mergeCell ref="A369:D369"/>
-    <mergeCell ref="A356:D356"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A329:D329"/>
-    <mergeCell ref="A339:D339"/>
-    <mergeCell ref="A338:D338"/>
-    <mergeCell ref="A344:D344"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A292:D292"/>
-    <mergeCell ref="A291:D291"/>
-    <mergeCell ref="A295:D295"/>
-    <mergeCell ref="A296:D296"/>
-    <mergeCell ref="A300:D300"/>
-    <mergeCell ref="A301:D301"/>
-    <mergeCell ref="A345:D345"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A388:D388"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A319:D319"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A347:D347"/>
-    <mergeCell ref="A353:D353"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A326:D326"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A309:D309"/>
-    <mergeCell ref="A310:D310"/>
-    <mergeCell ref="A366:D366"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A355:D355"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A317:D317"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A358:D358"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A268:D268"/>
-    <mergeCell ref="A269:D269"/>
-    <mergeCell ref="A271:D271"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="M32:T32 M56:T77 M79:T104 M201:T232 M234:T259 M261:T286 M288:T320 M390:T1048576 M48:T48 M53:T54 M14:T14 M29:T29 M322:T355 M143:T165 M357:T388 M167:T199 M16:T23 Q15:T15 M34:T45 M106:T141">
     <cfRule type="cellIs" dxfId="175" priority="269" operator="equal">
@@ -27647,7 +27656,7 @@
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31850,8 +31859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2944F1E-C26E-4F90-A95D-D6E10706BE4A}">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31861,7 +31870,7 @@
     <col min="3" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" style="94" customWidth="1"/>
-    <col min="7" max="7" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="94" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -31984,7 +31993,9 @@
         <f>SUMIF(support!C:C,B4,support!L:L)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>462</v>
+      </c>
       <c r="H4" s="24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33253,7 +33264,9 @@
         <f>SUMIF(support!C:C,B46,support!L:L)</f>
         <v>1</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="H46" s="24" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -33283,7 +33296,9 @@
         <f>SUMIF(support!C:C,B47,support!L:L)</f>
         <v>2</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="H47" s="24" t="b">
         <f t="shared" si="1"/>
         <v>0</v>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lg\repos\leonardguy\dunedin-zen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B228C24-CD9D-4B95-908B-6696171C84AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E1BF9C-CED5-4946-B15F-2880CB4D0983}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="4" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="3" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="5" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="463">
   <si>
     <t>g</t>
   </si>
@@ -2465,22 +2465,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4969,8 +4969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D8F90-B49A-4F27-A51C-C9DAC7C45CC5}">
   <dimension ref="A1:AD428"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K190" sqref="K190"/>
+    <sheetView topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5006,12 +5006,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="102" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="40" t="s">
         <v>413</v>
       </c>
@@ -5033,12 +5033,12 @@
       <c r="Z1" s="46"/>
     </row>
     <row r="2" spans="1:30" s="102" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="117" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="100" t="s">
         <v>53</v>
       </c>
@@ -5114,13 +5114,13 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="102" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="str">
+      <c r="A3" s="118" t="str">
         <f>_xlfn.CONCAT(F3," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="100" t="s">
         <v>348</v>
       </c>
@@ -5750,12 +5750,12 @@
       <c r="Z13" s="46"/>
     </row>
     <row r="14" spans="1:30" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="117" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="40" t="s">
         <v>303</v>
       </c>
@@ -5777,12 +5777,12 @@
       <c r="Z14" s="46"/>
     </row>
     <row r="15" spans="1:30" s="64" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="117" t="s">
         <v>430</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="63" t="s">
         <v>53</v>
       </c>
@@ -5858,13 +5858,13 @@
       </c>
     </row>
     <row r="16" spans="1:30" s="64" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117" t="str">
+      <c r="A16" s="118" t="str">
         <f>_xlfn.CONCAT(F16," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="63" t="s">
         <v>348</v>
       </c>
@@ -6777,12 +6777,12 @@
       <c r="Z31" s="46"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
       <c r="E32" s="40" t="s">
         <v>184</v>
       </c>
@@ -6790,12 +6790,12 @@
       <c r="G32" s="100"/>
     </row>
     <row r="33" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="117" t="s">
         <v>384</v>
       </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="39" t="s">
         <v>53</v>
       </c>
@@ -6871,13 +6871,13 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="117" t="str">
+      <c r="A34" s="118" t="str">
         <f>_xlfn.CONCAT(F34," servings")</f>
         <v>4 servings</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="39" t="s">
         <v>348</v>
       </c>
@@ -8116,12 +8116,12 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="116" t="s">
+      <c r="A54" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="39" t="s">
         <v>125</v>
       </c>
@@ -8131,12 +8131,12 @@
       <c r="G54" s="100"/>
     </row>
     <row r="55" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A55" s="118" t="s">
+      <c r="A55" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="39" t="s">
         <v>53</v>
       </c>
@@ -8213,13 +8213,13 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="117" t="str">
+      <c r="A56" s="118" t="str">
         <f>_xlfn.CONCAT(F56," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
       <c r="E56" s="63" t="s">
         <v>348</v>
       </c>
@@ -9292,12 +9292,12 @@
       </c>
     </row>
     <row r="77" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="116" t="s">
+      <c r="A77" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="116"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="116"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="117"/>
+      <c r="D77" s="117"/>
       <c r="E77" s="57" t="s">
         <v>126</v>
       </c>
@@ -9307,12 +9307,12 @@
       <c r="G77" s="100"/>
     </row>
     <row r="78" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A78" s="116" t="s">
+      <c r="A78" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="116"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="116"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
       <c r="E78" s="39" t="s">
         <v>53</v>
       </c>
@@ -9387,13 +9387,13 @@
       </c>
     </row>
     <row r="79" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="117" t="str">
+      <c r="A79" s="118" t="str">
         <f>_xlfn.CONCAT(F79," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="117"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
       <c r="E79" s="63" t="s">
         <v>348</v>
       </c>
@@ -10703,12 +10703,12 @@
       <c r="P103" s="41"/>
     </row>
     <row r="104" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="116" t="s">
+      <c r="A104" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="116"/>
-      <c r="C104" s="116"/>
-      <c r="D104" s="116"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="117"/>
+      <c r="D104" s="117"/>
       <c r="E104" s="40" t="s">
         <v>132</v>
       </c>
@@ -10719,12 +10719,12 @@
       <c r="I104" s="44"/>
     </row>
     <row r="105" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A105" s="116" t="s">
+      <c r="A105" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="B105" s="116"/>
-      <c r="C105" s="116"/>
-      <c r="D105" s="116"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="117"/>
       <c r="E105" s="39" t="s">
         <v>53</v>
       </c>
@@ -10801,13 +10801,13 @@
       </c>
     </row>
     <row r="106" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="117" t="str">
+      <c r="A106" s="118" t="str">
         <f>_xlfn.CONCAT(F106," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B106" s="117"/>
-      <c r="C106" s="117"/>
-      <c r="D106" s="117"/>
+      <c r="B106" s="118"/>
+      <c r="C106" s="118"/>
+      <c r="D106" s="118"/>
       <c r="E106" s="63" t="s">
         <v>348</v>
       </c>
@@ -12365,12 +12365,12 @@
       </c>
     </row>
     <row r="141" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="116" t="s">
+      <c r="A141" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B141" s="116"/>
-      <c r="C141" s="116"/>
-      <c r="D141" s="116"/>
+      <c r="B141" s="117"/>
+      <c r="C141" s="117"/>
+      <c r="D141" s="117"/>
       <c r="E141" s="40" t="s">
         <v>127</v>
       </c>
@@ -12381,12 +12381,12 @@
       <c r="H141" s="44"/>
     </row>
     <row r="142" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A142" s="116" t="s">
+      <c r="A142" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B142" s="116"/>
-      <c r="C142" s="116"/>
-      <c r="D142" s="116"/>
+      <c r="B142" s="117"/>
+      <c r="C142" s="117"/>
+      <c r="D142" s="117"/>
       <c r="E142" s="39" t="s">
         <v>53</v>
       </c>
@@ -12463,13 +12463,13 @@
       </c>
     </row>
     <row r="143" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="117" t="str">
+      <c r="A143" s="118" t="str">
         <f>_xlfn.CONCAT(F143," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B143" s="117"/>
-      <c r="C143" s="117"/>
-      <c r="D143" s="117"/>
+      <c r="B143" s="118"/>
+      <c r="C143" s="118"/>
+      <c r="D143" s="118"/>
       <c r="E143" s="63" t="s">
         <v>348</v>
       </c>
@@ -13649,12 +13649,12 @@
       </c>
     </row>
     <row r="165" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="116" t="s">
+      <c r="A165" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B165" s="116"/>
-      <c r="C165" s="116"/>
-      <c r="D165" s="116"/>
+      <c r="B165" s="117"/>
+      <c r="C165" s="117"/>
+      <c r="D165" s="117"/>
       <c r="E165" s="40" t="s">
         <v>134</v>
       </c>
@@ -13664,12 +13664,12 @@
       <c r="G165" s="100"/>
     </row>
     <row r="166" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A166" s="116" t="s">
+      <c r="A166" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="B166" s="116"/>
-      <c r="C166" s="116"/>
-      <c r="D166" s="116"/>
+      <c r="B166" s="117"/>
+      <c r="C166" s="117"/>
+      <c r="D166" s="117"/>
       <c r="E166" s="39" t="s">
         <v>53</v>
       </c>
@@ -13745,13 +13745,13 @@
       </c>
     </row>
     <row r="167" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="117" t="str">
+      <c r="A167" s="118" t="str">
         <f>_xlfn.CONCAT(F167," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B167" s="117"/>
-      <c r="C167" s="117"/>
-      <c r="D167" s="117"/>
+      <c r="B167" s="118"/>
+      <c r="C167" s="118"/>
+      <c r="D167" s="118"/>
       <c r="E167" s="63" t="s">
         <v>348</v>
       </c>
@@ -15156,11 +15156,11 @@
       </c>
       <c r="V189" s="41" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K189, itemNames, 0))="chop"</f>
-        <v>0</v>
-      </c>
-      <c r="W189" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="W189" s="54">
         <f>IF(V189, Q189, "")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="X189" s="55" t="str">
         <f>IF(V189, IF(L189 = "", "", L189), "")</f>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="Y189" s="55" t="str">
         <f>IF(V189, K189, "")</f>
-        <v/>
+        <v>juiced lemons</v>
       </c>
       <c r="Z189" s="56"/>
       <c r="AA189" s="41" t="b">
@@ -15637,12 +15637,12 @@
       </c>
     </row>
     <row r="199" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="116" t="s">
+      <c r="A199" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B199" s="116"/>
-      <c r="C199" s="116"/>
-      <c r="D199" s="116"/>
+      <c r="B199" s="117"/>
+      <c r="C199" s="117"/>
+      <c r="D199" s="117"/>
       <c r="E199" s="40" t="s">
         <v>129</v>
       </c>
@@ -15653,12 +15653,12 @@
       <c r="H199" s="44"/>
     </row>
     <row r="200" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A200" s="116" t="s">
+      <c r="A200" s="117" t="s">
         <v>249</v>
       </c>
-      <c r="B200" s="116"/>
-      <c r="C200" s="116"/>
-      <c r="D200" s="116"/>
+      <c r="B200" s="117"/>
+      <c r="C200" s="117"/>
+      <c r="D200" s="117"/>
       <c r="E200" s="39" t="s">
         <v>53</v>
       </c>
@@ -15735,13 +15735,13 @@
       </c>
     </row>
     <row r="201" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="117" t="str">
+      <c r="A201" s="118" t="str">
         <f>_xlfn.CONCAT(F201," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B201" s="117"/>
-      <c r="C201" s="117"/>
-      <c r="D201" s="117"/>
+      <c r="B201" s="118"/>
+      <c r="C201" s="118"/>
+      <c r="D201" s="118"/>
       <c r="E201" s="63" t="s">
         <v>348</v>
       </c>
@@ -15929,10 +15929,10 @@
       </c>
     </row>
     <row r="205" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="119"/>
-      <c r="B205" s="119"/>
-      <c r="C205" s="119"/>
-      <c r="D205" s="119"/>
+      <c r="A205" s="116"/>
+      <c r="B205" s="116"/>
+      <c r="C205" s="116"/>
+      <c r="D205" s="116"/>
       <c r="E205" s="63" t="s">
         <v>352</v>
       </c>
@@ -16236,10 +16236,10 @@
       </c>
     </row>
     <row r="210" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="119"/>
-      <c r="B210" s="119"/>
-      <c r="C210" s="119"/>
-      <c r="D210" s="119"/>
+      <c r="A210" s="116"/>
+      <c r="B210" s="116"/>
+      <c r="C210" s="116"/>
+      <c r="D210" s="116"/>
       <c r="E210" s="39"/>
       <c r="F210" s="39"/>
       <c r="G210" s="44"/>
@@ -16300,10 +16300,10 @@
       <c r="AD211" s="71"/>
     </row>
     <row r="212" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="119"/>
-      <c r="B212" s="119"/>
-      <c r="C212" s="119"/>
-      <c r="D212" s="119"/>
+      <c r="A212" s="116"/>
+      <c r="B212" s="116"/>
+      <c r="C212" s="116"/>
+      <c r="D212" s="116"/>
       <c r="E212" s="39"/>
       <c r="F212" s="39"/>
       <c r="G212" s="44"/>
@@ -16364,10 +16364,10 @@
       <c r="AD213" s="71"/>
     </row>
     <row r="214" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="119"/>
-      <c r="B214" s="119"/>
-      <c r="C214" s="119"/>
-      <c r="D214" s="119"/>
+      <c r="A214" s="116"/>
+      <c r="B214" s="116"/>
+      <c r="C214" s="116"/>
+      <c r="D214" s="116"/>
       <c r="E214" s="39"/>
       <c r="F214" s="39"/>
       <c r="G214" s="44"/>
@@ -16706,10 +16706,10 @@
       </c>
     </row>
     <row r="219" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="119"/>
-      <c r="B219" s="119"/>
-      <c r="C219" s="119"/>
-      <c r="D219" s="119"/>
+      <c r="A219" s="116"/>
+      <c r="B219" s="116"/>
+      <c r="C219" s="116"/>
+      <c r="D219" s="116"/>
       <c r="E219" s="39"/>
       <c r="F219" s="39"/>
       <c r="G219" s="44"/>
@@ -17228,12 +17228,12 @@
       </c>
     </row>
     <row r="232" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="116" t="s">
+      <c r="A232" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B232" s="116"/>
-      <c r="C232" s="116"/>
-      <c r="D232" s="116"/>
+      <c r="B232" s="117"/>
+      <c r="C232" s="117"/>
+      <c r="D232" s="117"/>
       <c r="E232" s="40" t="s">
         <v>130</v>
       </c>
@@ -17244,12 +17244,12 @@
       <c r="H232" s="44"/>
     </row>
     <row r="233" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A233" s="116" t="s">
+      <c r="A233" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="B233" s="116"/>
-      <c r="C233" s="116"/>
-      <c r="D233" s="116"/>
+      <c r="B233" s="117"/>
+      <c r="C233" s="117"/>
+      <c r="D233" s="117"/>
       <c r="E233" s="39" t="s">
         <v>53</v>
       </c>
@@ -17326,13 +17326,13 @@
       </c>
     </row>
     <row r="234" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="117" t="str">
+      <c r="A234" s="118" t="str">
         <f>_xlfn.CONCAT(F234," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B234" s="117"/>
-      <c r="C234" s="117"/>
-      <c r="D234" s="117"/>
+      <c r="B234" s="118"/>
+      <c r="C234" s="118"/>
+      <c r="D234" s="118"/>
       <c r="E234" s="63" t="s">
         <v>348</v>
       </c>
@@ -18687,12 +18687,12 @@
       </c>
     </row>
     <row r="259" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="116" t="s">
+      <c r="A259" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="B259" s="116"/>
-      <c r="C259" s="116"/>
-      <c r="D259" s="116"/>
+      <c r="B259" s="117"/>
+      <c r="C259" s="117"/>
+      <c r="D259" s="117"/>
       <c r="E259" s="40" t="s">
         <v>131</v>
       </c>
@@ -18703,12 +18703,12 @@
       <c r="H259" s="44"/>
     </row>
     <row r="260" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A260" s="116" t="s">
+      <c r="A260" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B260" s="116"/>
-      <c r="C260" s="116"/>
-      <c r="D260" s="116"/>
+      <c r="B260" s="117"/>
+      <c r="C260" s="117"/>
+      <c r="D260" s="117"/>
       <c r="E260" s="39" t="s">
         <v>53</v>
       </c>
@@ -18785,13 +18785,13 @@
       </c>
     </row>
     <row r="261" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="117" t="str">
+      <c r="A261" s="118" t="str">
         <f>_xlfn.CONCAT(F261," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B261" s="117"/>
-      <c r="C261" s="117"/>
-      <c r="D261" s="117"/>
+      <c r="B261" s="118"/>
+      <c r="C261" s="118"/>
+      <c r="D261" s="118"/>
       <c r="E261" s="63" t="s">
         <v>348</v>
       </c>
@@ -19841,12 +19841,12 @@
       <c r="AD285" s="64"/>
     </row>
     <row r="286" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A286" s="116" t="s">
+      <c r="A286" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="B286" s="116"/>
-      <c r="C286" s="116"/>
-      <c r="D286" s="116"/>
+      <c r="B286" s="117"/>
+      <c r="C286" s="117"/>
+      <c r="D286" s="117"/>
       <c r="E286" s="39" t="s">
         <v>136</v>
       </c>
@@ -19855,12 +19855,12 @@
       <c r="H286" s="44"/>
     </row>
     <row r="287" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A287" s="116" t="s">
+      <c r="A287" s="117" t="s">
         <v>275</v>
       </c>
-      <c r="B287" s="116"/>
-      <c r="C287" s="116"/>
-      <c r="D287" s="116"/>
+      <c r="B287" s="117"/>
+      <c r="C287" s="117"/>
+      <c r="D287" s="117"/>
       <c r="E287" s="39" t="s">
         <v>53</v>
       </c>
@@ -19937,13 +19937,13 @@
       </c>
     </row>
     <row r="288" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="117" t="str">
+      <c r="A288" s="118" t="str">
         <f>_xlfn.CONCAT(F288," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B288" s="117"/>
-      <c r="C288" s="117"/>
-      <c r="D288" s="117"/>
+      <c r="B288" s="118"/>
+      <c r="C288" s="118"/>
+      <c r="D288" s="118"/>
       <c r="E288" s="63" t="s">
         <v>348</v>
       </c>
@@ -19984,12 +19984,12 @@
       <c r="Z289" s="46"/>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A290" s="121" t="s">
+      <c r="A290" s="119" t="s">
         <v>276</v>
       </c>
-      <c r="B290" s="121"/>
-      <c r="C290" s="121"/>
-      <c r="D290" s="121"/>
+      <c r="B290" s="119"/>
+      <c r="C290" s="119"/>
+      <c r="D290" s="119"/>
       <c r="E290" s="64"/>
       <c r="F290" s="64"/>
       <c r="G290" s="64"/>
@@ -20718,12 +20718,12 @@
       <c r="AD305" s="71"/>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A306" s="121" t="s">
+      <c r="A306" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="B306" s="121"/>
-      <c r="C306" s="121"/>
-      <c r="D306" s="121"/>
+      <c r="B306" s="119"/>
+      <c r="C306" s="119"/>
+      <c r="D306" s="119"/>
       <c r="E306" s="40"/>
       <c r="F306" s="57"/>
       <c r="G306" s="57"/>
@@ -21340,12 +21340,12 @@
       <c r="H319" s="44"/>
     </row>
     <row r="320" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="116" t="s">
+      <c r="A320" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B320" s="116"/>
-      <c r="C320" s="116"/>
-      <c r="D320" s="116"/>
+      <c r="B320" s="117"/>
+      <c r="C320" s="117"/>
+      <c r="D320" s="117"/>
       <c r="E320" s="40" t="s">
         <v>133</v>
       </c>
@@ -21355,12 +21355,12 @@
       <c r="G320" s="100"/>
     </row>
     <row r="321" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A321" s="116" t="s">
+      <c r="A321" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B321" s="116"/>
-      <c r="C321" s="116"/>
-      <c r="D321" s="116"/>
+      <c r="B321" s="117"/>
+      <c r="C321" s="117"/>
+      <c r="D321" s="117"/>
       <c r="E321" s="39" t="s">
         <v>53</v>
       </c>
@@ -21436,13 +21436,13 @@
       </c>
     </row>
     <row r="322" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="117" t="str">
+      <c r="A322" s="118" t="str">
         <f>_xlfn.CONCAT(F322," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B322" s="117"/>
-      <c r="C322" s="117"/>
-      <c r="D322" s="117"/>
+      <c r="B322" s="118"/>
+      <c r="C322" s="118"/>
+      <c r="D322" s="118"/>
       <c r="E322" s="63" t="s">
         <v>348</v>
       </c>
@@ -23062,11 +23062,11 @@
       </c>
       <c r="V349" s="41" t="b">
         <f>INDEX(itemPrepMethods, MATCH(K349, itemNames, 0))="chop"</f>
-        <v>0</v>
-      </c>
-      <c r="W349" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="W349" s="54">
         <f>IF(V349, Q349, "")</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="X349" s="55" t="str">
         <f>IF(V349, IF(L349 = "", "", L349), "")</f>
@@ -23074,7 +23074,7 @@
       </c>
       <c r="Y349" s="55" t="str">
         <f>IF(V349, K349, "")</f>
-        <v/>
+        <v>juiced lemons</v>
       </c>
       <c r="Z349" s="56"/>
       <c r="AA349" s="41" t="b">
@@ -23298,12 +23298,12 @@
       <c r="N354" s="41"/>
     </row>
     <row r="355" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A355" s="116" t="s">
+      <c r="A355" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B355" s="116"/>
-      <c r="C355" s="116"/>
-      <c r="D355" s="116"/>
+      <c r="B355" s="117"/>
+      <c r="C355" s="117"/>
+      <c r="D355" s="117"/>
       <c r="E355" s="40" t="s">
         <v>128</v>
       </c>
@@ -23314,12 +23314,12 @@
       <c r="H355" s="44"/>
     </row>
     <row r="356" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A356" s="116" t="s">
+      <c r="A356" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="B356" s="116"/>
-      <c r="C356" s="116"/>
-      <c r="D356" s="116"/>
+      <c r="B356" s="117"/>
+      <c r="C356" s="117"/>
+      <c r="D356" s="117"/>
       <c r="E356" s="39" t="s">
         <v>53</v>
       </c>
@@ -23396,13 +23396,13 @@
       </c>
     </row>
     <row r="357" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="117" t="str">
+      <c r="A357" s="118" t="str">
         <f>_xlfn.CONCAT(F357," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B357" s="117"/>
-      <c r="C357" s="117"/>
-      <c r="D357" s="117"/>
+      <c r="B357" s="118"/>
+      <c r="C357" s="118"/>
+      <c r="D357" s="118"/>
       <c r="E357" s="63" t="s">
         <v>348</v>
       </c>
@@ -23970,10 +23970,10 @@
       </c>
     </row>
     <row r="365" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A365" s="119"/>
-      <c r="B365" s="119"/>
-      <c r="C365" s="119"/>
-      <c r="D365" s="119"/>
+      <c r="A365" s="116"/>
+      <c r="B365" s="116"/>
+      <c r="C365" s="116"/>
+      <c r="D365" s="116"/>
       <c r="E365" s="39"/>
       <c r="F365" s="39"/>
       <c r="G365" s="44"/>
@@ -24223,10 +24223,10 @@
       </c>
     </row>
     <row r="369" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="119"/>
-      <c r="B369" s="119"/>
-      <c r="C369" s="119"/>
-      <c r="D369" s="119"/>
+      <c r="A369" s="116"/>
+      <c r="B369" s="116"/>
+      <c r="C369" s="116"/>
+      <c r="D369" s="116"/>
       <c r="E369" s="39"/>
       <c r="F369" s="39"/>
       <c r="G369" s="44"/>
@@ -24467,10 +24467,10 @@
       </c>
     </row>
     <row r="373" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="119"/>
-      <c r="B373" s="119"/>
-      <c r="C373" s="119"/>
-      <c r="D373" s="119"/>
+      <c r="A373" s="116"/>
+      <c r="B373" s="116"/>
+      <c r="C373" s="116"/>
+      <c r="D373" s="116"/>
       <c r="E373" s="39"/>
       <c r="F373" s="39"/>
       <c r="G373" s="44"/>
@@ -24895,10 +24895,10 @@
       </c>
     </row>
     <row r="379" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="119"/>
-      <c r="B379" s="119"/>
-      <c r="C379" s="119"/>
-      <c r="D379" s="119"/>
+      <c r="A379" s="116"/>
+      <c r="B379" s="116"/>
+      <c r="C379" s="116"/>
+      <c r="D379" s="116"/>
       <c r="E379" s="39"/>
       <c r="F379" s="39"/>
       <c r="G379" s="44"/>
@@ -25319,10 +25319,10 @@
       </c>
     </row>
     <row r="386" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="119"/>
-      <c r="B386" s="119"/>
-      <c r="C386" s="119"/>
-      <c r="D386" s="119"/>
+      <c r="A386" s="116"/>
+      <c r="B386" s="116"/>
+      <c r="C386" s="116"/>
+      <c r="D386" s="116"/>
       <c r="E386" s="39"/>
       <c r="F386" s="39"/>
       <c r="G386" s="44"/>
@@ -25367,12 +25367,12 @@
       <c r="U387" s="39"/>
     </row>
     <row r="388" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A388" s="116" t="s">
+      <c r="A388" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="B388" s="116"/>
-      <c r="C388" s="116"/>
-      <c r="D388" s="116"/>
+      <c r="B388" s="117"/>
+      <c r="C388" s="117"/>
+      <c r="D388" s="117"/>
       <c r="E388" s="40" t="s">
         <v>135</v>
       </c>
@@ -25382,12 +25382,12 @@
       <c r="G388" s="100"/>
     </row>
     <row r="389" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A389" s="116" t="s">
+      <c r="A389" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B389" s="116"/>
-      <c r="C389" s="116"/>
-      <c r="D389" s="116"/>
+      <c r="B389" s="117"/>
+      <c r="C389" s="117"/>
+      <c r="D389" s="117"/>
       <c r="E389" s="39" t="s">
         <v>53</v>
       </c>
@@ -25463,13 +25463,13 @@
       </c>
     </row>
     <row r="390" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="117" t="str">
+      <c r="A390" s="118" t="str">
         <f>_xlfn.CONCAT(F390," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B390" s="117"/>
-      <c r="C390" s="117"/>
-      <c r="D390" s="117"/>
+      <c r="B390" s="118"/>
+      <c r="C390" s="118"/>
+      <c r="D390" s="118"/>
       <c r="E390" s="63" t="s">
         <v>348</v>
       </c>
@@ -26893,12 +26893,12 @@
       <c r="Z416" s="41"/>
     </row>
     <row r="417" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A417" s="116" t="s">
+      <c r="A417" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="B417" s="116"/>
-      <c r="C417" s="116"/>
-      <c r="D417" s="116"/>
+      <c r="B417" s="117"/>
+      <c r="C417" s="117"/>
+      <c r="D417" s="117"/>
       <c r="M417" s="41"/>
       <c r="N417" s="41"/>
       <c r="O417" s="41"/>
@@ -26929,12 +26929,12 @@
       <c r="Z418" s="41"/>
     </row>
     <row r="423" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A423" s="116" t="s">
+      <c r="A423" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="B423" s="116"/>
-      <c r="C423" s="116"/>
-      <c r="D423" s="116"/>
+      <c r="B423" s="117"/>
+      <c r="C423" s="117"/>
+      <c r="D423" s="117"/>
       <c r="M423" s="41"/>
       <c r="N423" s="41"/>
       <c r="O423" s="41"/>
@@ -27020,29 +27020,178 @@
     </row>
   </sheetData>
   <mergeCells count="220">
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A358:D358"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A268:D268"/>
-    <mergeCell ref="A269:D269"/>
-    <mergeCell ref="A271:D271"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A397:D397"/>
+    <mergeCell ref="A359:D359"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A392:D392"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A370:D370"/>
+    <mergeCell ref="A373:D373"/>
+    <mergeCell ref="A374:D374"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A393:D393"/>
+    <mergeCell ref="A396:D396"/>
+    <mergeCell ref="A394:D394"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A417:D417"/>
+    <mergeCell ref="A389:D389"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="A321:D321"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A380:D380"/>
+    <mergeCell ref="A386:D386"/>
+    <mergeCell ref="A387:D387"/>
+    <mergeCell ref="A409:D409"/>
+    <mergeCell ref="A410:D410"/>
+    <mergeCell ref="A415:D415"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="A418:D418"/>
+    <mergeCell ref="A354:D354"/>
+    <mergeCell ref="A322:D322"/>
+    <mergeCell ref="A328:D328"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A404:D404"/>
+    <mergeCell ref="A369:D369"/>
+    <mergeCell ref="A356:D356"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A329:D329"/>
+    <mergeCell ref="A339:D339"/>
+    <mergeCell ref="A338:D338"/>
+    <mergeCell ref="A344:D344"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A292:D292"/>
+    <mergeCell ref="A291:D291"/>
+    <mergeCell ref="A295:D295"/>
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="A300:D300"/>
+    <mergeCell ref="A301:D301"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A192:D192"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A388:D388"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A319:D319"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="A353:D353"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A326:D326"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A309:D309"/>
+    <mergeCell ref="A310:D310"/>
+    <mergeCell ref="A366:D366"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A107:D107"/>
     <mergeCell ref="A391:D391"/>
     <mergeCell ref="A262:D262"/>
     <mergeCell ref="A235:D235"/>
@@ -27067,179 +27216,30 @@
     <mergeCell ref="A224:D224"/>
     <mergeCell ref="A226:D226"/>
     <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A358:D358"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A268:D268"/>
+    <mergeCell ref="A269:D269"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
     <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A388:D388"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A319:D319"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A347:D347"/>
-    <mergeCell ref="A353:D353"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A326:D326"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A309:D309"/>
-    <mergeCell ref="A310:D310"/>
-    <mergeCell ref="A366:D366"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A355:D355"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A356:D356"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A329:D329"/>
-    <mergeCell ref="A339:D339"/>
-    <mergeCell ref="A338:D338"/>
-    <mergeCell ref="A344:D344"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A292:D292"/>
-    <mergeCell ref="A291:D291"/>
-    <mergeCell ref="A295:D295"/>
-    <mergeCell ref="A296:D296"/>
-    <mergeCell ref="A300:D300"/>
-    <mergeCell ref="A301:D301"/>
-    <mergeCell ref="A345:D345"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A387:D387"/>
-    <mergeCell ref="A409:D409"/>
-    <mergeCell ref="A410:D410"/>
-    <mergeCell ref="A415:D415"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="A418:D418"/>
-    <mergeCell ref="A354:D354"/>
-    <mergeCell ref="A322:D322"/>
-    <mergeCell ref="A328:D328"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A404:D404"/>
-    <mergeCell ref="A369:D369"/>
-    <mergeCell ref="A394:D394"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A417:D417"/>
-    <mergeCell ref="A389:D389"/>
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A320:D320"/>
-    <mergeCell ref="A321:D321"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A380:D380"/>
-    <mergeCell ref="A386:D386"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A397:D397"/>
-    <mergeCell ref="A359:D359"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A392:D392"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A370:D370"/>
-    <mergeCell ref="A373:D373"/>
-    <mergeCell ref="A374:D374"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A393:D393"/>
-    <mergeCell ref="A396:D396"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="M32:T32 M56:T77 M79:T104 M201:T232 M234:T259 M261:T286 M288:T320 M390:T1048576 M48:T48 M53:T54 M14:T14 M29:T29 M322:T355 M143:T165 M357:T388 M167:T199 M16:T23 Q15:T15 M34:T45 M106:T141">
     <cfRule type="cellIs" dxfId="175" priority="269" operator="equal">
@@ -27655,8 +27655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87786A15-F039-4732-8224-D8AE4342938B}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29685,7 +29685,9 @@
       <c r="A50" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="B50" s="32"/>
+      <c r="B50" s="32" t="s">
+        <v>196</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>154</v>
       </c>
@@ -31859,7 +31861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2944F1E-C26E-4F90-A95D-D6E10706BE4A}">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lg\repos\leonardguy\dunedin-zen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E1BF9C-CED5-4946-B15F-2880CB4D0983}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E613B9C7-C973-440E-B40A-6F3F839F850A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="3" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="5" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="490">
   <si>
     <t>g</t>
   </si>
@@ -1637,6 +1637,87 @@
   </si>
   <si>
     <t>2x 50g packets left over from last year</t>
+  </si>
+  <si>
+    <t>rice porridge</t>
+  </si>
+  <si>
+    <t>fruit salad</t>
+  </si>
+  <si>
+    <t>gf bread</t>
+  </si>
+  <si>
+    <t>butter / milk / cheese</t>
+  </si>
+  <si>
+    <t>olivani / soymilk</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>Heidi = only eating porridge (normal), salad, and rice – weekend only</t>
+  </si>
+  <si>
+    <t>Diane = no sensitivities – weekend only</t>
+  </si>
+  <si>
+    <t>Neil = no sensitivities – weekend only</t>
+  </si>
+  <si>
+    <t>Leonard = no sensitivities</t>
+  </si>
+  <si>
+    <t>Caroline = no sensitivities</t>
+  </si>
+  <si>
+    <t>Kathy = no sensitivities</t>
+  </si>
+  <si>
+    <t>Damien = no sensitivities</t>
+  </si>
+  <si>
+    <t>Scott = no sensitivities (can’t eat pumpkin)</t>
+  </si>
+  <si>
+    <t>Claire = dairy free</t>
+  </si>
+  <si>
+    <t>Glenn = dairy free</t>
+  </si>
+  <si>
+    <t>Frances = dairy free</t>
+  </si>
+  <si>
+    <t>Gabrielle = gluten free</t>
+  </si>
+  <si>
+    <t>Lisa = gluten free</t>
+  </si>
+  <si>
+    <t>Malgoshia = no corn, gluten and dairy free</t>
+  </si>
+  <si>
+    <t>Jim = gluten and dairy free. Only person eating safe meal</t>
+  </si>
+  <si>
+    <t>weekend total eaters</t>
+  </si>
+  <si>
+    <t>weekday total eaters</t>
+  </si>
+  <si>
+    <t>weekend meal involved</t>
+  </si>
+  <si>
+    <t>weekday meals involved</t>
+  </si>
+  <si>
+    <t>jim having safe meal for dinner and lunch?</t>
+  </si>
+  <si>
+    <t>weekend only people leave after Sunday dinner?</t>
   </si>
 </sst>
 </file>
@@ -2227,7 +2308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2465,23 +2546,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4681,10 +4763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25A565D-02FB-480E-870E-F643EB26C74A}">
-  <dimension ref="A2:L9"/>
+  <dimension ref="A2:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4698,12 +4780,26 @@
     <col min="8" max="8" width="7.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="28"/>
-    <col min="11" max="11" width="5.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="28"/>
+    <col min="13" max="13" width="56.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="28"/>
+    <col min="24" max="24" width="5.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="75" t="s">
         <v>329</v>
       </c>
@@ -4729,7 +4825,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>336</v>
       </c>
@@ -4765,7 +4861,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>337</v>
       </c>
@@ -4801,7 +4897,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>338</v>
       </c>
@@ -4835,7 +4931,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>339</v>
       </c>
@@ -4869,7 +4965,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>340</v>
       </c>
@@ -4903,7 +4999,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
         <v>341</v>
       </c>
@@ -4937,7 +5033,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="80" t="s">
         <v>314</v>
       </c>
@@ -4958,6 +5054,830 @@
       </c>
       <c r="H9" s="82" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N12" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="S12" s="74" t="s">
+        <v>466</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="V12" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y12" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z12" s="35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M13" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="N13" s="28">
+        <v>1</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="28">
+        <v>1</v>
+      </c>
+      <c r="R13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="28">
+        <v>1</v>
+      </c>
+      <c r="V13" s="74"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="35"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M14" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="N14" s="28">
+        <v>1</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>1</v>
+      </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="28">
+        <v>1</v>
+      </c>
+      <c r="T14" s="35"/>
+      <c r="U14" s="28">
+        <v>1</v>
+      </c>
+      <c r="V14" s="74">
+        <v>1</v>
+      </c>
+      <c r="W14" s="35"/>
+      <c r="X14" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="35"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M15" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="N15" s="28">
+        <v>1</v>
+      </c>
+      <c r="O15" s="35"/>
+      <c r="P15" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>1</v>
+      </c>
+      <c r="R15" s="35"/>
+      <c r="S15" s="28">
+        <v>1</v>
+      </c>
+      <c r="T15" s="35"/>
+      <c r="U15" s="28">
+        <v>1</v>
+      </c>
+      <c r="V15" s="74">
+        <v>1</v>
+      </c>
+      <c r="W15" s="35"/>
+      <c r="X15" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="35"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M16" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="N16" s="28">
+        <v>1</v>
+      </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>1</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="28">
+        <v>1</v>
+      </c>
+      <c r="T16" s="35"/>
+      <c r="U16" s="28">
+        <v>1</v>
+      </c>
+      <c r="V16" s="74">
+        <v>1</v>
+      </c>
+      <c r="W16" s="35"/>
+      <c r="X16" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="35"/>
+    </row>
+    <row r="17" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M17" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="N17" s="28">
+        <v>1</v>
+      </c>
+      <c r="O17" s="35"/>
+      <c r="P17" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>1</v>
+      </c>
+      <c r="R17" s="35"/>
+      <c r="S17" s="28">
+        <v>1</v>
+      </c>
+      <c r="T17" s="35"/>
+      <c r="U17" s="28">
+        <v>1</v>
+      </c>
+      <c r="V17" s="74">
+        <v>1</v>
+      </c>
+      <c r="W17" s="35"/>
+      <c r="X17" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="35"/>
+    </row>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M18" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="N18" s="28">
+        <v>1</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>1</v>
+      </c>
+      <c r="R18" s="35"/>
+      <c r="S18" s="28">
+        <v>1</v>
+      </c>
+      <c r="T18" s="35"/>
+      <c r="U18" s="28">
+        <v>1</v>
+      </c>
+      <c r="V18" s="74">
+        <v>1</v>
+      </c>
+      <c r="W18" s="35"/>
+      <c r="X18" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="35"/>
+    </row>
+    <row r="19" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M19" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="N19" s="28">
+        <v>1</v>
+      </c>
+      <c r="O19" s="35"/>
+      <c r="P19" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>1</v>
+      </c>
+      <c r="R19" s="35"/>
+      <c r="S19" s="28">
+        <v>1</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="28">
+        <v>1</v>
+      </c>
+      <c r="V19" s="74">
+        <v>1</v>
+      </c>
+      <c r="W19" s="35"/>
+      <c r="X19" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="35"/>
+    </row>
+    <row r="20" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M20" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="N20" s="28">
+        <v>1</v>
+      </c>
+      <c r="O20" s="35"/>
+      <c r="P20" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>1</v>
+      </c>
+      <c r="R20" s="35"/>
+      <c r="S20" s="28">
+        <v>1</v>
+      </c>
+      <c r="T20" s="35"/>
+      <c r="U20" s="28">
+        <v>1</v>
+      </c>
+      <c r="V20" s="74">
+        <v>1</v>
+      </c>
+      <c r="W20" s="35"/>
+      <c r="X20" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="35"/>
+    </row>
+    <row r="21" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M21" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="N21" s="28">
+        <v>1</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>1</v>
+      </c>
+      <c r="R21" s="35"/>
+      <c r="T21" s="35">
+        <v>1</v>
+      </c>
+      <c r="U21" s="28">
+        <v>1</v>
+      </c>
+      <c r="V21" s="74">
+        <v>1</v>
+      </c>
+      <c r="W21" s="35"/>
+      <c r="X21" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="35"/>
+    </row>
+    <row r="22" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M22" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="N22" s="28">
+        <v>1</v>
+      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>1</v>
+      </c>
+      <c r="R22" s="35"/>
+      <c r="T22" s="35">
+        <v>1</v>
+      </c>
+      <c r="U22" s="28">
+        <v>1</v>
+      </c>
+      <c r="V22" s="74">
+        <v>1</v>
+      </c>
+      <c r="W22" s="35"/>
+      <c r="X22" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="35"/>
+    </row>
+    <row r="23" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M23" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="N23" s="28">
+        <v>1</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>1</v>
+      </c>
+      <c r="R23" s="35"/>
+      <c r="T23" s="35">
+        <v>1</v>
+      </c>
+      <c r="U23" s="28">
+        <v>1</v>
+      </c>
+      <c r="V23" s="74">
+        <v>1</v>
+      </c>
+      <c r="W23" s="35"/>
+      <c r="X23" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="35"/>
+    </row>
+    <row r="24" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M24" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="O24" s="35">
+        <v>1</v>
+      </c>
+      <c r="P24" s="28">
+        <v>1</v>
+      </c>
+      <c r="R24" s="35">
+        <v>1</v>
+      </c>
+      <c r="S24" s="28">
+        <v>1</v>
+      </c>
+      <c r="T24" s="35"/>
+      <c r="U24" s="28">
+        <v>1</v>
+      </c>
+      <c r="V24" s="74">
+        <v>1</v>
+      </c>
+      <c r="W24" s="35"/>
+      <c r="X24" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="35"/>
+    </row>
+    <row r="25" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M25" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="O25" s="35">
+        <v>1</v>
+      </c>
+      <c r="P25" s="28">
+        <v>1</v>
+      </c>
+      <c r="R25" s="35">
+        <v>1</v>
+      </c>
+      <c r="S25" s="28">
+        <v>1</v>
+      </c>
+      <c r="T25" s="35"/>
+      <c r="U25" s="28">
+        <v>1</v>
+      </c>
+      <c r="V25" s="74">
+        <v>1</v>
+      </c>
+      <c r="W25" s="35"/>
+      <c r="X25" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="35"/>
+    </row>
+    <row r="26" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M26" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="O26" s="35">
+        <v>1</v>
+      </c>
+      <c r="P26" s="28">
+        <v>1</v>
+      </c>
+      <c r="R26" s="35">
+        <v>1</v>
+      </c>
+      <c r="T26" s="35">
+        <v>1</v>
+      </c>
+      <c r="U26" s="28">
+        <v>1</v>
+      </c>
+      <c r="V26" s="74">
+        <v>1</v>
+      </c>
+      <c r="W26" s="35"/>
+      <c r="X26" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="35"/>
+    </row>
+    <row r="27" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M27" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="O27" s="35">
+        <v>1</v>
+      </c>
+      <c r="P27" s="28">
+        <v>1</v>
+      </c>
+      <c r="R27" s="35">
+        <v>1</v>
+      </c>
+      <c r="T27" s="35">
+        <v>1</v>
+      </c>
+      <c r="U27" s="28">
+        <v>1</v>
+      </c>
+      <c r="V27" s="74"/>
+      <c r="W27" s="35">
+        <v>1</v>
+      </c>
+      <c r="X27" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="O28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="35"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="35"/>
+    </row>
+    <row r="29" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M29" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="N29" s="28">
+        <f>SUM(N13:N27)</f>
+        <v>11</v>
+      </c>
+      <c r="O29" s="35">
+        <f t="shared" ref="O29:Z29" si="1">SUM(O13:O27)</f>
+        <v>4</v>
+      </c>
+      <c r="P29" s="28">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q29" s="28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R29" s="35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S29" s="28">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="T29" s="35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U29" s="28">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="V29" s="74">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="W29" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X29" s="28">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Y29" s="74">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Z29" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M30" s="74" t="s">
+        <v>485</v>
+      </c>
+      <c r="N30" s="28">
+        <f>N29-N13-N14-N15</f>
+        <v>8</v>
+      </c>
+      <c r="O30" s="35">
+        <f t="shared" ref="O30:Z30" si="2">O29-O13-O14-O15</f>
+        <v>4</v>
+      </c>
+      <c r="P30" s="28">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q30" s="28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="R30" s="35">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S30" s="28">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T30" s="35">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U30" s="28">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V30" s="74">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="W30" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X30" s="28">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Y30" s="74">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Z30" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="O31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="35"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="35"/>
+    </row>
+    <row r="32" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M32" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="N32" s="28">
+        <v>2</v>
+      </c>
+      <c r="O32" s="35">
+        <v>2</v>
+      </c>
+      <c r="P32" s="74">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="74">
+        <v>4</v>
+      </c>
+      <c r="R32" s="35">
+        <v>4</v>
+      </c>
+      <c r="S32" s="28">
+        <v>4</v>
+      </c>
+      <c r="T32" s="35">
+        <v>9</v>
+      </c>
+      <c r="U32" s="28">
+        <v>2</v>
+      </c>
+      <c r="V32" s="74">
+        <v>2</v>
+      </c>
+      <c r="W32" s="35">
+        <v>2</v>
+      </c>
+      <c r="X32" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M33" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="N33" s="28">
+        <v>5</v>
+      </c>
+      <c r="O33" s="35">
+        <v>5</v>
+      </c>
+      <c r="P33" s="28">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>9</v>
+      </c>
+      <c r="R33" s="35">
+        <v>9</v>
+      </c>
+      <c r="S33" s="28">
+        <v>4</v>
+      </c>
+      <c r="T33" s="35">
+        <v>9</v>
+      </c>
+      <c r="U33" s="28">
+        <v>4</v>
+      </c>
+      <c r="V33" s="74">
+        <v>4</v>
+      </c>
+      <c r="W33" s="35">
+        <v>4</v>
+      </c>
+      <c r="X33" s="28">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="74">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="O34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="35"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="35"/>
+    </row>
+    <row r="35" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M35" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="N35" s="28">
+        <f>N32*N29+N33*N30</f>
+        <v>62</v>
+      </c>
+      <c r="O35" s="35">
+        <f t="shared" ref="O35:Z35" si="3">O32*O29+O33*O30</f>
+        <v>28</v>
+      </c>
+      <c r="P35" s="28">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="Q35" s="28">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="R35" s="35">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="S35" s="28">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="T35" s="35">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="U35" s="28">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="V35" s="28">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="W35" s="35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="X35" s="28">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="Y35" s="28">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="Z35" s="35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M40" s="122" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="13:26" x14ac:dyDescent="0.2">
+      <c r="M41" s="122" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5006,12 +5926,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="102" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="116" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
       <c r="E1" s="40" t="s">
         <v>413</v>
       </c>
@@ -5033,12 +5953,12 @@
       <c r="Z1" s="46"/>
     </row>
     <row r="2" spans="1:30" s="102" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="100" t="s">
         <v>53</v>
       </c>
@@ -5114,13 +6034,13 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="102" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="str">
+      <c r="A3" s="117" t="str">
         <f>_xlfn.CONCAT(F3," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="100" t="s">
         <v>348</v>
       </c>
@@ -5750,12 +6670,12 @@
       <c r="Z13" s="46"/>
     </row>
     <row r="14" spans="1:30" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="116" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="40" t="s">
         <v>303</v>
       </c>
@@ -5777,12 +6697,12 @@
       <c r="Z14" s="46"/>
     </row>
     <row r="15" spans="1:30" s="64" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="116" t="s">
         <v>430</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="63" t="s">
         <v>53</v>
       </c>
@@ -5858,13 +6778,13 @@
       </c>
     </row>
     <row r="16" spans="1:30" s="64" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118" t="str">
+      <c r="A16" s="117" t="str">
         <f>_xlfn.CONCAT(F16," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="63" t="s">
         <v>348</v>
       </c>
@@ -6777,12 +7697,12 @@
       <c r="Z31" s="46"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="40" t="s">
         <v>184</v>
       </c>
@@ -6790,12 +7710,12 @@
       <c r="G32" s="100"/>
     </row>
     <row r="33" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="116" t="s">
         <v>384</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="39" t="s">
         <v>53</v>
       </c>
@@ -6871,13 +7791,13 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="118" t="str">
+      <c r="A34" s="117" t="str">
         <f>_xlfn.CONCAT(F34," servings")</f>
         <v>4 servings</v>
       </c>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="39" t="s">
         <v>348</v>
       </c>
@@ -8116,12 +9036,12 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="117" t="s">
+      <c r="A54" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="117"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="39" t="s">
         <v>125</v>
       </c>
@@ -8131,12 +9051,12 @@
       <c r="G54" s="100"/>
     </row>
     <row r="55" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="39" t="s">
         <v>53</v>
       </c>
@@ -8213,13 +9133,13 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="118" t="str">
+      <c r="A56" s="117" t="str">
         <f>_xlfn.CONCAT(F56," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="63" t="s">
         <v>348</v>
       </c>
@@ -9292,12 +10212,12 @@
       </c>
     </row>
     <row r="77" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="117" t="s">
+      <c r="A77" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
       <c r="E77" s="57" t="s">
         <v>126</v>
       </c>
@@ -9307,12 +10227,12 @@
       <c r="G77" s="100"/>
     </row>
     <row r="78" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="117"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
       <c r="E78" s="39" t="s">
         <v>53</v>
       </c>
@@ -9387,13 +10307,13 @@
       </c>
     </row>
     <row r="79" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="118" t="str">
+      <c r="A79" s="117" t="str">
         <f>_xlfn.CONCAT(F79," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
+      <c r="B79" s="117"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="117"/>
       <c r="E79" s="63" t="s">
         <v>348</v>
       </c>
@@ -10703,12 +11623,12 @@
       <c r="P103" s="41"/>
     </row>
     <row r="104" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="117" t="s">
+      <c r="A104" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="117"/>
-      <c r="C104" s="117"/>
-      <c r="D104" s="117"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
       <c r="E104" s="40" t="s">
         <v>132</v>
       </c>
@@ -10719,12 +11639,12 @@
       <c r="I104" s="44"/>
     </row>
     <row r="105" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A105" s="117" t="s">
+      <c r="A105" s="116" t="s">
         <v>263</v>
       </c>
-      <c r="B105" s="117"/>
-      <c r="C105" s="117"/>
-      <c r="D105" s="117"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="116"/>
       <c r="E105" s="39" t="s">
         <v>53</v>
       </c>
@@ -10801,13 +11721,13 @@
       </c>
     </row>
     <row r="106" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="118" t="str">
+      <c r="A106" s="117" t="str">
         <f>_xlfn.CONCAT(F106," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B106" s="118"/>
-      <c r="C106" s="118"/>
-      <c r="D106" s="118"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="117"/>
+      <c r="D106" s="117"/>
       <c r="E106" s="63" t="s">
         <v>348</v>
       </c>
@@ -12365,12 +13285,12 @@
       </c>
     </row>
     <row r="141" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="117" t="s">
+      <c r="A141" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="B141" s="117"/>
-      <c r="C141" s="117"/>
-      <c r="D141" s="117"/>
+      <c r="B141" s="116"/>
+      <c r="C141" s="116"/>
+      <c r="D141" s="116"/>
       <c r="E141" s="40" t="s">
         <v>127</v>
       </c>
@@ -12381,12 +13301,12 @@
       <c r="H141" s="44"/>
     </row>
     <row r="142" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A142" s="117" t="s">
+      <c r="A142" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B142" s="117"/>
-      <c r="C142" s="117"/>
-      <c r="D142" s="117"/>
+      <c r="B142" s="116"/>
+      <c r="C142" s="116"/>
+      <c r="D142" s="116"/>
       <c r="E142" s="39" t="s">
         <v>53</v>
       </c>
@@ -12463,13 +13383,13 @@
       </c>
     </row>
     <row r="143" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="118" t="str">
+      <c r="A143" s="117" t="str">
         <f>_xlfn.CONCAT(F143," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B143" s="118"/>
-      <c r="C143" s="118"/>
-      <c r="D143" s="118"/>
+      <c r="B143" s="117"/>
+      <c r="C143" s="117"/>
+      <c r="D143" s="117"/>
       <c r="E143" s="63" t="s">
         <v>348</v>
       </c>
@@ -13649,12 +14569,12 @@
       </c>
     </row>
     <row r="165" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="117" t="s">
+      <c r="A165" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="B165" s="117"/>
-      <c r="C165" s="117"/>
-      <c r="D165" s="117"/>
+      <c r="B165" s="116"/>
+      <c r="C165" s="116"/>
+      <c r="D165" s="116"/>
       <c r="E165" s="40" t="s">
         <v>134</v>
       </c>
@@ -13664,12 +14584,12 @@
       <c r="G165" s="100"/>
     </row>
     <row r="166" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A166" s="117" t="s">
+      <c r="A166" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="B166" s="117"/>
-      <c r="C166" s="117"/>
-      <c r="D166" s="117"/>
+      <c r="B166" s="116"/>
+      <c r="C166" s="116"/>
+      <c r="D166" s="116"/>
       <c r="E166" s="39" t="s">
         <v>53</v>
       </c>
@@ -13745,13 +14665,13 @@
       </c>
     </row>
     <row r="167" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="118" t="str">
+      <c r="A167" s="117" t="str">
         <f>_xlfn.CONCAT(F167," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B167" s="118"/>
-      <c r="C167" s="118"/>
-      <c r="D167" s="118"/>
+      <c r="B167" s="117"/>
+      <c r="C167" s="117"/>
+      <c r="D167" s="117"/>
       <c r="E167" s="63" t="s">
         <v>348</v>
       </c>
@@ -15637,12 +16557,12 @@
       </c>
     </row>
     <row r="199" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="117" t="s">
+      <c r="A199" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B199" s="117"/>
-      <c r="C199" s="117"/>
-      <c r="D199" s="117"/>
+      <c r="B199" s="116"/>
+      <c r="C199" s="116"/>
+      <c r="D199" s="116"/>
       <c r="E199" s="40" t="s">
         <v>129</v>
       </c>
@@ -15653,12 +16573,12 @@
       <c r="H199" s="44"/>
     </row>
     <row r="200" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A200" s="117" t="s">
+      <c r="A200" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="B200" s="117"/>
-      <c r="C200" s="117"/>
-      <c r="D200" s="117"/>
+      <c r="B200" s="116"/>
+      <c r="C200" s="116"/>
+      <c r="D200" s="116"/>
       <c r="E200" s="39" t="s">
         <v>53</v>
       </c>
@@ -15735,13 +16655,13 @@
       </c>
     </row>
     <row r="201" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="118" t="str">
+      <c r="A201" s="117" t="str">
         <f>_xlfn.CONCAT(F201," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B201" s="118"/>
-      <c r="C201" s="118"/>
-      <c r="D201" s="118"/>
+      <c r="B201" s="117"/>
+      <c r="C201" s="117"/>
+      <c r="D201" s="117"/>
       <c r="E201" s="63" t="s">
         <v>348</v>
       </c>
@@ -15929,10 +16849,10 @@
       </c>
     </row>
     <row r="205" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="116"/>
-      <c r="B205" s="116"/>
-      <c r="C205" s="116"/>
-      <c r="D205" s="116"/>
+      <c r="A205" s="119"/>
+      <c r="B205" s="119"/>
+      <c r="C205" s="119"/>
+      <c r="D205" s="119"/>
       <c r="E205" s="63" t="s">
         <v>352</v>
       </c>
@@ -16236,10 +17156,10 @@
       </c>
     </row>
     <row r="210" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="116"/>
-      <c r="B210" s="116"/>
-      <c r="C210" s="116"/>
-      <c r="D210" s="116"/>
+      <c r="A210" s="119"/>
+      <c r="B210" s="119"/>
+      <c r="C210" s="119"/>
+      <c r="D210" s="119"/>
       <c r="E210" s="39"/>
       <c r="F210" s="39"/>
       <c r="G210" s="44"/>
@@ -16300,10 +17220,10 @@
       <c r="AD211" s="71"/>
     </row>
     <row r="212" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="116"/>
-      <c r="B212" s="116"/>
-      <c r="C212" s="116"/>
-      <c r="D212" s="116"/>
+      <c r="A212" s="119"/>
+      <c r="B212" s="119"/>
+      <c r="C212" s="119"/>
+      <c r="D212" s="119"/>
       <c r="E212" s="39"/>
       <c r="F212" s="39"/>
       <c r="G212" s="44"/>
@@ -16364,10 +17284,10 @@
       <c r="AD213" s="71"/>
     </row>
     <row r="214" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="116"/>
-      <c r="B214" s="116"/>
-      <c r="C214" s="116"/>
-      <c r="D214" s="116"/>
+      <c r="A214" s="119"/>
+      <c r="B214" s="119"/>
+      <c r="C214" s="119"/>
+      <c r="D214" s="119"/>
       <c r="E214" s="39"/>
       <c r="F214" s="39"/>
       <c r="G214" s="44"/>
@@ -16706,10 +17626,10 @@
       </c>
     </row>
     <row r="219" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="116"/>
-      <c r="B219" s="116"/>
-      <c r="C219" s="116"/>
-      <c r="D219" s="116"/>
+      <c r="A219" s="119"/>
+      <c r="B219" s="119"/>
+      <c r="C219" s="119"/>
+      <c r="D219" s="119"/>
       <c r="E219" s="39"/>
       <c r="F219" s="39"/>
       <c r="G219" s="44"/>
@@ -17228,12 +18148,12 @@
       </c>
     </row>
     <row r="232" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="117" t="s">
+      <c r="A232" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B232" s="117"/>
-      <c r="C232" s="117"/>
-      <c r="D232" s="117"/>
+      <c r="B232" s="116"/>
+      <c r="C232" s="116"/>
+      <c r="D232" s="116"/>
       <c r="E232" s="40" t="s">
         <v>130</v>
       </c>
@@ -17244,12 +18164,12 @@
       <c r="H232" s="44"/>
     </row>
     <row r="233" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A233" s="117" t="s">
+      <c r="A233" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B233" s="117"/>
-      <c r="C233" s="117"/>
-      <c r="D233" s="117"/>
+      <c r="B233" s="116"/>
+      <c r="C233" s="116"/>
+      <c r="D233" s="116"/>
       <c r="E233" s="39" t="s">
         <v>53</v>
       </c>
@@ -17326,13 +18246,13 @@
       </c>
     </row>
     <row r="234" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="118" t="str">
+      <c r="A234" s="117" t="str">
         <f>_xlfn.CONCAT(F234," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B234" s="118"/>
-      <c r="C234" s="118"/>
-      <c r="D234" s="118"/>
+      <c r="B234" s="117"/>
+      <c r="C234" s="117"/>
+      <c r="D234" s="117"/>
       <c r="E234" s="63" t="s">
         <v>348</v>
       </c>
@@ -18687,12 +19607,12 @@
       </c>
     </row>
     <row r="259" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="117" t="s">
+      <c r="A259" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="B259" s="117"/>
-      <c r="C259" s="117"/>
-      <c r="D259" s="117"/>
+      <c r="B259" s="116"/>
+      <c r="C259" s="116"/>
+      <c r="D259" s="116"/>
       <c r="E259" s="40" t="s">
         <v>131</v>
       </c>
@@ -18703,12 +19623,12 @@
       <c r="H259" s="44"/>
     </row>
     <row r="260" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A260" s="117" t="s">
+      <c r="A260" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B260" s="117"/>
-      <c r="C260" s="117"/>
-      <c r="D260" s="117"/>
+      <c r="B260" s="116"/>
+      <c r="C260" s="116"/>
+      <c r="D260" s="116"/>
       <c r="E260" s="39" t="s">
         <v>53</v>
       </c>
@@ -18785,13 +19705,13 @@
       </c>
     </row>
     <row r="261" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="118" t="str">
+      <c r="A261" s="117" t="str">
         <f>_xlfn.CONCAT(F261," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B261" s="118"/>
-      <c r="C261" s="118"/>
-      <c r="D261" s="118"/>
+      <c r="B261" s="117"/>
+      <c r="C261" s="117"/>
+      <c r="D261" s="117"/>
       <c r="E261" s="63" t="s">
         <v>348</v>
       </c>
@@ -19841,12 +20761,12 @@
       <c r="AD285" s="64"/>
     </row>
     <row r="286" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A286" s="117" t="s">
+      <c r="A286" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B286" s="117"/>
-      <c r="C286" s="117"/>
-      <c r="D286" s="117"/>
+      <c r="B286" s="116"/>
+      <c r="C286" s="116"/>
+      <c r="D286" s="116"/>
       <c r="E286" s="39" t="s">
         <v>136</v>
       </c>
@@ -19855,12 +20775,12 @@
       <c r="H286" s="44"/>
     </row>
     <row r="287" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A287" s="117" t="s">
+      <c r="A287" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="B287" s="117"/>
-      <c r="C287" s="117"/>
-      <c r="D287" s="117"/>
+      <c r="B287" s="116"/>
+      <c r="C287" s="116"/>
+      <c r="D287" s="116"/>
       <c r="E287" s="39" t="s">
         <v>53</v>
       </c>
@@ -19937,13 +20857,13 @@
       </c>
     </row>
     <row r="288" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="118" t="str">
+      <c r="A288" s="117" t="str">
         <f>_xlfn.CONCAT(F288," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B288" s="118"/>
-      <c r="C288" s="118"/>
-      <c r="D288" s="118"/>
+      <c r="B288" s="117"/>
+      <c r="C288" s="117"/>
+      <c r="D288" s="117"/>
       <c r="E288" s="63" t="s">
         <v>348</v>
       </c>
@@ -19984,12 +20904,12 @@
       <c r="Z289" s="46"/>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A290" s="119" t="s">
+      <c r="A290" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="B290" s="119"/>
-      <c r="C290" s="119"/>
-      <c r="D290" s="119"/>
+      <c r="B290" s="121"/>
+      <c r="C290" s="121"/>
+      <c r="D290" s="121"/>
       <c r="E290" s="64"/>
       <c r="F290" s="64"/>
       <c r="G290" s="64"/>
@@ -20718,12 +21638,12 @@
       <c r="AD305" s="71"/>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A306" s="119" t="s">
+      <c r="A306" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="B306" s="119"/>
-      <c r="C306" s="119"/>
-      <c r="D306" s="119"/>
+      <c r="B306" s="121"/>
+      <c r="C306" s="121"/>
+      <c r="D306" s="121"/>
       <c r="E306" s="40"/>
       <c r="F306" s="57"/>
       <c r="G306" s="57"/>
@@ -21340,12 +22260,12 @@
       <c r="H319" s="44"/>
     </row>
     <row r="320" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="117" t="s">
+      <c r="A320" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B320" s="117"/>
-      <c r="C320" s="117"/>
-      <c r="D320" s="117"/>
+      <c r="B320" s="116"/>
+      <c r="C320" s="116"/>
+      <c r="D320" s="116"/>
       <c r="E320" s="40" t="s">
         <v>133</v>
       </c>
@@ -21355,12 +22275,12 @@
       <c r="G320" s="100"/>
     </row>
     <row r="321" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A321" s="117" t="s">
+      <c r="A321" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B321" s="117"/>
-      <c r="C321" s="117"/>
-      <c r="D321" s="117"/>
+      <c r="B321" s="116"/>
+      <c r="C321" s="116"/>
+      <c r="D321" s="116"/>
       <c r="E321" s="39" t="s">
         <v>53</v>
       </c>
@@ -21436,13 +22356,13 @@
       </c>
     </row>
     <row r="322" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="118" t="str">
+      <c r="A322" s="117" t="str">
         <f>_xlfn.CONCAT(F322," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B322" s="118"/>
-      <c r="C322" s="118"/>
-      <c r="D322" s="118"/>
+      <c r="B322" s="117"/>
+      <c r="C322" s="117"/>
+      <c r="D322" s="117"/>
       <c r="E322" s="63" t="s">
         <v>348</v>
       </c>
@@ -23298,12 +24218,12 @@
       <c r="N354" s="41"/>
     </row>
     <row r="355" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A355" s="117" t="s">
+      <c r="A355" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B355" s="117"/>
-      <c r="C355" s="117"/>
-      <c r="D355" s="117"/>
+      <c r="B355" s="116"/>
+      <c r="C355" s="116"/>
+      <c r="D355" s="116"/>
       <c r="E355" s="40" t="s">
         <v>128</v>
       </c>
@@ -23314,12 +24234,12 @@
       <c r="H355" s="44"/>
     </row>
     <row r="356" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A356" s="117" t="s">
+      <c r="A356" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B356" s="117"/>
-      <c r="C356" s="117"/>
-      <c r="D356" s="117"/>
+      <c r="B356" s="116"/>
+      <c r="C356" s="116"/>
+      <c r="D356" s="116"/>
       <c r="E356" s="39" t="s">
         <v>53</v>
       </c>
@@ -23396,13 +24316,13 @@
       </c>
     </row>
     <row r="357" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="118" t="str">
+      <c r="A357" s="117" t="str">
         <f>_xlfn.CONCAT(F357," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B357" s="118"/>
-      <c r="C357" s="118"/>
-      <c r="D357" s="118"/>
+      <c r="B357" s="117"/>
+      <c r="C357" s="117"/>
+      <c r="D357" s="117"/>
       <c r="E357" s="63" t="s">
         <v>348</v>
       </c>
@@ -23970,10 +24890,10 @@
       </c>
     </row>
     <row r="365" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A365" s="116"/>
-      <c r="B365" s="116"/>
-      <c r="C365" s="116"/>
-      <c r="D365" s="116"/>
+      <c r="A365" s="119"/>
+      <c r="B365" s="119"/>
+      <c r="C365" s="119"/>
+      <c r="D365" s="119"/>
       <c r="E365" s="39"/>
       <c r="F365" s="39"/>
       <c r="G365" s="44"/>
@@ -24223,10 +25143,10 @@
       </c>
     </row>
     <row r="369" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="116"/>
-      <c r="B369" s="116"/>
-      <c r="C369" s="116"/>
-      <c r="D369" s="116"/>
+      <c r="A369" s="119"/>
+      <c r="B369" s="119"/>
+      <c r="C369" s="119"/>
+      <c r="D369" s="119"/>
       <c r="E369" s="39"/>
       <c r="F369" s="39"/>
       <c r="G369" s="44"/>
@@ -24467,10 +25387,10 @@
       </c>
     </row>
     <row r="373" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="116"/>
-      <c r="B373" s="116"/>
-      <c r="C373" s="116"/>
-      <c r="D373" s="116"/>
+      <c r="A373" s="119"/>
+      <c r="B373" s="119"/>
+      <c r="C373" s="119"/>
+      <c r="D373" s="119"/>
       <c r="E373" s="39"/>
       <c r="F373" s="39"/>
       <c r="G373" s="44"/>
@@ -24895,10 +25815,10 @@
       </c>
     </row>
     <row r="379" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="116"/>
-      <c r="B379" s="116"/>
-      <c r="C379" s="116"/>
-      <c r="D379" s="116"/>
+      <c r="A379" s="119"/>
+      <c r="B379" s="119"/>
+      <c r="C379" s="119"/>
+      <c r="D379" s="119"/>
       <c r="E379" s="39"/>
       <c r="F379" s="39"/>
       <c r="G379" s="44"/>
@@ -25319,10 +26239,10 @@
       </c>
     </row>
     <row r="386" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="116"/>
-      <c r="B386" s="116"/>
-      <c r="C386" s="116"/>
-      <c r="D386" s="116"/>
+      <c r="A386" s="119"/>
+      <c r="B386" s="119"/>
+      <c r="C386" s="119"/>
+      <c r="D386" s="119"/>
       <c r="E386" s="39"/>
       <c r="F386" s="39"/>
       <c r="G386" s="44"/>
@@ -25367,12 +26287,12 @@
       <c r="U387" s="39"/>
     </row>
     <row r="388" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A388" s="117" t="s">
+      <c r="A388" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B388" s="117"/>
-      <c r="C388" s="117"/>
-      <c r="D388" s="117"/>
+      <c r="B388" s="116"/>
+      <c r="C388" s="116"/>
+      <c r="D388" s="116"/>
       <c r="E388" s="40" t="s">
         <v>135</v>
       </c>
@@ -25382,12 +26302,12 @@
       <c r="G388" s="100"/>
     </row>
     <row r="389" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A389" s="117" t="s">
+      <c r="A389" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="B389" s="117"/>
-      <c r="C389" s="117"/>
-      <c r="D389" s="117"/>
+      <c r="B389" s="116"/>
+      <c r="C389" s="116"/>
+      <c r="D389" s="116"/>
       <c r="E389" s="39" t="s">
         <v>53</v>
       </c>
@@ -25463,13 +26383,13 @@
       </c>
     </row>
     <row r="390" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="118" t="str">
+      <c r="A390" s="117" t="str">
         <f>_xlfn.CONCAT(F390," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B390" s="118"/>
-      <c r="C390" s="118"/>
-      <c r="D390" s="118"/>
+      <c r="B390" s="117"/>
+      <c r="C390" s="117"/>
+      <c r="D390" s="117"/>
       <c r="E390" s="63" t="s">
         <v>348</v>
       </c>
@@ -26893,12 +27813,12 @@
       <c r="Z416" s="41"/>
     </row>
     <row r="417" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A417" s="117" t="s">
+      <c r="A417" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B417" s="117"/>
-      <c r="C417" s="117"/>
-      <c r="D417" s="117"/>
+      <c r="B417" s="116"/>
+      <c r="C417" s="116"/>
+      <c r="D417" s="116"/>
       <c r="M417" s="41"/>
       <c r="N417" s="41"/>
       <c r="O417" s="41"/>
@@ -26929,12 +27849,12 @@
       <c r="Z418" s="41"/>
     </row>
     <row r="423" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A423" s="117" t="s">
+      <c r="A423" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="B423" s="117"/>
-      <c r="C423" s="117"/>
-      <c r="D423" s="117"/>
+      <c r="B423" s="116"/>
+      <c r="C423" s="116"/>
+      <c r="D423" s="116"/>
       <c r="M423" s="41"/>
       <c r="N423" s="41"/>
       <c r="O423" s="41"/>
@@ -27020,17 +27940,191 @@
     </row>
   </sheetData>
   <mergeCells count="220">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A358:D358"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A268:D268"/>
+    <mergeCell ref="A269:D269"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A317:D317"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A388:D388"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A319:D319"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="A353:D353"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A326:D326"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A309:D309"/>
+    <mergeCell ref="A310:D310"/>
+    <mergeCell ref="A366:D366"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A192:D192"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A356:D356"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A329:D329"/>
+    <mergeCell ref="A339:D339"/>
+    <mergeCell ref="A338:D338"/>
+    <mergeCell ref="A344:D344"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A292:D292"/>
+    <mergeCell ref="A291:D291"/>
+    <mergeCell ref="A295:D295"/>
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="A300:D300"/>
+    <mergeCell ref="A301:D301"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A387:D387"/>
+    <mergeCell ref="A409:D409"/>
+    <mergeCell ref="A410:D410"/>
+    <mergeCell ref="A415:D415"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="A418:D418"/>
+    <mergeCell ref="A354:D354"/>
+    <mergeCell ref="A322:D322"/>
+    <mergeCell ref="A328:D328"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A404:D404"/>
+    <mergeCell ref="A369:D369"/>
+    <mergeCell ref="A394:D394"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A417:D417"/>
+    <mergeCell ref="A389:D389"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="A321:D321"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A380:D380"/>
+    <mergeCell ref="A386:D386"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:D56"/>
@@ -27055,191 +28149,17 @@
     <mergeCell ref="A261:D261"/>
     <mergeCell ref="A393:D393"/>
     <mergeCell ref="A396:D396"/>
-    <mergeCell ref="A394:D394"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A417:D417"/>
-    <mergeCell ref="A389:D389"/>
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A320:D320"/>
-    <mergeCell ref="A321:D321"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A380:D380"/>
-    <mergeCell ref="A386:D386"/>
-    <mergeCell ref="A387:D387"/>
-    <mergeCell ref="A409:D409"/>
-    <mergeCell ref="A410:D410"/>
-    <mergeCell ref="A415:D415"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="A418:D418"/>
-    <mergeCell ref="A354:D354"/>
-    <mergeCell ref="A322:D322"/>
-    <mergeCell ref="A328:D328"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A404:D404"/>
-    <mergeCell ref="A369:D369"/>
-    <mergeCell ref="A356:D356"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A252:D252"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A329:D329"/>
-    <mergeCell ref="A339:D339"/>
-    <mergeCell ref="A338:D338"/>
-    <mergeCell ref="A344:D344"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A292:D292"/>
-    <mergeCell ref="A291:D291"/>
-    <mergeCell ref="A295:D295"/>
-    <mergeCell ref="A296:D296"/>
-    <mergeCell ref="A300:D300"/>
-    <mergeCell ref="A301:D301"/>
-    <mergeCell ref="A345:D345"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A388:D388"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A319:D319"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A347:D347"/>
-    <mergeCell ref="A353:D353"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A326:D326"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A309:D309"/>
-    <mergeCell ref="A310:D310"/>
-    <mergeCell ref="A366:D366"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A355:D355"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A317:D317"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A358:D358"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A268:D268"/>
-    <mergeCell ref="A269:D269"/>
-    <mergeCell ref="A271:D271"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="M32:T32 M56:T77 M79:T104 M201:T232 M234:T259 M261:T286 M288:T320 M390:T1048576 M48:T48 M53:T54 M14:T14 M29:T29 M322:T355 M143:T165 M357:T388 M167:T199 M16:T23 Q15:T15 M34:T45 M106:T141">
     <cfRule type="cellIs" dxfId="175" priority="269" operator="equal">
@@ -27655,7 +28575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87786A15-F039-4732-8224-D8AE4342938B}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lg\repos\leonardguy\dunedin-zen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA828A4-C0CA-479F-B598-7C382CF52A46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE74B677-8E7F-4BBB-87C3-40810AC293AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="1" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="3" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="5" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="544">
   <si>
     <t>g</t>
   </si>
@@ -2281,7 +2281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2560,6 +2560,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10308,8 +10309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D8F90-B49A-4F27-A51C-C9DAC7C45CC5}">
   <dimension ref="A1:AD436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G451" sqref="G451"/>
+    <sheetView topLeftCell="B134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18708,11 +18709,11 @@
       </c>
       <c r="B158" s="48">
         <f>Q158</f>
-        <v>23.25</v>
+        <v>27.75</v>
       </c>
       <c r="C158" s="35" t="str">
         <f t="shared" si="155"/>
-        <v>cup</v>
+        <v/>
       </c>
       <c r="D158" s="83" t="str">
         <f>_xlfn.CONCAT(K158, U158)</f>
@@ -18727,16 +18728,14 @@
       <c r="K158" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="L158" s="52" t="s">
-        <v>16</v>
-      </c>
+      <c r="L158" s="52"/>
       <c r="M158" s="43">
         <f>INDEX(itemGPerQty, MATCH(K158, itemNames, 0))</f>
-        <v>7.7499999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="N158" s="43">
         <f>INDEX(itemMlPerQty, MATCH(K158, itemNames, 0))</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O158" s="43">
         <f>IF(J158 = "", I158 * M158, IF(ISNA(CONVERT(I158, J158, "kg")), CONVERT(I158, J158, "l") * IF(N158 &lt;&gt; 0, M158 / N158, 0), CONVERT(I158, J158, "kg")))</f>
@@ -18748,11 +18747,11 @@
       </c>
       <c r="Q158" s="43">
         <f>MROUND(IF(L158 = "", IF(J158 = "", I158, IF(M158 &lt;&gt; 0, O158 / M158, P158 / N158)) * recipe03DayScale, IF(ISNA(CONVERT(O158, "kg", L158)), CONVERT(P158 * recipe03DayScale, "l", L158), CONVERT(O158 * recipe03DayScale, "kg", L158))), roundTo)</f>
-        <v>23.25</v>
+        <v>27.75</v>
       </c>
       <c r="R158" s="43">
         <f>recipe03TotScale * IF(L158 = "", Q158 * M158, IF(ISNA(CONVERT(Q158, L158, "kg")), CONVERT(Q158, L158, "l") * IF(N158 &lt;&gt; 0, M158 / N158, 0), CONVERT(Q158, L158, "kg")))</f>
-        <v>0.85260485728687485</v>
+        <v>0.86024999999999996</v>
       </c>
       <c r="S158" s="43">
         <f>recipe03TotScale * IF(R158 = 0, IF(L158 = "", Q158 * N158, IF(ISNA(CONVERT(Q158, L158, "l")), CONVERT(Q158, L158, "kg") * IF(M158 &lt;&gt; 0, N158 / M158, 0), CONVERT(Q158, L158, "l"))), 0)</f>
@@ -18768,11 +18767,11 @@
       </c>
       <c r="W158" s="53">
         <f>IF(V158, Q158, "")</f>
-        <v>23.25</v>
+        <v>27.75</v>
       </c>
       <c r="X158" s="54" t="str">
         <f>IF(V158, IF(L158 = "", "", L158), "")</f>
-        <v>cup</v>
+        <v/>
       </c>
       <c r="Y158" s="54" t="str">
         <f>IF(V158, K158, "")</f>
@@ -30088,19 +30087,19 @@
       <c r="L377" s="52"/>
       <c r="M377" s="43">
         <f>INDEX(itemGPerQty, MATCH(K377, itemNames, 0))</f>
-        <v>7.7499999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="N377" s="43">
         <f>INDEX(itemMlPerQty, MATCH(K377, itemNames, 0))</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O377" s="43">
         <f t="shared" si="309"/>
-        <v>0.85250000000000004</v>
+        <v>0.34099999999999997</v>
       </c>
       <c r="P377" s="43">
         <f t="shared" si="310"/>
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q377" s="43">
         <f>MROUND(IF(L377 = "", IF(J377 = "", I377, IF(M377 &lt;&gt; 0, O377 / M377, P377 / N377)) * recipe04DayScale, IF(ISNA(CONVERT(O377, "kg", L377)), CONVERT(P377 * recipe04DayScale, "l", L377), CONVERT(O377 * recipe04DayScale, "kg", L377))), roundTo)</f>
@@ -30108,7 +30107,7 @@
       </c>
       <c r="R377" s="43">
         <f>recipe04TotScale * IF(L377 = "", Q377 * M377, IF(ISNA(CONVERT(Q377, L377, "kg")), CONVERT(Q377, L377, "l") * IF(N377 &lt;&gt; 0, M377 / N377, 0), CONVERT(Q377, L377, "kg")))</f>
-        <v>0.56187500000000001</v>
+        <v>0.22475000000000001</v>
       </c>
       <c r="S377" s="43">
         <f>recipe04TotScale * IF(R377 = 0, IF(L377 = "", Q377 * N377, IF(ISNA(CONVERT(Q377, L377, "l")), CONVERT(Q377, L377, "kg") * IF(M377 &lt;&gt; 0, N377 / M377, 0), CONVERT(Q377, L377, "l"))), 0)</f>
@@ -31876,19 +31875,19 @@
       <c r="L408" s="52"/>
       <c r="M408" s="43">
         <f>INDEX(itemGPerQty, MATCH(K408, itemNames, 0))</f>
-        <v>8.4000000000000005E-2</v>
+        <v>3.3600000000000005E-2</v>
       </c>
       <c r="N408" s="43">
         <f>INDEX(itemMlPerQty, MATCH(K408, itemNames, 0))</f>
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="O408" s="43">
         <f t="shared" si="325"/>
-        <v>0.92400000000000004</v>
+        <v>0.36960000000000004</v>
       </c>
       <c r="P408" s="43">
         <f t="shared" si="326"/>
-        <v>7.15</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="Q408" s="43">
         <f>MROUND(IF(L408 = "", IF(J408 = "", I408, IF(M408 &lt;&gt; 0, O408 / M408, P408 / N408)) * recipe11DayScale, IF(ISNA(CONVERT(O408, "kg", L408)), CONVERT(P408 * recipe11DayScale, "l", L408), CONVERT(O408 * recipe11DayScale, "kg", L408))), roundTo)</f>
@@ -31896,7 +31895,7 @@
       </c>
       <c r="R408" s="43">
         <f>recipe11TotScale * IF(L408 = "", Q408 * M408, IF(ISNA(CONVERT(Q408, L408, "kg")), CONVERT(Q408, L408, "l") * IF(N408 &lt;&gt; 0, M408 / N408, 0), CONVERT(Q408, L408, "kg")))</f>
-        <v>0.58800000000000008</v>
+        <v>0.23520000000000002</v>
       </c>
       <c r="S408" s="43">
         <f>recipe11TotScale * IF(R408 = 0, IF(L408 = "", Q408 * N408, IF(ISNA(CONVERT(Q408, L408, "l")), CONVERT(Q408, L408, "kg") * IF(M408 &lt;&gt; 0, N408 / M408, 0), CONVERT(Q408, L408, "l"))), 0)</f>
@@ -35154,8 +35153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87786A15-F039-4732-8224-D8AE4342938B}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38161,7 +38160,7 @@
         <v>435</v>
       </c>
       <c r="D73" s="80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E73" s="4">
         <v>0.16800000000000001</v>
@@ -38171,15 +38170,15 @@
       </c>
       <c r="G73" s="3">
         <f>IF(D73&lt;&gt;0, E73/D73, 0)</f>
-        <v>8.4000000000000005E-2</v>
+        <v>3.3600000000000005E-2</v>
       </c>
       <c r="H73" s="3">
         <f>IF(D73&lt;&gt;0, F73/D73, 0)</f>
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="I73" s="3">
         <f>SUMIF(recipes!K:K,A73,recipes!R:R)</f>
-        <v>0.58800000000000008</v>
+        <v>0.23520000000000002</v>
       </c>
       <c r="J73" s="3">
         <f>SUMIF(recipes!K:K,A73,recipes!S:S)</f>
@@ -38206,7 +38205,7 @@
         <v>435</v>
       </c>
       <c r="D74" s="80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E74" s="4">
         <v>0.155</v>
@@ -38216,15 +38215,15 @@
       </c>
       <c r="G74" s="3">
         <f>IF(D74&lt;&gt;0, E74/D74, 0)</f>
-        <v>7.7499999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H74" s="3">
         <f>IF(D74&lt;&gt;0, F74/D74, 0)</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I74" s="3">
         <f>SUMIF(recipes!K:K,A74,recipes!R:R)</f>
-        <v>1.4144798572868749</v>
+        <v>1.085</v>
       </c>
       <c r="J74" s="3">
         <f>SUMIF(recipes!K:K,A74,recipes!S:S)</f>
@@ -39817,8 +39816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2944F1E-C26E-4F90-A95D-D6E10706BE4A}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43416,7 +43415,7 @@
       <c r="A111" s="96" t="s">
         <v>389</v>
       </c>
-      <c r="B111" s="90" t="s">
+      <c r="B111" s="132" t="s">
         <v>435</v>
       </c>
       <c r="C111" s="22">
@@ -43425,11 +43424,11 @@
       </c>
       <c r="D111" s="3">
         <f>SUMIF(support!C:C,B111,support!I:I)</f>
-        <v>2.0024798572868749</v>
+        <v>1.3202</v>
       </c>
       <c r="E111" s="112">
         <f>D111 / C111</f>
-        <v>4.6845892418953561</v>
+        <v>3.0884678787878785</v>
       </c>
       <c r="F111" s="107">
         <f>SUMIF(support!C:C,B111,support!J:J)</f>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lg\repos\leonardguy\dunedin-zen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25BDE98-7BAF-4DEB-8A04-CFBBE67D5D5D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA1B465-9B79-4CD8-A181-976D142E74DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="4" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="3" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="5" r:id="rId1"/>
     <sheet name="recipes" sheetId="2" r:id="rId2"/>
-    <sheet name="todos" sheetId="4" r:id="rId3"/>
-    <sheet name="support" sheetId="1" r:id="rId4"/>
-    <sheet name="shopping" sheetId="3" r:id="rId5"/>
+    <sheet name="support" sheetId="1" r:id="rId3"/>
+    <sheet name="shopping" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="itemGPerQty">support!$G$2:$G$102</definedName>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="539">
   <si>
     <t>g</t>
   </si>
@@ -944,18 +943,6 @@
     <t>xmas cake</t>
   </si>
   <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>choc</t>
-  </si>
-  <si>
-    <t>nuts</t>
-  </si>
-  <si>
-    <t>goodies see 2016</t>
-  </si>
-  <si>
     <t>chop
 comment</t>
   </si>
@@ -988,9 +975,6 @@
   </si>
   <si>
     <t>1. TOSS</t>
-  </si>
-  <si>
-    <t>salad dressing</t>
   </si>
   <si>
     <t>total servings</t>
@@ -1471,9 +1455,6 @@
     <t>10 leaves per bunch</t>
   </si>
   <si>
-    <t>10% extra</t>
-  </si>
-  <si>
     <t>celery stalks</t>
   </si>
   <si>
@@ -1603,15 +1584,6 @@
   </si>
   <si>
     <t>tea</t>
-  </si>
-  <si>
-    <t>claire making ~.5l. Are we making any during?</t>
-  </si>
-  <si>
-    <t>green tea</t>
-  </si>
-  <si>
-    <t>glenn providing?</t>
   </si>
   <si>
     <t>300 bags total of green, black, herbal</t>
@@ -2298,7 +2270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2574,6 +2546,7 @@
     <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7789,48 +7762,48 @@
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B1" s="54" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D1" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="54" t="s">
-        <v>415</v>
-      </c>
       <c r="F1" s="55" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I1" s="54" t="s">
         <v>159</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B2" s="57">
         <v>1</v>
@@ -7854,30 +7827,30 @@
       <c r="M2" s="59"/>
       <c r="N2" s="58"/>
       <c r="S2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B3" s="57">
         <v>1</v>
@@ -7909,7 +7882,7 @@
       </c>
       <c r="N3" s="58"/>
       <c r="R3" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="S3" s="3">
         <v>15</v>
@@ -7935,7 +7908,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B4" s="57">
         <v>1</v>
@@ -7967,7 +7940,7 @@
       </c>
       <c r="N4" s="58"/>
       <c r="R4" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="S4" s="3">
         <v>15</v>
@@ -7993,7 +7966,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B5" s="57">
         <v>1</v>
@@ -8025,7 +7998,7 @@
       </c>
       <c r="N5" s="58"/>
       <c r="R5" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="S5" s="3">
         <v>15</v>
@@ -8048,7 +8021,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B6" s="57">
         <v>1</v>
@@ -8082,7 +8055,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B7" s="57">
         <v>1</v>
@@ -8116,7 +8089,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B8" s="57">
         <v>1</v>
@@ -8150,7 +8123,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B9" s="57">
         <v>1</v>
@@ -8184,7 +8157,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B10" s="57">
         <v>1</v>
@@ -8218,7 +8191,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B11" s="57">
         <v>1</v>
@@ -8252,7 +8225,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B12" s="57">
         <v>1</v>
@@ -8286,7 +8259,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="58">
@@ -8320,7 +8293,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B14" s="57"/>
       <c r="C14" s="58">
@@ -8354,7 +8327,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="58">
@@ -8388,7 +8361,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="58">
@@ -8437,7 +8410,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="60" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B18" s="57">
         <f t="shared" ref="B18:N18" si="0">SUM(B2:B16)</f>
@@ -8494,7 +8467,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="60" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B19" s="57">
         <f t="shared" ref="B19:N19" si="1">B18-B2-B3-B4</f>
@@ -8566,7 +8539,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="60" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B21" s="57">
         <v>2</v>
@@ -8610,7 +8583,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="60" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B22" s="57">
         <v>5</v>
@@ -8669,7 +8642,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="60" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B24" s="61">
         <f>B21*B18+B22*B19</f>
@@ -8726,79 +8699,79 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="49" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="49" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="49" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -8915,16 +8888,16 @@
   <sheetData>
     <row r="1" spans="1:30" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B1" s="130"/>
       <c r="C1" s="130"/>
       <c r="D1" s="130"/>
       <c r="E1" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G1" s="39"/>
       <c r="I1" s="9"/>
@@ -8942,7 +8915,7 @@
     </row>
     <row r="2" spans="1:30" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="130" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B2" s="130"/>
       <c r="C2" s="130"/>
@@ -8955,16 +8928,16 @@
       </c>
       <c r="G2" s="11"/>
       <c r="I2" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>116</v>
@@ -8973,22 +8946,22 @@
         <v>117</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U2" s="34" t="s">
         <v>22</v>
@@ -8997,7 +8970,7 @@
         <v>170</v>
       </c>
       <c r="W2" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X2" s="34" t="s">
         <v>168</v>
@@ -9006,13 +8979,13 @@
         <v>169</v>
       </c>
       <c r="Z2" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA2" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB2" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC2" s="34" t="s">
         <v>172</v>
@@ -9030,7 +9003,7 @@
       <c r="C3" s="132"/>
       <c r="D3" s="132"/>
       <c r="E3" s="39" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F3" s="37">
         <f>wkndFruitSalad</f>
@@ -9048,13 +9021,13 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="W3" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X3" s="130"/>
       <c r="Y3" s="130"/>
       <c r="Z3" s="130"/>
       <c r="AB3" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC3" s="130"/>
       <c r="AD3" s="130"/>
@@ -9065,14 +9038,14 @@
       <c r="C4" s="129"/>
       <c r="D4" s="129"/>
       <c r="E4" s="39" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F4" s="14">
         <f>F3/F2</f>
         <v>1.5</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I4" s="9"/>
       <c r="L4" s="10"/>
@@ -9100,7 +9073,7 @@
     </row>
     <row r="5" spans="1:30" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="129" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B5" s="129"/>
       <c r="C5" s="129"/>
@@ -9146,7 +9119,7 @@
         <v>tinned fruit salad</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F6" s="41">
         <f>totFruitSalad</f>
@@ -9157,7 +9130,7 @@
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="19" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="11">
@@ -9243,21 +9216,21 @@
         <v>chopped apples</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F7" s="14">
         <f>F6/F3</f>
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I7" s="18">
         <v>2</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="11">
@@ -9347,7 +9320,7 @@
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="11">
@@ -9437,7 +9410,7 @@
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="11">
@@ -9527,7 +9500,7 @@
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="11">
@@ -9610,7 +9583,7 @@
         <v>grapes, if available</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -9671,7 +9644,7 @@
     </row>
     <row r="13" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="129" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B13" s="129"/>
       <c r="C13" s="129"/>
@@ -9691,16 +9664,16 @@
     </row>
     <row r="14" spans="1:30" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="130" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B14" s="130"/>
       <c r="C14" s="130"/>
       <c r="D14" s="130"/>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G14" s="39"/>
       <c r="I14" s="9"/>
@@ -9718,7 +9691,7 @@
     </row>
     <row r="15" spans="1:30" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="130" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B15" s="130"/>
       <c r="C15" s="130"/>
@@ -9731,16 +9704,16 @@
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K15" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M15" s="33" t="s">
         <v>116</v>
@@ -9749,22 +9722,22 @@
         <v>117</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T15" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U15" s="34" t="s">
         <v>22</v>
@@ -9773,7 +9746,7 @@
         <v>170</v>
       </c>
       <c r="W15" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X15" s="34" t="s">
         <v>168</v>
@@ -9782,13 +9755,13 @@
         <v>169</v>
       </c>
       <c r="Z15" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA15" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB15" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC15" s="34" t="s">
         <v>172</v>
@@ -9806,7 +9779,7 @@
       <c r="C16" s="132"/>
       <c r="D16" s="132"/>
       <c r="E16" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F16" s="37">
         <f>wkndSalad</f>
@@ -9824,13 +9797,13 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="W16" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X16" s="130"/>
       <c r="Y16" s="130"/>
       <c r="Z16" s="130"/>
       <c r="AB16" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC16" s="130"/>
       <c r="AD16" s="130"/>
@@ -9841,14 +9814,14 @@
       <c r="C17" s="129"/>
       <c r="D17" s="129"/>
       <c r="E17" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F17" s="14">
         <f>F16/F15</f>
         <v>1.5</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I17" s="11"/>
       <c r="L17" s="10"/>
@@ -9876,7 +9849,7 @@
     </row>
     <row r="18" spans="1:30" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="129" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B18" s="129"/>
       <c r="C18" s="129"/>
@@ -9923,7 +9896,7 @@
         <v>sliced cucumbers</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F19" s="30">
         <f>totSalad</f>
@@ -9935,7 +9908,7 @@
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="11">
@@ -10021,14 +9994,14 @@
         <v>grated carrots</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F20" s="14">
         <f>F19/F16</f>
         <v>5.2</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="18">
@@ -10036,7 +10009,7 @@
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L20" s="20" t="s">
         <v>16</v>
@@ -10222,7 +10195,7 @@
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>16</v>
@@ -10315,7 +10288,7 @@
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="11">
@@ -10367,7 +10340,7 @@
         <v>coarsely chopped lettuces</v>
       </c>
       <c r="Z23" s="23" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AA23" s="30" t="b">
         <f t="shared" si="59"/>
@@ -10403,7 +10376,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -10415,7 +10388,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="30" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="V24" s="30" t="b">
         <f t="shared" si="55"/>
@@ -10468,7 +10441,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -10533,7 +10506,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -10621,7 +10594,7 @@
     </row>
     <row r="28" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="129" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B28" s="129"/>
       <c r="C28" s="129"/>
@@ -10684,7 +10657,7 @@
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="11">
@@ -10773,7 +10746,7 @@
     </row>
     <row r="31" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B31" s="129"/>
       <c r="C31" s="129"/>
@@ -10793,7 +10766,7 @@
     </row>
     <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="130" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B32" s="130"/>
       <c r="C32" s="130"/>
@@ -10806,7 +10779,7 @@
     </row>
     <row r="33" spans="1:30" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="130" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B33" s="130"/>
       <c r="C33" s="130"/>
@@ -10819,16 +10792,16 @@
       </c>
       <c r="G33" s="11"/>
       <c r="I33" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K33" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M33" s="33" t="s">
         <v>116</v>
@@ -10837,22 +10810,22 @@
         <v>117</v>
       </c>
       <c r="O33" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P33" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q33" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R33" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S33" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T33" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U33" s="34" t="s">
         <v>22</v>
@@ -10861,7 +10834,7 @@
         <v>170</v>
       </c>
       <c r="W33" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X33" s="34" t="s">
         <v>168</v>
@@ -10870,13 +10843,13 @@
         <v>169</v>
       </c>
       <c r="Z33" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA33" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB33" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC33" s="34" t="s">
         <v>172</v>
@@ -10894,7 +10867,7 @@
       <c r="C34" s="132"/>
       <c r="D34" s="132"/>
       <c r="E34" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F34" s="37">
         <v>4</v>
@@ -10902,13 +10875,13 @@
       <c r="G34" s="11"/>
       <c r="I34" s="11"/>
       <c r="W34" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X34" s="130"/>
       <c r="Y34" s="130"/>
       <c r="Z34" s="130"/>
       <c r="AB34" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC34" s="130"/>
       <c r="AD34" s="130"/>
@@ -10919,14 +10892,14 @@
       <c r="C35" s="129"/>
       <c r="D35" s="129"/>
       <c r="E35" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F35" s="14">
         <f>F34/F33</f>
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I35" s="11"/>
       <c r="L35" s="10"/>
@@ -10954,7 +10927,7 @@
     </row>
     <row r="36" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="129" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B36" s="129"/>
       <c r="C36" s="129"/>
@@ -10992,7 +10965,7 @@
         <v>minced fresh ginger</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F37" s="30">
         <f>totSafeLunch + totSafeDinner</f>
@@ -11095,14 +11068,14 @@
         <v>finely chopped fresh coriander</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F38" s="14">
         <f>F37/F34</f>
         <v>6.5</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="18">
@@ -11112,7 +11085,7 @@
         <v>15</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="L38" s="20" t="s">
         <v>15</v>
@@ -11522,7 +11495,7 @@
         <v>16</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L44" s="20" t="s">
         <v>16</v>
@@ -11617,7 +11590,7 @@
         <v>16</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L45" s="20" t="s">
         <v>16</v>
@@ -11713,7 +11686,7 @@
     </row>
     <row r="47" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="129" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B47" s="129"/>
       <c r="C47" s="129"/>
@@ -11760,7 +11733,7 @@
         <v>16</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L48" s="20" t="s">
         <v>16</v>
@@ -11856,7 +11829,7 @@
     </row>
     <row r="50" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="129" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B50" s="129"/>
       <c r="C50" s="129"/>
@@ -11998,7 +11971,7 @@
         <v>16</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="L52" s="20" t="s">
         <v>16</v>
@@ -12093,7 +12066,7 @@
         <v>13</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="L53" s="20" t="s">
         <v>13</v>
@@ -12166,7 +12139,7 @@
     </row>
     <row r="54" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="130" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B54" s="130"/>
       <c r="C54" s="130"/>
@@ -12195,16 +12168,16 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J55" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K55" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M55" s="33" t="s">
         <v>116</v>
@@ -12213,22 +12186,22 @@
         <v>117</v>
       </c>
       <c r="O55" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P55" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q55" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R55" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S55" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T55" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U55" s="34" t="s">
         <v>22</v>
@@ -12237,7 +12210,7 @@
         <v>170</v>
       </c>
       <c r="W55" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X55" s="34" t="s">
         <v>168</v>
@@ -12246,13 +12219,13 @@
         <v>169</v>
       </c>
       <c r="Z55" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA55" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB55" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC55" s="34" t="s">
         <v>172</v>
@@ -12270,7 +12243,7 @@
       <c r="C56" s="132"/>
       <c r="D56" s="132"/>
       <c r="E56" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F56" s="37">
         <f>wkndRegLunch</f>
@@ -12292,13 +12265,13 @@
       <c r="T56" s="26"/>
       <c r="U56" s="6"/>
       <c r="W56" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X56" s="130"/>
       <c r="Y56" s="130"/>
       <c r="Z56" s="130"/>
       <c r="AB56" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC56" s="130"/>
       <c r="AD56" s="130"/>
@@ -12309,14 +12282,14 @@
       <c r="C57" s="129"/>
       <c r="D57" s="129"/>
       <c r="E57" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F57" s="14">
         <f>F56/F55</f>
         <v>1.0909090909090908</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="26"/>
@@ -12348,7 +12321,7 @@
     </row>
     <row r="58" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="129" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B58" s="129"/>
       <c r="C58" s="129"/>
@@ -12390,7 +12363,7 @@
         <v>chopped potatoes</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F59" s="30">
         <f>wkndRegLunch</f>
@@ -12493,14 +12466,14 @@
         <v>split peas. Soaked by Tenzo the night before. Rinse and drain first</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F60" s="14">
         <f>F59/F56</f>
         <v>1</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I60" s="18">
         <v>4</v>
@@ -13051,7 +13024,7 @@
         <v>13</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L69" s="20" t="s">
         <v>13</v>
@@ -13380,7 +13353,7 @@
     </row>
     <row r="77" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="130" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B77" s="130"/>
       <c r="C77" s="130"/>
@@ -13407,16 +13380,16 @@
         <v>11</v>
       </c>
       <c r="I78" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J78" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K78" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L78" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M78" s="33" t="s">
         <v>116</v>
@@ -13425,22 +13398,22 @@
         <v>117</v>
       </c>
       <c r="O78" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P78" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q78" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R78" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S78" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T78" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U78" s="34" t="s">
         <v>22</v>
@@ -13449,7 +13422,7 @@
         <v>170</v>
       </c>
       <c r="W78" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X78" s="34" t="s">
         <v>168</v>
@@ -13458,13 +13431,13 @@
         <v>169</v>
       </c>
       <c r="Z78" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA78" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB78" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC78" s="34" t="s">
         <v>172</v>
@@ -13482,7 +13455,7 @@
       <c r="C79" s="132"/>
       <c r="D79" s="132"/>
       <c r="E79" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F79" s="37">
         <f>wkndRegDinner</f>
@@ -13503,13 +13476,13 @@
       <c r="T79" s="26"/>
       <c r="U79" s="6"/>
       <c r="W79" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X79" s="130"/>
       <c r="Y79" s="130"/>
       <c r="Z79" s="130"/>
       <c r="AB79" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC79" s="130"/>
       <c r="AD79" s="130"/>
@@ -13520,14 +13493,14 @@
       <c r="C80" s="129"/>
       <c r="D80" s="129"/>
       <c r="E80" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F80" s="14">
         <f>F79/F78</f>
         <v>1.0909090909090908</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="39"/>
@@ -13600,7 +13573,7 @@
         <v>chickpeas. Soaked by Tenzo the night before. Rinse and drain first</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F82" s="30">
         <f>wkndRegDinner</f>
@@ -13695,14 +13668,14 @@
       <c r="C83" s="129"/>
       <c r="D83" s="129"/>
       <c r="E83" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F83" s="14">
         <f>F82/F79</f>
         <v>1</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I83" s="11"/>
       <c r="M83" s="8"/>
@@ -14174,7 +14147,7 @@
         <v>13</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L91" s="20" t="s">
         <v>13</v>
@@ -14831,7 +14804,7 @@
     </row>
     <row r="104" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="130" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B104" s="130"/>
       <c r="C104" s="130"/>
@@ -14861,16 +14834,16 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J105" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K105" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L105" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M105" s="33" t="s">
         <v>116</v>
@@ -14879,22 +14852,22 @@
         <v>117</v>
       </c>
       <c r="O105" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P105" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q105" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R105" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S105" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T105" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U105" s="34" t="s">
         <v>22</v>
@@ -14903,7 +14876,7 @@
         <v>170</v>
       </c>
       <c r="W105" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X105" s="34" t="s">
         <v>168</v>
@@ -14912,13 +14885,13 @@
         <v>169</v>
       </c>
       <c r="Z105" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA105" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB105" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC105" s="34" t="s">
         <v>172</v>
@@ -14936,7 +14909,7 @@
       <c r="C106" s="132"/>
       <c r="D106" s="132"/>
       <c r="E106" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F106" s="37">
         <f>wkndRegLunch</f>
@@ -14954,13 +14927,13 @@
       <c r="P106" s="26"/>
       <c r="U106" s="6"/>
       <c r="W106" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X106" s="130"/>
       <c r="Y106" s="130"/>
       <c r="Z106" s="130"/>
       <c r="AB106" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC106" s="130"/>
       <c r="AD106" s="130"/>
@@ -14971,14 +14944,14 @@
       <c r="C107" s="129"/>
       <c r="D107" s="129"/>
       <c r="E107" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F107" s="14">
         <f>F106/F105</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H107" s="17"/>
       <c r="I107" s="26"/>
@@ -15060,7 +15033,7 @@
         <v>red lentils. Blot with paper towels or clean tea towels to get as dry as possible</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F109" s="37">
         <f>wkndRegLunch</f>
@@ -15154,14 +15127,14 @@
       <c r="C110" s="129"/>
       <c r="D110" s="129"/>
       <c r="E110" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F110" s="14">
         <f>F109/F106</f>
         <v>1</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I110" s="11"/>
       <c r="M110" s="8"/>
@@ -15242,7 +15215,7 @@
         <v>13</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L113" s="20" t="s">
         <v>15</v>
@@ -15468,7 +15441,7 @@
       </c>
       <c r="J117" s="19"/>
       <c r="K117" s="19" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L117" s="20"/>
       <c r="M117" s="11">
@@ -16485,7 +16458,7 @@
       <c r="I140" s="26"/>
       <c r="J140" s="24"/>
       <c r="K140" s="19" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="L140" s="24"/>
       <c r="M140" s="24"/>
@@ -16531,7 +16504,7 @@
     </row>
     <row r="141" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="130" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B141" s="130"/>
       <c r="C141" s="130"/>
@@ -16561,16 +16534,16 @@
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J142" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K142" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L142" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M142" s="33" t="s">
         <v>116</v>
@@ -16579,22 +16552,22 @@
         <v>117</v>
       </c>
       <c r="O142" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P142" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q142" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R142" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S142" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T142" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U142" s="34" t="s">
         <v>22</v>
@@ -16603,7 +16576,7 @@
         <v>170</v>
       </c>
       <c r="W142" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X142" s="34" t="s">
         <v>168</v>
@@ -16612,13 +16585,13 @@
         <v>169</v>
       </c>
       <c r="Z142" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA142" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB142" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC142" s="34" t="s">
         <v>172</v>
@@ -16636,7 +16609,7 @@
       <c r="C143" s="132"/>
       <c r="D143" s="132"/>
       <c r="E143" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F143" s="37">
         <f>wkndRegDinner</f>
@@ -16646,14 +16619,14 @@
       <c r="I143" s="8"/>
       <c r="L143" s="8"/>
       <c r="W143" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X143" s="130"/>
       <c r="Y143" s="130"/>
       <c r="Z143" s="130"/>
       <c r="AA143" s="30"/>
       <c r="AB143" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC143" s="130"/>
       <c r="AD143" s="130"/>
@@ -16664,14 +16637,14 @@
       <c r="C144" s="129"/>
       <c r="D144" s="129"/>
       <c r="E144" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F144" s="14">
         <f>F143/F142</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M144" s="11"/>
       <c r="N144" s="11"/>
@@ -16739,7 +16712,7 @@
         <v>oil</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F146" s="37">
         <f>wkndRegDinner</f>
@@ -16841,14 +16814,14 @@
         <v>diced carrots</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F147" s="14">
         <f>F146/F143</f>
         <v>1</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I147" s="18">
         <v>15</v>
@@ -17073,7 +17046,7 @@
       </c>
       <c r="J151" s="19"/>
       <c r="K151" s="19" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L151" s="20"/>
       <c r="M151" s="11">
@@ -17842,7 +17815,7 @@
     </row>
     <row r="165" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="130" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B165" s="130"/>
       <c r="C165" s="130"/>
@@ -17870,16 +17843,16 @@
       </c>
       <c r="G166" s="11"/>
       <c r="I166" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J166" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K166" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L166" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M166" s="33" t="s">
         <v>116</v>
@@ -17888,22 +17861,22 @@
         <v>117</v>
       </c>
       <c r="O166" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P166" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q166" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R166" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S166" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T166" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U166" s="34" t="s">
         <v>22</v>
@@ -17912,7 +17885,7 @@
         <v>170</v>
       </c>
       <c r="W166" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X166" s="34" t="s">
         <v>168</v>
@@ -17921,13 +17894,13 @@
         <v>169</v>
       </c>
       <c r="Z166" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA166" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB166" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC166" s="34" t="s">
         <v>172</v>
@@ -17945,7 +17918,7 @@
       <c r="C167" s="132"/>
       <c r="D167" s="132"/>
       <c r="E167" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F167" s="37">
         <f>wkdyRegLunch</f>
@@ -17954,13 +17927,13 @@
       <c r="G167" s="11"/>
       <c r="I167" s="11"/>
       <c r="W167" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X167" s="130"/>
       <c r="Y167" s="130"/>
       <c r="Z167" s="130"/>
       <c r="AB167" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC167" s="130"/>
       <c r="AD167" s="130"/>
@@ -17971,14 +17944,14 @@
       <c r="C168" s="129"/>
       <c r="D168" s="129"/>
       <c r="E168" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F168" s="14">
         <f>F167/F166</f>
         <v>0.625</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I168" s="11"/>
       <c r="L168" s="10"/>
@@ -18044,7 +18017,7 @@
         <v>oil</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F170" s="37">
         <f>wkdyRegLunch</f>
@@ -18113,14 +18086,14 @@
         <v>blocks tofu, cut into cubes</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F171" s="14">
         <f>F170/F167</f>
         <v>1</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I171" s="25">
         <v>800</v>
@@ -18951,7 +18924,7 @@
       </c>
       <c r="J183" s="19"/>
       <c r="K183" s="19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L183" s="20" t="s">
         <v>16</v>
@@ -19227,7 +19200,7 @@
       </c>
       <c r="J186" s="19"/>
       <c r="K186" s="19" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L186" s="20"/>
       <c r="M186" s="11">
@@ -19355,7 +19328,7 @@
       </c>
       <c r="J189" s="19"/>
       <c r="K189" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L189" s="20"/>
       <c r="M189" s="11">
@@ -19447,7 +19420,7 @@
         <v>12</v>
       </c>
       <c r="K190" s="19" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L190" s="20" t="s">
         <v>0</v>
@@ -19539,7 +19512,7 @@
       </c>
       <c r="J191" s="19"/>
       <c r="K191" s="19" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L191" s="20"/>
       <c r="M191" s="11">
@@ -19828,7 +19801,7 @@
       <c r="I198" s="26"/>
       <c r="J198" s="24"/>
       <c r="K198" s="19" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="L198" s="24"/>
       <c r="M198" s="24"/>
@@ -19874,7 +19847,7 @@
     </row>
     <row r="199" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="130" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B199" s="130"/>
       <c r="C199" s="130"/>
@@ -19904,16 +19877,16 @@
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
       <c r="I200" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J200" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K200" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L200" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M200" s="33" t="s">
         <v>116</v>
@@ -19922,22 +19895,22 @@
         <v>117</v>
       </c>
       <c r="O200" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P200" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q200" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R200" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S200" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T200" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U200" s="34" t="s">
         <v>22</v>
@@ -19946,7 +19919,7 @@
         <v>170</v>
       </c>
       <c r="W200" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X200" s="34" t="s">
         <v>168</v>
@@ -19955,13 +19928,13 @@
         <v>169</v>
       </c>
       <c r="Z200" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA200" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB200" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC200" s="34" t="s">
         <v>172</v>
@@ -19979,7 +19952,7 @@
       <c r="C201" s="132"/>
       <c r="D201" s="132"/>
       <c r="E201" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F201" s="37">
         <f>wkdyRegDinner</f>
@@ -20002,14 +19975,14 @@
       <c r="U201" s="6"/>
       <c r="V201" s="6"/>
       <c r="W201" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X201" s="130"/>
       <c r="Y201" s="130"/>
       <c r="Z201" s="130"/>
       <c r="AA201" s="6"/>
       <c r="AB201" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC201" s="130"/>
       <c r="AD201" s="130"/>
@@ -20020,14 +19993,14 @@
       <c r="C202" s="129"/>
       <c r="D202" s="129"/>
       <c r="E202" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F202" s="14">
         <f>F201/F200</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H202" s="11"/>
       <c r="I202" s="26"/>
@@ -20102,7 +20075,7 @@
         <v>vegetable stock</v>
       </c>
       <c r="E204" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F204" s="37">
         <f>wkdyRegDinner</f>
@@ -20193,14 +20166,14 @@
       <c r="C205" s="131"/>
       <c r="D205" s="131"/>
       <c r="E205" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F205" s="14">
         <f>F204/F201</f>
         <v>1</v>
       </c>
       <c r="G205" s="15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H205" s="11"/>
       <c r="I205" s="26"/>
@@ -20711,7 +20684,7 @@
       </c>
       <c r="J216" s="19"/>
       <c r="K216" s="19" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L216" s="20"/>
       <c r="M216" s="11">
@@ -21489,7 +21462,7 @@
     </row>
     <row r="232" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="130" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B232" s="130"/>
       <c r="C232" s="130"/>
@@ -21519,16 +21492,16 @@
       <c r="G233" s="11"/>
       <c r="H233" s="11"/>
       <c r="I233" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J233" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K233" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L233" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M233" s="33" t="s">
         <v>116</v>
@@ -21537,22 +21510,22 @@
         <v>117</v>
       </c>
       <c r="O233" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P233" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q233" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R233" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S233" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T233" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U233" s="34" t="s">
         <v>22</v>
@@ -21561,7 +21534,7 @@
         <v>170</v>
       </c>
       <c r="W233" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X233" s="34" t="s">
         <v>168</v>
@@ -21570,13 +21543,13 @@
         <v>169</v>
       </c>
       <c r="Z233" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA233" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB233" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC233" s="34" t="s">
         <v>172</v>
@@ -21594,7 +21567,7 @@
       <c r="C234" s="132"/>
       <c r="D234" s="132"/>
       <c r="E234" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F234" s="37">
         <f>wkdyRegLunch</f>
@@ -21616,13 +21589,13 @@
       <c r="T234" s="26"/>
       <c r="U234" s="6"/>
       <c r="W234" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X234" s="130"/>
       <c r="Y234" s="130"/>
       <c r="Z234" s="130"/>
       <c r="AB234" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC234" s="130"/>
       <c r="AD234" s="130"/>
@@ -21633,14 +21606,14 @@
       <c r="C235" s="129"/>
       <c r="D235" s="129"/>
       <c r="E235" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F235" s="14">
         <f>F234/F233</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H235" s="11"/>
       <c r="I235" s="26"/>
@@ -21714,7 +21687,7 @@
         <v>peanut butter</v>
       </c>
       <c r="E237" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F237" s="37">
         <f>wkdyRegLunch</f>
@@ -21816,14 +21789,14 @@
         <v>hot water</v>
       </c>
       <c r="E238" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F238" s="14">
         <f>F237/F234</f>
         <v>1</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I238" s="18">
         <v>4</v>
@@ -22611,7 +22584,7 @@
       </c>
       <c r="J253" s="19"/>
       <c r="K253" s="19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L253" s="20" t="s">
         <v>40</v>
@@ -22891,7 +22864,7 @@
         <v>16</v>
       </c>
       <c r="K256" s="19" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L256" s="20" t="s">
         <v>16</v>
@@ -22990,7 +22963,7 @@
     </row>
     <row r="259" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="130" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B259" s="130"/>
       <c r="C259" s="130"/>
@@ -23020,16 +22993,16 @@
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
       <c r="I260" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J260" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K260" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L260" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M260" s="33" t="s">
         <v>116</v>
@@ -23038,22 +23011,22 @@
         <v>117</v>
       </c>
       <c r="O260" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P260" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q260" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R260" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S260" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T260" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U260" s="34" t="s">
         <v>22</v>
@@ -23062,7 +23035,7 @@
         <v>170</v>
       </c>
       <c r="W260" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X260" s="34" t="s">
         <v>168</v>
@@ -23071,13 +23044,13 @@
         <v>169</v>
       </c>
       <c r="Z260" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA260" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB260" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC260" s="34" t="s">
         <v>172</v>
@@ -23095,7 +23068,7 @@
       <c r="C261" s="132"/>
       <c r="D261" s="132"/>
       <c r="E261" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F261" s="37">
         <f>wkdyRegDinner</f>
@@ -23104,13 +23077,13 @@
       <c r="G261" s="11"/>
       <c r="H261" s="17"/>
       <c r="W261" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X261" s="130"/>
       <c r="Y261" s="130"/>
       <c r="Z261" s="130"/>
       <c r="AB261" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC261" s="130"/>
       <c r="AD261" s="130"/>
@@ -23121,14 +23094,14 @@
       <c r="C262" s="129"/>
       <c r="D262" s="129"/>
       <c r="E262" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F262" s="14">
         <f>F261/F260</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G262" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H262" s="17"/>
       <c r="I262" s="9"/>
@@ -23198,7 +23171,7 @@
         <v>minced fresh ginger</v>
       </c>
       <c r="E264" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F264" s="37">
         <f>wkdyRegDinner</f>
@@ -23300,21 +23273,21 @@
         <v>sliced carrots</v>
       </c>
       <c r="E265" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F265" s="14">
         <f>F264/F261</f>
         <v>1</v>
       </c>
       <c r="G265" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I265" s="18">
         <v>10</v>
       </c>
       <c r="J265" s="19"/>
       <c r="K265" s="19" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L265" s="20" t="s">
         <v>40</v>
@@ -23901,7 +23874,7 @@
       </c>
       <c r="J278" s="19"/>
       <c r="K278" s="19" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L278" s="20"/>
       <c r="M278" s="11">
@@ -24175,7 +24148,7 @@
     </row>
     <row r="286" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="130" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B286" s="130"/>
       <c r="C286" s="130"/>
@@ -24203,16 +24176,16 @@
       <c r="G287" s="11"/>
       <c r="H287" s="11"/>
       <c r="I287" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J287" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K287" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L287" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M287" s="33" t="s">
         <v>116</v>
@@ -24221,22 +24194,22 @@
         <v>117</v>
       </c>
       <c r="O287" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P287" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q287" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R287" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S287" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T287" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U287" s="34" t="s">
         <v>22</v>
@@ -24245,7 +24218,7 @@
         <v>170</v>
       </c>
       <c r="W287" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X287" s="34" t="s">
         <v>168</v>
@@ -24254,13 +24227,13 @@
         <v>169</v>
       </c>
       <c r="Z287" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA287" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB287" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC287" s="34" t="s">
         <v>172</v>
@@ -24278,7 +24251,7 @@
       <c r="C288" s="132"/>
       <c r="D288" s="132"/>
       <c r="E288" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F288" s="37">
         <f>wkdyRegLunch</f>
@@ -24293,14 +24266,14 @@
       <c r="C289" s="129"/>
       <c r="D289" s="129"/>
       <c r="E289" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F289" s="14">
         <f>F288/F287</f>
         <v>1</v>
       </c>
       <c r="G289" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H289" s="11"/>
       <c r="I289" s="9"/>
@@ -24328,13 +24301,13 @@
       <c r="G290" s="30"/>
       <c r="H290" s="11"/>
       <c r="W290" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X290" s="130"/>
       <c r="Y290" s="130"/>
       <c r="Z290" s="130"/>
       <c r="AB290" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC290" s="130"/>
       <c r="AD290" s="130"/>
@@ -24345,7 +24318,7 @@
       <c r="C291" s="129"/>
       <c r="D291" s="129"/>
       <c r="E291" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F291" s="37">
         <f>wkdyRegLunch</f>
@@ -24376,14 +24349,14 @@
       <c r="C292" s="129"/>
       <c r="D292" s="129"/>
       <c r="E292" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F292" s="14">
         <f>F291/F288</f>
         <v>1</v>
       </c>
       <c r="G292" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H292" s="11"/>
       <c r="W292" s="130" t="str">
@@ -24491,7 +24464,7 @@
         <v/>
       </c>
       <c r="AD293" s="128" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.25">
@@ -24957,7 +24930,7 @@
         <v>16</v>
       </c>
       <c r="K302" s="19" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L302" s="20" t="s">
         <v>16</v>
@@ -25379,7 +25352,7 @@
         <v>13</v>
       </c>
       <c r="K313" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L313" s="20" t="s">
         <v>13</v>
@@ -25702,7 +25675,7 @@
     </row>
     <row r="320" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="130" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B320" s="130"/>
       <c r="C320" s="130"/>
@@ -25730,16 +25703,16 @@
       </c>
       <c r="G321" s="11"/>
       <c r="I321" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J321" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K321" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L321" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M321" s="33" t="s">
         <v>116</v>
@@ -25748,22 +25721,22 @@
         <v>117</v>
       </c>
       <c r="O321" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P321" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q321" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R321" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S321" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T321" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U321" s="34" t="s">
         <v>22</v>
@@ -25772,7 +25745,7 @@
         <v>170</v>
       </c>
       <c r="W321" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X321" s="34" t="s">
         <v>168</v>
@@ -25781,13 +25754,13 @@
         <v>169</v>
       </c>
       <c r="Z321" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA321" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB321" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC321" s="34" t="s">
         <v>172</v>
@@ -25805,7 +25778,7 @@
       <c r="C322" s="132"/>
       <c r="D322" s="132"/>
       <c r="E322" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F322" s="37">
         <f>wkdyRegDinner</f>
@@ -25832,14 +25805,14 @@
       <c r="C323" s="129"/>
       <c r="D323" s="129"/>
       <c r="E323" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F323" s="14">
         <f>F322/F321</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G323" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I323" s="26"/>
       <c r="J323" s="39"/>
@@ -25869,13 +25842,13 @@
       <c r="G324" s="30"/>
       <c r="I324" s="11"/>
       <c r="W324" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X324" s="130"/>
       <c r="Y324" s="130"/>
       <c r="Z324" s="130"/>
       <c r="AB324" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC324" s="130"/>
       <c r="AD324" s="130"/>
@@ -25886,7 +25859,7 @@
       <c r="C325" s="129"/>
       <c r="D325" s="129"/>
       <c r="E325" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F325" s="37">
         <f>wkdyRegDinner</f>
@@ -25917,14 +25890,14 @@
       <c r="C326" s="129"/>
       <c r="D326" s="129"/>
       <c r="E326" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F326" s="14">
         <f>F325/F322</f>
         <v>1</v>
       </c>
       <c r="G326" s="15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I326" s="11"/>
       <c r="W326" s="130" t="str">
@@ -26561,7 +26534,7 @@
         <v>15</v>
       </c>
       <c r="K335" s="19" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="L335" s="20" t="s">
         <v>15</v>
@@ -26655,7 +26628,7 @@
         <v>15</v>
       </c>
       <c r="K336" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L336" s="20" t="s">
         <v>15</v>
@@ -27164,7 +27137,7 @@
       </c>
       <c r="J343" s="19"/>
       <c r="K343" s="19" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L343" s="20"/>
       <c r="M343" s="11">
@@ -27341,7 +27314,7 @@
       </c>
       <c r="J348" s="19"/>
       <c r="K348" s="19" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L348" s="20"/>
       <c r="M348" s="11">
@@ -27431,7 +27404,7 @@
       </c>
       <c r="J349" s="19"/>
       <c r="K349" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L349" s="20"/>
       <c r="M349" s="11">
@@ -27705,7 +27678,7 @@
     </row>
     <row r="355" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="130" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B355" s="130"/>
       <c r="C355" s="130"/>
@@ -27735,16 +27708,16 @@
       <c r="G356" s="11"/>
       <c r="H356" s="11"/>
       <c r="I356" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J356" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K356" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L356" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M356" s="33" t="s">
         <v>116</v>
@@ -27753,22 +27726,22 @@
         <v>117</v>
       </c>
       <c r="O356" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P356" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q356" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R356" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S356" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T356" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U356" s="34" t="s">
         <v>22</v>
@@ -27777,7 +27750,7 @@
         <v>170</v>
       </c>
       <c r="W356" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X356" s="34" t="s">
         <v>168</v>
@@ -27786,13 +27759,13 @@
         <v>169</v>
       </c>
       <c r="Z356" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA356" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB356" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC356" s="34" t="s">
         <v>172</v>
@@ -27810,7 +27783,7 @@
       <c r="C357" s="132"/>
       <c r="D357" s="132"/>
       <c r="E357" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F357" s="37">
         <f>wkdyRegLunch</f>
@@ -27832,13 +27805,13 @@
       <c r="T357" s="26"/>
       <c r="U357" s="6"/>
       <c r="W357" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X357" s="130"/>
       <c r="Y357" s="130"/>
       <c r="Z357" s="130"/>
       <c r="AB357" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC357" s="130"/>
       <c r="AD357" s="130"/>
@@ -27849,14 +27822,14 @@
       <c r="C358" s="129"/>
       <c r="D358" s="129"/>
       <c r="E358" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F358" s="14">
         <f>F357/F356</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G358" s="15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H358" s="11"/>
       <c r="I358" s="26"/>
@@ -27942,7 +27915,7 @@
         <v>oil</v>
       </c>
       <c r="E360" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F360" s="37">
         <f>wkdyRegLunch</f>
@@ -28045,14 +28018,14 @@
         <v>garlic cloves. Remove from oil once cooked</v>
       </c>
       <c r="E361" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F361" s="14">
         <f>F360/F357</f>
         <v>1</v>
       </c>
       <c r="G361" s="15" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I361" s="18">
         <v>8</v>
@@ -29433,7 +29406,7 @@
       </c>
       <c r="J381" s="19"/>
       <c r="K381" s="19" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L381" s="20"/>
       <c r="M381" s="11">
@@ -29523,7 +29496,7 @@
       </c>
       <c r="J382" s="18"/>
       <c r="K382" s="18" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L382" s="20"/>
       <c r="M382" s="11">
@@ -29822,7 +29795,7 @@
     </row>
     <row r="388" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="130" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B388" s="130"/>
       <c r="C388" s="130"/>
@@ -29850,16 +29823,16 @@
       </c>
       <c r="G389" s="11"/>
       <c r="I389" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J389" s="34" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K389" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L389" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M389" s="33" t="s">
         <v>116</v>
@@ -29868,22 +29841,22 @@
         <v>117</v>
       </c>
       <c r="O389" s="33" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P389" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q389" s="34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="R389" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S389" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T389" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="U389" s="34" t="s">
         <v>22</v>
@@ -29892,7 +29865,7 @@
         <v>170</v>
       </c>
       <c r="W389" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X389" s="34" t="s">
         <v>168</v>
@@ -29901,13 +29874,13 @@
         <v>169</v>
       </c>
       <c r="Z389" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA389" s="34" t="s">
         <v>171</v>
       </c>
       <c r="AB389" s="36" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC389" s="34" t="s">
         <v>172</v>
@@ -29925,7 +29898,7 @@
       <c r="C390" s="132"/>
       <c r="D390" s="132"/>
       <c r="E390" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F390" s="37">
         <f>wkdyRegDinner</f>
@@ -29952,14 +29925,14 @@
       <c r="C391" s="129"/>
       <c r="D391" s="129"/>
       <c r="E391" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F391" s="14">
         <f>F390/F389</f>
         <v>0.625</v>
       </c>
       <c r="G391" s="15" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I391" s="26"/>
       <c r="J391" s="39"/>
@@ -30001,13 +29974,13 @@
       <c r="T392" s="26"/>
       <c r="U392" s="6"/>
       <c r="W392" s="130" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="X392" s="130"/>
       <c r="Y392" s="130"/>
       <c r="Z392" s="130"/>
       <c r="AB392" s="130" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="AC392" s="130"/>
       <c r="AD392" s="130"/>
@@ -30018,7 +29991,7 @@
       <c r="C393" s="129"/>
       <c r="D393" s="129"/>
       <c r="E393" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F393" s="37">
         <f>wkdyRegDinner</f>
@@ -30049,14 +30022,14 @@
       <c r="C394" s="129"/>
       <c r="D394" s="129"/>
       <c r="E394" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F394" s="14">
         <f>F393/F390</f>
         <v>1</v>
       </c>
       <c r="G394" s="15" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I394" s="11"/>
       <c r="W394" s="130" t="str">
@@ -30411,7 +30384,7 @@
         <v>15</v>
       </c>
       <c r="K400" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L400" s="20" t="s">
         <v>15</v>
@@ -31144,7 +31117,7 @@
       </c>
       <c r="J411" s="19"/>
       <c r="K411" s="19" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L411" s="20"/>
       <c r="M411" s="11">
@@ -31393,7 +31366,7 @@
     </row>
     <row r="417" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="130" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B417" s="130"/>
       <c r="C417" s="130"/>
@@ -31419,7 +31392,7 @@
     </row>
     <row r="419" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="129" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B419" s="129"/>
       <c r="C419" s="129"/>
@@ -31452,7 +31425,7 @@
       </c>
       <c r="J420" s="19"/>
       <c r="K420" s="19" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L420" s="20"/>
       <c r="M420" s="11">
@@ -31488,7 +31461,7 @@
         <v>140</v>
       </c>
       <c r="U420" s="8" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="421" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -31516,7 +31489,7 @@
       </c>
       <c r="J421" s="19"/>
       <c r="K421" s="19" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L421" s="20"/>
       <c r="M421" s="11">
@@ -31552,7 +31525,7 @@
         <v>65</v>
       </c>
       <c r="U421" s="41" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="W421" s="12"/>
       <c r="Z421" s="13"/>
@@ -31584,7 +31557,7 @@
         <v>16</v>
       </c>
       <c r="K422" s="19" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L422" s="20" t="s">
         <v>16</v>
@@ -31622,7 +31595,7 @@
         <v>0</v>
       </c>
       <c r="U422" s="41" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="W422" s="12"/>
       <c r="Z422" s="13"/>
@@ -31654,7 +31627,7 @@
         <v>16</v>
       </c>
       <c r="K423" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L423" s="20" t="s">
         <v>16</v>
@@ -31692,7 +31665,7 @@
         <v>0</v>
       </c>
       <c r="U423" s="41" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="W423" s="12"/>
       <c r="Z423" s="13"/>
@@ -31762,7 +31735,7 @@
         <v>0</v>
       </c>
       <c r="U424" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="425" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -31792,7 +31765,7 @@
         <v>16</v>
       </c>
       <c r="K425" s="19" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L425" s="20" t="s">
         <v>16</v>
@@ -31830,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="U425" s="41" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="W425" s="12"/>
       <c r="Z425" s="13"/>
@@ -31900,7 +31873,7 @@
         <v>0</v>
       </c>
       <c r="U426" s="8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="427" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -31930,7 +31903,7 @@
         <v>0</v>
       </c>
       <c r="K427" s="19" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L427" s="20" t="s">
         <v>0</v>
@@ -31968,7 +31941,7 @@
         <v>0</v>
       </c>
       <c r="U427" s="41" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="W427" s="12"/>
       <c r="Z427" s="13"/>
@@ -32000,7 +31973,7 @@
         <v>0</v>
       </c>
       <c r="K428" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L428" s="20" t="s">
         <v>0</v>
@@ -32038,7 +32011,7 @@
         <v>0</v>
       </c>
       <c r="U428" s="41" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="W428" s="12"/>
       <c r="Z428" s="13"/>
@@ -32068,7 +32041,7 @@
       </c>
       <c r="J429" s="19"/>
       <c r="K429" s="19" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L429" s="20"/>
       <c r="M429" s="11">
@@ -32133,7 +32106,7 @@
         <v>16</v>
       </c>
       <c r="K430" s="19" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L430" s="20" t="s">
         <v>16</v>
@@ -32199,10 +32172,10 @@
     </row>
     <row r="433" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C433" s="42" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D433" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M433" s="8"/>
       <c r="N433" s="8"/>
@@ -32217,10 +32190,10 @@
     </row>
     <row r="434" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C434" s="42" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M434" s="8"/>
       <c r="N434" s="8"/>
@@ -32235,10 +32208,10 @@
     </row>
     <row r="435" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C435" s="42" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M435" s="8"/>
       <c r="N435" s="8"/>
@@ -32253,10 +32226,10 @@
     </row>
     <row r="436" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C436" s="42" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D436" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M436" s="8"/>
       <c r="N436" s="8"/>
@@ -34331,75 +34304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41010D3-4AF6-4C9A-8055-372F9FC0E129}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>477</v>
-      </c>
-      <c r="B8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87786A15-F039-4732-8224-D8AE4342938B}">
   <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34456,7 +34365,7 @@
         <v>84</v>
       </c>
       <c r="L1" s="71" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="N1" s="67" t="s">
         <v>167</v>
@@ -34470,11 +34379,11 @@
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B2" s="91"/>
       <c r="C2" s="82" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D2" s="83"/>
       <c r="E2" s="123"/>
@@ -34515,13 +34424,13 @@
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>164</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="124"/>
@@ -34562,13 +34471,13 @@
     </row>
     <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="124"/>
@@ -34690,7 +34599,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>164</v>
@@ -34737,11 +34646,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="95" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="66" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D8" s="65">
         <v>1</v>
@@ -34782,11 +34691,11 @@
     </row>
     <row r="9" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="66" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="124"/>
@@ -34912,7 +34821,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="95" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B12" s="75" t="s">
         <v>164</v>
@@ -34956,7 +34865,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="95" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>164</v>
@@ -35086,7 +34995,7 @@
         <v>164</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D16" s="65">
         <v>2</v>
@@ -35130,7 +35039,7 @@
         <v>164</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D17" s="65">
         <v>3</v>
@@ -35174,7 +35083,7 @@
         <v>164</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D18" s="65">
         <v>2</v>
@@ -35326,7 +35235,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="95" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B22" s="75" t="s">
         <v>164</v>
@@ -35780,13 +35689,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="95" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B33" s="75" t="s">
         <v>164</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" s="124"/>
@@ -35818,11 +35727,11 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="95" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="66" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="124"/>
@@ -35854,11 +35763,11 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="95" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="66" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D35" s="65"/>
       <c r="E35" s="124"/>
@@ -35926,11 +35835,11 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="95" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="66" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D37" s="65"/>
       <c r="E37" s="124"/>
@@ -35998,11 +35907,11 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="95" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="66" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D39" s="65"/>
       <c r="E39" s="124"/>
@@ -36192,11 +36101,11 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="95" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B44" s="75"/>
       <c r="C44" s="66" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D44" s="65"/>
       <c r="E44" s="124"/>
@@ -36272,7 +36181,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="95" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B46" s="75" t="s">
         <v>164</v>
@@ -36358,11 +36267,11 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="95" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B48" s="75"/>
       <c r="C48" s="66" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D48" s="65">
         <v>1</v>
@@ -36442,11 +36351,11 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="95" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B50" s="75"/>
       <c r="C50" s="66" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D50" s="65">
         <v>1</v>
@@ -36528,7 +36437,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="95" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B52" s="75" t="s">
         <v>164</v>
@@ -36566,7 +36475,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="95" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B53" s="75" t="s">
         <v>164</v>
@@ -36604,11 +36513,11 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="95" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B54" s="75"/>
       <c r="C54" s="66" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D54" s="65"/>
       <c r="E54" s="124"/>
@@ -36748,11 +36657,11 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="95" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B58" s="75"/>
       <c r="C58" s="66" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D58" s="65"/>
       <c r="E58" s="124"/>
@@ -36864,13 +36773,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="95" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B61" s="75" t="s">
         <v>164</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D61" s="65"/>
       <c r="E61" s="124"/>
@@ -36902,11 +36811,11 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="95" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B62" s="75"/>
       <c r="C62" s="66" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D62" s="65"/>
       <c r="E62" s="124"/>
@@ -37052,13 +36961,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="95" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B66" s="75" t="s">
         <v>164</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D66" s="65"/>
       <c r="E66" s="124"/>
@@ -37134,13 +37043,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="95" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B68" s="75" t="s">
         <v>164</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D68" s="65">
         <v>2</v>
@@ -37178,11 +37087,11 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="95" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B69" s="75"/>
       <c r="C69" s="66" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D69" s="65"/>
       <c r="E69" s="124"/>
@@ -37214,11 +37123,11 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="95" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B70" s="75"/>
       <c r="C70" s="66" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D70" s="65"/>
       <c r="E70" s="124"/>
@@ -37334,7 +37243,7 @@
         <v>164</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D73" s="65">
         <v>5</v>
@@ -37378,7 +37287,7 @@
         <v>164</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D74" s="65">
         <v>5</v>
@@ -37416,11 +37325,11 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="95" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B75" s="75"/>
       <c r="C75" s="66" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D75" s="65"/>
       <c r="E75" s="124"/>
@@ -37452,11 +37361,11 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="95" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B76" s="75"/>
       <c r="C76" s="66" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" s="65"/>
       <c r="E76" s="124"/>
@@ -37560,13 +37469,13 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="95" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B79" s="75" t="s">
         <v>164</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D79" s="65">
         <v>1</v>
@@ -37604,11 +37513,11 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="95" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B80" s="75"/>
       <c r="C80" s="66" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" s="124"/>
@@ -37748,11 +37657,11 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="95" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B84" s="75"/>
       <c r="C84" s="66" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D84" s="65"/>
       <c r="E84" s="124"/>
@@ -37784,11 +37693,11 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="95" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B85" s="75"/>
       <c r="C85" s="66" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D85" s="65"/>
       <c r="E85" s="124"/>
@@ -37820,11 +37729,11 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="95" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B86" s="75"/>
       <c r="C86" s="66" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D86" s="65"/>
       <c r="E86" s="124"/>
@@ -37856,11 +37765,11 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="95" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B87" s="75"/>
       <c r="C87" s="66" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D87" s="65"/>
       <c r="E87" s="124"/>
@@ -37892,11 +37801,11 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="95" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B88" s="75"/>
       <c r="C88" s="66" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D88" s="65"/>
       <c r="E88" s="124"/>
@@ -37928,11 +37837,11 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="95" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B89" s="75"/>
       <c r="C89" s="66" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D89" s="65"/>
       <c r="E89" s="124"/>
@@ -37964,11 +37873,11 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="95" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B90" s="75"/>
       <c r="C90" s="66" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D90" s="65"/>
       <c r="E90" s="124"/>
@@ -38000,11 +37909,11 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="95" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B91" s="75"/>
       <c r="C91" s="66" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D91" s="65"/>
       <c r="E91" s="124"/>
@@ -38036,11 +37945,11 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="95" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B92" s="75"/>
       <c r="C92" s="66" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D92" s="65"/>
       <c r="E92" s="124"/>
@@ -38160,7 +38069,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="95" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B95" s="75" t="s">
         <v>164</v>
@@ -38324,7 +38233,7 @@
         <v>164</v>
       </c>
       <c r="C99" s="66" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D99" s="65">
         <v>2</v>
@@ -38691,12 +38600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2944F1E-C26E-4F90-A95D-D6E10706BE4A}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38717,16 +38626,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B1" s="67" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E1" s="99" t="s">
         <v>85</v>
@@ -38741,18 +38650,18 @@
         <v>144</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J1" s="71" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C2" s="100">
         <v>1</v>
@@ -38783,15 +38692,15 @@
         <v>0</v>
       </c>
       <c r="L2" s="44" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C3" s="106">
         <v>1</v>
@@ -38813,7 +38722,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I3" s="65">
         <f>SUMIF(support!C:C,B3,support!L:L)</f>
@@ -38824,12 +38733,12 @@
         <v>0</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="76" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>43</v>
@@ -38854,7 +38763,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I4" s="65">
         <f>SUMIF(support!C:C,B4,support!L:L)</f>
@@ -38865,15 +38774,15 @@
         <v>0</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C5" s="106">
         <v>1</v>
@@ -38904,15 +38813,15 @@
         <v>0</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="76" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" s="106">
         <v>1</v>
@@ -38943,12 +38852,12 @@
         <v>0</v>
       </c>
       <c r="L6" s="45" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="76" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>64</v>
@@ -38982,12 +38891,12 @@
         <v>0</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>65</v>
@@ -39021,12 +38930,12 @@
         <v>0</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>33</v>
@@ -39060,12 +38969,12 @@
         <v>0</v>
       </c>
       <c r="L9" s="77" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>63</v>
@@ -39101,7 +39010,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>34</v>
@@ -39137,7 +39046,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>77</v>
@@ -39173,7 +39082,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>35</v>
@@ -39209,7 +39118,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>9</v>
@@ -39245,7 +39154,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>76</v>
@@ -39281,7 +39190,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>245</v>
@@ -39317,7 +39226,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>70</v>
@@ -39353,7 +39262,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>71</v>
@@ -39389,7 +39298,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>247</v>
@@ -39425,7 +39334,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>161</v>
@@ -39461,7 +39370,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>10</v>
@@ -39497,10 +39406,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C22" s="106">
         <v>1</v>
@@ -39533,7 +39442,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>14</v>
@@ -39569,10 +39478,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C24" s="106">
         <v>1</v>
@@ -39605,7 +39514,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>75</v>
@@ -39641,10 +39550,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C26" s="106">
         <v>1</v>
@@ -39677,7 +39586,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>149</v>
@@ -39713,7 +39622,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>160</v>
@@ -39749,10 +39658,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C29" s="106"/>
       <c r="D29" s="73"/>
@@ -39760,14 +39669,14 @@
       <c r="F29" s="108"/>
       <c r="G29" s="108"/>
       <c r="H29" s="73" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="I29" s="65"/>
       <c r="J29" s="109"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B30" s="43" t="s">
         <v>88</v>
@@ -39803,10 +39712,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C31" s="106"/>
       <c r="D31" s="73"/>
@@ -39814,17 +39723,17 @@
       <c r="F31" s="108"/>
       <c r="G31" s="108"/>
       <c r="H31" s="73" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="I31" s="65"/>
       <c r="J31" s="109"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C32" s="106"/>
       <c r="D32" s="73"/>
@@ -39832,14 +39741,14 @@
       <c r="F32" s="108"/>
       <c r="G32" s="108"/>
       <c r="H32" s="73" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="I32" s="65"/>
       <c r="J32" s="109"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B33" s="43" t="s">
         <v>51</v>
@@ -39875,10 +39784,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C34" s="106"/>
       <c r="D34" s="73"/>
@@ -39886,17 +39795,17 @@
       <c r="F34" s="108"/>
       <c r="G34" s="108"/>
       <c r="H34" s="73" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="I34" s="65"/>
       <c r="J34" s="109"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C35" s="106"/>
       <c r="D35" s="73"/>
@@ -39904,17 +39813,17 @@
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="73" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="I35" s="65"/>
       <c r="J35" s="109"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C36" s="106"/>
       <c r="D36" s="73"/>
@@ -39922,14 +39831,14 @@
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
       <c r="H36" s="73" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I36" s="65"/>
       <c r="J36" s="109"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B37" s="43" t="s">
         <v>157</v>
@@ -39967,7 +39876,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>55</v>
@@ -40003,10 +39912,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C39" s="106"/>
       <c r="D39" s="73"/>
@@ -40014,17 +39923,17 @@
       <c r="F39" s="108"/>
       <c r="G39" s="108"/>
       <c r="H39" s="73" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="I39" s="65"/>
       <c r="J39" s="109"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C40" s="106"/>
       <c r="D40" s="73"/>
@@ -40032,17 +39941,17 @@
       <c r="F40" s="108"/>
       <c r="G40" s="108"/>
       <c r="H40" s="73" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I40" s="65"/>
       <c r="J40" s="109"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C41" s="106"/>
       <c r="D41" s="73"/>
@@ -40050,17 +39959,17 @@
       <c r="F41" s="108"/>
       <c r="G41" s="108"/>
       <c r="H41" s="73" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="I41" s="65"/>
       <c r="J41" s="109"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C42" s="106"/>
       <c r="D42" s="73"/>
@@ -40068,17 +39977,17 @@
       <c r="F42" s="108"/>
       <c r="G42" s="108"/>
       <c r="H42" s="73" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="109"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C43" s="106"/>
       <c r="D43" s="73"/>
@@ -40091,10 +40000,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C44" s="106"/>
       <c r="D44" s="73"/>
@@ -40107,10 +40016,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C45" s="106">
         <v>1</v>
@@ -40143,10 +40052,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C46" s="106"/>
       <c r="D46" s="73"/>
@@ -40154,14 +40063,14 @@
       <c r="F46" s="108"/>
       <c r="G46" s="108"/>
       <c r="H46" s="73" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="I46" s="65"/>
       <c r="J46" s="109"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>42</v>
@@ -40197,10 +40106,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C48" s="106"/>
       <c r="D48" s="73"/>
@@ -40208,14 +40117,14 @@
       <c r="F48" s="108"/>
       <c r="G48" s="108"/>
       <c r="H48" s="73" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="I48" s="65"/>
       <c r="J48" s="109"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B49" s="43" t="s">
         <v>32</v>
@@ -40251,10 +40160,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C50" s="106">
         <v>1</v>
@@ -40287,7 +40196,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B51" s="43" t="s">
         <v>53</v>
@@ -40323,7 +40232,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B52" s="43" t="s">
         <v>80</v>
@@ -40359,7 +40268,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B53" s="43" t="s">
         <v>90</v>
@@ -40384,7 +40293,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="110" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="I53" s="65">
         <f>SUMIF(support!C:C,B53,support!L:L)</f>
@@ -40397,10 +40306,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C54" s="106"/>
       <c r="D54" s="73"/>
@@ -40413,10 +40322,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C55" s="106">
         <v>1</v>
@@ -40449,10 +40358,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C56" s="106">
         <v>1</v>
@@ -40485,10 +40394,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C57" s="106"/>
       <c r="D57" s="73"/>
@@ -40496,14 +40405,14 @@
       <c r="F57" s="108"/>
       <c r="G57" s="108"/>
       <c r="H57" s="73" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I57" s="65"/>
       <c r="J57" s="109"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B58" s="43" t="s">
         <v>11</v>
@@ -40539,10 +40448,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C59" s="106"/>
       <c r="D59" s="73"/>
@@ -40550,14 +40459,14 @@
       <c r="F59" s="108"/>
       <c r="G59" s="108"/>
       <c r="H59" s="73" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="I59" s="65"/>
       <c r="J59" s="109"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B60" s="43" t="s">
         <v>139</v>
@@ -40593,10 +40502,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C61" s="106">
         <v>1</v>
@@ -40618,7 +40527,7 @@
         <v>65</v>
       </c>
       <c r="H61" s="73" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I61" s="65">
         <f>SUMIF(support!C:C,B61,support!L:L)</f>
@@ -40631,10 +40540,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C62" s="106">
         <v>1</v>
@@ -40656,7 +40565,7 @@
         <v>140</v>
       </c>
       <c r="H62" s="73" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I62" s="65">
         <f>SUMIF(support!C:C,B62,support!L:L)</f>
@@ -40669,7 +40578,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>89</v>
@@ -40707,7 +40616,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B64" s="43" t="s">
         <v>253</v>
@@ -40743,10 +40652,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B65" s="63" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C65" s="106"/>
       <c r="D65" s="73"/>
@@ -40754,17 +40663,17 @@
       <c r="F65" s="108"/>
       <c r="G65" s="108"/>
       <c r="H65" s="73" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="109"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B66" s="63" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C66" s="106"/>
       <c r="D66" s="73"/>
@@ -40772,17 +40681,17 @@
       <c r="F66" s="108"/>
       <c r="G66" s="108"/>
       <c r="H66" s="73" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="109"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C67" s="106"/>
       <c r="D67" s="73"/>
@@ -40790,17 +40699,17 @@
       <c r="F67" s="108"/>
       <c r="G67" s="108"/>
       <c r="H67" s="73" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="I67" s="65"/>
       <c r="J67" s="109"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C68" s="106"/>
       <c r="D68" s="73"/>
@@ -40808,17 +40717,17 @@
       <c r="F68" s="108"/>
       <c r="G68" s="108"/>
       <c r="H68" s="73" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="I68" s="65"/>
       <c r="J68" s="109"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C69" s="106">
         <v>1</v>
@@ -40851,7 +40760,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B70" s="43" t="s">
         <v>252</v>
@@ -40887,7 +40796,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B71" s="43" t="s">
         <v>137</v>
@@ -40923,10 +40832,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C72" s="106"/>
       <c r="D72" s="73"/>
@@ -40934,14 +40843,14 @@
       <c r="F72" s="108"/>
       <c r="G72" s="108"/>
       <c r="H72" s="73" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I72" s="65"/>
       <c r="J72" s="109"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B73" s="43" t="s">
         <v>140</v>
@@ -40977,10 +40886,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C74" s="106">
         <v>1</v>
@@ -41015,10 +40924,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C75" s="106">
         <v>1</v>
@@ -41051,10 +40960,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C76" s="106">
         <v>1</v>
@@ -41076,7 +40985,7 @@
         <v>4</v>
       </c>
       <c r="H76" s="73" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I76" s="65">
         <f>SUMIF(support!C:C,B76,support!L:L)</f>
@@ -41089,10 +40998,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C77" s="106">
         <v>1</v>
@@ -41114,7 +41023,7 @@
         <v>4.5</v>
       </c>
       <c r="H77" s="73" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I77" s="65">
         <f>SUMIF(support!C:C,B77,support!L:L)</f>
@@ -41127,10 +41036,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C78" s="106">
         <v>1</v>
@@ -41152,7 +41061,7 @@
         <v>4.75</v>
       </c>
       <c r="H78" s="73" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I78" s="65">
         <f>SUMIF(support!C:C,B78,support!L:L)</f>
@@ -41165,10 +41074,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C79" s="106">
         <v>1</v>
@@ -41190,7 +41099,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="73" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I79" s="65">
         <f>SUMIF(support!C:C,B79,support!L:L)</f>
@@ -41203,10 +41112,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C80" s="106">
         <v>1</v>
@@ -41239,10 +41148,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C81" s="106">
         <v>1</v>
@@ -41264,7 +41173,7 @@
         <v>22.5</v>
       </c>
       <c r="H81" s="73" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="I81" s="65">
         <f>SUMIF(support!C:C,B81,support!L:L)</f>
@@ -41277,10 +41186,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C82" s="106">
         <v>1</v>
@@ -41301,8 +41210,8 @@
         <f>SUMIF(support!C:C,B82,support!K:K)</f>
         <v>0</v>
       </c>
-      <c r="H82" s="73" t="s">
-        <v>445</v>
+      <c r="H82" s="135" t="s">
+        <v>439</v>
       </c>
       <c r="I82" s="65">
         <f>SUMIF(support!C:C,B82,support!L:L)</f>
@@ -41315,10 +41224,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B83" s="63" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C83" s="106"/>
       <c r="D83" s="73"/>
@@ -41326,17 +41235,17 @@
       <c r="F83" s="108"/>
       <c r="G83" s="108"/>
       <c r="H83" s="73" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="I83" s="65"/>
       <c r="J83" s="109"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B84" s="63" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C84" s="106"/>
       <c r="D84" s="73"/>
@@ -41344,14 +41253,14 @@
       <c r="F84" s="108"/>
       <c r="G84" s="108"/>
       <c r="H84" s="73" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="I84" s="65"/>
       <c r="J84" s="109"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B85" s="63" t="s">
         <v>263</v>
@@ -41362,17 +41271,17 @@
       <c r="F85" s="108"/>
       <c r="G85" s="108"/>
       <c r="H85" s="73" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="I85" s="65"/>
       <c r="J85" s="109"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B86" s="63" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C86" s="106"/>
       <c r="D86" s="73"/>
@@ -41380,14 +41289,14 @@
       <c r="F86" s="108"/>
       <c r="G86" s="108"/>
       <c r="H86" s="73" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I86" s="65"/>
       <c r="J86" s="109"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="76" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B87" s="43" t="s">
         <v>52</v>
@@ -41423,7 +41332,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="76" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B88" s="43" t="s">
         <v>41</v>
@@ -41447,8 +41356,8 @@
         <f>SUMIF(support!C:C,B88,support!K:K)</f>
         <v>0</v>
       </c>
-      <c r="H88" s="73" t="s">
-        <v>445</v>
+      <c r="H88" s="135" t="s">
+        <v>439</v>
       </c>
       <c r="I88" s="65">
         <f>SUMIF(support!C:C,B88,support!L:L)</f>
@@ -41461,10 +41370,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C89" s="106">
         <v>1</v>
@@ -41486,7 +41395,7 @@
         <v>57</v>
       </c>
       <c r="H89" s="110" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I89" s="65">
         <f>SUMIF(support!C:C,B89,support!L:L)</f>
@@ -41499,10 +41408,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C90" s="106">
         <v>1</v>
@@ -41535,7 +41444,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B91" s="43" t="s">
         <v>2</v>
@@ -41572,7 +41481,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B92" s="43" t="s">
         <v>44</v>
@@ -41608,7 +41517,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B93" s="43" t="s">
         <v>130</v>
@@ -41645,10 +41554,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C94" s="106">
         <v>1</v>
@@ -41670,7 +41579,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="73" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I94" s="65">
         <f>SUMIF(support!C:C,B94,support!L:L)</f>
@@ -41683,7 +41592,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B95" s="43" t="s">
         <v>129</v>
@@ -41719,7 +41628,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B96" s="43" t="s">
         <v>59</v>
@@ -41744,7 +41653,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="110" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="I96" s="65">
         <f>SUMIF(support!C:C,B96,support!L:L)</f>
@@ -41757,10 +41666,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C97" s="106">
         <v>1</v>
@@ -41782,7 +41691,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="110" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="I97" s="65">
         <f>SUMIF(support!C:C,B97,support!L:L)</f>
@@ -41795,10 +41704,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C98" s="106">
         <v>1</v>
@@ -41831,7 +41740,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B99" s="43" t="s">
         <v>8</v>
@@ -41856,7 +41765,7 @@
         <v>27.5</v>
       </c>
       <c r="H99" s="73" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I99" s="65">
         <f>SUMIF(support!C:C,B99,support!L:L)</f>
@@ -41869,7 +41778,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B100" s="43" t="s">
         <v>48</v>
@@ -41905,10 +41814,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C101" s="106">
         <v>1</v>
@@ -41930,7 +41839,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="73" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I101" s="65">
         <f>SUMIF(support!C:C,B101,support!L:L)</f>
@@ -41943,7 +41852,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B102" s="43" t="s">
         <v>131</v>
@@ -41980,7 +41889,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B103" s="43" t="s">
         <v>3</v>
@@ -42016,7 +41925,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B104" s="43" t="s">
         <v>128</v>
@@ -42052,7 +41961,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B105" s="43" t="s">
         <v>132</v>
@@ -42088,7 +41997,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B106" s="43" t="s">
         <v>45</v>
@@ -42124,10 +42033,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C107" s="106">
         <v>1</v>
@@ -42160,10 +42069,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C108" s="106">
         <v>1</v>
@@ -42196,7 +42105,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B109" s="43" t="s">
         <v>46</v>
@@ -42232,10 +42141,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C110" s="106">
         <f>155 / 189</f>
@@ -42269,10 +42178,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C111" s="106">
         <f xml:space="preserve"> 330 / 772</f>
@@ -42295,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="73" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I111" s="65">
         <f>SUMIF(support!C:C,B111,support!L:L)</f>
@@ -42308,10 +42217,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B112" s="43" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C112" s="106">
         <f xml:space="preserve"> 134 / 206</f>
@@ -42345,7 +42254,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B113" s="43" t="s">
         <v>49</v>
@@ -42381,10 +42290,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B114" s="43" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C114" s="106">
         <v>1</v>
@@ -42406,7 +42315,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="73" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I114" s="65">
         <f>SUMIF(support!C:C,B114,support!L:L)</f>
@@ -42419,7 +42328,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="76" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B115" s="43" t="s">
         <v>141</v>
@@ -42456,7 +42365,7 @@
     </row>
     <row r="116" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="112" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B116" s="47" t="s">
         <v>47</v>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lg\repos\leonardguy\dunedin-zen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775964A6-1BD9-4325-B4DB-1CF752855ECB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB79C7BC-91A2-44D1-8469-4F41CF462012}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="1" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="3" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="5" r:id="rId1"/>
@@ -56,9 +56,9 @@
     <definedName name="recipe15DayScale">recipes!$F$4</definedName>
     <definedName name="recipe15TotScale">recipes!$F$7</definedName>
     <definedName name="roundTo">support!$P$2</definedName>
-    <definedName name="shoppers">shopping!$O$2:$O$5</definedName>
+    <definedName name="shoppers">shopping!$Q$2:$Q$5</definedName>
     <definedName name="shoppingNames">shopping!$C$2:$C$113</definedName>
-    <definedName name="sources">shopping!$M$2:$M$8</definedName>
+    <definedName name="sources">shopping!$O$2:$O$8</definedName>
     <definedName name="totDairy">numbers!$G$24</definedName>
     <definedName name="totFruitSalad">numbers!$D$24</definedName>
     <definedName name="totGfBread">numbers!$F$24</definedName>
@@ -100,7 +100,7 @@
     <definedName name="wkndSalad">numbers!$L$18</definedName>
     <definedName name="wnkdRegPorridge">numbers!$B$18</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="551">
   <si>
     <t>g</t>
   </si>
@@ -1811,6 +1811,24 @@
   </si>
   <si>
     <t>sliced red capsicums</t>
+  </si>
+  <si>
+    <t>garlic heads</t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>white cabbage</t>
+  </si>
+  <si>
+    <t>silverbeet</t>
+  </si>
+  <si>
+    <t>grapes (if not too expensive)</t>
+  </si>
+  <si>
+    <t>fresh coriander bunches</t>
   </si>
 </sst>
 </file>
@@ -2567,24 +2585,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2592,6 +2592,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8860,8 +8878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D8F90-B49A-4F27-A51C-C9DAC7C45CC5}">
   <dimension ref="A1:AD435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K197" sqref="K197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8898,12 +8916,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="130" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="7" t="s">
         <v>339</v>
       </c>
@@ -8925,12 +8943,12 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:30" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="130" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
       <c r="E2" s="39" t="s">
         <v>39</v>
       </c>
@@ -9006,13 +9024,13 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="str">
+      <c r="A3" s="131" t="str">
         <f>_xlfn.CONCAT(F3," servings")</f>
         <v>15 servings</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="39" t="s">
         <v>281</v>
       </c>
@@ -9031,23 +9049,23 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="W3" s="123" t="s">
+      <c r="W3" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AB3" s="123" t="s">
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AB3" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
     </row>
     <row r="4" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="122"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="39" t="s">
         <v>284</v>
       </c>
@@ -9068,27 +9086,27 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="W4" s="123" t="str">
+      <c r="W4" s="130" t="str">
         <f>A1</f>
         <v>WEEKEND BREAKFAST</v>
       </c>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AB4" s="123" t="str">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AB4" s="130" t="str">
         <f>A1</f>
         <v>WEEKEND BREAKFAST</v>
       </c>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130"/>
     </row>
     <row r="5" spans="1:30" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="129" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
       <c r="I5" s="9"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
@@ -9099,19 +9117,19 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="W5" s="123" t="str">
+      <c r="W5" s="130" t="str">
         <f>A2</f>
         <v>FRUIT SALAD</v>
       </c>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AB5" s="123" t="str">
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AB5" s="130" t="str">
         <f>A2</f>
         <v>FRUIT SALAD</v>
       </c>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
     </row>
     <row r="6" spans="1:30" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
@@ -9546,10 +9564,10 @@
       </c>
     </row>
     <row r="11" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
       <c r="I11" s="9"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
@@ -9564,12 +9582,12 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="129" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
       <c r="I12" s="9"/>
       <c r="L12" s="10"/>
       <c r="M12" s="11"/>
@@ -9584,12 +9602,12 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:30" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="130" t="s">
         <v>504</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="7" t="s">
         <v>264</v>
       </c>
@@ -9611,12 +9629,12 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:30" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
@@ -9692,13 +9710,13 @@
       </c>
     </row>
     <row r="15" spans="1:30" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="125" t="str">
+      <c r="A15" s="131" t="str">
         <f>_xlfn.CONCAT(F15," servings")</f>
         <v>15 servings</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="29" t="s">
         <v>281</v>
       </c>
@@ -9717,23 +9735,23 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="W15" s="123" t="s">
+      <c r="W15" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="123"/>
-      <c r="Z15" s="123"/>
-      <c r="AB15" s="123" t="s">
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AB15" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC15" s="123"/>
-      <c r="AD15" s="123"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="130"/>
     </row>
     <row r="16" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="29" t="s">
         <v>284</v>
       </c>
@@ -9754,27 +9772,27 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="W16" s="123" t="str">
+      <c r="W16" s="130" t="str">
         <f>A13</f>
         <v>WEEKEND LUNCH</v>
       </c>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
-      <c r="Z16" s="123"/>
-      <c r="AB16" s="123" t="str">
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AB16" s="130" t="str">
         <f>A13</f>
         <v>WEEKEND LUNCH</v>
       </c>
-      <c r="AC16" s="123"/>
-      <c r="AD16" s="123"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="130"/>
     </row>
     <row r="17" spans="1:30" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="129" t="s">
         <v>272</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
       <c r="I17" s="11"/>
       <c r="L17" s="10"/>
       <c r="M17" s="11"/>
@@ -9785,20 +9803,20 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="W17" s="123" t="str">
+      <c r="W17" s="130" t="str">
         <f>A14</f>
         <v>SALAD</v>
       </c>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
-      <c r="Z17" s="123"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
       <c r="AA17" s="41"/>
-      <c r="AB17" s="123" t="str">
+      <c r="AB17" s="130" t="str">
         <f>A14</f>
         <v>SALAD</v>
       </c>
-      <c r="AC17" s="123"/>
-      <c r="AD17" s="123"/>
+      <c r="AC17" s="130"/>
+      <c r="AD17" s="130"/>
     </row>
     <row r="18" spans="1:30" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
@@ -10476,10 +10494,10 @@
       </c>
     </row>
     <row r="26" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
+      <c r="A26" s="129"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
       <c r="I26" s="9"/>
       <c r="L26" s="10"/>
       <c r="M26" s="11"/>
@@ -10517,12 +10535,12 @@
       </c>
     </row>
     <row r="27" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="129" t="s">
         <v>327</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
       <c r="I27" s="9"/>
       <c r="L27" s="10"/>
       <c r="M27" s="11"/>
@@ -10651,10 +10669,10 @@
       </c>
     </row>
     <row r="29" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
       <c r="I29" s="9"/>
       <c r="L29" s="10"/>
       <c r="M29" s="11"/>
@@ -10669,12 +10687,12 @@
       <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="129" t="s">
         <v>326</v>
       </c>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
       <c r="I30" s="9"/>
       <c r="L30" s="10"/>
       <c r="M30" s="11"/>
@@ -10689,12 +10707,12 @@
       <c r="Z30" s="13"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="123" t="s">
+      <c r="A31" s="130" t="s">
         <v>506</v>
       </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
       <c r="E31" s="7" t="s">
         <v>154</v>
       </c>
@@ -10702,12 +10720,12 @@
       <c r="G31" s="39"/>
     </row>
     <row r="32" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="123" t="s">
+      <c r="A32" s="130" t="s">
         <v>317</v>
       </c>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
       <c r="E32" s="6" t="s">
         <v>39</v>
       </c>
@@ -10783,13 +10801,13 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="125" t="str">
+      <c r="A33" s="131" t="str">
         <f>_xlfn.CONCAT(F33," servings")</f>
         <v>4 servings</v>
       </c>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="6" t="s">
         <v>281</v>
       </c>
@@ -10798,23 +10816,23 @@
       </c>
       <c r="G33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="W33" s="123" t="s">
+      <c r="W33" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X33" s="123"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="123"/>
-      <c r="AB33" s="123" t="s">
+      <c r="X33" s="130"/>
+      <c r="Y33" s="130"/>
+      <c r="Z33" s="130"/>
+      <c r="AB33" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC33" s="123"/>
-      <c r="AD33" s="123"/>
+      <c r="AC33" s="130"/>
+      <c r="AD33" s="130"/>
     </row>
     <row r="34" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="122"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
+      <c r="A34" s="129"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="6" t="s">
         <v>284</v>
       </c>
@@ -10835,42 +10853,42 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="W34" s="123" t="str">
+      <c r="W34" s="130" t="str">
         <f>A31</f>
         <v>DAILY SAFE MEAL</v>
       </c>
-      <c r="X34" s="123"/>
-      <c r="Y34" s="123"/>
-      <c r="Z34" s="123"/>
-      <c r="AB34" s="123" t="str">
+      <c r="X34" s="130"/>
+      <c r="Y34" s="130"/>
+      <c r="Z34" s="130"/>
+      <c r="AB34" s="130" t="str">
         <f>A31</f>
         <v>DAILY SAFE MEAL</v>
       </c>
-      <c r="AC34" s="123"/>
-      <c r="AD34" s="123"/>
+      <c r="AC34" s="130"/>
+      <c r="AD34" s="130"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="129" t="s">
         <v>318</v>
       </c>
-      <c r="B35" s="122"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
       <c r="I35" s="11"/>
-      <c r="W35" s="123" t="str">
+      <c r="W35" s="130" t="str">
         <f>A32</f>
         <v>TOFU VEGETABLE STIR FRY</v>
       </c>
-      <c r="X35" s="123"/>
-      <c r="Y35" s="123"/>
-      <c r="Z35" s="123"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+      <c r="Z35" s="130"/>
       <c r="AA35" s="41"/>
-      <c r="AB35" s="123" t="str">
+      <c r="AB35" s="130" t="str">
         <f>A32</f>
         <v>TOFU VEGETABLE STIR FRY</v>
       </c>
-      <c r="AC35" s="123"/>
-      <c r="AD35" s="123"/>
+      <c r="AC35" s="130"/>
+      <c r="AD35" s="130"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
@@ -11174,10 +11192,10 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="122"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
       <c r="I39" s="11"/>
       <c r="W39" s="21"/>
       <c r="X39" s="21"/>
@@ -11189,12 +11207,12 @@
       <c r="AD39" s="21"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="122" t="s">
+      <c r="A40" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
       <c r="I40" s="11"/>
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
@@ -11586,10 +11604,10 @@
       </c>
     </row>
     <row r="45" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="122"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
+      <c r="A45" s="129"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
       <c r="I45" s="11"/>
       <c r="L45" s="10"/>
       <c r="M45" s="11"/>
@@ -11609,12 +11627,12 @@
       <c r="AD45" s="21"/>
     </row>
     <row r="46" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="B46" s="122"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
       <c r="I46" s="11"/>
       <c r="L46" s="10"/>
       <c r="M46" s="11"/>
@@ -11729,10 +11747,10 @@
       </c>
     </row>
     <row r="48" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
+      <c r="A48" s="129"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
       <c r="I48" s="11"/>
       <c r="L48" s="10"/>
       <c r="M48" s="11"/>
@@ -11752,12 +11770,12 @@
       <c r="AD48" s="21"/>
     </row>
     <row r="49" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="122" t="s">
+      <c r="A49" s="129" t="s">
         <v>322</v>
       </c>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
       <c r="I49" s="11"/>
       <c r="L49" s="10"/>
       <c r="M49" s="11"/>
@@ -12062,12 +12080,12 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="123" t="s">
+      <c r="A53" s="130" t="s">
         <v>505</v>
       </c>
-      <c r="B53" s="123"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
       <c r="E53" s="6" t="s">
         <v>99</v>
       </c>
@@ -12077,12 +12095,12 @@
       <c r="G53" s="39"/>
     </row>
     <row r="54" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A54" s="127" t="s">
+      <c r="A54" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="127"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
       <c r="E54" s="6" t="s">
         <v>39</v>
       </c>
@@ -12159,13 +12177,13 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="125" t="str">
+      <c r="A55" s="131" t="str">
         <f>_xlfn.CONCAT(F55," servings")</f>
         <v>12 servings</v>
       </c>
-      <c r="B55" s="125"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
       <c r="E55" s="29" t="s">
         <v>281</v>
       </c>
@@ -12188,23 +12206,23 @@
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
       <c r="U55" s="6"/>
-      <c r="W55" s="123" t="s">
+      <c r="W55" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X55" s="123"/>
-      <c r="Y55" s="123"/>
-      <c r="Z55" s="123"/>
-      <c r="AB55" s="123" t="s">
+      <c r="X55" s="130"/>
+      <c r="Y55" s="130"/>
+      <c r="Z55" s="130"/>
+      <c r="AB55" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC55" s="123"/>
-      <c r="AD55" s="123"/>
+      <c r="AC55" s="130"/>
+      <c r="AD55" s="130"/>
     </row>
     <row r="56" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="122"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
+      <c r="A56" s="129"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
       <c r="E56" s="29" t="s">
         <v>284</v>
       </c>
@@ -12229,46 +12247,46 @@
       <c r="S56" s="26"/>
       <c r="T56" s="26"/>
       <c r="U56" s="39"/>
-      <c r="W56" s="123" t="str">
+      <c r="W56" s="130" t="str">
         <f>A53</f>
         <v>SATURDAY LUNCH</v>
       </c>
-      <c r="X56" s="123"/>
-      <c r="Y56" s="123"/>
-      <c r="Z56" s="123"/>
-      <c r="AB56" s="123" t="str">
+      <c r="X56" s="130"/>
+      <c r="Y56" s="130"/>
+      <c r="Z56" s="130"/>
+      <c r="AB56" s="130" t="str">
         <f>A53</f>
         <v>SATURDAY LUNCH</v>
       </c>
-      <c r="AC56" s="123"/>
-      <c r="AD56" s="123"/>
+      <c r="AC56" s="130"/>
+      <c r="AD56" s="130"/>
     </row>
     <row r="57" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="122" t="s">
+      <c r="A57" s="129" t="s">
         <v>325</v>
       </c>
-      <c r="B57" s="122"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="W57" s="123" t="str">
+      <c r="W57" s="130" t="str">
         <f>A54</f>
         <v>SPLIT PEA COMBINATION CURRY</v>
       </c>
-      <c r="X57" s="123"/>
-      <c r="Y57" s="123"/>
-      <c r="Z57" s="123"/>
+      <c r="X57" s="130"/>
+      <c r="Y57" s="130"/>
+      <c r="Z57" s="130"/>
       <c r="AA57" s="41"/>
-      <c r="AB57" s="123" t="str">
+      <c r="AB57" s="130" t="str">
         <f>A54</f>
         <v>SPLIT PEA COMBINATION CURRY</v>
       </c>
-      <c r="AC57" s="123"/>
-      <c r="AD57" s="123"/>
+      <c r="AC57" s="130"/>
+      <c r="AD57" s="130"/>
     </row>
     <row r="58" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
@@ -12481,10 +12499,10 @@
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" s="122"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
       <c r="I60" s="11"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
@@ -12498,12 +12516,12 @@
       <c r="AD60" s="21"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="122" t="s">
+      <c r="A61" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="122"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
       <c r="I61" s="11"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -12702,10 +12720,10 @@
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="122"/>
-      <c r="B64" s="122"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
+      <c r="A64" s="129"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
       <c r="I64" s="11"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
@@ -12719,12 +12737,12 @@
       <c r="AD64" s="21"/>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" s="122" t="s">
+      <c r="A65" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="B65" s="122"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
       <c r="I65" s="11"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
@@ -13214,12 +13232,12 @@
       <c r="W71" s="8"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A72" s="122" t="s">
+      <c r="A72" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="B72" s="122"/>
-      <c r="C72" s="122"/>
-      <c r="D72" s="122"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
       <c r="I72" s="8"/>
       <c r="L72" s="8"/>
       <c r="W72" s="8"/>
@@ -13276,12 +13294,12 @@
       </c>
     </row>
     <row r="76" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="123" t="s">
+      <c r="A76" s="130" t="s">
         <v>507</v>
       </c>
-      <c r="B76" s="123"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
+      <c r="B76" s="130"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="130"/>
       <c r="E76" s="24" t="s">
         <v>100</v>
       </c>
@@ -13291,12 +13309,12 @@
       <c r="G76" s="39"/>
     </row>
     <row r="77" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A77" s="123" t="s">
+      <c r="A77" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="123"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="123"/>
+      <c r="B77" s="130"/>
+      <c r="C77" s="130"/>
+      <c r="D77" s="130"/>
       <c r="E77" s="6" t="s">
         <v>39</v>
       </c>
@@ -13371,13 +13389,13 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="125" t="str">
+      <c r="A78" s="131" t="str">
         <f>_xlfn.CONCAT(F78," servings")</f>
         <v>12 servings</v>
       </c>
-      <c r="B78" s="125"/>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="B78" s="131"/>
+      <c r="C78" s="131"/>
+      <c r="D78" s="131"/>
       <c r="E78" s="29" t="s">
         <v>281</v>
       </c>
@@ -13399,23 +13417,23 @@
       <c r="S78" s="26"/>
       <c r="T78" s="26"/>
       <c r="U78" s="6"/>
-      <c r="W78" s="123" t="s">
+      <c r="W78" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X78" s="123"/>
-      <c r="Y78" s="123"/>
-      <c r="Z78" s="123"/>
-      <c r="AB78" s="123" t="s">
+      <c r="X78" s="130"/>
+      <c r="Y78" s="130"/>
+      <c r="Z78" s="130"/>
+      <c r="AB78" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC78" s="123"/>
-      <c r="AD78" s="123"/>
+      <c r="AC78" s="130"/>
+      <c r="AD78" s="130"/>
     </row>
     <row r="79" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="122"/>
-      <c r="B79" s="122"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
+      <c r="A79" s="129"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="129"/>
       <c r="E79" s="29" t="s">
         <v>284</v>
       </c>
@@ -13439,46 +13457,46 @@
       <c r="S79" s="26"/>
       <c r="T79" s="26"/>
       <c r="U79" s="39"/>
-      <c r="W79" s="123" t="str">
+      <c r="W79" s="130" t="str">
         <f>A76</f>
         <v>SATURDAY DINNER</v>
       </c>
-      <c r="X79" s="123"/>
-      <c r="Y79" s="123"/>
-      <c r="Z79" s="123"/>
-      <c r="AB79" s="123" t="str">
+      <c r="X79" s="130"/>
+      <c r="Y79" s="130"/>
+      <c r="Z79" s="130"/>
+      <c r="AB79" s="130" t="str">
         <f>A76</f>
         <v>SATURDAY DINNER</v>
       </c>
-      <c r="AC79" s="123"/>
-      <c r="AD79" s="123"/>
+      <c r="AC79" s="130"/>
+      <c r="AD79" s="130"/>
     </row>
     <row r="80" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="122" t="s">
+      <c r="A80" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="122"/>
-      <c r="C80" s="122"/>
-      <c r="D80" s="122"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="129"/>
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="W80" s="123" t="str">
+      <c r="W80" s="130" t="str">
         <f>A77</f>
         <v>GYPSY SOUP</v>
       </c>
-      <c r="X80" s="123"/>
-      <c r="Y80" s="123"/>
-      <c r="Z80" s="123"/>
+      <c r="X80" s="130"/>
+      <c r="Y80" s="130"/>
+      <c r="Z80" s="130"/>
       <c r="AA80" s="41"/>
-      <c r="AB80" s="123" t="str">
+      <c r="AB80" s="130" t="str">
         <f>A77</f>
         <v>GYPSY SOUP</v>
       </c>
-      <c r="AC80" s="123"/>
-      <c r="AD80" s="123"/>
+      <c r="AC80" s="130"/>
+      <c r="AD80" s="130"/>
     </row>
     <row r="81" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
@@ -13587,10 +13605,10 @@
       </c>
     </row>
     <row r="82" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="122"/>
-      <c r="B82" s="122"/>
-      <c r="C82" s="122"/>
-      <c r="D82" s="122"/>
+      <c r="A82" s="129"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="129"/>
       <c r="E82" s="29" t="s">
         <v>285</v>
       </c>
@@ -13616,12 +13634,12 @@
       <c r="AD82" s="21"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A83" s="122" t="s">
+      <c r="A83" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="B83" s="122"/>
-      <c r="C83" s="122"/>
-      <c r="D83" s="122"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="129"/>
+      <c r="D83" s="129"/>
       <c r="I83" s="11"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
@@ -13915,10 +13933,10 @@
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A87" s="122"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
+      <c r="A87" s="129"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="129"/>
+      <c r="D87" s="129"/>
       <c r="I87" s="11"/>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
@@ -13934,12 +13952,12 @@
       <c r="AD87" s="21"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A88" s="122" t="s">
+      <c r="A88" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="122"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="122"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
       <c r="I88" s="11"/>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
@@ -14518,10 +14536,10 @@
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A95" s="122"/>
-      <c r="B95" s="122"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="122"/>
+      <c r="A95" s="129"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="129"/>
+      <c r="D95" s="129"/>
       <c r="I95" s="11"/>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
@@ -14537,12 +14555,12 @@
       <c r="AD95" s="21"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A96" s="122" t="s">
+      <c r="A96" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="B96" s="122"/>
-      <c r="C96" s="122"/>
-      <c r="D96" s="122"/>
+      <c r="B96" s="129"/>
+      <c r="C96" s="129"/>
+      <c r="D96" s="129"/>
       <c r="I96" s="11"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
@@ -14558,10 +14576,10 @@
       <c r="AD96" s="21"/>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A97" s="122"/>
-      <c r="B97" s="122"/>
-      <c r="C97" s="122"/>
-      <c r="D97" s="122"/>
+      <c r="A97" s="129"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="129"/>
+      <c r="D97" s="129"/>
       <c r="I97" s="11"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -14577,12 +14595,12 @@
       <c r="AD97" s="21"/>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A98" s="122" t="s">
+      <c r="A98" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="B98" s="122"/>
-      <c r="C98" s="122"/>
-      <c r="D98" s="122"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="129"/>
+      <c r="D98" s="129"/>
       <c r="I98" s="11"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -14690,10 +14708,10 @@
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A100" s="122"/>
-      <c r="B100" s="122"/>
-      <c r="C100" s="122"/>
-      <c r="D100" s="122"/>
+      <c r="A100" s="129"/>
+      <c r="B100" s="129"/>
+      <c r="C100" s="129"/>
+      <c r="D100" s="129"/>
       <c r="I100" s="11"/>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
@@ -14701,12 +14719,12 @@
       <c r="P100" s="8"/>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A101" s="122" t="s">
+      <c r="A101" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="B101" s="122"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="122"/>
+      <c r="B101" s="129"/>
+      <c r="C101" s="129"/>
+      <c r="D101" s="129"/>
       <c r="I101" s="11"/>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
@@ -14727,12 +14745,12 @@
       <c r="P102" s="8"/>
     </row>
     <row r="103" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="123" t="s">
+      <c r="A103" s="130" t="s">
         <v>508</v>
       </c>
-      <c r="B103" s="123"/>
-      <c r="C103" s="123"/>
-      <c r="D103" s="123"/>
+      <c r="B103" s="130"/>
+      <c r="C103" s="130"/>
+      <c r="D103" s="130"/>
       <c r="E103" s="7" t="s">
         <v>106</v>
       </c>
@@ -14743,12 +14761,12 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A104" s="123" t="s">
+      <c r="A104" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="B104" s="123"/>
-      <c r="C104" s="123"/>
-      <c r="D104" s="123"/>
+      <c r="B104" s="130"/>
+      <c r="C104" s="130"/>
+      <c r="D104" s="130"/>
       <c r="E104" s="6" t="s">
         <v>39</v>
       </c>
@@ -14825,13 +14843,13 @@
       </c>
     </row>
     <row r="105" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="125" t="str">
+      <c r="A105" s="131" t="str">
         <f>_xlfn.CONCAT(F105," servings")</f>
         <v>12 servings</v>
       </c>
-      <c r="B105" s="125"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="125"/>
+      <c r="B105" s="131"/>
+      <c r="C105" s="131"/>
+      <c r="D105" s="131"/>
       <c r="E105" s="29" t="s">
         <v>281</v>
       </c>
@@ -14850,23 +14868,23 @@
       <c r="O105" s="26"/>
       <c r="P105" s="26"/>
       <c r="U105" s="6"/>
-      <c r="W105" s="123" t="s">
+      <c r="W105" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X105" s="123"/>
-      <c r="Y105" s="123"/>
-      <c r="Z105" s="123"/>
-      <c r="AB105" s="123" t="s">
+      <c r="X105" s="130"/>
+      <c r="Y105" s="130"/>
+      <c r="Z105" s="130"/>
+      <c r="AB105" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC105" s="123"/>
-      <c r="AD105" s="123"/>
+      <c r="AC105" s="130"/>
+      <c r="AD105" s="130"/>
     </row>
     <row r="106" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="122"/>
-      <c r="B106" s="122"/>
-      <c r="C106" s="122"/>
-      <c r="D106" s="122"/>
+      <c r="A106" s="129"/>
+      <c r="B106" s="129"/>
+      <c r="C106" s="129"/>
+      <c r="D106" s="129"/>
       <c r="E106" s="29" t="s">
         <v>284</v>
       </c>
@@ -14891,27 +14909,27 @@
       <c r="S106" s="11"/>
       <c r="T106" s="11"/>
       <c r="U106" s="39"/>
-      <c r="W106" s="123" t="str">
+      <c r="W106" s="130" t="str">
         <f>A103</f>
         <v>SUNDAY LUNCH</v>
       </c>
-      <c r="X106" s="123"/>
-      <c r="Y106" s="123"/>
-      <c r="Z106" s="123"/>
-      <c r="AB106" s="123" t="str">
+      <c r="X106" s="130"/>
+      <c r="Y106" s="130"/>
+      <c r="Z106" s="130"/>
+      <c r="AB106" s="130" t="str">
         <f>A103</f>
         <v>SUNDAY LUNCH</v>
       </c>
-      <c r="AC106" s="123"/>
-      <c r="AD106" s="123"/>
+      <c r="AC106" s="130"/>
+      <c r="AD106" s="130"/>
     </row>
     <row r="107" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="122" t="s">
+      <c r="A107" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="B107" s="122"/>
-      <c r="C107" s="122"/>
-      <c r="D107" s="122"/>
+      <c r="B107" s="129"/>
+      <c r="C107" s="129"/>
+      <c r="D107" s="129"/>
       <c r="E107" s="30"/>
       <c r="F107" s="30"/>
       <c r="G107" s="30"/>
@@ -14925,20 +14943,20 @@
       <c r="O107" s="26"/>
       <c r="P107" s="26"/>
       <c r="U107" s="6"/>
-      <c r="W107" s="123" t="str">
+      <c r="W107" s="130" t="str">
         <f>A104</f>
         <v>RED LENTIL DAHL</v>
       </c>
-      <c r="X107" s="123"/>
-      <c r="Y107" s="123"/>
-      <c r="Z107" s="123"/>
+      <c r="X107" s="130"/>
+      <c r="Y107" s="130"/>
+      <c r="Z107" s="130"/>
       <c r="AA107" s="41"/>
-      <c r="AB107" s="123" t="str">
+      <c r="AB107" s="130" t="str">
         <f>A104</f>
         <v>RED LENTIL DAHL</v>
       </c>
-      <c r="AC107" s="123"/>
-      <c r="AD107" s="123"/>
+      <c r="AC107" s="130"/>
+      <c r="AD107" s="130"/>
     </row>
     <row r="108" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
@@ -15046,10 +15064,10 @@
       </c>
     </row>
     <row r="109" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="122"/>
-      <c r="B109" s="122"/>
-      <c r="C109" s="122"/>
-      <c r="D109" s="122"/>
+      <c r="A109" s="129"/>
+      <c r="B109" s="129"/>
+      <c r="C109" s="129"/>
+      <c r="D109" s="129"/>
       <c r="E109" s="29" t="s">
         <v>285</v>
       </c>
@@ -15075,12 +15093,12 @@
       <c r="AD109" s="21"/>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A110" s="122" t="s">
+      <c r="A110" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="122"/>
-      <c r="C110" s="122"/>
-      <c r="D110" s="122"/>
+      <c r="B110" s="129"/>
+      <c r="C110" s="129"/>
+      <c r="D110" s="129"/>
       <c r="I110" s="11"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
@@ -15305,10 +15323,10 @@
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A114" s="122"/>
-      <c r="B114" s="122"/>
-      <c r="C114" s="122"/>
-      <c r="D114" s="122"/>
+      <c r="A114" s="129"/>
+      <c r="B114" s="129"/>
+      <c r="C114" s="129"/>
+      <c r="D114" s="129"/>
       <c r="I114" s="11"/>
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
@@ -15324,12 +15342,12 @@
       <c r="AD114" s="21"/>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A115" s="122" t="s">
+      <c r="A115" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="122"/>
-      <c r="C115" s="122"/>
-      <c r="D115" s="122"/>
+      <c r="B115" s="129"/>
+      <c r="C115" s="129"/>
+      <c r="D115" s="129"/>
       <c r="I115" s="11"/>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
@@ -15530,10 +15548,10 @@
       </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A118" s="122"/>
-      <c r="B118" s="122"/>
-      <c r="C118" s="122"/>
-      <c r="D118" s="122"/>
+      <c r="A118" s="129"/>
+      <c r="B118" s="129"/>
+      <c r="C118" s="129"/>
+      <c r="D118" s="129"/>
       <c r="I118" s="11"/>
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
@@ -15549,12 +15567,12 @@
       <c r="AD118" s="21"/>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A119" s="122" t="s">
+      <c r="A119" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="B119" s="122"/>
-      <c r="C119" s="122"/>
-      <c r="D119" s="122"/>
+      <c r="B119" s="129"/>
+      <c r="C119" s="129"/>
+      <c r="D119" s="129"/>
       <c r="I119" s="11"/>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
@@ -15852,10 +15870,10 @@
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A123" s="122"/>
-      <c r="B123" s="122"/>
-      <c r="C123" s="122"/>
-      <c r="D123" s="122"/>
+      <c r="A123" s="129"/>
+      <c r="B123" s="129"/>
+      <c r="C123" s="129"/>
+      <c r="D123" s="129"/>
       <c r="I123" s="8"/>
       <c r="L123" s="8"/>
       <c r="W123" s="21"/>
@@ -15868,12 +15886,12 @@
       <c r="AD123" s="21"/>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A124" s="122" t="s">
+      <c r="A124" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="B124" s="122"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
+      <c r="B124" s="129"/>
+      <c r="C124" s="129"/>
+      <c r="D124" s="129"/>
       <c r="I124" s="8"/>
       <c r="L124" s="8"/>
       <c r="W124" s="21"/>
@@ -15952,10 +15970,10 @@
       <c r="AD127" s="21"/>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A128" s="122"/>
-      <c r="B128" s="122"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="122"/>
+      <c r="A128" s="129"/>
+      <c r="B128" s="129"/>
+      <c r="C128" s="129"/>
+      <c r="D128" s="129"/>
       <c r="I128" s="8"/>
       <c r="L128" s="8"/>
       <c r="W128" s="21"/>
@@ -15968,12 +15986,12 @@
       <c r="AD128" s="21"/>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A129" s="122" t="s">
+      <c r="A129" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="B129" s="122"/>
-      <c r="C129" s="122"/>
-      <c r="D129" s="122"/>
+      <c r="B129" s="129"/>
+      <c r="C129" s="129"/>
+      <c r="D129" s="129"/>
       <c r="I129" s="8"/>
       <c r="L129" s="8"/>
       <c r="W129" s="21"/>
@@ -16080,10 +16098,10 @@
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A131" s="122"/>
-      <c r="B131" s="122"/>
-      <c r="C131" s="122"/>
-      <c r="D131" s="122"/>
+      <c r="A131" s="129"/>
+      <c r="B131" s="129"/>
+      <c r="C131" s="129"/>
+      <c r="D131" s="129"/>
       <c r="I131" s="8"/>
       <c r="L131" s="8"/>
       <c r="W131" s="21"/>
@@ -16096,12 +16114,12 @@
       <c r="AD131" s="21"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A132" s="122" t="s">
+      <c r="A132" s="129" t="s">
         <v>241</v>
       </c>
-      <c r="B132" s="122"/>
-      <c r="C132" s="122"/>
-      <c r="D132" s="122"/>
+      <c r="B132" s="129"/>
+      <c r="C132" s="129"/>
+      <c r="D132" s="129"/>
       <c r="I132" s="8"/>
       <c r="L132" s="8"/>
       <c r="W132" s="21"/>
@@ -16302,10 +16320,10 @@
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A135" s="122"/>
-      <c r="B135" s="122"/>
-      <c r="C135" s="122"/>
-      <c r="D135" s="122"/>
+      <c r="A135" s="129"/>
+      <c r="B135" s="129"/>
+      <c r="C135" s="129"/>
+      <c r="D135" s="129"/>
       <c r="I135" s="8"/>
       <c r="L135" s="8"/>
       <c r="W135" s="21"/>
@@ -16318,12 +16336,12 @@
       <c r="AD135" s="21"/>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A136" s="122" t="s">
+      <c r="A136" s="129" t="s">
         <v>193</v>
       </c>
-      <c r="B136" s="122"/>
-      <c r="C136" s="122"/>
-      <c r="D136" s="122"/>
+      <c r="B136" s="129"/>
+      <c r="C136" s="129"/>
+      <c r="D136" s="129"/>
       <c r="I136" s="8"/>
       <c r="L136" s="8"/>
       <c r="W136" s="21"/>
@@ -16349,12 +16367,12 @@
       <c r="AD137" s="21"/>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A138" s="122" t="s">
+      <c r="A138" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="B138" s="122"/>
-      <c r="C138" s="122"/>
-      <c r="D138" s="122"/>
+      <c r="B138" s="129"/>
+      <c r="C138" s="129"/>
+      <c r="D138" s="129"/>
       <c r="I138" s="8"/>
       <c r="L138" s="8"/>
       <c r="W138" s="21"/>
@@ -16427,12 +16445,12 @@
       </c>
     </row>
     <row r="140" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="123" t="s">
+      <c r="A140" s="130" t="s">
         <v>509</v>
       </c>
-      <c r="B140" s="123"/>
-      <c r="C140" s="123"/>
-      <c r="D140" s="123"/>
+      <c r="B140" s="130"/>
+      <c r="C140" s="130"/>
+      <c r="D140" s="130"/>
       <c r="E140" s="7" t="s">
         <v>101</v>
       </c>
@@ -16443,12 +16461,12 @@
       <c r="H140" s="11"/>
     </row>
     <row r="141" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A141" s="123" t="s">
+      <c r="A141" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="B141" s="123"/>
-      <c r="C141" s="123"/>
-      <c r="D141" s="123"/>
+      <c r="B141" s="130"/>
+      <c r="C141" s="130"/>
+      <c r="D141" s="130"/>
       <c r="E141" s="6" t="s">
         <v>39</v>
       </c>
@@ -16525,13 +16543,13 @@
       </c>
     </row>
     <row r="142" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="125" t="str">
+      <c r="A142" s="131" t="str">
         <f>_xlfn.CONCAT(F142," servings")</f>
         <v>12 servings</v>
       </c>
-      <c r="B142" s="125"/>
-      <c r="C142" s="125"/>
-      <c r="D142" s="125"/>
+      <c r="B142" s="131"/>
+      <c r="C142" s="131"/>
+      <c r="D142" s="131"/>
       <c r="E142" s="29" t="s">
         <v>281</v>
       </c>
@@ -16542,24 +16560,24 @@
       <c r="G142" s="11"/>
       <c r="I142" s="8"/>
       <c r="L142" s="8"/>
-      <c r="W142" s="123" t="s">
+      <c r="W142" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X142" s="123"/>
-      <c r="Y142" s="123"/>
-      <c r="Z142" s="123"/>
+      <c r="X142" s="130"/>
+      <c r="Y142" s="130"/>
+      <c r="Z142" s="130"/>
       <c r="AA142" s="30"/>
-      <c r="AB142" s="123" t="s">
+      <c r="AB142" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC142" s="123"/>
-      <c r="AD142" s="123"/>
+      <c r="AC142" s="130"/>
+      <c r="AD142" s="130"/>
     </row>
     <row r="143" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="122"/>
-      <c r="B143" s="122"/>
-      <c r="C143" s="122"/>
-      <c r="D143" s="122"/>
+      <c r="A143" s="129"/>
+      <c r="B143" s="129"/>
+      <c r="C143" s="129"/>
+      <c r="D143" s="129"/>
       <c r="E143" s="29" t="s">
         <v>284</v>
       </c>
@@ -16578,46 +16596,46 @@
       <c r="R143" s="11"/>
       <c r="S143" s="11"/>
       <c r="T143" s="11"/>
-      <c r="W143" s="123" t="str">
+      <c r="W143" s="130" t="str">
         <f>A140</f>
         <v>SUNDAY DINNER</v>
       </c>
-      <c r="X143" s="123"/>
-      <c r="Y143" s="123"/>
-      <c r="Z143" s="123"/>
-      <c r="AB143" s="123" t="str">
+      <c r="X143" s="130"/>
+      <c r="Y143" s="130"/>
+      <c r="Z143" s="130"/>
+      <c r="AB143" s="130" t="str">
         <f>A140</f>
         <v>SUNDAY DINNER</v>
       </c>
-      <c r="AC143" s="123"/>
-      <c r="AD143" s="123"/>
+      <c r="AC143" s="130"/>
+      <c r="AD143" s="130"/>
     </row>
     <row r="144" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="122" t="s">
+      <c r="A144" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="B144" s="122"/>
-      <c r="C144" s="122"/>
-      <c r="D144" s="122"/>
+      <c r="B144" s="129"/>
+      <c r="C144" s="129"/>
+      <c r="D144" s="129"/>
       <c r="E144" s="30"/>
       <c r="F144" s="30"/>
       <c r="G144" s="30"/>
       <c r="I144" s="8"/>
       <c r="L144" s="8"/>
-      <c r="W144" s="123" t="str">
+      <c r="W144" s="130" t="str">
         <f>A141</f>
         <v>ITALIAN SOUP</v>
       </c>
-      <c r="X144" s="123"/>
-      <c r="Y144" s="123"/>
-      <c r="Z144" s="123"/>
+      <c r="X144" s="130"/>
+      <c r="Y144" s="130"/>
+      <c r="Z144" s="130"/>
       <c r="AA144" s="41"/>
-      <c r="AB144" s="123" t="str">
+      <c r="AB144" s="130" t="str">
         <f>A141</f>
         <v>ITALIAN SOUP</v>
       </c>
-      <c r="AC144" s="123"/>
-      <c r="AD144" s="123"/>
+      <c r="AC144" s="130"/>
+      <c r="AD144" s="130"/>
     </row>
     <row r="145" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
@@ -16916,10 +16934,10 @@
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A148" s="122"/>
-      <c r="B148" s="122"/>
-      <c r="C148" s="122"/>
-      <c r="D148" s="122"/>
+      <c r="A148" s="129"/>
+      <c r="B148" s="129"/>
+      <c r="C148" s="129"/>
+      <c r="D148" s="129"/>
       <c r="I148" s="8"/>
       <c r="L148" s="8"/>
       <c r="W148" s="21"/>
@@ -16932,12 +16950,12 @@
       <c r="AD148" s="21"/>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A149" s="122" t="s">
+      <c r="A149" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="B149" s="122"/>
-      <c r="C149" s="122"/>
-      <c r="D149" s="122"/>
+      <c r="B149" s="129"/>
+      <c r="C149" s="129"/>
+      <c r="D149" s="129"/>
       <c r="I149" s="8"/>
       <c r="L149" s="8"/>
       <c r="W149" s="21"/>
@@ -17404,10 +17422,10 @@
       </c>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A155" s="122"/>
-      <c r="B155" s="122"/>
-      <c r="C155" s="122"/>
-      <c r="D155" s="122"/>
+      <c r="A155" s="129"/>
+      <c r="B155" s="129"/>
+      <c r="C155" s="129"/>
+      <c r="D155" s="129"/>
       <c r="I155" s="11"/>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
@@ -17424,12 +17442,12 @@
       <c r="AD155" s="21"/>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A156" s="122" t="s">
+      <c r="A156" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="B156" s="122"/>
-      <c r="C156" s="122"/>
-      <c r="D156" s="122"/>
+      <c r="B156" s="129"/>
+      <c r="C156" s="129"/>
+      <c r="D156" s="129"/>
       <c r="I156" s="11"/>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
@@ -17540,10 +17558,10 @@
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A158" s="122"/>
-      <c r="B158" s="122"/>
-      <c r="C158" s="122"/>
-      <c r="D158" s="122"/>
+      <c r="A158" s="129"/>
+      <c r="B158" s="129"/>
+      <c r="C158" s="129"/>
+      <c r="D158" s="129"/>
       <c r="I158" s="11"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -17560,12 +17578,12 @@
       <c r="AD158" s="21"/>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A159" s="122" t="s">
+      <c r="A159" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="B159" s="122"/>
-      <c r="C159" s="122"/>
-      <c r="D159" s="122"/>
+      <c r="B159" s="129"/>
+      <c r="C159" s="129"/>
+      <c r="D159" s="129"/>
       <c r="I159" s="11"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -17582,10 +17600,10 @@
       <c r="AD159" s="21"/>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A160" s="122"/>
-      <c r="B160" s="122"/>
-      <c r="C160" s="122"/>
-      <c r="D160" s="122"/>
+      <c r="A160" s="129"/>
+      <c r="B160" s="129"/>
+      <c r="C160" s="129"/>
+      <c r="D160" s="129"/>
       <c r="I160" s="11"/>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
@@ -17602,12 +17620,12 @@
       <c r="AD160" s="21"/>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A161" s="122" t="s">
+      <c r="A161" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="B161" s="122"/>
-      <c r="C161" s="122"/>
-      <c r="D161" s="122"/>
+      <c r="B161" s="129"/>
+      <c r="C161" s="129"/>
+      <c r="D161" s="129"/>
       <c r="I161" s="11"/>
       <c r="L161" s="8"/>
       <c r="W161" s="21"/>
@@ -17738,12 +17756,12 @@
       </c>
     </row>
     <row r="164" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="123" t="s">
+      <c r="A164" s="130" t="s">
         <v>510</v>
       </c>
-      <c r="B164" s="123"/>
-      <c r="C164" s="123"/>
-      <c r="D164" s="123"/>
+      <c r="B164" s="130"/>
+      <c r="C164" s="130"/>
+      <c r="D164" s="130"/>
       <c r="E164" s="7" t="s">
         <v>108</v>
       </c>
@@ -17753,12 +17771,12 @@
       <c r="G164" s="39"/>
     </row>
     <row r="165" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A165" s="123" t="s">
+      <c r="A165" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="B165" s="123"/>
-      <c r="C165" s="123"/>
-      <c r="D165" s="123"/>
+      <c r="B165" s="130"/>
+      <c r="C165" s="130"/>
+      <c r="D165" s="130"/>
       <c r="E165" s="6" t="s">
         <v>39</v>
       </c>
@@ -17834,13 +17852,13 @@
       </c>
     </row>
     <row r="166" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="125" t="str">
+      <c r="A166" s="131" t="str">
         <f>_xlfn.CONCAT(F166," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B166" s="125"/>
-      <c r="C166" s="125"/>
-      <c r="D166" s="125"/>
+      <c r="B166" s="131"/>
+      <c r="C166" s="131"/>
+      <c r="D166" s="131"/>
       <c r="E166" s="29" t="s">
         <v>281</v>
       </c>
@@ -17850,23 +17868,23 @@
       </c>
       <c r="G166" s="11"/>
       <c r="I166" s="11"/>
-      <c r="W166" s="123" t="s">
+      <c r="W166" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X166" s="123"/>
-      <c r="Y166" s="123"/>
-      <c r="Z166" s="123"/>
-      <c r="AB166" s="123" t="s">
+      <c r="X166" s="130"/>
+      <c r="Y166" s="130"/>
+      <c r="Z166" s="130"/>
+      <c r="AB166" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC166" s="123"/>
-      <c r="AD166" s="123"/>
+      <c r="AC166" s="130"/>
+      <c r="AD166" s="130"/>
     </row>
     <row r="167" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="122"/>
-      <c r="B167" s="122"/>
-      <c r="C167" s="122"/>
-      <c r="D167" s="122"/>
+      <c r="A167" s="129"/>
+      <c r="B167" s="129"/>
+      <c r="C167" s="129"/>
+      <c r="D167" s="129"/>
       <c r="E167" s="29" t="s">
         <v>284</v>
       </c>
@@ -17887,45 +17905,45 @@
       <c r="R167" s="11"/>
       <c r="S167" s="11"/>
       <c r="T167" s="11"/>
-      <c r="W167" s="123" t="str">
+      <c r="W167" s="130" t="str">
         <f>A164</f>
         <v>MONDAY LUNCH</v>
       </c>
-      <c r="X167" s="123"/>
-      <c r="Y167" s="123"/>
-      <c r="Z167" s="123"/>
-      <c r="AB167" s="123" t="str">
+      <c r="X167" s="130"/>
+      <c r="Y167" s="130"/>
+      <c r="Z167" s="130"/>
+      <c r="AB167" s="130" t="str">
         <f>A164</f>
         <v>MONDAY LUNCH</v>
       </c>
-      <c r="AC167" s="123"/>
-      <c r="AD167" s="123"/>
+      <c r="AC167" s="130"/>
+      <c r="AD167" s="130"/>
     </row>
     <row r="168" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="122" t="s">
+      <c r="A168" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="B168" s="122"/>
-      <c r="C168" s="122"/>
-      <c r="D168" s="122"/>
+      <c r="B168" s="129"/>
+      <c r="C168" s="129"/>
+      <c r="D168" s="129"/>
       <c r="E168" s="30"/>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
       <c r="I168" s="11"/>
-      <c r="W168" s="123" t="str">
+      <c r="W168" s="130" t="str">
         <f>A165</f>
         <v>THAI STYLE VEGETABLES</v>
       </c>
-      <c r="X168" s="123"/>
-      <c r="Y168" s="123"/>
-      <c r="Z168" s="123"/>
+      <c r="X168" s="130"/>
+      <c r="Y168" s="130"/>
+      <c r="Z168" s="130"/>
       <c r="AA168" s="41"/>
-      <c r="AB168" s="123" t="str">
+      <c r="AB168" s="130" t="str">
         <f>A165</f>
         <v>THAI STYLE VEGETABLES</v>
       </c>
-      <c r="AC168" s="123"/>
-      <c r="AD168" s="123"/>
+      <c r="AC168" s="130"/>
+      <c r="AD168" s="130"/>
     </row>
     <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
@@ -18192,10 +18210,10 @@
       </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A172" s="122"/>
-      <c r="B172" s="122"/>
-      <c r="C172" s="122"/>
-      <c r="D172" s="122"/>
+      <c r="A172" s="129"/>
+      <c r="B172" s="129"/>
+      <c r="C172" s="129"/>
+      <c r="D172" s="129"/>
       <c r="I172" s="11"/>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
@@ -18210,12 +18228,12 @@
       <c r="AD172" s="21"/>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A173" s="122" t="s">
+      <c r="A173" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="B173" s="122"/>
-      <c r="C173" s="122"/>
-      <c r="D173" s="122"/>
+      <c r="B173" s="129"/>
+      <c r="C173" s="129"/>
+      <c r="D173" s="129"/>
       <c r="I173" s="11"/>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
@@ -18696,10 +18714,10 @@
       </c>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A179" s="122"/>
-      <c r="B179" s="122"/>
-      <c r="C179" s="122"/>
-      <c r="D179" s="122"/>
+      <c r="A179" s="129"/>
+      <c r="B179" s="129"/>
+      <c r="C179" s="129"/>
+      <c r="D179" s="129"/>
       <c r="I179" s="11"/>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
@@ -18714,12 +18732,12 @@
       <c r="AD179" s="21"/>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A180" s="122" t="s">
+      <c r="A180" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="B180" s="122"/>
-      <c r="C180" s="122"/>
-      <c r="D180" s="122"/>
+      <c r="B180" s="129"/>
+      <c r="C180" s="129"/>
+      <c r="D180" s="129"/>
       <c r="I180" s="11"/>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
@@ -19194,10 +19212,10 @@
       </c>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A186" s="122"/>
-      <c r="B186" s="122"/>
-      <c r="C186" s="122"/>
-      <c r="D186" s="122"/>
+      <c r="A186" s="129"/>
+      <c r="B186" s="129"/>
+      <c r="C186" s="129"/>
+      <c r="D186" s="129"/>
       <c r="I186" s="11"/>
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
@@ -19212,12 +19230,12 @@
       <c r="AD186" s="21"/>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A187" s="122" t="s">
+      <c r="A187" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="B187" s="122"/>
-      <c r="C187" s="122"/>
-      <c r="D187" s="122"/>
+      <c r="B187" s="129"/>
+      <c r="C187" s="129"/>
+      <c r="D187" s="129"/>
       <c r="I187" s="11"/>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
@@ -19506,10 +19524,10 @@
       </c>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A191" s="122"/>
-      <c r="B191" s="122"/>
-      <c r="C191" s="122"/>
-      <c r="D191" s="122"/>
+      <c r="A191" s="129"/>
+      <c r="B191" s="129"/>
+      <c r="C191" s="129"/>
+      <c r="D191" s="129"/>
       <c r="I191" s="11"/>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -19524,12 +19542,12 @@
       <c r="AD191" s="21"/>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A192" s="122" t="s">
+      <c r="A192" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="B192" s="122"/>
-      <c r="C192" s="122"/>
-      <c r="D192" s="122"/>
+      <c r="B192" s="129"/>
+      <c r="C192" s="129"/>
+      <c r="D192" s="129"/>
       <c r="I192" s="11"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -19544,10 +19562,10 @@
       <c r="AD192" s="21"/>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A193" s="122"/>
-      <c r="B193" s="122"/>
-      <c r="C193" s="122"/>
-      <c r="D193" s="122"/>
+      <c r="A193" s="129"/>
+      <c r="B193" s="129"/>
+      <c r="C193" s="129"/>
+      <c r="D193" s="129"/>
       <c r="I193" s="11"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -19562,12 +19580,12 @@
       <c r="AD193" s="21"/>
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A194" s="122" t="s">
+      <c r="A194" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B194" s="122"/>
-      <c r="C194" s="122"/>
-      <c r="D194" s="122"/>
+      <c r="B194" s="129"/>
+      <c r="C194" s="129"/>
+      <c r="D194" s="129"/>
       <c r="I194" s="11"/>
       <c r="L194" s="8"/>
       <c r="M194" s="8"/>
@@ -19770,12 +19788,12 @@
       </c>
     </row>
     <row r="198" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="123" t="s">
+      <c r="A198" s="130" t="s">
         <v>511</v>
       </c>
-      <c r="B198" s="123"/>
-      <c r="C198" s="123"/>
-      <c r="D198" s="123"/>
+      <c r="B198" s="130"/>
+      <c r="C198" s="130"/>
+      <c r="D198" s="130"/>
       <c r="E198" s="7" t="s">
         <v>103</v>
       </c>
@@ -19786,12 +19804,12 @@
       <c r="H198" s="11"/>
     </row>
     <row r="199" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A199" s="123" t="s">
+      <c r="A199" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="B199" s="123"/>
-      <c r="C199" s="123"/>
-      <c r="D199" s="123"/>
+      <c r="B199" s="130"/>
+      <c r="C199" s="130"/>
+      <c r="D199" s="130"/>
       <c r="E199" s="6" t="s">
         <v>39</v>
       </c>
@@ -19868,13 +19886,13 @@
       </c>
     </row>
     <row r="200" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="125" t="str">
+      <c r="A200" s="131" t="str">
         <f>_xlfn.CONCAT(F200," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B200" s="125"/>
-      <c r="C200" s="125"/>
-      <c r="D200" s="125"/>
+      <c r="B200" s="131"/>
+      <c r="C200" s="131"/>
+      <c r="D200" s="131"/>
       <c r="E200" s="29" t="s">
         <v>281</v>
       </c>
@@ -19898,24 +19916,24 @@
       <c r="T200" s="26"/>
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
-      <c r="W200" s="123" t="s">
+      <c r="W200" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X200" s="123"/>
-      <c r="Y200" s="123"/>
-      <c r="Z200" s="123"/>
+      <c r="X200" s="130"/>
+      <c r="Y200" s="130"/>
+      <c r="Z200" s="130"/>
       <c r="AA200" s="6"/>
-      <c r="AB200" s="123" t="s">
+      <c r="AB200" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC200" s="123"/>
-      <c r="AD200" s="123"/>
+      <c r="AC200" s="130"/>
+      <c r="AD200" s="130"/>
     </row>
     <row r="201" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="122"/>
-      <c r="B201" s="122"/>
-      <c r="C201" s="122"/>
-      <c r="D201" s="122"/>
+      <c r="A201" s="129"/>
+      <c r="B201" s="129"/>
+      <c r="C201" s="129"/>
+      <c r="D201" s="129"/>
       <c r="E201" s="29" t="s">
         <v>284</v>
       </c>
@@ -19941,46 +19959,46 @@
       <c r="T201" s="26"/>
       <c r="U201" s="39"/>
       <c r="V201" s="39"/>
-      <c r="W201" s="123" t="str">
+      <c r="W201" s="130" t="str">
         <f>A198</f>
         <v>MONDAY DINNER</v>
       </c>
-      <c r="X201" s="123"/>
-      <c r="Y201" s="123"/>
-      <c r="Z201" s="123"/>
-      <c r="AB201" s="123" t="str">
+      <c r="X201" s="130"/>
+      <c r="Y201" s="130"/>
+      <c r="Z201" s="130"/>
+      <c r="AB201" s="130" t="str">
         <f>A198</f>
         <v>MONDAY DINNER</v>
       </c>
-      <c r="AC201" s="123"/>
-      <c r="AD201" s="123"/>
+      <c r="AC201" s="130"/>
+      <c r="AD201" s="130"/>
     </row>
     <row r="202" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="122" t="s">
+      <c r="A202" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="B202" s="122"/>
-      <c r="C202" s="122"/>
-      <c r="D202" s="122"/>
+      <c r="B202" s="129"/>
+      <c r="C202" s="129"/>
+      <c r="D202" s="129"/>
       <c r="E202" s="30"/>
       <c r="F202" s="30"/>
       <c r="G202" s="30"/>
       <c r="H202" s="17"/>
       <c r="I202" s="11"/>
-      <c r="W202" s="123" t="str">
+      <c r="W202" s="130" t="str">
         <f>A199</f>
         <v>KUMARA, CARROT, AND CORN SOUP</v>
       </c>
-      <c r="X202" s="123"/>
-      <c r="Y202" s="123"/>
-      <c r="Z202" s="123"/>
+      <c r="X202" s="130"/>
+      <c r="Y202" s="130"/>
+      <c r="Z202" s="130"/>
       <c r="AA202" s="41"/>
-      <c r="AB202" s="123" t="str">
+      <c r="AB202" s="130" t="str">
         <f>A199</f>
         <v>KUMARA, CARROT, AND CORN SOUP</v>
       </c>
-      <c r="AC202" s="123"/>
-      <c r="AD202" s="123"/>
+      <c r="AC202" s="130"/>
+      <c r="AD202" s="130"/>
     </row>
     <row r="203" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
@@ -20085,10 +20103,10 @@
       </c>
     </row>
     <row r="204" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="124"/>
-      <c r="B204" s="124"/>
-      <c r="C204" s="124"/>
-      <c r="D204" s="124"/>
+      <c r="A204" s="133"/>
+      <c r="B204" s="133"/>
+      <c r="C204" s="133"/>
+      <c r="D204" s="133"/>
       <c r="E204" s="29" t="s">
         <v>285</v>
       </c>
@@ -20123,12 +20141,12 @@
       <c r="AD204" s="21"/>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A205" s="122" t="s">
+      <c r="A205" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="B205" s="122"/>
-      <c r="C205" s="122"/>
-      <c r="D205" s="122"/>
+      <c r="B205" s="129"/>
+      <c r="C205" s="129"/>
+      <c r="D205" s="129"/>
       <c r="H205" s="11"/>
       <c r="I205" s="26"/>
       <c r="J205" s="6"/>
@@ -20396,10 +20414,10 @@
       </c>
     </row>
     <row r="209" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="124"/>
-      <c r="B209" s="124"/>
-      <c r="C209" s="124"/>
-      <c r="D209" s="124"/>
+      <c r="A209" s="133"/>
+      <c r="B209" s="133"/>
+      <c r="C209" s="133"/>
+      <c r="D209" s="133"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="11"/>
@@ -20427,12 +20445,12 @@
       <c r="AD209" s="21"/>
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A210" s="122" t="s">
+      <c r="A210" s="129" t="s">
         <v>219</v>
       </c>
-      <c r="B210" s="122"/>
-      <c r="C210" s="122"/>
-      <c r="D210" s="122"/>
+      <c r="B210" s="129"/>
+      <c r="C210" s="129"/>
+      <c r="D210" s="129"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="11"/>
@@ -20460,10 +20478,10 @@
       <c r="AD210" s="21"/>
     </row>
     <row r="211" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="124"/>
-      <c r="B211" s="124"/>
-      <c r="C211" s="124"/>
-      <c r="D211" s="124"/>
+      <c r="A211" s="133"/>
+      <c r="B211" s="133"/>
+      <c r="C211" s="133"/>
+      <c r="D211" s="133"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="11"/>
@@ -20491,12 +20509,12 @@
       <c r="AD211" s="21"/>
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A212" s="122" t="s">
+      <c r="A212" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="B212" s="122"/>
-      <c r="C212" s="122"/>
-      <c r="D212" s="122"/>
+      <c r="B212" s="129"/>
+      <c r="C212" s="129"/>
+      <c r="D212" s="129"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="11"/>
@@ -20524,10 +20542,10 @@
       <c r="AD212" s="21"/>
     </row>
     <row r="213" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="124"/>
-      <c r="B213" s="124"/>
-      <c r="C213" s="124"/>
-      <c r="D213" s="124"/>
+      <c r="A213" s="133"/>
+      <c r="B213" s="133"/>
+      <c r="C213" s="133"/>
+      <c r="D213" s="133"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="11"/>
@@ -20555,12 +20573,12 @@
       <c r="AD213" s="21"/>
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A214" s="122" t="s">
+      <c r="A214" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="B214" s="122"/>
-      <c r="C214" s="122"/>
-      <c r="D214" s="122"/>
+      <c r="B214" s="129"/>
+      <c r="C214" s="129"/>
+      <c r="D214" s="129"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="11"/>
@@ -20866,10 +20884,10 @@
       </c>
     </row>
     <row r="218" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="124"/>
-      <c r="B218" s="124"/>
-      <c r="C218" s="124"/>
-      <c r="D218" s="124"/>
+      <c r="A218" s="133"/>
+      <c r="B218" s="133"/>
+      <c r="C218" s="133"/>
+      <c r="D218" s="133"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="11"/>
@@ -20897,12 +20915,12 @@
       <c r="AD218" s="21"/>
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A219" s="122" t="s">
+      <c r="A219" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="B219" s="122"/>
-      <c r="C219" s="122"/>
-      <c r="D219" s="122"/>
+      <c r="B219" s="129"/>
+      <c r="C219" s="129"/>
+      <c r="D219" s="129"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="11"/>
@@ -21131,12 +21149,12 @@
       <c r="AD222" s="21"/>
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A223" s="122" t="s">
+      <c r="A223" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="122"/>
-      <c r="C223" s="122"/>
-      <c r="D223" s="122"/>
+      <c r="B223" s="129"/>
+      <c r="C223" s="129"/>
+      <c r="D223" s="129"/>
       <c r="I223" s="8"/>
       <c r="L223" s="8"/>
       <c r="W223" s="21"/>
@@ -21162,12 +21180,12 @@
       <c r="AD224" s="21"/>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A225" s="122" t="s">
+      <c r="A225" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="122"/>
-      <c r="C225" s="122"/>
-      <c r="D225" s="122"/>
+      <c r="B225" s="129"/>
+      <c r="C225" s="129"/>
+      <c r="D225" s="129"/>
       <c r="I225" s="8"/>
       <c r="L225" s="8"/>
       <c r="W225" s="21"/>
@@ -21311,12 +21329,12 @@
       <c r="AD228" s="21"/>
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A229" s="122" t="s">
+      <c r="A229" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="B229" s="122"/>
-      <c r="C229" s="122"/>
-      <c r="D229" s="122"/>
+      <c r="B229" s="129"/>
+      <c r="C229" s="129"/>
+      <c r="D229" s="129"/>
       <c r="I229" s="8"/>
       <c r="L229" s="8"/>
       <c r="W229" s="21"/>
@@ -21385,12 +21403,12 @@
       </c>
     </row>
     <row r="231" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="123" t="s">
+      <c r="A231" s="130" t="s">
         <v>512</v>
       </c>
-      <c r="B231" s="123"/>
-      <c r="C231" s="123"/>
-      <c r="D231" s="123"/>
+      <c r="B231" s="130"/>
+      <c r="C231" s="130"/>
+      <c r="D231" s="130"/>
       <c r="E231" s="7" t="s">
         <v>104</v>
       </c>
@@ -21401,12 +21419,12 @@
       <c r="H231" s="11"/>
     </row>
     <row r="232" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A232" s="123" t="s">
+      <c r="A232" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B232" s="123"/>
-      <c r="C232" s="123"/>
-      <c r="D232" s="123"/>
+      <c r="B232" s="130"/>
+      <c r="C232" s="130"/>
+      <c r="D232" s="130"/>
       <c r="E232" s="6" t="s">
         <v>39</v>
       </c>
@@ -21483,13 +21501,13 @@
       </c>
     </row>
     <row r="233" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="125" t="str">
+      <c r="A233" s="131" t="str">
         <f>_xlfn.CONCAT(F233," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B233" s="125"/>
-      <c r="C233" s="125"/>
-      <c r="D233" s="125"/>
+      <c r="B233" s="131"/>
+      <c r="C233" s="131"/>
+      <c r="D233" s="131"/>
       <c r="E233" s="29" t="s">
         <v>281</v>
       </c>
@@ -21512,23 +21530,23 @@
       <c r="S233" s="26"/>
       <c r="T233" s="26"/>
       <c r="U233" s="6"/>
-      <c r="W233" s="123" t="s">
+      <c r="W233" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X233" s="123"/>
-      <c r="Y233" s="123"/>
-      <c r="Z233" s="123"/>
-      <c r="AB233" s="123" t="s">
+      <c r="X233" s="130"/>
+      <c r="Y233" s="130"/>
+      <c r="Z233" s="130"/>
+      <c r="AB233" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC233" s="123"/>
-      <c r="AD233" s="123"/>
+      <c r="AC233" s="130"/>
+      <c r="AD233" s="130"/>
     </row>
     <row r="234" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="122"/>
-      <c r="B234" s="122"/>
-      <c r="C234" s="122"/>
-      <c r="D234" s="122"/>
+      <c r="A234" s="129"/>
+      <c r="B234" s="129"/>
+      <c r="C234" s="129"/>
+      <c r="D234" s="129"/>
       <c r="E234" s="29" t="s">
         <v>284</v>
       </c>
@@ -21553,46 +21571,46 @@
       <c r="S234" s="26"/>
       <c r="T234" s="26"/>
       <c r="U234" s="39"/>
-      <c r="W234" s="123" t="str">
+      <c r="W234" s="130" t="str">
         <f>A231</f>
         <v>TUESDAY LUNCH</v>
       </c>
-      <c r="X234" s="123"/>
-      <c r="Y234" s="123"/>
-      <c r="Z234" s="123"/>
-      <c r="AB234" s="123" t="str">
+      <c r="X234" s="130"/>
+      <c r="Y234" s="130"/>
+      <c r="Z234" s="130"/>
+      <c r="AB234" s="130" t="str">
         <f>A231</f>
         <v>TUESDAY LUNCH</v>
       </c>
-      <c r="AC234" s="123"/>
-      <c r="AD234" s="123"/>
+      <c r="AC234" s="130"/>
+      <c r="AD234" s="130"/>
     </row>
     <row r="235" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="122" t="s">
+      <c r="A235" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="B235" s="122"/>
-      <c r="C235" s="122"/>
-      <c r="D235" s="122"/>
+      <c r="B235" s="129"/>
+      <c r="C235" s="129"/>
+      <c r="D235" s="129"/>
       <c r="E235" s="30"/>
       <c r="F235" s="30"/>
       <c r="G235" s="30"/>
       <c r="H235" s="17"/>
       <c r="I235" s="11"/>
-      <c r="W235" s="123" t="str">
+      <c r="W235" s="130" t="str">
         <f>A232</f>
         <v>BROCCOLI AND TOFU WITH PEANUT SAUCE</v>
       </c>
-      <c r="X235" s="123"/>
-      <c r="Y235" s="123"/>
-      <c r="Z235" s="123"/>
+      <c r="X235" s="130"/>
+      <c r="Y235" s="130"/>
+      <c r="Z235" s="130"/>
       <c r="AA235" s="41"/>
-      <c r="AB235" s="123" t="str">
+      <c r="AB235" s="130" t="str">
         <f>A232</f>
         <v>BROCCOLI AND TOFU WITH PEANUT SAUCE</v>
       </c>
-      <c r="AC235" s="123"/>
-      <c r="AD235" s="123"/>
+      <c r="AC235" s="130"/>
+      <c r="AD235" s="130"/>
     </row>
     <row r="236" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
@@ -21801,10 +21819,10 @@
       </c>
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A238" s="122"/>
-      <c r="B238" s="122"/>
-      <c r="C238" s="122"/>
-      <c r="D238" s="122"/>
+      <c r="A238" s="129"/>
+      <c r="B238" s="129"/>
+      <c r="C238" s="129"/>
+      <c r="D238" s="129"/>
       <c r="I238" s="11"/>
       <c r="W238" s="21"/>
       <c r="X238" s="21"/>
@@ -21816,12 +21834,12 @@
       <c r="AD238" s="21"/>
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A239" s="122" t="s">
+      <c r="A239" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="B239" s="122"/>
-      <c r="C239" s="122"/>
-      <c r="D239" s="122"/>
+      <c r="B239" s="129"/>
+      <c r="C239" s="129"/>
+      <c r="D239" s="129"/>
       <c r="I239" s="11"/>
       <c r="W239" s="21"/>
       <c r="X239" s="21"/>
@@ -22021,10 +22039,10 @@
       </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A242" s="122"/>
-      <c r="B242" s="122"/>
-      <c r="C242" s="122"/>
-      <c r="D242" s="122"/>
+      <c r="A242" s="129"/>
+      <c r="B242" s="129"/>
+      <c r="C242" s="129"/>
+      <c r="D242" s="129"/>
       <c r="I242" s="11"/>
       <c r="W242" s="21"/>
       <c r="X242" s="21"/>
@@ -22036,12 +22054,12 @@
       <c r="AD242" s="21"/>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A243" s="122" t="s">
+      <c r="A243" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="B243" s="122"/>
-      <c r="C243" s="122"/>
-      <c r="D243" s="122"/>
+      <c r="B243" s="129"/>
+      <c r="C243" s="129"/>
+      <c r="D243" s="129"/>
       <c r="I243" s="11"/>
       <c r="W243" s="21"/>
       <c r="X243" s="21"/>
@@ -22145,10 +22163,10 @@
       </c>
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A245" s="122"/>
-      <c r="B245" s="122"/>
-      <c r="C245" s="122"/>
-      <c r="D245" s="122"/>
+      <c r="A245" s="129"/>
+      <c r="B245" s="129"/>
+      <c r="C245" s="129"/>
+      <c r="D245" s="129"/>
       <c r="I245" s="11"/>
       <c r="W245" s="21"/>
       <c r="X245" s="21"/>
@@ -22160,12 +22178,12 @@
       <c r="AD245" s="21"/>
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A246" s="122" t="s">
+      <c r="A246" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="B246" s="122"/>
-      <c r="C246" s="122"/>
-      <c r="D246" s="122"/>
+      <c r="B246" s="129"/>
+      <c r="C246" s="129"/>
+      <c r="D246" s="129"/>
       <c r="I246" s="11"/>
       <c r="W246" s="21"/>
       <c r="X246" s="21"/>
@@ -22456,10 +22474,10 @@
       </c>
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A250" s="122"/>
-      <c r="B250" s="122"/>
-      <c r="C250" s="122"/>
-      <c r="D250" s="122"/>
+      <c r="A250" s="129"/>
+      <c r="B250" s="129"/>
+      <c r="C250" s="129"/>
+      <c r="D250" s="129"/>
       <c r="I250" s="11"/>
       <c r="W250" s="21"/>
       <c r="X250" s="21"/>
@@ -22471,12 +22489,12 @@
       <c r="AD250" s="21"/>
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A251" s="122" t="s">
+      <c r="A251" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="B251" s="122"/>
-      <c r="C251" s="122"/>
-      <c r="D251" s="122"/>
+      <c r="B251" s="129"/>
+      <c r="C251" s="129"/>
+      <c r="D251" s="129"/>
       <c r="I251" s="11"/>
       <c r="W251" s="21"/>
       <c r="X251" s="21"/>
@@ -22886,12 +22904,12 @@
       </c>
     </row>
     <row r="258" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="123" t="s">
+      <c r="A258" s="130" t="s">
         <v>513</v>
       </c>
-      <c r="B258" s="123"/>
-      <c r="C258" s="123"/>
-      <c r="D258" s="123"/>
+      <c r="B258" s="130"/>
+      <c r="C258" s="130"/>
+      <c r="D258" s="130"/>
       <c r="E258" s="7" t="s">
         <v>105</v>
       </c>
@@ -22902,12 +22920,12 @@
       <c r="H258" s="11"/>
     </row>
     <row r="259" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A259" s="123" t="s">
+      <c r="A259" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="B259" s="123"/>
-      <c r="C259" s="123"/>
-      <c r="D259" s="123"/>
+      <c r="B259" s="130"/>
+      <c r="C259" s="130"/>
+      <c r="D259" s="130"/>
       <c r="E259" s="6" t="s">
         <v>39</v>
       </c>
@@ -22984,13 +23002,13 @@
       </c>
     </row>
     <row r="260" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="125" t="str">
+      <c r="A260" s="131" t="str">
         <f>_xlfn.CONCAT(F260," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B260" s="125"/>
-      <c r="C260" s="125"/>
-      <c r="D260" s="125"/>
+      <c r="B260" s="131"/>
+      <c r="C260" s="131"/>
+      <c r="D260" s="131"/>
       <c r="E260" s="29" t="s">
         <v>281</v>
       </c>
@@ -23000,23 +23018,23 @@
       </c>
       <c r="G260" s="11"/>
       <c r="H260" s="17"/>
-      <c r="W260" s="123" t="s">
+      <c r="W260" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X260" s="123"/>
-      <c r="Y260" s="123"/>
-      <c r="Z260" s="123"/>
-      <c r="AB260" s="123" t="s">
+      <c r="X260" s="130"/>
+      <c r="Y260" s="130"/>
+      <c r="Z260" s="130"/>
+      <c r="AB260" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC260" s="123"/>
-      <c r="AD260" s="123"/>
+      <c r="AC260" s="130"/>
+      <c r="AD260" s="130"/>
     </row>
     <row r="261" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="122"/>
-      <c r="B261" s="122"/>
-      <c r="C261" s="122"/>
-      <c r="D261" s="122"/>
+      <c r="A261" s="129"/>
+      <c r="B261" s="129"/>
+      <c r="C261" s="129"/>
+      <c r="D261" s="129"/>
       <c r="E261" s="29" t="s">
         <v>284</v>
       </c>
@@ -23038,45 +23056,45 @@
       <c r="R261" s="11"/>
       <c r="S261" s="11"/>
       <c r="T261" s="11"/>
-      <c r="W261" s="123" t="str">
+      <c r="W261" s="130" t="str">
         <f>A258</f>
         <v>TUESDAY DINNER</v>
       </c>
-      <c r="X261" s="123"/>
-      <c r="Y261" s="123"/>
-      <c r="Z261" s="123"/>
-      <c r="AB261" s="123" t="str">
+      <c r="X261" s="130"/>
+      <c r="Y261" s="130"/>
+      <c r="Z261" s="130"/>
+      <c r="AB261" s="130" t="str">
         <f>A258</f>
         <v>TUESDAY DINNER</v>
       </c>
-      <c r="AC261" s="123"/>
-      <c r="AD261" s="123"/>
+      <c r="AC261" s="130"/>
+      <c r="AD261" s="130"/>
     </row>
     <row r="262" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="122" t="s">
+      <c r="A262" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="B262" s="122"/>
-      <c r="C262" s="122"/>
-      <c r="D262" s="122"/>
+      <c r="B262" s="129"/>
+      <c r="C262" s="129"/>
+      <c r="D262" s="129"/>
       <c r="E262" s="30"/>
       <c r="F262" s="30"/>
       <c r="G262" s="30"/>
       <c r="I262" s="11"/>
-      <c r="W262" s="123" t="str">
+      <c r="W262" s="130" t="str">
         <f>A259</f>
         <v>MISO AND TOFU SOUP</v>
       </c>
-      <c r="X262" s="123"/>
-      <c r="Y262" s="123"/>
-      <c r="Z262" s="123"/>
+      <c r="X262" s="130"/>
+      <c r="Y262" s="130"/>
+      <c r="Z262" s="130"/>
       <c r="AA262" s="41"/>
-      <c r="AB262" s="123" t="str">
+      <c r="AB262" s="130" t="str">
         <f>A259</f>
         <v>MISO AND TOFU SOUP</v>
       </c>
-      <c r="AC262" s="123"/>
-      <c r="AD262" s="123"/>
+      <c r="AC262" s="130"/>
+      <c r="AD262" s="130"/>
     </row>
     <row r="263" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
@@ -23467,10 +23485,10 @@
       </c>
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A267" s="122"/>
-      <c r="B267" s="122"/>
-      <c r="C267" s="122"/>
-      <c r="D267" s="122"/>
+      <c r="A267" s="129"/>
+      <c r="B267" s="129"/>
+      <c r="C267" s="129"/>
+      <c r="D267" s="129"/>
       <c r="I267" s="11"/>
       <c r="W267" s="21"/>
       <c r="X267" s="21"/>
@@ -23481,12 +23499,12 @@
       <c r="AD267" s="21"/>
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A268" s="122" t="s">
+      <c r="A268" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="B268" s="122"/>
-      <c r="C268" s="122"/>
-      <c r="D268" s="122"/>
+      <c r="B268" s="129"/>
+      <c r="C268" s="129"/>
+      <c r="D268" s="129"/>
       <c r="I268" s="11"/>
       <c r="W268" s="21"/>
       <c r="X268" s="21"/>
@@ -23591,10 +23609,10 @@
       </c>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A270" s="122"/>
-      <c r="B270" s="122"/>
-      <c r="C270" s="122"/>
-      <c r="D270" s="122"/>
+      <c r="A270" s="129"/>
+      <c r="B270" s="129"/>
+      <c r="C270" s="129"/>
+      <c r="D270" s="129"/>
       <c r="I270" s="11"/>
       <c r="W270" s="21"/>
       <c r="X270" s="21"/>
@@ -23605,12 +23623,12 @@
       <c r="AD270" s="21"/>
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A271" s="122" t="s">
+      <c r="A271" s="129" t="s">
         <v>233</v>
       </c>
-      <c r="B271" s="122"/>
-      <c r="C271" s="122"/>
-      <c r="D271" s="122"/>
+      <c r="B271" s="129"/>
+      <c r="C271" s="129"/>
+      <c r="D271" s="129"/>
       <c r="I271" s="11"/>
       <c r="W271" s="21"/>
       <c r="X271" s="21"/>
@@ -23621,10 +23639,10 @@
       <c r="AD271" s="21"/>
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A272" s="122"/>
-      <c r="B272" s="122"/>
-      <c r="C272" s="122"/>
-      <c r="D272" s="122"/>
+      <c r="A272" s="129"/>
+      <c r="B272" s="129"/>
+      <c r="C272" s="129"/>
+      <c r="D272" s="129"/>
       <c r="I272" s="11"/>
       <c r="W272" s="21"/>
       <c r="X272" s="21"/>
@@ -23635,12 +23653,12 @@
       <c r="AD272" s="21"/>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A273" s="122" t="s">
+      <c r="A273" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="B273" s="122"/>
-      <c r="C273" s="122"/>
-      <c r="D273" s="122"/>
+      <c r="B273" s="129"/>
+      <c r="C273" s="129"/>
+      <c r="D273" s="129"/>
       <c r="I273" s="11"/>
       <c r="W273" s="21"/>
       <c r="X273" s="21"/>
@@ -23759,12 +23777,12 @@
       <c r="AD275" s="21"/>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A276" s="122" t="s">
+      <c r="A276" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="B276" s="122"/>
-      <c r="C276" s="122"/>
-      <c r="D276" s="122"/>
+      <c r="B276" s="129"/>
+      <c r="C276" s="129"/>
+      <c r="D276" s="129"/>
       <c r="I276" s="18"/>
       <c r="J276" s="19"/>
       <c r="K276" s="19"/>
@@ -23871,10 +23889,10 @@
       </c>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A278" s="122"/>
-      <c r="B278" s="122"/>
-      <c r="C278" s="122"/>
-      <c r="D278" s="122"/>
+      <c r="A278" s="129"/>
+      <c r="B278" s="129"/>
+      <c r="C278" s="129"/>
+      <c r="D278" s="129"/>
       <c r="I278" s="11"/>
       <c r="W278" s="21"/>
       <c r="X278" s="21"/>
@@ -23885,12 +23903,12 @@
       <c r="AD278" s="21"/>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A279" s="122" t="s">
+      <c r="A279" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="B279" s="122"/>
-      <c r="C279" s="122"/>
-      <c r="D279" s="122"/>
+      <c r="B279" s="129"/>
+      <c r="C279" s="129"/>
+      <c r="D279" s="129"/>
       <c r="I279" s="11"/>
       <c r="W279" s="21"/>
       <c r="X279" s="21"/>
@@ -23995,10 +24013,10 @@
       </c>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A281" s="122"/>
-      <c r="B281" s="122"/>
-      <c r="C281" s="122"/>
-      <c r="D281" s="122"/>
+      <c r="A281" s="129"/>
+      <c r="B281" s="129"/>
+      <c r="C281" s="129"/>
+      <c r="D281" s="129"/>
       <c r="I281" s="11"/>
       <c r="W281" s="30"/>
       <c r="X281" s="30"/>
@@ -24010,12 +24028,12 @@
       <c r="AD281" s="30"/>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A282" s="122" t="s">
+      <c r="A282" s="129" t="s">
         <v>240</v>
       </c>
-      <c r="B282" s="122"/>
-      <c r="C282" s="122"/>
-      <c r="D282" s="122"/>
+      <c r="B282" s="129"/>
+      <c r="C282" s="129"/>
+      <c r="D282" s="129"/>
       <c r="I282" s="11"/>
       <c r="W282" s="30"/>
       <c r="X282" s="30"/>
@@ -24071,12 +24089,12 @@
       <c r="AD284" s="30"/>
     </row>
     <row r="285" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A285" s="123" t="s">
+      <c r="A285" s="130" t="s">
         <v>514</v>
       </c>
-      <c r="B285" s="123"/>
-      <c r="C285" s="123"/>
-      <c r="D285" s="123"/>
+      <c r="B285" s="130"/>
+      <c r="C285" s="130"/>
+      <c r="D285" s="130"/>
       <c r="E285" s="6" t="s">
         <v>110</v>
       </c>
@@ -24085,12 +24103,12 @@
       <c r="H285" s="11"/>
     </row>
     <row r="286" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A286" s="123" t="s">
+      <c r="A286" s="130" t="s">
         <v>242</v>
       </c>
-      <c r="B286" s="123"/>
-      <c r="C286" s="123"/>
-      <c r="D286" s="123"/>
+      <c r="B286" s="130"/>
+      <c r="C286" s="130"/>
+      <c r="D286" s="130"/>
       <c r="E286" s="6" t="s">
         <v>39</v>
       </c>
@@ -24167,13 +24185,13 @@
       </c>
     </row>
     <row r="287" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="125" t="str">
+      <c r="A287" s="131" t="str">
         <f>_xlfn.CONCAT(F287," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B287" s="125"/>
-      <c r="C287" s="125"/>
-      <c r="D287" s="125"/>
+      <c r="B287" s="131"/>
+      <c r="C287" s="131"/>
+      <c r="D287" s="131"/>
       <c r="E287" s="29" t="s">
         <v>281</v>
       </c>
@@ -24185,10 +24203,10 @@
       <c r="H287" s="11"/>
     </row>
     <row r="288" spans="1:30" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="122"/>
-      <c r="B288" s="122"/>
-      <c r="C288" s="122"/>
-      <c r="D288" s="122"/>
+      <c r="A288" s="129"/>
+      <c r="B288" s="129"/>
+      <c r="C288" s="129"/>
+      <c r="D288" s="129"/>
       <c r="E288" s="29" t="s">
         <v>284</v>
       </c>
@@ -24214,33 +24232,33 @@
       <c r="Z288" s="13"/>
     </row>
     <row r="289" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="126" t="s">
+      <c r="A289" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="B289" s="126"/>
-      <c r="C289" s="126"/>
-      <c r="D289" s="126"/>
+      <c r="B289" s="134"/>
+      <c r="C289" s="134"/>
+      <c r="D289" s="134"/>
       <c r="E289" s="30"/>
       <c r="F289" s="30"/>
       <c r="G289" s="30"/>
       <c r="H289" s="11"/>
-      <c r="W289" s="123" t="s">
+      <c r="W289" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X289" s="123"/>
-      <c r="Y289" s="123"/>
-      <c r="Z289" s="123"/>
-      <c r="AB289" s="123" t="s">
+      <c r="X289" s="130"/>
+      <c r="Y289" s="130"/>
+      <c r="Z289" s="130"/>
+      <c r="AB289" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC289" s="123"/>
-      <c r="AD289" s="123"/>
+      <c r="AC289" s="130"/>
+      <c r="AD289" s="130"/>
     </row>
     <row r="290" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="122"/>
-      <c r="B290" s="122"/>
-      <c r="C290" s="122"/>
-      <c r="D290" s="122"/>
+      <c r="A290" s="129"/>
+      <c r="B290" s="129"/>
+      <c r="C290" s="129"/>
+      <c r="D290" s="129"/>
       <c r="E290" s="29" t="s">
         <v>273</v>
       </c>
@@ -24250,28 +24268,28 @@
       </c>
       <c r="G290" s="30"/>
       <c r="I290" s="11"/>
-      <c r="W290" s="123" t="str">
+      <c r="W290" s="130" t="str">
         <f>A285</f>
         <v>WEDNESDAY LUNCH</v>
       </c>
-      <c r="X290" s="123"/>
-      <c r="Y290" s="123"/>
-      <c r="Z290" s="123"/>
+      <c r="X290" s="130"/>
+      <c r="Y290" s="130"/>
+      <c r="Z290" s="130"/>
       <c r="AA290" s="41"/>
-      <c r="AB290" s="123" t="str">
+      <c r="AB290" s="130" t="str">
         <f>A285</f>
         <v>WEDNESDAY LUNCH</v>
       </c>
-      <c r="AC290" s="123"/>
-      <c r="AD290" s="123"/>
+      <c r="AC290" s="130"/>
+      <c r="AD290" s="130"/>
     </row>
     <row r="291" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="122" t="s">
+      <c r="A291" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="B291" s="122"/>
-      <c r="C291" s="122"/>
-      <c r="D291" s="122"/>
+      <c r="B291" s="129"/>
+      <c r="C291" s="129"/>
+      <c r="D291" s="129"/>
       <c r="E291" s="29" t="s">
         <v>285</v>
       </c>
@@ -24283,20 +24301,20 @@
         <v>309</v>
       </c>
       <c r="H291" s="11"/>
-      <c r="W291" s="123" t="str">
+      <c r="W291" s="130" t="str">
         <f>A286</f>
         <v>SHEPHERDESS PIE</v>
       </c>
-      <c r="X291" s="123"/>
-      <c r="Y291" s="123"/>
-      <c r="Z291" s="123"/>
+      <c r="X291" s="130"/>
+      <c r="Y291" s="130"/>
+      <c r="Z291" s="130"/>
       <c r="AA291" s="41"/>
-      <c r="AB291" s="123" t="str">
+      <c r="AB291" s="130" t="str">
         <f>A286</f>
         <v>SHEPHERDESS PIE</v>
       </c>
-      <c r="AC291" s="123"/>
-      <c r="AD291" s="123"/>
+      <c r="AC291" s="130"/>
+      <c r="AD291" s="130"/>
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
@@ -24484,10 +24502,10 @@
       </c>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A294" s="122"/>
-      <c r="B294" s="122"/>
-      <c r="C294" s="122"/>
-      <c r="D294" s="122"/>
+      <c r="A294" s="129"/>
+      <c r="B294" s="129"/>
+      <c r="C294" s="129"/>
+      <c r="D294" s="129"/>
       <c r="I294" s="11"/>
       <c r="W294" s="21"/>
       <c r="X294" s="22"/>
@@ -24499,12 +24517,12 @@
       <c r="AD294" s="21"/>
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A295" s="122" t="s">
+      <c r="A295" s="129" t="s">
         <v>245</v>
       </c>
-      <c r="B295" s="122"/>
-      <c r="C295" s="122"/>
-      <c r="D295" s="122"/>
+      <c r="B295" s="129"/>
+      <c r="C295" s="129"/>
+      <c r="D295" s="129"/>
       <c r="E295" s="7"/>
       <c r="F295" s="24"/>
       <c r="G295" s="24"/>
@@ -24797,10 +24815,10 @@
       </c>
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A299" s="122"/>
-      <c r="B299" s="122"/>
-      <c r="C299" s="122"/>
-      <c r="D299" s="122"/>
+      <c r="A299" s="129"/>
+      <c r="B299" s="129"/>
+      <c r="C299" s="129"/>
+      <c r="D299" s="129"/>
       <c r="I299" s="11"/>
       <c r="W299" s="21"/>
       <c r="X299" s="22"/>
@@ -24812,12 +24830,12 @@
       <c r="AD299" s="21"/>
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A300" s="122" t="s">
+      <c r="A300" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="B300" s="122"/>
-      <c r="C300" s="122"/>
-      <c r="D300" s="122"/>
+      <c r="B300" s="129"/>
+      <c r="C300" s="129"/>
+      <c r="D300" s="129"/>
       <c r="E300" s="7"/>
       <c r="F300" s="24"/>
       <c r="G300" s="24"/>
@@ -24926,10 +24944,10 @@
       </c>
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A302" s="122"/>
-      <c r="B302" s="122"/>
-      <c r="C302" s="122"/>
-      <c r="D302" s="122"/>
+      <c r="A302" s="129"/>
+      <c r="B302" s="129"/>
+      <c r="C302" s="129"/>
+      <c r="D302" s="129"/>
       <c r="I302" s="11"/>
       <c r="W302" s="21"/>
       <c r="X302" s="22"/>
@@ -24941,12 +24959,12 @@
       <c r="AD302" s="21"/>
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A303" s="122" t="s">
+      <c r="A303" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="B303" s="122"/>
-      <c r="C303" s="122"/>
-      <c r="D303" s="122"/>
+      <c r="B303" s="129"/>
+      <c r="C303" s="129"/>
+      <c r="D303" s="129"/>
       <c r="E303" s="7"/>
       <c r="F303" s="24"/>
       <c r="G303" s="24"/>
@@ -24961,10 +24979,10 @@
       <c r="AD303" s="21"/>
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A304" s="122"/>
-      <c r="B304" s="122"/>
-      <c r="C304" s="122"/>
-      <c r="D304" s="122"/>
+      <c r="A304" s="129"/>
+      <c r="B304" s="129"/>
+      <c r="C304" s="129"/>
+      <c r="D304" s="129"/>
       <c r="I304" s="11"/>
       <c r="W304" s="21"/>
       <c r="X304" s="22"/>
@@ -24976,12 +24994,12 @@
       <c r="AD304" s="21"/>
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A305" s="126" t="s">
+      <c r="A305" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="B305" s="126"/>
-      <c r="C305" s="126"/>
-      <c r="D305" s="126"/>
+      <c r="B305" s="134"/>
+      <c r="C305" s="134"/>
+      <c r="D305" s="134"/>
       <c r="E305" s="7"/>
       <c r="F305" s="24"/>
       <c r="G305" s="24"/>
@@ -24996,10 +25014,10 @@
       <c r="AD305" s="21"/>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A306" s="122"/>
-      <c r="B306" s="122"/>
-      <c r="C306" s="122"/>
-      <c r="D306" s="122"/>
+      <c r="A306" s="129"/>
+      <c r="B306" s="129"/>
+      <c r="C306" s="129"/>
+      <c r="D306" s="129"/>
       <c r="I306" s="11"/>
       <c r="W306" s="21"/>
       <c r="X306" s="22"/>
@@ -25011,12 +25029,12 @@
       <c r="AD306" s="21"/>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A307" s="122" t="s">
+      <c r="A307" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="B307" s="122"/>
-      <c r="C307" s="122"/>
-      <c r="D307" s="122"/>
+      <c r="B307" s="129"/>
+      <c r="C307" s="129"/>
+      <c r="D307" s="129"/>
       <c r="E307" s="7"/>
       <c r="F307" s="24"/>
       <c r="G307" s="24"/>
@@ -25031,10 +25049,10 @@
       <c r="AD307" s="21"/>
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A308" s="122"/>
-      <c r="B308" s="122"/>
-      <c r="C308" s="122"/>
-      <c r="D308" s="122"/>
+      <c r="A308" s="129"/>
+      <c r="B308" s="129"/>
+      <c r="C308" s="129"/>
+      <c r="D308" s="129"/>
       <c r="I308" s="11"/>
       <c r="W308" s="21"/>
       <c r="X308" s="22"/>
@@ -25046,12 +25064,12 @@
       <c r="AD308" s="21"/>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A309" s="122" t="s">
+      <c r="A309" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="B309" s="122"/>
-      <c r="C309" s="122"/>
-      <c r="D309" s="122"/>
+      <c r="B309" s="129"/>
+      <c r="C309" s="129"/>
+      <c r="D309" s="129"/>
       <c r="E309" s="7"/>
       <c r="F309" s="24"/>
       <c r="G309" s="24"/>
@@ -25536,10 +25554,10 @@
       </c>
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A315" s="122"/>
-      <c r="B315" s="122"/>
-      <c r="C315" s="122"/>
-      <c r="D315" s="122"/>
+      <c r="A315" s="129"/>
+      <c r="B315" s="129"/>
+      <c r="C315" s="129"/>
+      <c r="D315" s="129"/>
       <c r="I315" s="11"/>
       <c r="W315" s="30"/>
       <c r="X315" s="30"/>
@@ -25551,12 +25569,12 @@
       <c r="AD315" s="30"/>
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A316" s="122" t="s">
+      <c r="A316" s="129" t="s">
         <v>253</v>
       </c>
-      <c r="B316" s="122"/>
-      <c r="C316" s="122"/>
-      <c r="D316" s="122"/>
+      <c r="B316" s="129"/>
+      <c r="C316" s="129"/>
+      <c r="D316" s="129"/>
       <c r="E316" s="7"/>
       <c r="F316" s="24"/>
       <c r="G316" s="24"/>
@@ -25571,10 +25589,10 @@
       <c r="AD316" s="30"/>
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A317" s="122"/>
-      <c r="B317" s="122"/>
-      <c r="C317" s="122"/>
-      <c r="D317" s="122"/>
+      <c r="A317" s="129"/>
+      <c r="B317" s="129"/>
+      <c r="C317" s="129"/>
+      <c r="D317" s="129"/>
       <c r="I317" s="11"/>
       <c r="W317" s="30"/>
       <c r="X317" s="30"/>
@@ -25586,24 +25604,24 @@
       <c r="AD317" s="30"/>
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A318" s="122" t="s">
+      <c r="A318" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="B318" s="122"/>
-      <c r="C318" s="122"/>
-      <c r="D318" s="122"/>
+      <c r="B318" s="129"/>
+      <c r="C318" s="129"/>
+      <c r="D318" s="129"/>
       <c r="E318" s="7"/>
       <c r="F318" s="24"/>
       <c r="G318" s="24"/>
       <c r="H318" s="11"/>
     </row>
     <row r="319" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="123" t="s">
+      <c r="A319" s="130" t="s">
         <v>515</v>
       </c>
-      <c r="B319" s="123"/>
-      <c r="C319" s="123"/>
-      <c r="D319" s="123"/>
+      <c r="B319" s="130"/>
+      <c r="C319" s="130"/>
+      <c r="D319" s="130"/>
       <c r="E319" s="7" t="s">
         <v>107</v>
       </c>
@@ -25613,12 +25631,12 @@
       <c r="G319" s="39"/>
     </row>
     <row r="320" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A320" s="123" t="s">
+      <c r="A320" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B320" s="123"/>
-      <c r="C320" s="123"/>
-      <c r="D320" s="123"/>
+      <c r="B320" s="130"/>
+      <c r="C320" s="130"/>
+      <c r="D320" s="130"/>
       <c r="E320" s="6" t="s">
         <v>39</v>
       </c>
@@ -25694,13 +25712,13 @@
       </c>
     </row>
     <row r="321" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="125" t="str">
+      <c r="A321" s="131" t="str">
         <f>_xlfn.CONCAT(F321," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B321" s="125"/>
-      <c r="C321" s="125"/>
-      <c r="D321" s="125"/>
+      <c r="B321" s="131"/>
+      <c r="C321" s="131"/>
+      <c r="D321" s="131"/>
       <c r="E321" s="29" t="s">
         <v>281</v>
       </c>
@@ -25724,10 +25742,10 @@
       <c r="U321" s="6"/>
     </row>
     <row r="322" spans="1:30" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="122"/>
-      <c r="B322" s="122"/>
-      <c r="C322" s="122"/>
-      <c r="D322" s="122"/>
+      <c r="A322" s="129"/>
+      <c r="B322" s="129"/>
+      <c r="C322" s="129"/>
+      <c r="D322" s="129"/>
       <c r="E322" s="29" t="s">
         <v>284</v>
       </c>
@@ -25755,33 +25773,33 @@
       <c r="Z322" s="13"/>
     </row>
     <row r="323" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="122" t="s">
+      <c r="A323" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="B323" s="122"/>
-      <c r="C323" s="122"/>
-      <c r="D323" s="122"/>
+      <c r="B323" s="129"/>
+      <c r="C323" s="129"/>
+      <c r="D323" s="129"/>
       <c r="E323" s="30"/>
       <c r="F323" s="30"/>
       <c r="G323" s="30"/>
       <c r="I323" s="11"/>
-      <c r="W323" s="123" t="s">
+      <c r="W323" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X323" s="123"/>
-      <c r="Y323" s="123"/>
-      <c r="Z323" s="123"/>
-      <c r="AB323" s="123" t="s">
+      <c r="X323" s="130"/>
+      <c r="Y323" s="130"/>
+      <c r="Z323" s="130"/>
+      <c r="AB323" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC323" s="123"/>
-      <c r="AD323" s="123"/>
+      <c r="AC323" s="130"/>
+      <c r="AD323" s="130"/>
     </row>
     <row r="324" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="122"/>
-      <c r="B324" s="122"/>
-      <c r="C324" s="122"/>
-      <c r="D324" s="122"/>
+      <c r="A324" s="129"/>
+      <c r="B324" s="129"/>
+      <c r="C324" s="129"/>
+      <c r="D324" s="129"/>
       <c r="E324" s="29" t="s">
         <v>273</v>
       </c>
@@ -25791,28 +25809,28 @@
       </c>
       <c r="G324" s="30"/>
       <c r="I324" s="11"/>
-      <c r="W324" s="123" t="str">
+      <c r="W324" s="130" t="str">
         <f>A319</f>
         <v>WEDNESDAY DINNER</v>
       </c>
-      <c r="X324" s="123"/>
-      <c r="Y324" s="123"/>
-      <c r="Z324" s="123"/>
+      <c r="X324" s="130"/>
+      <c r="Y324" s="130"/>
+      <c r="Z324" s="130"/>
       <c r="AA324" s="41"/>
-      <c r="AB324" s="123" t="str">
+      <c r="AB324" s="130" t="str">
         <f>A319</f>
         <v>WEDNESDAY DINNER</v>
       </c>
-      <c r="AC324" s="123"/>
-      <c r="AD324" s="123"/>
+      <c r="AC324" s="130"/>
+      <c r="AD324" s="130"/>
     </row>
     <row r="325" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="122" t="s">
+      <c r="A325" s="129" t="s">
         <v>255</v>
       </c>
-      <c r="B325" s="122"/>
-      <c r="C325" s="122"/>
-      <c r="D325" s="122"/>
+      <c r="B325" s="129"/>
+      <c r="C325" s="129"/>
+      <c r="D325" s="129"/>
       <c r="E325" s="29" t="s">
         <v>285</v>
       </c>
@@ -25824,20 +25842,20 @@
         <v>311</v>
       </c>
       <c r="I325" s="11"/>
-      <c r="W325" s="123" t="str">
+      <c r="W325" s="130" t="str">
         <f>A320</f>
         <v>CURRIED KUMARA AND CARROT SOUP</v>
       </c>
-      <c r="X325" s="123"/>
-      <c r="Y325" s="123"/>
-      <c r="Z325" s="123"/>
+      <c r="X325" s="130"/>
+      <c r="Y325" s="130"/>
+      <c r="Z325" s="130"/>
       <c r="AA325" s="41"/>
-      <c r="AB325" s="123" t="str">
+      <c r="AB325" s="130" t="str">
         <f>A320</f>
         <v>CURRIED KUMARA AND CARROT SOUP</v>
       </c>
-      <c r="AC325" s="123"/>
-      <c r="AD325" s="123"/>
+      <c r="AC325" s="130"/>
+      <c r="AD325" s="130"/>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
@@ -25933,10 +25951,10 @@
       </c>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A327" s="122"/>
-      <c r="B327" s="122"/>
-      <c r="C327" s="122"/>
-      <c r="D327" s="122"/>
+      <c r="A327" s="129"/>
+      <c r="B327" s="129"/>
+      <c r="C327" s="129"/>
+      <c r="D327" s="129"/>
       <c r="E327" s="6"/>
       <c r="F327" s="11"/>
       <c r="G327" s="11"/>
@@ -25951,12 +25969,12 @@
       <c r="AD327" s="21"/>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A328" s="122" t="s">
+      <c r="A328" s="129" t="s">
         <v>256</v>
       </c>
-      <c r="B328" s="122"/>
-      <c r="C328" s="122"/>
-      <c r="D328" s="122"/>
+      <c r="B328" s="129"/>
+      <c r="C328" s="129"/>
+      <c r="D328" s="129"/>
       <c r="I328" s="11"/>
       <c r="W328" s="21"/>
       <c r="X328" s="22"/>
@@ -26718,10 +26736,10 @@
       </c>
     </row>
     <row r="337" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A337" s="122"/>
-      <c r="B337" s="122"/>
-      <c r="C337" s="122"/>
-      <c r="D337" s="122"/>
+      <c r="A337" s="129"/>
+      <c r="B337" s="129"/>
+      <c r="C337" s="129"/>
+      <c r="D337" s="129"/>
       <c r="I337" s="26"/>
       <c r="J337" s="24"/>
       <c r="K337" s="24"/>
@@ -26740,12 +26758,12 @@
       <c r="AD337" s="21"/>
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A338" s="122" t="s">
+      <c r="A338" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="B338" s="122"/>
-      <c r="C338" s="122"/>
-      <c r="D338" s="122"/>
+      <c r="B338" s="129"/>
+      <c r="C338" s="129"/>
+      <c r="D338" s="129"/>
       <c r="I338" s="11"/>
       <c r="L338" s="8"/>
       <c r="M338" s="8"/>
@@ -27134,10 +27152,10 @@
       </c>
     </row>
     <row r="343" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A343" s="122"/>
-      <c r="B343" s="122"/>
-      <c r="C343" s="122"/>
-      <c r="D343" s="122"/>
+      <c r="A343" s="129"/>
+      <c r="B343" s="129"/>
+      <c r="C343" s="129"/>
+      <c r="D343" s="129"/>
       <c r="I343" s="26"/>
       <c r="J343" s="24"/>
       <c r="K343" s="24"/>
@@ -27156,12 +27174,12 @@
       <c r="AD343" s="21"/>
     </row>
     <row r="344" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A344" s="122" t="s">
+      <c r="A344" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B344" s="122"/>
-      <c r="C344" s="122"/>
-      <c r="D344" s="122"/>
+      <c r="B344" s="129"/>
+      <c r="C344" s="129"/>
+      <c r="D344" s="129"/>
       <c r="I344" s="11"/>
       <c r="L344" s="8"/>
       <c r="M344" s="8"/>
@@ -27176,10 +27194,10 @@
       <c r="AD344" s="21"/>
     </row>
     <row r="345" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A345" s="122"/>
-      <c r="B345" s="122"/>
-      <c r="C345" s="122"/>
-      <c r="D345" s="122"/>
+      <c r="A345" s="129"/>
+      <c r="B345" s="129"/>
+      <c r="C345" s="129"/>
+      <c r="D345" s="129"/>
       <c r="I345" s="26"/>
       <c r="J345" s="24"/>
       <c r="K345" s="24"/>
@@ -27198,12 +27216,12 @@
       <c r="AD345" s="21"/>
     </row>
     <row r="346" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A346" s="122" t="s">
+      <c r="A346" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="B346" s="122"/>
-      <c r="C346" s="122"/>
-      <c r="D346" s="122"/>
+      <c r="B346" s="129"/>
+      <c r="C346" s="129"/>
+      <c r="D346" s="129"/>
       <c r="I346" s="11"/>
       <c r="L346" s="8"/>
       <c r="M346" s="8"/>
@@ -27575,10 +27593,10 @@
       </c>
     </row>
     <row r="352" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A352" s="122"/>
-      <c r="B352" s="122"/>
-      <c r="C352" s="122"/>
-      <c r="D352" s="122"/>
+      <c r="A352" s="129"/>
+      <c r="B352" s="129"/>
+      <c r="C352" s="129"/>
+      <c r="D352" s="129"/>
       <c r="I352" s="26"/>
       <c r="J352" s="24"/>
       <c r="K352" s="24"/>
@@ -27589,24 +27607,24 @@
       <c r="P352" s="24"/>
     </row>
     <row r="353" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A353" s="122" t="s">
+      <c r="A353" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="B353" s="122"/>
-      <c r="C353" s="122"/>
-      <c r="D353" s="122"/>
+      <c r="B353" s="129"/>
+      <c r="C353" s="129"/>
+      <c r="D353" s="129"/>
       <c r="I353" s="11"/>
       <c r="L353" s="8"/>
       <c r="M353" s="8"/>
       <c r="N353" s="8"/>
     </row>
     <row r="354" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A354" s="123" t="s">
+      <c r="A354" s="130" t="s">
         <v>516</v>
       </c>
-      <c r="B354" s="123"/>
-      <c r="C354" s="123"/>
-      <c r="D354" s="123"/>
+      <c r="B354" s="130"/>
+      <c r="C354" s="130"/>
+      <c r="D354" s="130"/>
       <c r="E354" s="7" t="s">
         <v>102</v>
       </c>
@@ -27617,12 +27635,12 @@
       <c r="H354" s="11"/>
     </row>
     <row r="355" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A355" s="123" t="s">
+      <c r="A355" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B355" s="123"/>
-      <c r="C355" s="123"/>
-      <c r="D355" s="123"/>
+      <c r="B355" s="130"/>
+      <c r="C355" s="130"/>
+      <c r="D355" s="130"/>
       <c r="E355" s="6" t="s">
         <v>39</v>
       </c>
@@ -27699,13 +27717,13 @@
       </c>
     </row>
     <row r="356" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="125" t="str">
+      <c r="A356" s="131" t="str">
         <f>_xlfn.CONCAT(F356," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B356" s="125"/>
-      <c r="C356" s="125"/>
-      <c r="D356" s="125"/>
+      <c r="B356" s="131"/>
+      <c r="C356" s="131"/>
+      <c r="D356" s="131"/>
       <c r="E356" s="29" t="s">
         <v>281</v>
       </c>
@@ -27728,23 +27746,23 @@
       <c r="S356" s="26"/>
       <c r="T356" s="26"/>
       <c r="U356" s="6"/>
-      <c r="W356" s="123" t="s">
+      <c r="W356" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X356" s="123"/>
-      <c r="Y356" s="123"/>
-      <c r="Z356" s="123"/>
-      <c r="AB356" s="123" t="s">
+      <c r="X356" s="130"/>
+      <c r="Y356" s="130"/>
+      <c r="Z356" s="130"/>
+      <c r="AB356" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC356" s="123"/>
-      <c r="AD356" s="123"/>
+      <c r="AC356" s="130"/>
+      <c r="AD356" s="130"/>
     </row>
     <row r="357" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="122"/>
-      <c r="B357" s="122"/>
-      <c r="C357" s="122"/>
-      <c r="D357" s="122"/>
+      <c r="A357" s="129"/>
+      <c r="B357" s="129"/>
+      <c r="C357" s="129"/>
+      <c r="D357" s="129"/>
       <c r="E357" s="29" t="s">
         <v>284</v>
       </c>
@@ -27769,27 +27787,27 @@
       <c r="S357" s="26"/>
       <c r="T357" s="26"/>
       <c r="U357" s="39"/>
-      <c r="W357" s="123" t="str">
+      <c r="W357" s="130" t="str">
         <f>A354</f>
         <v>THURSDAY LUNCH</v>
       </c>
-      <c r="X357" s="123"/>
-      <c r="Y357" s="123"/>
-      <c r="Z357" s="123"/>
-      <c r="AB357" s="123" t="str">
+      <c r="X357" s="130"/>
+      <c r="Y357" s="130"/>
+      <c r="Z357" s="130"/>
+      <c r="AB357" s="130" t="str">
         <f>A354</f>
         <v>THURSDAY LUNCH</v>
       </c>
-      <c r="AC357" s="123"/>
-      <c r="AD357" s="123"/>
+      <c r="AC357" s="130"/>
+      <c r="AD357" s="130"/>
     </row>
     <row r="358" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A358" s="122" t="s">
+      <c r="A358" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="B358" s="122"/>
-      <c r="C358" s="122"/>
-      <c r="D358" s="122"/>
+      <c r="B358" s="129"/>
+      <c r="C358" s="129"/>
+      <c r="D358" s="129"/>
       <c r="E358" s="30"/>
       <c r="F358" s="30"/>
       <c r="G358" s="30"/>
@@ -27807,20 +27825,20 @@
       <c r="S358" s="26"/>
       <c r="T358" s="26"/>
       <c r="U358" s="6"/>
-      <c r="W358" s="123" t="str">
+      <c r="W358" s="130" t="str">
         <f>A355</f>
         <v>COURGETTE AND CHICKPEA CURRY</v>
       </c>
-      <c r="X358" s="123"/>
-      <c r="Y358" s="123"/>
-      <c r="Z358" s="123"/>
+      <c r="X358" s="130"/>
+      <c r="Y358" s="130"/>
+      <c r="Z358" s="130"/>
       <c r="AA358" s="41"/>
-      <c r="AB358" s="123" t="str">
+      <c r="AB358" s="130" t="str">
         <f>A355</f>
         <v>COURGETTE AND CHICKPEA CURRY</v>
       </c>
-      <c r="AC358" s="123"/>
-      <c r="AD358" s="123"/>
+      <c r="AC358" s="130"/>
+      <c r="AD358" s="130"/>
     </row>
     <row r="359" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
@@ -28311,10 +28329,10 @@
       </c>
     </row>
     <row r="364" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A364" s="124"/>
-      <c r="B364" s="124"/>
-      <c r="C364" s="124"/>
-      <c r="D364" s="124"/>
+      <c r="A364" s="133"/>
+      <c r="B364" s="133"/>
+      <c r="C364" s="133"/>
+      <c r="D364" s="133"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="11"/>
@@ -28342,12 +28360,12 @@
       <c r="AD364" s="21"/>
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A365" s="122" t="s">
+      <c r="A365" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="B365" s="122"/>
-      <c r="C365" s="122"/>
-      <c r="D365" s="122"/>
+      <c r="B365" s="129"/>
+      <c r="C365" s="129"/>
+      <c r="D365" s="129"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="11"/>
@@ -28564,10 +28582,10 @@
       </c>
     </row>
     <row r="368" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="124"/>
-      <c r="B368" s="124"/>
-      <c r="C368" s="124"/>
-      <c r="D368" s="124"/>
+      <c r="A368" s="133"/>
+      <c r="B368" s="133"/>
+      <c r="C368" s="133"/>
+      <c r="D368" s="133"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="11"/>
@@ -28595,12 +28613,12 @@
       <c r="AD368" s="21"/>
     </row>
     <row r="369" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A369" s="122" t="s">
+      <c r="A369" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="B369" s="122"/>
-      <c r="C369" s="122"/>
-      <c r="D369" s="122"/>
+      <c r="B369" s="129"/>
+      <c r="C369" s="129"/>
+      <c r="D369" s="129"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="11"/>
@@ -28812,10 +28830,10 @@
       </c>
     </row>
     <row r="372" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="124"/>
-      <c r="B372" s="124"/>
-      <c r="C372" s="124"/>
-      <c r="D372" s="124"/>
+      <c r="A372" s="133"/>
+      <c r="B372" s="133"/>
+      <c r="C372" s="133"/>
+      <c r="D372" s="133"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="11"/>
@@ -28843,12 +28861,12 @@
       <c r="AD372" s="21"/>
     </row>
     <row r="373" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A373" s="122" t="s">
+      <c r="A373" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="B373" s="122"/>
-      <c r="C373" s="122"/>
-      <c r="D373" s="122"/>
+      <c r="B373" s="129"/>
+      <c r="C373" s="129"/>
+      <c r="D373" s="129"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="11"/>
@@ -29246,10 +29264,10 @@
       </c>
     </row>
     <row r="378" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A378" s="124"/>
-      <c r="B378" s="124"/>
-      <c r="C378" s="124"/>
-      <c r="D378" s="124"/>
+      <c r="A378" s="133"/>
+      <c r="B378" s="133"/>
+      <c r="C378" s="133"/>
+      <c r="D378" s="133"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="11"/>
@@ -29277,12 +29295,12 @@
       <c r="AD378" s="21"/>
     </row>
     <row r="379" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A379" s="122" t="s">
+      <c r="A379" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="B379" s="122"/>
-      <c r="C379" s="122"/>
-      <c r="D379" s="122"/>
+      <c r="B379" s="129"/>
+      <c r="C379" s="129"/>
+      <c r="D379" s="129"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="11"/>
@@ -29670,10 +29688,10 @@
       </c>
     </row>
     <row r="385" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A385" s="124"/>
-      <c r="B385" s="124"/>
-      <c r="C385" s="124"/>
-      <c r="D385" s="124"/>
+      <c r="A385" s="133"/>
+      <c r="B385" s="133"/>
+      <c r="C385" s="133"/>
+      <c r="D385" s="133"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" s="11"/>
@@ -29693,12 +29711,12 @@
       <c r="U385" s="6"/>
     </row>
     <row r="386" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A386" s="122" t="s">
+      <c r="A386" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="B386" s="122"/>
-      <c r="C386" s="122"/>
-      <c r="D386" s="122"/>
+      <c r="B386" s="129"/>
+      <c r="C386" s="129"/>
+      <c r="D386" s="129"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="11"/>
@@ -29718,12 +29736,12 @@
       <c r="U386" s="6"/>
     </row>
     <row r="387" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A387" s="123" t="s">
+      <c r="A387" s="130" t="s">
         <v>517</v>
       </c>
-      <c r="B387" s="123"/>
-      <c r="C387" s="123"/>
-      <c r="D387" s="123"/>
+      <c r="B387" s="130"/>
+      <c r="C387" s="130"/>
+      <c r="D387" s="130"/>
       <c r="E387" s="7" t="s">
         <v>109</v>
       </c>
@@ -29733,12 +29751,12 @@
       <c r="G387" s="39"/>
     </row>
     <row r="388" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A388" s="123" t="s">
+      <c r="A388" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="B388" s="123"/>
-      <c r="C388" s="123"/>
-      <c r="D388" s="123"/>
+      <c r="B388" s="130"/>
+      <c r="C388" s="130"/>
+      <c r="D388" s="130"/>
       <c r="E388" s="6" t="s">
         <v>39</v>
       </c>
@@ -29814,13 +29832,13 @@
       </c>
     </row>
     <row r="389" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="125" t="str">
+      <c r="A389" s="131" t="str">
         <f>_xlfn.CONCAT(F389," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B389" s="125"/>
-      <c r="C389" s="125"/>
-      <c r="D389" s="125"/>
+      <c r="B389" s="131"/>
+      <c r="C389" s="131"/>
+      <c r="D389" s="131"/>
       <c r="E389" s="29" t="s">
         <v>281</v>
       </c>
@@ -29844,10 +29862,10 @@
       <c r="U389" s="6"/>
     </row>
     <row r="390" spans="1:30" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="122"/>
-      <c r="B390" s="122"/>
-      <c r="C390" s="122"/>
-      <c r="D390" s="122"/>
+      <c r="A390" s="129"/>
+      <c r="B390" s="129"/>
+      <c r="C390" s="129"/>
+      <c r="D390" s="129"/>
       <c r="E390" s="29" t="s">
         <v>284</v>
       </c>
@@ -29875,12 +29893,12 @@
       <c r="Z390" s="13"/>
     </row>
     <row r="391" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A391" s="122" t="s">
+      <c r="A391" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="B391" s="122"/>
-      <c r="C391" s="122"/>
-      <c r="D391" s="122"/>
+      <c r="B391" s="129"/>
+      <c r="C391" s="129"/>
+      <c r="D391" s="129"/>
       <c r="E391" s="30"/>
       <c r="F391" s="30"/>
       <c r="G391" s="30"/>
@@ -29897,23 +29915,23 @@
       <c r="S391" s="26"/>
       <c r="T391" s="26"/>
       <c r="U391" s="6"/>
-      <c r="W391" s="123" t="s">
+      <c r="W391" s="130" t="s">
         <v>521</v>
       </c>
-      <c r="X391" s="123"/>
-      <c r="Y391" s="123"/>
-      <c r="Z391" s="123"/>
-      <c r="AB391" s="123" t="s">
+      <c r="X391" s="130"/>
+      <c r="Y391" s="130"/>
+      <c r="Z391" s="130"/>
+      <c r="AB391" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="AC391" s="123"/>
-      <c r="AD391" s="123"/>
+      <c r="AC391" s="130"/>
+      <c r="AD391" s="130"/>
     </row>
     <row r="392" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="122"/>
-      <c r="B392" s="122"/>
-      <c r="C392" s="122"/>
-      <c r="D392" s="122"/>
+      <c r="A392" s="129"/>
+      <c r="B392" s="129"/>
+      <c r="C392" s="129"/>
+      <c r="D392" s="129"/>
       <c r="E392" s="29" t="s">
         <v>273</v>
       </c>
@@ -29923,28 +29941,28 @@
       </c>
       <c r="G392" s="30"/>
       <c r="I392" s="11"/>
-      <c r="W392" s="123" t="str">
+      <c r="W392" s="130" t="str">
         <f>A387</f>
         <v>THURSDAY DINNER</v>
       </c>
-      <c r="X392" s="123"/>
-      <c r="Y392" s="123"/>
-      <c r="Z392" s="123"/>
+      <c r="X392" s="130"/>
+      <c r="Y392" s="130"/>
+      <c r="Z392" s="130"/>
       <c r="AA392" s="41"/>
-      <c r="AB392" s="123" t="str">
+      <c r="AB392" s="130" t="str">
         <f>A387</f>
         <v>THURSDAY DINNER</v>
       </c>
-      <c r="AC392" s="123"/>
-      <c r="AD392" s="123"/>
+      <c r="AC392" s="130"/>
+      <c r="AD392" s="130"/>
     </row>
     <row r="393" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="122" t="s">
+      <c r="A393" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="B393" s="122"/>
-      <c r="C393" s="122"/>
-      <c r="D393" s="122"/>
+      <c r="B393" s="129"/>
+      <c r="C393" s="129"/>
+      <c r="D393" s="129"/>
       <c r="E393" s="29" t="s">
         <v>285</v>
       </c>
@@ -29956,20 +29974,20 @@
         <v>315</v>
       </c>
       <c r="I393" s="11"/>
-      <c r="W393" s="123" t="str">
+      <c r="W393" s="130" t="str">
         <f>A388</f>
         <v>VEGGIE AND SPLIT PEA SOUP</v>
       </c>
-      <c r="X393" s="123"/>
-      <c r="Y393" s="123"/>
-      <c r="Z393" s="123"/>
+      <c r="X393" s="130"/>
+      <c r="Y393" s="130"/>
+      <c r="Z393" s="130"/>
       <c r="AA393" s="41"/>
-      <c r="AB393" s="123" t="str">
+      <c r="AB393" s="130" t="str">
         <f>A388</f>
         <v>VEGGIE AND SPLIT PEA SOUP</v>
       </c>
-      <c r="AC393" s="123"/>
-      <c r="AD393" s="123"/>
+      <c r="AC393" s="130"/>
+      <c r="AD393" s="130"/>
     </row>
     <row r="394" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
@@ -30069,10 +30087,10 @@
       </c>
     </row>
     <row r="395" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A395" s="122"/>
-      <c r="B395" s="122"/>
-      <c r="C395" s="122"/>
-      <c r="D395" s="122"/>
+      <c r="A395" s="129"/>
+      <c r="B395" s="129"/>
+      <c r="C395" s="129"/>
+      <c r="D395" s="129"/>
       <c r="I395" s="11"/>
       <c r="W395" s="21"/>
       <c r="X395" s="22"/>
@@ -30083,12 +30101,12 @@
       <c r="AD395" s="21"/>
     </row>
     <row r="396" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A396" s="122" t="s">
+      <c r="A396" s="129" t="s">
         <v>258</v>
       </c>
-      <c r="B396" s="122"/>
-      <c r="C396" s="122"/>
-      <c r="D396" s="122"/>
+      <c r="B396" s="129"/>
+      <c r="C396" s="129"/>
+      <c r="D396" s="129"/>
       <c r="I396" s="11"/>
       <c r="W396" s="21"/>
       <c r="X396" s="22"/>
@@ -30568,10 +30586,10 @@
       </c>
     </row>
     <row r="402" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A402" s="122"/>
-      <c r="B402" s="122"/>
-      <c r="C402" s="122"/>
-      <c r="D402" s="122"/>
+      <c r="A402" s="129"/>
+      <c r="B402" s="129"/>
+      <c r="C402" s="129"/>
+      <c r="D402" s="129"/>
       <c r="I402" s="8"/>
       <c r="L402" s="8"/>
       <c r="M402" s="8"/>
@@ -30589,12 +30607,12 @@
       <c r="AD402" s="21"/>
     </row>
     <row r="403" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A403" s="122" t="s">
+      <c r="A403" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="B403" s="122"/>
-      <c r="C403" s="122"/>
-      <c r="D403" s="122"/>
+      <c r="B403" s="129"/>
+      <c r="C403" s="129"/>
+      <c r="D403" s="129"/>
       <c r="I403" s="8"/>
       <c r="L403" s="8"/>
       <c r="M403" s="8"/>
@@ -30985,10 +31003,10 @@
       </c>
     </row>
     <row r="408" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A408" s="122"/>
-      <c r="B408" s="122"/>
-      <c r="C408" s="122"/>
-      <c r="D408" s="122"/>
+      <c r="A408" s="129"/>
+      <c r="B408" s="129"/>
+      <c r="C408" s="129"/>
+      <c r="D408" s="129"/>
       <c r="I408" s="11"/>
       <c r="L408" s="8"/>
       <c r="M408" s="8"/>
@@ -31002,12 +31020,12 @@
       <c r="AD408" s="21"/>
     </row>
     <row r="409" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A409" s="122" t="s">
+      <c r="A409" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="B409" s="122"/>
-      <c r="C409" s="122"/>
-      <c r="D409" s="122"/>
+      <c r="B409" s="129"/>
+      <c r="C409" s="129"/>
+      <c r="D409" s="129"/>
       <c r="I409" s="11"/>
       <c r="L409" s="8"/>
       <c r="M409" s="8"/>
@@ -31251,10 +31269,10 @@
       </c>
     </row>
     <row r="414" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A414" s="122"/>
-      <c r="B414" s="122"/>
-      <c r="C414" s="122"/>
-      <c r="D414" s="122"/>
+      <c r="A414" s="129"/>
+      <c r="B414" s="129"/>
+      <c r="C414" s="129"/>
+      <c r="D414" s="129"/>
       <c r="I414" s="8"/>
       <c r="L414" s="8"/>
       <c r="M414" s="8"/>
@@ -31269,12 +31287,12 @@
       <c r="Z414" s="8"/>
     </row>
     <row r="415" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A415" s="122" t="s">
+      <c r="A415" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="B415" s="122"/>
-      <c r="C415" s="122"/>
-      <c r="D415" s="122"/>
+      <c r="B415" s="129"/>
+      <c r="C415" s="129"/>
+      <c r="D415" s="129"/>
       <c r="I415" s="8"/>
       <c r="L415" s="8"/>
       <c r="M415" s="8"/>
@@ -31289,12 +31307,12 @@
       <c r="Z415" s="8"/>
     </row>
     <row r="416" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A416" s="123" t="s">
+      <c r="A416" s="130" t="s">
         <v>440</v>
       </c>
-      <c r="B416" s="123"/>
-      <c r="C416" s="123"/>
-      <c r="D416" s="123"/>
+      <c r="B416" s="130"/>
+      <c r="C416" s="130"/>
+      <c r="D416" s="130"/>
       <c r="M416" s="8"/>
       <c r="N416" s="8"/>
       <c r="O416" s="8"/>
@@ -31307,20 +31325,20 @@
       <c r="Z416" s="8"/>
     </row>
     <row r="417" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="122"/>
-      <c r="B417" s="122"/>
-      <c r="C417" s="122"/>
-      <c r="D417" s="122"/>
+      <c r="A417" s="129"/>
+      <c r="B417" s="129"/>
+      <c r="C417" s="129"/>
+      <c r="D417" s="129"/>
       <c r="I417" s="9"/>
       <c r="L417" s="10"/>
     </row>
     <row r="418" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="122" t="s">
+      <c r="A418" s="129" t="s">
         <v>439</v>
       </c>
-      <c r="B418" s="122"/>
-      <c r="C418" s="122"/>
-      <c r="D418" s="122"/>
+      <c r="B418" s="129"/>
+      <c r="C418" s="129"/>
+      <c r="D418" s="129"/>
       <c r="I418" s="9"/>
       <c r="L418" s="10"/>
     </row>
@@ -32071,12 +32089,12 @@
       <c r="Z429" s="13"/>
     </row>
     <row r="430" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A430" s="123" t="s">
+      <c r="A430" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="B430" s="123"/>
-      <c r="C430" s="123"/>
-      <c r="D430" s="123"/>
+      <c r="B430" s="130"/>
+      <c r="C430" s="130"/>
+      <c r="D430" s="130"/>
       <c r="M430" s="8"/>
       <c r="N430" s="8"/>
       <c r="O430" s="8"/>
@@ -32089,10 +32107,10 @@
       <c r="Z430" s="8"/>
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A431" s="122"/>
-      <c r="B431" s="122"/>
-      <c r="C431" s="122"/>
-      <c r="D431" s="122"/>
+      <c r="A431" s="129"/>
+      <c r="B431" s="129"/>
+      <c r="C431" s="129"/>
+      <c r="D431" s="129"/>
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C432" s="42" t="s">
@@ -32168,6 +32186,294 @@
     </row>
   </sheetData>
   <mergeCells count="312">
+    <mergeCell ref="A431:D431"/>
+    <mergeCell ref="W166:Z166"/>
+    <mergeCell ref="W142:Z142"/>
+    <mergeCell ref="W105:Z105"/>
+    <mergeCell ref="W78:Z78"/>
+    <mergeCell ref="W55:Z55"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W324:Z324"/>
+    <mergeCell ref="W235:Z235"/>
+    <mergeCell ref="W167:Z167"/>
+    <mergeCell ref="W80:Z80"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A322:D322"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A268:D268"/>
+    <mergeCell ref="W393:Z393"/>
+    <mergeCell ref="AB393:AD393"/>
+    <mergeCell ref="W391:Z391"/>
+    <mergeCell ref="W356:Z356"/>
+    <mergeCell ref="W323:Z323"/>
+    <mergeCell ref="W289:Z289"/>
+    <mergeCell ref="W260:Z260"/>
+    <mergeCell ref="W233:Z233"/>
+    <mergeCell ref="W200:Z200"/>
+    <mergeCell ref="AB200:AD200"/>
+    <mergeCell ref="AB233:AD233"/>
+    <mergeCell ref="AB260:AD260"/>
+    <mergeCell ref="AB289:AD289"/>
+    <mergeCell ref="AB323:AD323"/>
+    <mergeCell ref="AB356:AD356"/>
+    <mergeCell ref="AB391:AD391"/>
+    <mergeCell ref="W357:Z357"/>
+    <mergeCell ref="AB357:AD357"/>
+    <mergeCell ref="W358:Z358"/>
+    <mergeCell ref="AB358:AD358"/>
+    <mergeCell ref="W392:Z392"/>
+    <mergeCell ref="AB392:AD392"/>
+    <mergeCell ref="W290:Z290"/>
+    <mergeCell ref="AB290:AD290"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="AB78:AD78"/>
+    <mergeCell ref="AB105:AD105"/>
+    <mergeCell ref="AB142:AD142"/>
+    <mergeCell ref="AB166:AD166"/>
+    <mergeCell ref="W262:Z262"/>
+    <mergeCell ref="AB262:AD262"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="W107:Z107"/>
+    <mergeCell ref="AB107:AD107"/>
+    <mergeCell ref="W143:Z143"/>
+    <mergeCell ref="AB143:AD143"/>
+    <mergeCell ref="W144:Z144"/>
+    <mergeCell ref="AB144:AD144"/>
+    <mergeCell ref="AB167:AD167"/>
+    <mergeCell ref="W168:Z168"/>
+    <mergeCell ref="AB168:AD168"/>
+    <mergeCell ref="W291:Z291"/>
+    <mergeCell ref="AB291:AD291"/>
+    <mergeCell ref="AB324:AD324"/>
+    <mergeCell ref="W325:Z325"/>
+    <mergeCell ref="AB325:AD325"/>
+    <mergeCell ref="W201:Z201"/>
+    <mergeCell ref="AB201:AD201"/>
+    <mergeCell ref="W202:Z202"/>
+    <mergeCell ref="AB202:AD202"/>
+    <mergeCell ref="W234:Z234"/>
+    <mergeCell ref="AB234:AD234"/>
+    <mergeCell ref="AB235:AD235"/>
+    <mergeCell ref="W261:Z261"/>
+    <mergeCell ref="AB261:AD261"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="W56:Z56"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="W57:Z57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="W79:Z79"/>
+    <mergeCell ref="AB79:AD79"/>
+    <mergeCell ref="AB80:AD80"/>
+    <mergeCell ref="W106:Z106"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A309:D309"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A315:D315"/>
+    <mergeCell ref="A354:D354"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A317:D317"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A387:D387"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A352:D352"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A430:D430"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A417:D417"/>
+    <mergeCell ref="A353:D353"/>
+    <mergeCell ref="A321:D321"/>
+    <mergeCell ref="A327:D327"/>
+    <mergeCell ref="A302:D302"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A356:D356"/>
+    <mergeCell ref="A364:D364"/>
+    <mergeCell ref="A402:D402"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A388:D388"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A319:D319"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A378:D378"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A385:D385"/>
+    <mergeCell ref="A386:D386"/>
+    <mergeCell ref="A408:D408"/>
+    <mergeCell ref="A409:D409"/>
+    <mergeCell ref="A414:D414"/>
+    <mergeCell ref="A415:D415"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="A250:D250"/>
+    <mergeCell ref="A392:D392"/>
+    <mergeCell ref="A395:D395"/>
+    <mergeCell ref="A393:D393"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A328:D328"/>
+    <mergeCell ref="A338:D338"/>
+    <mergeCell ref="A337:D337"/>
+    <mergeCell ref="A343:D343"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A291:D291"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A294:D294"/>
+    <mergeCell ref="A295:D295"/>
+    <mergeCell ref="A299:D299"/>
+    <mergeCell ref="A300:D300"/>
+    <mergeCell ref="A344:D344"/>
+    <mergeCell ref="A369:D369"/>
+    <mergeCell ref="A372:D372"/>
+    <mergeCell ref="A373:D373"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A191:D191"/>
     <mergeCell ref="A418:D418"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:D46"/>
@@ -32192,294 +32498,6 @@
     <mergeCell ref="A391:D391"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A369:D369"/>
-    <mergeCell ref="A372:D372"/>
-    <mergeCell ref="A373:D373"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A345:D345"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A392:D392"/>
-    <mergeCell ref="A395:D395"/>
-    <mergeCell ref="A393:D393"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A328:D328"/>
-    <mergeCell ref="A338:D338"/>
-    <mergeCell ref="A337:D337"/>
-    <mergeCell ref="A343:D343"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A291:D291"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A294:D294"/>
-    <mergeCell ref="A295:D295"/>
-    <mergeCell ref="A299:D299"/>
-    <mergeCell ref="A300:D300"/>
-    <mergeCell ref="A344:D344"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="A388:D388"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A319:D319"/>
-    <mergeCell ref="A320:D320"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A378:D378"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A385:D385"/>
-    <mergeCell ref="A386:D386"/>
-    <mergeCell ref="A408:D408"/>
-    <mergeCell ref="A409:D409"/>
-    <mergeCell ref="A414:D414"/>
-    <mergeCell ref="A415:D415"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="A250:D250"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A430:D430"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A417:D417"/>
-    <mergeCell ref="A353:D353"/>
-    <mergeCell ref="A321:D321"/>
-    <mergeCell ref="A327:D327"/>
-    <mergeCell ref="A302:D302"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A356:D356"/>
-    <mergeCell ref="A364:D364"/>
-    <mergeCell ref="A402:D402"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A355:D355"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A387:D387"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A271:D271"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A352:D352"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A317:D317"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A309:D309"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A315:D315"/>
-    <mergeCell ref="A354:D354"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="W56:Z56"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="W57:Z57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="W79:Z79"/>
-    <mergeCell ref="AB79:AD79"/>
-    <mergeCell ref="AB80:AD80"/>
-    <mergeCell ref="W106:Z106"/>
-    <mergeCell ref="W291:Z291"/>
-    <mergeCell ref="AB291:AD291"/>
-    <mergeCell ref="AB324:AD324"/>
-    <mergeCell ref="W325:Z325"/>
-    <mergeCell ref="AB325:AD325"/>
-    <mergeCell ref="W201:Z201"/>
-    <mergeCell ref="AB201:AD201"/>
-    <mergeCell ref="W202:Z202"/>
-    <mergeCell ref="AB202:AD202"/>
-    <mergeCell ref="W234:Z234"/>
-    <mergeCell ref="AB234:AD234"/>
-    <mergeCell ref="AB235:AD235"/>
-    <mergeCell ref="W261:Z261"/>
-    <mergeCell ref="AB261:AD261"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB55:AD55"/>
-    <mergeCell ref="AB78:AD78"/>
-    <mergeCell ref="AB105:AD105"/>
-    <mergeCell ref="AB142:AD142"/>
-    <mergeCell ref="AB166:AD166"/>
-    <mergeCell ref="W262:Z262"/>
-    <mergeCell ref="AB262:AD262"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="W107:Z107"/>
-    <mergeCell ref="AB107:AD107"/>
-    <mergeCell ref="W143:Z143"/>
-    <mergeCell ref="AB143:AD143"/>
-    <mergeCell ref="W144:Z144"/>
-    <mergeCell ref="AB144:AD144"/>
-    <mergeCell ref="AB167:AD167"/>
-    <mergeCell ref="W168:Z168"/>
-    <mergeCell ref="AB168:AD168"/>
-    <mergeCell ref="W393:Z393"/>
-    <mergeCell ref="AB393:AD393"/>
-    <mergeCell ref="W391:Z391"/>
-    <mergeCell ref="W356:Z356"/>
-    <mergeCell ref="W323:Z323"/>
-    <mergeCell ref="W289:Z289"/>
-    <mergeCell ref="W260:Z260"/>
-    <mergeCell ref="W233:Z233"/>
-    <mergeCell ref="W200:Z200"/>
-    <mergeCell ref="AB200:AD200"/>
-    <mergeCell ref="AB233:AD233"/>
-    <mergeCell ref="AB260:AD260"/>
-    <mergeCell ref="AB289:AD289"/>
-    <mergeCell ref="AB323:AD323"/>
-    <mergeCell ref="AB356:AD356"/>
-    <mergeCell ref="AB391:AD391"/>
-    <mergeCell ref="W357:Z357"/>
-    <mergeCell ref="AB357:AD357"/>
-    <mergeCell ref="W358:Z358"/>
-    <mergeCell ref="AB358:AD358"/>
-    <mergeCell ref="W392:Z392"/>
-    <mergeCell ref="AB392:AD392"/>
-    <mergeCell ref="W290:Z290"/>
-    <mergeCell ref="AB290:AD290"/>
-    <mergeCell ref="A431:D431"/>
-    <mergeCell ref="W166:Z166"/>
-    <mergeCell ref="W142:Z142"/>
-    <mergeCell ref="W105:Z105"/>
-    <mergeCell ref="W78:Z78"/>
-    <mergeCell ref="W55:Z55"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="W324:Z324"/>
-    <mergeCell ref="W235:Z235"/>
-    <mergeCell ref="W167:Z167"/>
-    <mergeCell ref="W80:Z80"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A322:D322"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A268:D268"/>
   </mergeCells>
   <conditionalFormatting sqref="M31:T31 M55:T57 M78:T80 M200:T202 M233:T235 M260:T262 M287:T291 M47:P47 M53:T53 M13:T13 M28:P28 M321:T325 M142:T144 M356:T358 M15:T17 Q14:T14 M33:T35 M105:T107 M389:T393 M430:T1048576 M166:T169 M18:P22 R18:T22 R28:T28 M39:T40 M36:P38 R36:T38 M41:P44 R41:T44 R47:T47 M52:P52 R52:T52 M60:T61 M58:P59 R58:T59 M64:T65 M62:P63 R62:T63 M71:T76 M66:P70 R66:T70 M82:T83 M81:P81 R81:T81 M87:T88 M84:P86 R84:T86 M95:T98 M89:P94 R89:T94 M100:T103 M99:P99 R99:T99 M109:T111 M108:P108 R108:T108 M114:T115 M112:P113 R112:T113 M118:T119 M116:P117 R116:T117 M123:T129 M120:P122 R120:T122 M131:T132 M130:P130 R130:T130 M135:T140 M133:P134 R133:T134 M148:T149 M145:P147 R145:T147 M155:T156 M150:P154 R150:T154 M158:T164 M157:P157 R157:T157 M172:T173 M170:P171 R170:T171 M179:T180 M174:P178 R174:T178 M186:T187 M181:P185 R181:T185 M191:T194 M188:P190 R188:T190 M196:T198 M195:P195 R195:T195 M204:T205 M203:P203 R203:T203 M208:T214 M206:P207 R206:T207 M218:T219 M215:P217 R215:T217 M222:T231 M220:P221 R220:T221 M238:T239 M236:P237 R236:T237 M242:T243 M240:P241 R240:T241 M245:T246 M244:P244 R244:T244 M250:T251 M247:P249 R247:T249 M256:T258 M252:P255 R252:T255 M267:T268 M263:P266 R263:T266 M270:T273 M269:P269 R269:T269 M275:T276 M274:P274 R274:T274 M278:T279 M277:P277 R277:T277 M281:T285 M280:P280 R280:T280 M294:T295 M292:P293 R292:T293 M299:T300 M296:P298 R296:T298 M302:T309 M301:P301 R301:T301 M315:T319 M310:P314 R310:T314 M327:T328 M326:P326 R326:T326 M337:T338 M329:P336 R329:T336 M343:T346 M339:P342 R339:T342 M349:T354 M347:P348 R347:T348 M364:T365 M359:P363 R359:T363 M368:T369 M366:P367 R366:T367 M372:T373 M370:P371 R370:T371 M378:T379 M374:P377 R374:T377 M382:T387 M380:P381 R380:T381 M395:T396 M394:P394 R394:T394 M402:T403 M397:P401 R397:T401 M408:T409 M404:P407 R404:T407 M411:T418 M410:P410 R410:T410 M419:P419 R419:T419 M423:P427 R423:T427 M429:P429 R429:T429">
     <cfRule type="cellIs" dxfId="461" priority="651" operator="equal">
@@ -34297,11 +34315,11 @@
       <c r="E2" s="116"/>
       <c r="F2" s="116"/>
       <c r="G2" s="78">
-        <f>IF(D2&lt;&gt;0, E2/D2, 0)</f>
+        <f t="shared" ref="G2:G33" si="0">IF(D2&lt;&gt;0, E2/D2, 0)</f>
         <v>0</v>
       </c>
       <c r="H2" s="78">
-        <f>IF(D2&lt;&gt;0, F2/D2, 0)</f>
+        <f t="shared" ref="H2:H33" si="1">IF(D2&lt;&gt;0, F2/D2, 0)</f>
         <v>0</v>
       </c>
       <c r="I2" s="78">
@@ -34344,11 +34362,11 @@
       <c r="E3" s="117"/>
       <c r="F3" s="117"/>
       <c r="G3" s="69">
-        <f>IF(D3&lt;&gt;0, E3/D3, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="69">
-        <f>IF(D3&lt;&gt;0, F3/D3, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="69">
@@ -34391,11 +34409,11 @@
       <c r="E4" s="117"/>
       <c r="F4" s="117"/>
       <c r="G4" s="69">
-        <f>IF(D4&lt;&gt;0, E4/D4, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="69">
-        <f>IF(D4&lt;&gt;0, F4/D4, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="69">
@@ -34433,11 +34451,11 @@
       <c r="E5" s="117"/>
       <c r="F5" s="117"/>
       <c r="G5" s="69">
-        <f>IF(D5&lt;&gt;0, E5/D5, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="69">
-        <f>IF(D5&lt;&gt;0, F5/D5, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="69">
@@ -34478,11 +34496,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G6" s="69">
-        <f>IF(D6&lt;&gt;0, E6/D6, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
       <c r="H6" s="69">
-        <f>IF(D6&lt;&gt;0, F6/D6, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I6" s="69">
@@ -34525,11 +34543,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G7" s="69">
-        <f>IF(D7&lt;&gt;0, E7/D7, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.27300000000000002</v>
       </c>
       <c r="H7" s="69">
-        <f>IF(D7&lt;&gt;0, F7/D7, 0)</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="I7" s="69">
@@ -34570,11 +34588,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="69">
-        <f>IF(D8&lt;&gt;0, E8/D8, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.85899999999999999</v>
       </c>
       <c r="H8" s="69">
-        <f>IF(D8&lt;&gt;0, F8/D8, 0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="69">
@@ -34609,11 +34627,11 @@
       <c r="E9" s="117"/>
       <c r="F9" s="117"/>
       <c r="G9" s="69">
-        <f>IF(D9&lt;&gt;0, E9/D9, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="69">
-        <f>IF(D9&lt;&gt;0, F9/D9, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="69">
@@ -34656,11 +34674,11 @@
         <v>0.6</v>
       </c>
       <c r="G10" s="69">
-        <f>IF(D10&lt;&gt;0, E10/D10, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.14833333333333334</v>
       </c>
       <c r="H10" s="69">
-        <f>IF(D10&lt;&gt;0, F10/D10, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="I10" s="69">
@@ -34703,11 +34721,11 @@
         <v>0.4</v>
       </c>
       <c r="G11" s="69">
-        <f>IF(D11&lt;&gt;0, E11/D11, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.1265</v>
       </c>
       <c r="H11" s="69">
-        <f>IF(D11&lt;&gt;0, F11/D11, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I11" s="69">
@@ -34747,11 +34765,11 @@
         <v>0.29573529999999998</v>
       </c>
       <c r="G12" s="69">
-        <f>IF(D12&lt;&gt;0, E12/D12, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.157</v>
       </c>
       <c r="H12" s="69">
-        <f>IF(D12&lt;&gt;0, F12/D12, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.29573529999999998</v>
       </c>
       <c r="I12" s="69">
@@ -34791,11 +34809,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G13" s="69">
-        <f>IF(D13&lt;&gt;0, E13/D13, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="H13" s="69">
-        <f>IF(D13&lt;&gt;0, F13/D13, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="I13" s="69">
@@ -34827,11 +34845,11 @@
       <c r="E14" s="117"/>
       <c r="F14" s="117"/>
       <c r="G14" s="69">
-        <f>IF(D14&lt;&gt;0, E14/D14, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="69">
-        <f>IF(D14&lt;&gt;0, F14/D14, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="69">
@@ -34871,11 +34889,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G15" s="69">
-        <f>IF(D15&lt;&gt;0, E15/D15, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.68899999999999995</v>
       </c>
       <c r="H15" s="69">
-        <f>IF(D15&lt;&gt;0, F15/D15, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="I15" s="69">
@@ -34915,11 +34933,11 @@
         <v>0.4</v>
       </c>
       <c r="G16" s="69">
-        <f>IF(D16&lt;&gt;0, E16/D16, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.1045</v>
       </c>
       <c r="H16" s="69">
-        <f>IF(D16&lt;&gt;0, F16/D16, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I16" s="69">
@@ -34959,11 +34977,11 @@
         <v>0.33</v>
       </c>
       <c r="G17" s="69">
-        <f>IF(D17&lt;&gt;0, E17/D17, 0)</f>
+        <f t="shared" si="0"/>
         <v>5.4666666666666669E-2</v>
       </c>
       <c r="H17" s="69">
-        <f>IF(D17&lt;&gt;0, F17/D17, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
       <c r="I17" s="69">
@@ -35003,11 +35021,11 @@
         <v>0.4</v>
       </c>
       <c r="G18" s="69">
-        <f>IF(D18&lt;&gt;0, E18/D18, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H18" s="69">
-        <f>IF(D18&lt;&gt;0, F18/D18, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I18" s="69">
@@ -35039,11 +35057,11 @@
       <c r="E19" s="117"/>
       <c r="F19" s="117"/>
       <c r="G19" s="69">
-        <f>IF(D19&lt;&gt;0, E19/D19, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="69">
-        <f>IF(D19&lt;&gt;0, F19/D19, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="69">
@@ -35075,11 +35093,11 @@
       <c r="E20" s="117"/>
       <c r="F20" s="117"/>
       <c r="G20" s="69">
-        <f>IF(D20&lt;&gt;0, E20/D20, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="69">
-        <f>IF(D20&lt;&gt;0, F20/D20, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="69">
@@ -35117,11 +35135,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G21" s="69">
-        <f>IF(D21&lt;&gt;0, E21/D21, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H21" s="69">
-        <f>IF(D21&lt;&gt;0, F21/D21, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I21" s="69">
@@ -35155,11 +35173,11 @@
       <c r="E22" s="120"/>
       <c r="F22" s="120"/>
       <c r="G22" s="69">
-        <f>IF(D22&lt;&gt;0, E22/D22, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="69">
-        <f>IF(D22&lt;&gt;0, F22/D22, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="69">
@@ -35197,11 +35215,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G23" s="69">
-        <f>IF(D23&lt;&gt;0, E23/D23, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H23" s="69">
-        <f>IF(D23&lt;&gt;0, F23/D23, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I23" s="69">
@@ -35239,11 +35257,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G24" s="69">
-        <f>IF(D24&lt;&gt;0, E24/D24, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
       <c r="H24" s="69">
-        <f>IF(D24&lt;&gt;0, F24/D24, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I24" s="69">
@@ -35275,11 +35293,11 @@
       <c r="E25" s="117"/>
       <c r="F25" s="117"/>
       <c r="G25" s="69">
-        <f>IF(D25&lt;&gt;0, E25/D25, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="69">
-        <f>IF(D25&lt;&gt;0, F25/D25, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="69">
@@ -35317,11 +35335,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G26" s="69">
-        <f>IF(D26&lt;&gt;0, E26/D26, 0)</f>
+        <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H26" s="69">
-        <f>IF(D26&lt;&gt;0, F26/D26, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I26" s="69">
@@ -35359,11 +35377,11 @@
         <v>1.2</v>
       </c>
       <c r="G27" s="69">
-        <f>IF(D27&lt;&gt;0, E27/D27, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
       <c r="H27" s="69">
-        <f>IF(D27&lt;&gt;0, F27/D27, 0)</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="I27" s="69">
@@ -35403,11 +35421,11 @@
         <v>0.946353</v>
       </c>
       <c r="G28" s="69">
-        <f>IF(D28&lt;&gt;0, E28/D28, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.76300000000000001</v>
       </c>
       <c r="H28" s="69">
-        <f>IF(D28&lt;&gt;0, F28/D28, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.946353</v>
       </c>
       <c r="I28" s="69">
@@ -35447,11 +35465,11 @@
         <v>0.946353</v>
       </c>
       <c r="G29" s="69">
-        <f>IF(D29&lt;&gt;0, E29/D29, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.80800000000000005</v>
       </c>
       <c r="H29" s="69">
-        <f>IF(D29&lt;&gt;0, F29/D29, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.946353</v>
       </c>
       <c r="I29" s="69">
@@ -35489,11 +35507,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G30" s="69">
-        <f>IF(D30&lt;&gt;0, E30/D30, 0)</f>
+        <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H30" s="69">
-        <f>IF(D30&lt;&gt;0, F30/D30, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I30" s="69">
@@ -35533,11 +35551,11 @@
         <v>0.946353</v>
       </c>
       <c r="G31" s="69">
-        <f>IF(D31&lt;&gt;0, E31/D31, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.84699999999999998</v>
       </c>
       <c r="H31" s="69">
-        <f>IF(D31&lt;&gt;0, F31/D31, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.946353</v>
       </c>
       <c r="I31" s="69">
@@ -35571,11 +35589,11 @@
       <c r="E32" s="117"/>
       <c r="F32" s="117"/>
       <c r="G32" s="69">
-        <f>IF(D32&lt;&gt;0, E32/D32, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="69">
-        <f>IF(D32&lt;&gt;0, F32/D32, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="69">
@@ -35609,11 +35627,11 @@
       <c r="E33" s="117"/>
       <c r="F33" s="117"/>
       <c r="G33" s="69">
-        <f>IF(D33&lt;&gt;0, E33/D33, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="69">
-        <f>IF(D33&lt;&gt;0, F33/D33, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="69">
@@ -35645,11 +35663,11 @@
       <c r="E34" s="117"/>
       <c r="F34" s="117"/>
       <c r="G34" s="69">
-        <f>IF(D34&lt;&gt;0, E34/D34, 0)</f>
+        <f t="shared" ref="G34:G65" si="2">IF(D34&lt;&gt;0, E34/D34, 0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="69">
-        <f>IF(D34&lt;&gt;0, F34/D34, 0)</f>
+        <f t="shared" ref="H34:H65" si="3">IF(D34&lt;&gt;0, F34/D34, 0)</f>
         <v>0</v>
       </c>
       <c r="I34" s="69">
@@ -35681,11 +35699,11 @@
       <c r="E35" s="117"/>
       <c r="F35" s="117"/>
       <c r="G35" s="69">
-        <f>IF(D35&lt;&gt;0, E35/D35, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="69">
-        <f>IF(D35&lt;&gt;0, F35/D35, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="69">
@@ -35717,11 +35735,11 @@
       <c r="E36" s="117"/>
       <c r="F36" s="117"/>
       <c r="G36" s="69">
-        <f>IF(D36&lt;&gt;0, E36/D36, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="69">
-        <f>IF(D36&lt;&gt;0, F36/D36, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="69">
@@ -35753,11 +35771,11 @@
       <c r="E37" s="117"/>
       <c r="F37" s="117"/>
       <c r="G37" s="69">
-        <f>IF(D37&lt;&gt;0, E37/D37, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="69">
-        <f>IF(D37&lt;&gt;0, F37/D37, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="69">
@@ -35789,11 +35807,11 @@
       <c r="E38" s="117"/>
       <c r="F38" s="117"/>
       <c r="G38" s="69">
-        <f>IF(D38&lt;&gt;0, E38/D38, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="69">
-        <f>IF(D38&lt;&gt;0, F38/D38, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="69">
@@ -35825,11 +35843,11 @@
       <c r="E39" s="117"/>
       <c r="F39" s="117"/>
       <c r="G39" s="69">
-        <f>IF(D39&lt;&gt;0, E39/D39, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="69">
-        <f>IF(D39&lt;&gt;0, F39/D39, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="69">
@@ -35867,11 +35885,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G40" s="69">
-        <f>IF(D40&lt;&gt;0, E40/D40, 0)</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="H40" s="69">
-        <f>IF(D40&lt;&gt;0, F40/D40, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I40" s="69">
@@ -35903,11 +35921,11 @@
       <c r="E41" s="117"/>
       <c r="F41" s="117"/>
       <c r="G41" s="69">
-        <f>IF(D41&lt;&gt;0, E41/D41, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="69">
-        <f>IF(D41&lt;&gt;0, F41/D41, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="69">
@@ -35947,11 +35965,11 @@
         <v>3.4501958300000003E-2</v>
       </c>
       <c r="G42" s="69">
-        <f>IF(D42&lt;&gt;0, E42/D42, 0)</f>
+        <f t="shared" si="2"/>
         <v>2.4E-2</v>
       </c>
       <c r="H42" s="69">
-        <f>IF(D42&lt;&gt;0, F42/D42, 0)</f>
+        <f t="shared" si="3"/>
         <v>3.4501958300000003E-2</v>
       </c>
       <c r="I42" s="69">
@@ -35983,11 +36001,11 @@
       <c r="E43" s="117"/>
       <c r="F43" s="117"/>
       <c r="G43" s="69">
-        <f>IF(D43&lt;&gt;0, E43/D43, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="69">
-        <f>IF(D43&lt;&gt;0, F43/D43, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="69">
@@ -36019,11 +36037,11 @@
       <c r="E44" s="117"/>
       <c r="F44" s="117"/>
       <c r="G44" s="69">
-        <f>IF(D44&lt;&gt;0, E44/D44, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="69">
-        <f>IF(D44&lt;&gt;0, F44/D44, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="69">
@@ -36063,11 +36081,11 @@
         <v>0.29573529999999998</v>
       </c>
       <c r="G45" s="69">
-        <f>IF(D45&lt;&gt;0, E45/D45, 0)</f>
+        <f t="shared" si="2"/>
         <v>0.223</v>
       </c>
       <c r="H45" s="69">
-        <f>IF(D45&lt;&gt;0, F45/D45, 0)</f>
+        <f t="shared" si="3"/>
         <v>0.29573529999999998</v>
       </c>
       <c r="I45" s="69">
@@ -36105,11 +36123,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G46" s="69">
-        <f>IF(D46&lt;&gt;0, E46/D46, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H46" s="69">
-        <f>IF(D46&lt;&gt;0, F46/D46, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I46" s="69">
@@ -36147,11 +36165,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G47" s="69">
-        <f>IF(D47&lt;&gt;0, E47/D47, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H47" s="69">
-        <f>IF(D47&lt;&gt;0, F47/D47, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I47" s="69">
@@ -36189,11 +36207,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G48" s="69">
-        <f>IF(D48&lt;&gt;0, E48/D48, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H48" s="69">
-        <f>IF(D48&lt;&gt;0, F48/D48, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I48" s="69">
@@ -36231,11 +36249,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G49" s="69">
-        <f>IF(D49&lt;&gt;0, E49/D49, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.4E-2</v>
       </c>
       <c r="H49" s="69">
-        <f>IF(D49&lt;&gt;0, F49/D49, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I49" s="69">
@@ -36267,11 +36285,11 @@
       <c r="E50" s="117"/>
       <c r="F50" s="117"/>
       <c r="G50" s="69">
-        <f>IF(D50&lt;&gt;0, E50/D50, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="69">
-        <f>IF(D50&lt;&gt;0, F50/D50, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I50" s="69">
@@ -36311,11 +36329,11 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G51" s="69">
-        <f>IF(D51&lt;&gt;0, E51/D51, 0)</f>
+        <f t="shared" si="2"/>
         <v>0.30149999999999999</v>
       </c>
       <c r="H51" s="69">
-        <f>IF(D51&lt;&gt;0, F51/D51, 0)</f>
+        <f t="shared" si="3"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="I51" s="69">
@@ -36349,11 +36367,11 @@
       <c r="E52" s="117"/>
       <c r="F52" s="117"/>
       <c r="G52" s="69">
-        <f>IF(D52&lt;&gt;0, E52/D52, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="69">
-        <f>IF(D52&lt;&gt;0, F52/D52, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I52" s="69">
@@ -36387,11 +36405,11 @@
       <c r="E53" s="120"/>
       <c r="F53" s="120"/>
       <c r="G53" s="69">
-        <f>IF(D53&lt;&gt;0, E53/D53, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="69">
-        <f>IF(D53&lt;&gt;0, F53/D53, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I53" s="69">
@@ -36423,11 +36441,11 @@
       <c r="E54" s="117"/>
       <c r="F54" s="117"/>
       <c r="G54" s="69">
-        <f>IF(D54&lt;&gt;0, E54/D54, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="69">
-        <f>IF(D54&lt;&gt;0, F54/D54, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I54" s="69">
@@ -36459,11 +36477,11 @@
       <c r="E55" s="117"/>
       <c r="F55" s="117"/>
       <c r="G55" s="69">
-        <f>IF(D55&lt;&gt;0, E55/D55, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="69">
-        <f>IF(D55&lt;&gt;0, F55/D55, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I55" s="69">
@@ -36495,11 +36513,11 @@
       <c r="E56" s="117"/>
       <c r="F56" s="117"/>
       <c r="G56" s="69">
-        <f>IF(D56&lt;&gt;0, E56/D56, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="69">
-        <f>IF(D56&lt;&gt;0, F56/D56, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I56" s="69">
@@ -36531,11 +36549,11 @@
       <c r="E57" s="117"/>
       <c r="F57" s="117"/>
       <c r="G57" s="69">
-        <f>IF(D57&lt;&gt;0, E57/D57, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57" s="69">
-        <f>IF(D57&lt;&gt;0, F57/D57, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I57" s="69">
@@ -36567,11 +36585,11 @@
       <c r="E58" s="117"/>
       <c r="F58" s="117"/>
       <c r="G58" s="69">
-        <f>IF(D58&lt;&gt;0, E58/D58, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="69">
-        <f>IF(D58&lt;&gt;0, F58/D58, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I58" s="69">
@@ -36603,11 +36621,11 @@
       <c r="E59" s="117"/>
       <c r="F59" s="117"/>
       <c r="G59" s="69">
-        <f>IF(D59&lt;&gt;0, E59/D59, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59" s="69">
-        <f>IF(D59&lt;&gt;0, F59/D59, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I59" s="69">
@@ -36647,11 +36665,11 @@
         <v>0.6</v>
       </c>
       <c r="G60" s="69">
-        <f>IF(D60&lt;&gt;0, E60/D60, 0)</f>
+        <f t="shared" si="2"/>
         <v>0.185</v>
       </c>
       <c r="H60" s="69">
-        <f>IF(D60&lt;&gt;0, F60/D60, 0)</f>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="I60" s="69">
@@ -36683,11 +36701,11 @@
       <c r="E61" s="117"/>
       <c r="F61" s="117"/>
       <c r="G61" s="69">
-        <f>IF(D61&lt;&gt;0, E61/D61, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H61" s="69">
-        <f>IF(D61&lt;&gt;0, F61/D61, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I61" s="69">
@@ -36725,11 +36743,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G62" s="69">
-        <f>IF(D62&lt;&gt;0, E62/D62, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
       <c r="H62" s="69">
-        <f>IF(D62&lt;&gt;0, F62/D62, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I62" s="69">
@@ -36761,11 +36779,11 @@
       <c r="E63" s="117"/>
       <c r="F63" s="117"/>
       <c r="G63" s="69">
-        <f>IF(D63&lt;&gt;0, E63/D63, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H63" s="69">
-        <f>IF(D63&lt;&gt;0, F63/D63, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I63" s="69">
@@ -36797,11 +36815,11 @@
       <c r="E64" s="117"/>
       <c r="F64" s="117"/>
       <c r="G64" s="69">
-        <f>IF(D64&lt;&gt;0, E64/D64, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H64" s="69">
-        <f>IF(D64&lt;&gt;0, F64/D64, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I64" s="69">
@@ -36835,11 +36853,11 @@
       <c r="E65" s="117"/>
       <c r="F65" s="117"/>
       <c r="G65" s="69">
-        <f>IF(D65&lt;&gt;0, E65/D65, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H65" s="69">
-        <f>IF(D65&lt;&gt;0, F65/D65, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I65" s="69">
@@ -36879,11 +36897,11 @@
         <v>1.35</v>
       </c>
       <c r="G66" s="69">
-        <f>IF(D66&lt;&gt;0, E66/D66, 0)</f>
+        <f t="shared" ref="G66:G101" si="4">IF(D66&lt;&gt;0, E66/D66, 0)</f>
         <v>0.22500000000000001</v>
       </c>
       <c r="H66" s="69">
-        <f>IF(D66&lt;&gt;0, F66/D66, 0)</f>
+        <f t="shared" ref="H66:H101" si="5">IF(D66&lt;&gt;0, F66/D66, 0)</f>
         <v>0.33750000000000002</v>
       </c>
       <c r="I66" s="69">
@@ -36923,11 +36941,11 @@
         <v>0.5</v>
       </c>
       <c r="G67" s="69">
-        <f>IF(D67&lt;&gt;0, E67/D67, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.1885</v>
       </c>
       <c r="H67" s="69">
-        <f>IF(D67&lt;&gt;0, F67/D67, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="I67" s="69">
@@ -36967,11 +36985,11 @@
         <v>0.45</v>
       </c>
       <c r="G68" s="69">
-        <f>IF(D68&lt;&gt;0, E68/D68, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.19900000000000001</v>
       </c>
       <c r="H68" s="69">
-        <f>IF(D68&lt;&gt;0, F68/D68, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
       <c r="I68" s="69">
@@ -37003,11 +37021,11 @@
       <c r="E69" s="117"/>
       <c r="F69" s="117"/>
       <c r="G69" s="69">
-        <f>IF(D69&lt;&gt;0, E69/D69, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69" s="69">
-        <f>IF(D69&lt;&gt;0, F69/D69, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I69" s="69">
@@ -37045,11 +37063,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G70" s="69">
-        <f>IF(D70&lt;&gt;0, E70/D70, 0)</f>
+        <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H70" s="69">
-        <f>IF(D70&lt;&gt;0, F70/D70, 0)</f>
+        <f t="shared" si="5"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I70" s="69">
@@ -37081,11 +37099,11 @@
       <c r="E71" s="117"/>
       <c r="F71" s="117"/>
       <c r="G71" s="69">
-        <f>IF(D71&lt;&gt;0, E71/D71, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71" s="69">
-        <f>IF(D71&lt;&gt;0, F71/D71, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I71" s="69">
@@ -37125,11 +37143,11 @@
         <v>1.3</v>
       </c>
       <c r="G72" s="69">
-        <f>IF(D72&lt;&gt;0, E72/D72, 0)</f>
+        <f t="shared" si="4"/>
         <v>3.3600000000000005E-2</v>
       </c>
       <c r="H72" s="69">
-        <f>IF(D72&lt;&gt;0, F72/D72, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
       <c r="I72" s="69">
@@ -37169,11 +37187,11 @@
         <v>1</v>
       </c>
       <c r="G73" s="69">
-        <f>IF(D73&lt;&gt;0, E73/D73, 0)</f>
+        <f t="shared" si="4"/>
         <v>3.1E-2</v>
       </c>
       <c r="H73" s="69">
-        <f>IF(D73&lt;&gt;0, F73/D73, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="I73" s="69">
@@ -37205,11 +37223,11 @@
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="69">
-        <f>IF(D74&lt;&gt;0, E74/D74, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74" s="69">
-        <f>IF(D74&lt;&gt;0, F74/D74, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I74" s="69">
@@ -37241,11 +37259,11 @@
       <c r="E75" s="117"/>
       <c r="F75" s="117"/>
       <c r="G75" s="69">
-        <f>IF(D75&lt;&gt;0, E75/D75, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75" s="69">
-        <f>IF(D75&lt;&gt;0, F75/D75, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I75" s="69">
@@ -37277,11 +37295,11 @@
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
       <c r="G76" s="69">
-        <f>IF(D76&lt;&gt;0, E76/D76, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76" s="69">
-        <f>IF(D76&lt;&gt;0, F76/D76, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I76" s="69">
@@ -37313,11 +37331,11 @@
       <c r="E77" s="117"/>
       <c r="F77" s="117"/>
       <c r="G77" s="69">
-        <f>IF(D77&lt;&gt;0, E77/D77, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77" s="69">
-        <f>IF(D77&lt;&gt;0, F77/D77, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I77" s="69">
@@ -37357,11 +37375,11 @@
         <v>0.75</v>
       </c>
       <c r="G78" s="69">
-        <f>IF(D78&lt;&gt;0, E78/D78, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.13400000000000001</v>
       </c>
       <c r="H78" s="69">
-        <f>IF(D78&lt;&gt;0, F78/D78, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="I78" s="69">
@@ -37393,11 +37411,11 @@
       <c r="E79" s="117"/>
       <c r="F79" s="117"/>
       <c r="G79" s="69">
-        <f>IF(D79&lt;&gt;0, E79/D79, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79" s="69">
-        <f>IF(D79&lt;&gt;0, F79/D79, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I79" s="69">
@@ -37429,11 +37447,11 @@
       <c r="E80" s="117"/>
       <c r="F80" s="117"/>
       <c r="G80" s="69">
-        <f>IF(D80&lt;&gt;0, E80/D80, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80" s="69">
-        <f>IF(D80&lt;&gt;0, F80/D80, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I80" s="69">
@@ -37465,11 +37483,11 @@
       <c r="E81" s="117"/>
       <c r="F81" s="117"/>
       <c r="G81" s="69">
-        <f>IF(D81&lt;&gt;0, E81/D81, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81" s="69">
-        <f>IF(D81&lt;&gt;0, F81/D81, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I81" s="69">
@@ -37501,11 +37519,11 @@
       <c r="E82" s="117"/>
       <c r="F82" s="117"/>
       <c r="G82" s="69">
-        <f>IF(D82&lt;&gt;0, E82/D82, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82" s="69">
-        <f>IF(D82&lt;&gt;0, F82/D82, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I82" s="69">
@@ -37537,11 +37555,11 @@
       <c r="E83" s="117"/>
       <c r="F83" s="117"/>
       <c r="G83" s="69">
-        <f>IF(D83&lt;&gt;0, E83/D83, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83" s="69">
-        <f>IF(D83&lt;&gt;0, F83/D83, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I83" s="69">
@@ -37573,11 +37591,11 @@
       <c r="E84" s="117"/>
       <c r="F84" s="117"/>
       <c r="G84" s="69">
-        <f>IF(D84&lt;&gt;0, E84/D84, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84" s="69">
-        <f>IF(D84&lt;&gt;0, F84/D84, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I84" s="69">
@@ -37609,11 +37627,11 @@
       <c r="E85" s="117"/>
       <c r="F85" s="117"/>
       <c r="G85" s="69">
-        <f>IF(D85&lt;&gt;0, E85/D85, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85" s="69">
-        <f>IF(D85&lt;&gt;0, F85/D85, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I85" s="69">
@@ -37645,11 +37663,11 @@
       <c r="E86" s="117"/>
       <c r="F86" s="117"/>
       <c r="G86" s="69">
-        <f>IF(D86&lt;&gt;0, E86/D86, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86" s="69">
-        <f>IF(D86&lt;&gt;0, F86/D86, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I86" s="69">
@@ -37681,11 +37699,11 @@
       <c r="E87" s="117"/>
       <c r="F87" s="117"/>
       <c r="G87" s="69">
-        <f>IF(D87&lt;&gt;0, E87/D87, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H87" s="69">
-        <f>IF(D87&lt;&gt;0, F87/D87, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I87" s="69">
@@ -37717,11 +37735,11 @@
       <c r="E88" s="117"/>
       <c r="F88" s="117"/>
       <c r="G88" s="69">
-        <f>IF(D88&lt;&gt;0, E88/D88, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H88" s="69">
-        <f>IF(D88&lt;&gt;0, F88/D88, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I88" s="69">
@@ -37753,11 +37771,11 @@
       <c r="E89" s="117"/>
       <c r="F89" s="117"/>
       <c r="G89" s="69">
-        <f>IF(D89&lt;&gt;0, E89/D89, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H89" s="69">
-        <f>IF(D89&lt;&gt;0, F89/D89, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I89" s="69">
@@ -37789,11 +37807,11 @@
       <c r="E90" s="117"/>
       <c r="F90" s="117"/>
       <c r="G90" s="69">
-        <f>IF(D90&lt;&gt;0, E90/D90, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H90" s="69">
-        <f>IF(D90&lt;&gt;0, F90/D90, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I90" s="69">
@@ -37825,11 +37843,11 @@
       <c r="E91" s="117"/>
       <c r="F91" s="117"/>
       <c r="G91" s="69">
-        <f>IF(D91&lt;&gt;0, E91/D91, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H91" s="69">
-        <f>IF(D91&lt;&gt;0, F91/D91, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I91" s="69">
@@ -37869,11 +37887,11 @@
         <v>0.5</v>
       </c>
       <c r="G92" s="69">
-        <f>IF(D92&lt;&gt;0, E92/D92, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.311</v>
       </c>
       <c r="H92" s="69">
-        <f>IF(D92&lt;&gt;0, F92/D92, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I92" s="69">
@@ -37913,11 +37931,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G93" s="69">
-        <f>IF(D93&lt;&gt;0, E93/D93, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.315</v>
       </c>
       <c r="H93" s="69">
-        <f>IF(D93&lt;&gt;0, F93/D93, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I93" s="69">
@@ -37951,11 +37969,11 @@
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
       <c r="G94" s="69">
-        <f>IF(D94&lt;&gt;0, E94/D94, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H94" s="69">
-        <f>IF(D94&lt;&gt;0, F94/D94, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I94" s="69">
@@ -37987,11 +38005,11 @@
       <c r="E95" s="117"/>
       <c r="F95" s="117"/>
       <c r="G95" s="69">
-        <f>IF(D95&lt;&gt;0, E95/D95, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95" s="69">
-        <f>IF(D95&lt;&gt;0, F95/D95, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I95" s="69">
@@ -38029,11 +38047,11 @@
         <v>1</v>
       </c>
       <c r="G96" s="69">
-        <f>IF(D96&lt;&gt;0, E96/D96, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H96" s="69">
-        <f>IF(D96&lt;&gt;0, F96/D96, 0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I96" s="69">
@@ -38071,11 +38089,11 @@
         <v>1</v>
       </c>
       <c r="G97" s="69">
-        <f>IF(D97&lt;&gt;0, E97/D97, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H97" s="69">
-        <f>IF(D97&lt;&gt;0, F97/D97, 0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I97" s="69">
@@ -38115,11 +38133,11 @@
         <v>0.65</v>
       </c>
       <c r="G98" s="69">
-        <f>IF(D98&lt;&gt;0, E98/D98, 0)</f>
+        <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H98" s="69">
-        <f>IF(D98&lt;&gt;0, F98/D98, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="I98" s="69">
@@ -38159,11 +38177,11 @@
         <v>0.5</v>
       </c>
       <c r="G99" s="69">
-        <f>IF(D99&lt;&gt;0, E99/D99, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.1885</v>
       </c>
       <c r="H99" s="69">
-        <f>IF(D99&lt;&gt;0, F99/D99, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="I99" s="69">
@@ -38203,11 +38221,11 @@
         <v>0.315</v>
       </c>
       <c r="G100" s="69">
-        <f>IF(D100&lt;&gt;0, E100/D100, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.161</v>
       </c>
       <c r="H100" s="69">
-        <f>IF(D100&lt;&gt;0, F100/D100, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.315</v>
       </c>
       <c r="I100" s="69">
@@ -38247,11 +38265,11 @@
         <v>0.35</v>
       </c>
       <c r="G101" s="83">
-        <f>IF(D101&lt;&gt;0, E101/D101, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.16900000000000001</v>
       </c>
       <c r="H101" s="83">
-        <f>IF(D101&lt;&gt;0, F101/D101, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
       <c r="I101" s="83">
@@ -38477,10 +38495,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2944F1E-C26E-4F90-A95D-D6E10706BE4A}">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38496,11 +38514,13 @@
     <col min="10" max="10" width="5.85546875" style="73" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="73" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="68"/>
-    <col min="13" max="13" width="14.85546875" style="68" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="68"/>
+    <col min="13" max="13" width="15.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="68"/>
+    <col min="15" max="15" width="13.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>379</v>
       </c>
@@ -38535,14 +38555,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
         <v>373</v>
       </c>
       <c r="B2" s="95" t="s">
         <v>530</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="122" t="s">
         <v>269</v>
       </c>
       <c r="D2" s="94">
@@ -38553,7 +38573,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="96">
-        <f>E2 / D2</f>
+        <f t="shared" ref="F2:F44" si="0">E2 / D2</f>
         <v>0</v>
       </c>
       <c r="G2" s="97">
@@ -38572,18 +38592,18 @@
         <v>1</v>
       </c>
       <c r="K2" s="99" t="b">
-        <f>OR(COUNTIF(F2:H2, "&lt;&gt;0") &gt; 1, J2 = 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="43" t="s">
+        <f t="shared" ref="K2:K44" si="1">OR(COUNTIF(F2:H2, "&lt;&gt;0") &gt; 1, J2 = 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="Q2" s="43" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="133" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="127" t="s">
         <v>373</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -38600,7 +38620,7 @@
         <v>4.8285</v>
       </c>
       <c r="F3" s="101">
-        <f>E3 / D3</f>
+        <f t="shared" si="0"/>
         <v>4.8285</v>
       </c>
       <c r="G3" s="102">
@@ -38619,18 +38639,18 @@
         <v>4</v>
       </c>
       <c r="K3" s="103" t="b">
-        <f>OR(COUNTIF(F3:H3, "&lt;&gt;0") &gt; 1, J3 = 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="44" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="Q3" s="44" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B4" s="62" t="s">
@@ -38647,7 +38667,7 @@
         <v>1.4849999999999999</v>
       </c>
       <c r="F4" s="101">
-        <f>E4 / D4</f>
+        <f t="shared" si="0"/>
         <v>1.4849999999999999</v>
       </c>
       <c r="G4" s="102">
@@ -38664,18 +38684,18 @@
         <v>1</v>
       </c>
       <c r="K4" s="103" t="b">
-        <f>OR(COUNTIF(F4:H4, "&lt;&gt;0") &gt; 1, J4 = 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="44" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="Q4" s="44" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="133" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -38692,7 +38712,7 @@
         <v>1.98</v>
       </c>
       <c r="F5" s="101">
-        <f>E5 / D5</f>
+        <f t="shared" si="0"/>
         <v>1.98</v>
       </c>
       <c r="G5" s="102">
@@ -38709,18 +38729,18 @@
         <v>1</v>
       </c>
       <c r="K5" s="103" t="b">
-        <f>OR(COUNTIF(F5:H5, "&lt;&gt;0") &gt; 1, J5 = 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="44" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="Q5" s="44" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133" t="s">
+    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -38737,7 +38757,7 @@
         <v>0.75</v>
       </c>
       <c r="F6" s="101">
-        <f>E6 / D6</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="G6" s="102">
@@ -38754,18 +38774,18 @@
         <v>1</v>
       </c>
       <c r="K6" s="103" t="b">
-        <f>OR(COUNTIF(F6:H6, "&lt;&gt;0") &gt; 1, J6 = 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="44" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="Q6" s="71" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="133" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -38782,7 +38802,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="101">
-        <f>E7 / D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="102">
@@ -38801,15 +38821,15 @@
         <v>1</v>
       </c>
       <c r="K7" s="103" t="b">
-        <f>OR(COUNTIF(F7:H7, "&lt;&gt;0") &gt; 1, J7 = 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="44" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="44" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="133" t="s">
+    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -38826,7 +38846,7 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="F8" s="101">
-        <f>E8 / D8</f>
+        <f t="shared" si="0"/>
         <v>1.0349999999999999</v>
       </c>
       <c r="G8" s="102">
@@ -38843,15 +38863,15 @@
         <v>1</v>
       </c>
       <c r="K8" s="103" t="b">
-        <f>OR(COUNTIF(F8:H8, "&lt;&gt;0") &gt; 1, J8 = 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="114" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="114" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
+    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B9" s="62" t="s">
@@ -38868,7 +38888,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="101">
-        <f>E9 / D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="102">
@@ -38887,15 +38907,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="103" t="b">
-        <f>OR(COUNTIF(F9:H9, "&lt;&gt;0") &gt; 1, J9 = 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="71" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="71" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="133" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B10" s="62" t="s">
@@ -38912,7 +38932,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="101">
-        <f>E10 / D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="102">
@@ -38931,12 +38951,12 @@
         <v>1</v>
       </c>
       <c r="K10" s="103" t="b">
-        <f>OR(COUNTIF(F10:H10, "&lt;&gt;0") &gt; 1, J10 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="127" t="s">
         <v>371</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -38953,7 +38973,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="101">
-        <f>E11 / D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="102">
@@ -38970,12 +38990,12 @@
         <v>1</v>
       </c>
       <c r="K11" s="103" t="b">
-        <f>OR(COUNTIF(F11:H11, "&lt;&gt;0") &gt; 1, J11 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="127" t="s">
         <v>378</v>
       </c>
       <c r="B12" s="62" t="s">
@@ -38992,7 +39012,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="101">
-        <f>E12 / D12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="102">
@@ -39009,12 +39029,12 @@
         <v>1</v>
       </c>
       <c r="K12" s="103" t="b">
-        <f>OR(COUNTIF(F12:H12, "&lt;&gt;0") &gt; 1, J12 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="127" t="s">
         <v>378</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -39031,7 +39051,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="101">
-        <f>E13 / D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="102">
@@ -39048,12 +39068,12 @@
         <v>5</v>
       </c>
       <c r="K13" s="103" t="b">
-        <f>OR(COUNTIF(F13:H13, "&lt;&gt;0") &gt; 1, J13 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B14" s="62" t="s">
@@ -39070,7 +39090,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="101">
-        <f>E14 / D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="102">
@@ -39089,12 +39109,22 @@
         <v>2</v>
       </c>
       <c r="K14" s="103" t="b">
-        <f>OR(COUNTIF(F14:H14, "&lt;&gt;0") &gt; 1, J14 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="68" t="s">
+        <v>531</v>
+      </c>
+      <c r="M14" s="68" t="s">
+        <v>344</v>
+      </c>
+      <c r="N14" s="68">
+        <f>CEILING(H14 * 1.1, 1)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -39111,7 +39141,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="101">
-        <f>E15 / D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="102">
@@ -39128,12 +39158,19 @@
         <v>1</v>
       </c>
       <c r="K15" s="103" t="b">
-        <f>OR(COUNTIF(F15:H15, "&lt;&gt;0") &gt; 1, J15 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="N15" s="68">
+        <f>CEILING(H15 * 1.1, 1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -39151,7 +39188,7 @@
         <v>1.4538417960078407</v>
       </c>
       <c r="F16" s="101">
-        <f>E16 / D16</f>
+        <f t="shared" si="0"/>
         <v>2.7905241798831817</v>
       </c>
       <c r="G16" s="102">
@@ -39168,12 +39205,22 @@
         <v>3</v>
       </c>
       <c r="K16" s="103" t="b">
-        <f>OR(COUNTIF(F16:H16, "&lt;&gt;0") &gt; 1, J16 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="68">
+        <f>CEILING(F16 * 1.1, 0.1)</f>
+        <v>3.1</v>
+      </c>
+      <c r="P16" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B17" s="62" t="s">
@@ -39190,7 +39237,7 @@
         <v>8.23335821141713</v>
       </c>
       <c r="F17" s="101">
-        <f>E17 / D17</f>
+        <f t="shared" si="0"/>
         <v>8.23335821141713</v>
       </c>
       <c r="G17" s="102">
@@ -39207,12 +39254,22 @@
         <v>9</v>
       </c>
       <c r="K17" s="103" t="b">
-        <f>OR(COUNTIF(F17:H17, "&lt;&gt;0") &gt; 1, J17 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="68">
+        <f>CEILING(F17 * 1.1, 0.1)</f>
+        <v>9.1</v>
+      </c>
+      <c r="P17" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B18" s="62" t="s">
@@ -39230,7 +39287,7 @@
         <v>1.9919561117972155</v>
       </c>
       <c r="F18" s="101">
-        <f>E18 / D18</f>
+        <f t="shared" si="0"/>
         <v>2.5268064466048861</v>
       </c>
       <c r="G18" s="102">
@@ -39247,12 +39304,22 @@
         <v>3</v>
       </c>
       <c r="K18" s="103" t="b">
-        <f>OR(COUNTIF(F18:H18, "&lt;&gt;0") &gt; 1, J18 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" s="68">
+        <f>CEILING(F18 * 1.1, 0.1)</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="P18" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B19" s="62" t="s">
@@ -39269,7 +39336,7 @@
         <v>4.2185116436049999</v>
       </c>
       <c r="F19" s="101">
-        <f>E19 / D19</f>
+        <f t="shared" si="0"/>
         <v>4.2185116436049999</v>
       </c>
       <c r="G19" s="102">
@@ -39288,12 +39355,22 @@
         <v>8</v>
       </c>
       <c r="K19" s="103" t="b">
-        <f>OR(COUNTIF(F19:H19, "&lt;&gt;0") &gt; 1, J19 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="O19" s="68">
+        <f>CEILING(F19 * 1.1, 0.1)</f>
+        <v>4.7</v>
+      </c>
+      <c r="P19" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B20" s="62" t="s">
@@ -39310,7 +39387,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="101">
-        <f>E20 / D20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="102">
@@ -39327,12 +39404,19 @@
         <v>1</v>
       </c>
       <c r="K20" s="103" t="b">
-        <f>OR(COUNTIF(F20:H20, "&lt;&gt;0") &gt; 1, J20 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" s="68">
+        <f>CEILING(H20 * 1.1, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B21" s="62" t="s">
@@ -39349,7 +39433,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="101">
-        <f>E21 / D21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="102">
@@ -39368,12 +39452,18 @@
         <v>3</v>
       </c>
       <c r="K21" s="103" t="b">
-        <f>OR(COUNTIF(F21:H21, "&lt;&gt;0") &gt; 1, J21 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>550</v>
+      </c>
+      <c r="N21" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B22" s="62" t="s">
@@ -39390,7 +39480,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="101">
-        <f>E22 / D22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="102">
@@ -39409,12 +39499,18 @@
         <v>5</v>
       </c>
       <c r="K22" s="103" t="b">
-        <f>OR(COUNTIF(F22:H22, "&lt;&gt;0") &gt; 1, J22 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="N22" s="68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -39431,7 +39527,7 @@
         <v>0.36771953846783523</v>
       </c>
       <c r="F23" s="101">
-        <f>E23 / D23</f>
+        <f t="shared" si="0"/>
         <v>0.36771953846783523</v>
       </c>
       <c r="G23" s="102">
@@ -39448,12 +39544,22 @@
         <v>8</v>
       </c>
       <c r="K23" s="103" t="b">
-        <f>OR(COUNTIF(F23:H23, "&lt;&gt;0") &gt; 1, J23 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="68">
+        <f>CEILING(F23 * 1.1, 0.1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P23" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B24" s="62" t="s">
@@ -39470,7 +39576,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="101">
-        <f>E24 / D24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="102">
@@ -39489,12 +39595,15 @@
         <v>1</v>
       </c>
       <c r="K24" s="103" t="b">
-        <f>OR(COUNTIF(F24:H24, "&lt;&gt;0") &gt; 1, J24 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B25" s="62" t="s">
@@ -39512,7 +39621,7 @@
         <v>0.49059999274224286</v>
       </c>
       <c r="F25" s="101">
-        <f>E25 / D25</f>
+        <f t="shared" si="0"/>
         <v>0.59821547502118644</v>
       </c>
       <c r="G25" s="102">
@@ -39529,12 +39638,22 @@
         <v>1</v>
       </c>
       <c r="K25" s="103" t="b">
-        <f>OR(COUNTIF(F25:H25, "&lt;&gt;0") &gt; 1, J25 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="O25" s="68">
+        <f>CEILING(F25 * 1.1, 0.1)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="P25" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B26" s="62" t="s">
@@ -39551,7 +39670,7 @@
         <v>5.5539693001692401</v>
       </c>
       <c r="F26" s="101">
-        <f>E26 / D26</f>
+        <f t="shared" si="0"/>
         <v>5.5539693001692401</v>
       </c>
       <c r="G26" s="102">
@@ -39568,12 +39687,22 @@
         <v>4</v>
       </c>
       <c r="K26" s="103" t="b">
-        <f>OR(COUNTIF(F26:H26, "&lt;&gt;0") &gt; 1, J26 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="68">
+        <f>CEILING(F26 * 1.1, 0.1)</f>
+        <v>6.2</v>
+      </c>
+      <c r="P26" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B27" s="62" t="s">
@@ -39590,7 +39719,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="101">
-        <f>E27 / D27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="102">
@@ -39607,12 +39736,19 @@
         <v>2</v>
       </c>
       <c r="K27" s="103" t="b">
-        <f>OR(COUNTIF(F27:H27, "&lt;&gt;0") &gt; 1, J27 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="68">
+        <f>CEILING(H27 * 1.1, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -39629,7 +39765,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="101">
-        <f>E28 / D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="102">
@@ -39646,12 +39782,19 @@
         <v>1</v>
       </c>
       <c r="K28" s="103" t="b">
-        <f>OR(COUNTIF(F28:H28, "&lt;&gt;0") &gt; 1, J28 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" s="68">
+        <f>CEILING(H28 * 1.1, 1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B29" s="62" t="s">
@@ -39668,7 +39811,7 @@
         <v>1.64133089071875</v>
       </c>
       <c r="F29" s="101">
-        <f>E29 / D29</f>
+        <f t="shared" si="0"/>
         <v>1.64133089071875</v>
       </c>
       <c r="G29" s="102">
@@ -39685,12 +39828,22 @@
         <v>4</v>
       </c>
       <c r="K29" s="103" t="b">
-        <f>OR(COUNTIF(F29:H29, "&lt;&gt;0") &gt; 1, J29 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="68">
+        <f>CEILING(F29 * 1.1, 0.1)</f>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="P29" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B30" s="62" t="s">
@@ -39707,7 +39860,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="101">
-        <f>E30 / D30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="102">
@@ -39724,12 +39877,19 @@
         <v>1</v>
       </c>
       <c r="K30" s="103" t="b">
-        <f>OR(COUNTIF(F30:H30, "&lt;&gt;0") &gt; 1, J30 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="N30" s="68">
+        <f>CEILING(H30 * 1.1, 1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B31" s="62" t="s">
@@ -39746,7 +39906,7 @@
         <v>5.1666666666666661</v>
       </c>
       <c r="F31" s="101">
-        <f>E31 / D31</f>
+        <f t="shared" si="0"/>
         <v>5.1666666666666661</v>
       </c>
       <c r="G31" s="102">
@@ -39763,12 +39923,22 @@
         <v>3</v>
       </c>
       <c r="K31" s="103" t="b">
-        <f>OR(COUNTIF(F31:H31, "&lt;&gt;0") &gt; 1, J31 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" s="68">
+        <f>CEILING(F31 * 1.1, 0.1)</f>
+        <v>5.7</v>
+      </c>
+      <c r="P31" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B32" s="62" t="s">
@@ -39786,7 +39956,7 @@
         <v>1.9755906375204999</v>
       </c>
       <c r="F32" s="101">
-        <f>E32 / D32</f>
+        <f t="shared" si="0"/>
         <v>2.4089460031701577</v>
       </c>
       <c r="G32" s="102">
@@ -39803,12 +39973,22 @@
         <v>2</v>
       </c>
       <c r="K32" s="103" t="b">
-        <f>OR(COUNTIF(F32:H32, "&lt;&gt;0") &gt; 1, J32 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="O32" s="68">
+        <f>CEILING(F32 * 1.1, 0.1)</f>
+        <v>2.7</v>
+      </c>
+      <c r="P32" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B33" s="62" t="s">
@@ -39826,7 +40006,7 @@
         <v>1.3078487002632211</v>
       </c>
       <c r="F33" s="101">
-        <f>E33 / D33</f>
+        <f t="shared" si="0"/>
         <v>3.0595733230400199</v>
       </c>
       <c r="G33" s="102">
@@ -39845,12 +40025,22 @@
         <v>3</v>
       </c>
       <c r="K33" s="103" t="b">
-        <f>OR(COUNTIF(F33:H33, "&lt;&gt;0") &gt; 1, J33 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="68" t="s">
+        <v>548</v>
+      </c>
+      <c r="O33" s="68">
+        <f>CEILING(F33 * 1.1, 0.1)</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="P33" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B34" s="62" t="s">
@@ -39868,7 +40058,7 @@
         <v>0.274757805322</v>
       </c>
       <c r="F34" s="101">
-        <f>E34 / D34</f>
+        <f t="shared" si="0"/>
         <v>0.42238886489799998</v>
       </c>
       <c r="G34" s="102">
@@ -39885,12 +40075,22 @@
         <v>1</v>
       </c>
       <c r="K34" s="103" t="b">
-        <f>OR(COUNTIF(F34:H34, "&lt;&gt;0") &gt; 1, J34 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="O34" s="68">
+        <f>CEILING(F34 * 1.1, 0.1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P34" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B35" s="62" t="s">
@@ -39907,7 +40107,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="101">
-        <f>E35 / D35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G35" s="102">
@@ -39924,12 +40124,19 @@
         <v>1</v>
       </c>
       <c r="K35" s="103" t="b">
-        <f>OR(COUNTIF(F35:H35, "&lt;&gt;0") &gt; 1, J35 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" s="68">
+        <f>CEILING(H35 * 1.1, 1)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -39946,7 +40153,7 @@
         <v>0.98076923076923073</v>
       </c>
       <c r="F36" s="101">
-        <f>E36 / D36</f>
+        <f t="shared" si="0"/>
         <v>0.98076923076923073</v>
       </c>
       <c r="G36" s="102">
@@ -39965,12 +40172,22 @@
         <v>1</v>
       </c>
       <c r="K36" s="103" t="b">
-        <f>OR(COUNTIF(F36:H36, "&lt;&gt;0") &gt; 1, J36 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="68" t="s">
+        <v>547</v>
+      </c>
+      <c r="O36" s="68">
+        <f>CEILING(F36 * 1.1, 0.1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P36" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B37" s="62" t="s">
@@ -39988,7 +40205,7 @@
         <v>0.49056570838274999</v>
       </c>
       <c r="F37" s="101">
-        <f>E37 / D37</f>
+        <f t="shared" si="0"/>
         <v>0.59817367022154677</v>
       </c>
       <c r="G37" s="102">
@@ -40005,12 +40222,22 @@
         <v>1</v>
       </c>
       <c r="K37" s="103" t="b">
-        <f>OR(COUNTIF(F37:H37, "&lt;&gt;0") &gt; 1, J37 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="O37" s="68">
+        <f>CEILING(F37 * 1.1, 0.1)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="P37" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="127" t="s">
         <v>375</v>
       </c>
       <c r="B38" s="62" t="s">
@@ -40027,7 +40254,7 @@
         <v>1.7394444444444446</v>
       </c>
       <c r="F38" s="101">
-        <f>E38 / D38</f>
+        <f t="shared" si="0"/>
         <v>1.7394444444444446</v>
       </c>
       <c r="G38" s="102">
@@ -40044,12 +40271,22 @@
         <v>2</v>
       </c>
       <c r="K38" s="103" t="b">
-        <f>OR(COUNTIF(F38:H38, "&lt;&gt;0") &gt; 1, J38 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="68">
+        <f>CEILING(F38 * 1.1, 0.1)</f>
+        <v>2</v>
+      </c>
+      <c r="P38" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="127" t="s">
         <v>373</v>
       </c>
       <c r="B39" s="62" t="s">
@@ -40066,7 +40303,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="101">
-        <f>E39 / D39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G39" s="102">
@@ -40085,12 +40322,12 @@
         <v>1</v>
       </c>
       <c r="K39" s="103" t="b">
-        <f>OR(COUNTIF(F39:H39, "&lt;&gt;0") &gt; 1, J39 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B40" s="62" t="s">
@@ -40107,7 +40344,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="101">
-        <f>E40 / D40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G40" s="102">
@@ -40124,12 +40361,12 @@
         <v>2</v>
       </c>
       <c r="K40" s="103" t="b">
-        <f>OR(COUNTIF(F40:H40, "&lt;&gt;0") &gt; 1, J40 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -40146,7 +40383,7 @@
         <v>2.1333378704334063E-2</v>
       </c>
       <c r="F41" s="101">
-        <f>E41 / D41</f>
+        <f t="shared" si="0"/>
         <v>2.1333378704334063E-2</v>
       </c>
       <c r="G41" s="102">
@@ -40163,12 +40400,12 @@
         <v>1</v>
       </c>
       <c r="K41" s="103" t="b">
-        <f>OR(COUNTIF(F41:H41, "&lt;&gt;0") &gt; 1, J41 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B42" s="62" t="s">
@@ -40185,7 +40422,7 @@
         <v>1.0388910983621014E-2</v>
       </c>
       <c r="F42" s="101">
-        <f>E42 / D42</f>
+        <f t="shared" si="0"/>
         <v>1.0388910983621014E-2</v>
       </c>
       <c r="G42" s="102">
@@ -40202,12 +40439,12 @@
         <v>3</v>
       </c>
       <c r="K42" s="103" t="b">
-        <f>OR(COUNTIF(F42:H42, "&lt;&gt;0") &gt; 1, J42 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B43" s="62" t="s">
@@ -40224,7 +40461,7 @@
         <v>3.1166732950863047E-2</v>
       </c>
       <c r="F43" s="101">
-        <f>E43 / D43</f>
+        <f t="shared" si="0"/>
         <v>3.1166732950863047E-2</v>
       </c>
       <c r="G43" s="102">
@@ -40241,12 +40478,12 @@
         <v>1</v>
       </c>
       <c r="K43" s="103" t="b">
-        <f>OR(COUNTIF(F43:H43, "&lt;&gt;0") &gt; 1, J43 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B44" s="62" t="s">
@@ -40263,7 +40500,7 @@
         <v>5.0000106338282967E-2</v>
       </c>
       <c r="F44" s="101">
-        <f>E44 / D44</f>
+        <f t="shared" si="0"/>
         <v>5.0000106338282967E-2</v>
       </c>
       <c r="G44" s="102">
@@ -40280,18 +40517,18 @@
         <v>2</v>
       </c>
       <c r="K44" s="103" t="b">
-        <f>OR(COUNTIF(F44:H44, "&lt;&gt;0") &gt; 1, J44 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="133" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C45" s="129" t="s">
+      <c r="C45" s="123" t="s">
         <v>474</v>
       </c>
       <c r="D45" s="100"/>
@@ -40305,14 +40542,14 @@
       <c r="J45" s="61"/>
       <c r="K45" s="103"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="133" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="123" t="s">
         <v>472</v>
       </c>
       <c r="D46" s="100"/>
@@ -40326,8 +40563,8 @@
       <c r="J46" s="61"/>
       <c r="K46" s="103"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="133" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B47" s="62" t="s">
@@ -40344,7 +40581,7 @@
         <v>1.5000031901484889E-3</v>
       </c>
       <c r="F47" s="101">
-        <f>E47 / D47</f>
+        <f t="shared" ref="F47:F57" si="2">E47 / D47</f>
         <v>1.5000031901484889E-3</v>
       </c>
       <c r="G47" s="102">
@@ -40361,12 +40598,12 @@
         <v>1</v>
       </c>
       <c r="K47" s="103" t="b">
-        <f>OR(COUNTIF(F47:H47, "&lt;&gt;0") &gt; 1, J47 = 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="133" t="s">
+        <f t="shared" ref="K47:K57" si="3">OR(COUNTIF(F47:H47, "&lt;&gt;0") &gt; 1, J47 = 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B48" s="62" t="s">
@@ -40383,7 +40620,7 @@
         <v>0.40220000205000001</v>
       </c>
       <c r="F48" s="101">
-        <f>E48 / D48</f>
+        <f t="shared" si="2"/>
         <v>0.40220000205000001</v>
       </c>
       <c r="G48" s="102">
@@ -40400,12 +40637,12 @@
         <v>1</v>
       </c>
       <c r="K48" s="103" t="b">
-        <f>OR(COUNTIF(F48:H48, "&lt;&gt;0") &gt; 1, J48 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="133" t="s">
+      <c r="A49" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B49" s="62" t="s">
@@ -40422,7 +40659,7 @@
         <v>0.38149997823116744</v>
       </c>
       <c r="F49" s="101">
-        <f>E49 / D49</f>
+        <f t="shared" si="2"/>
         <v>0.38149997823116744</v>
       </c>
       <c r="G49" s="102">
@@ -40439,12 +40676,12 @@
         <v>1</v>
       </c>
       <c r="K49" s="103" t="b">
-        <f>OR(COUNTIF(F49:H49, "&lt;&gt;0") &gt; 1, J49 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="133" t="s">
+      <c r="A50" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -40461,7 +40698,7 @@
         <v>0.85849995101299414</v>
       </c>
       <c r="F50" s="101">
-        <f>E50 / D50</f>
+        <f t="shared" si="2"/>
         <v>0.85849995101299414</v>
       </c>
       <c r="G50" s="102">
@@ -40478,12 +40715,12 @@
         <v>1</v>
       </c>
       <c r="K50" s="103" t="b">
-        <f>OR(COUNTIF(F50:H50, "&lt;&gt;0") &gt; 1, J50 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="133" t="s">
+      <c r="A51" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B51" s="62" t="s">
@@ -40500,7 +40737,7 @@
         <v>2.0000042535313184E-3</v>
       </c>
       <c r="F51" s="101">
-        <f>E51 / D51</f>
+        <f t="shared" si="2"/>
         <v>2.0000042535313184E-3</v>
       </c>
       <c r="G51" s="102">
@@ -40517,12 +40754,12 @@
         <v>1</v>
       </c>
       <c r="K51" s="103" t="b">
-        <f>OR(COUNTIF(F51:H51, "&lt;&gt;0") &gt; 1, J51 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="133" t="s">
+      <c r="A52" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B52" s="62" t="s">
@@ -40539,7 +40776,7 @@
         <v>1.1646249335451464</v>
       </c>
       <c r="F52" s="101">
-        <f>E52 / D52</f>
+        <f t="shared" si="2"/>
         <v>1.1646249335451464</v>
       </c>
       <c r="G52" s="102">
@@ -40556,12 +40793,12 @@
         <v>2</v>
       </c>
       <c r="K52" s="103" t="b">
-        <f>OR(COUNTIF(F52:H52, "&lt;&gt;0") &gt; 1, J52 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="133" t="s">
+      <c r="A53" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B53" s="62" t="s">
@@ -40578,7 +40815,7 @@
         <v>2.8333393591693682E-2</v>
       </c>
       <c r="F53" s="101">
-        <f>E53 / D53</f>
+        <f t="shared" si="2"/>
         <v>2.8333393591693682E-2</v>
       </c>
       <c r="G53" s="102">
@@ -40595,12 +40832,12 @@
         <v>1</v>
       </c>
       <c r="K53" s="103" t="b">
-        <f>OR(COUNTIF(F53:H53, "&lt;&gt;0") &gt; 1, J53 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B54" s="62" t="s">
@@ -40617,7 +40854,7 @@
         <v>4.0944531523682826E-2</v>
       </c>
       <c r="F54" s="101">
-        <f>E54 / D54</f>
+        <f t="shared" si="2"/>
         <v>4.0944531523682826E-2</v>
       </c>
       <c r="G54" s="102">
@@ -40634,12 +40871,12 @@
         <v>2</v>
       </c>
       <c r="K54" s="103" t="b">
-        <f>OR(COUNTIF(F54:H54, "&lt;&gt;0") &gt; 1, J54 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B55" s="62" t="s">
@@ -40656,7 +40893,7 @@
         <v>2.688894607525439E-2</v>
       </c>
       <c r="F55" s="101">
-        <f>E55 / D55</f>
+        <f t="shared" si="2"/>
         <v>2.688894607525439E-2</v>
       </c>
       <c r="G55" s="102">
@@ -40673,12 +40910,12 @@
         <v>3</v>
       </c>
       <c r="K55" s="103" t="b">
-        <f>OR(COUNTIF(F55:H55, "&lt;&gt;0") &gt; 1, J55 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B56" s="62" t="s">
@@ -40695,7 +40932,7 @@
         <v>7.4666825465169229E-2</v>
       </c>
       <c r="F56" s="101">
-        <f>E56 / D56</f>
+        <f t="shared" si="2"/>
         <v>7.4666825465169229E-2</v>
       </c>
       <c r="G56" s="102">
@@ -40712,12 +40949,12 @@
         <v>6</v>
       </c>
       <c r="K56" s="103" t="b">
-        <f>OR(COUNTIF(F56:H56, "&lt;&gt;0") &gt; 1, J56 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="133" t="s">
+      <c r="A57" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -40734,7 +40971,7 @@
         <v>8.6666850986357128E-3</v>
       </c>
       <c r="F57" s="101">
-        <f>E57 / D57</f>
+        <f t="shared" si="2"/>
         <v>8.6666850986357128E-3</v>
       </c>
       <c r="G57" s="102">
@@ -40751,18 +40988,18 @@
         <v>1</v>
       </c>
       <c r="K57" s="103" t="b">
-        <f>OR(COUNTIF(F57:H57, "&lt;&gt;0") &gt; 1, J57 = 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="133" t="s">
+      <c r="A58" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B58" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C58" s="129" t="s">
+      <c r="C58" s="123" t="s">
         <v>470</v>
       </c>
       <c r="D58" s="100"/>
@@ -40777,13 +41014,13 @@
       <c r="K58" s="103"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="133" t="s">
+      <c r="A59" s="127" t="s">
         <v>372</v>
       </c>
       <c r="B59" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C59" s="129" t="s">
+      <c r="C59" s="123" t="s">
         <v>271</v>
       </c>
       <c r="D59" s="100"/>
@@ -40798,7 +41035,7 @@
       <c r="K59" s="103"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="133" t="s">
+      <c r="A60" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B60" s="62" t="s">
@@ -40837,7 +41074,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="133" t="s">
+      <c r="A61" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B61" s="62" t="s">
@@ -40876,13 +41113,13 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C62" s="129" t="s">
+      <c r="C62" s="123" t="s">
         <v>475</v>
       </c>
       <c r="D62" s="100"/>
@@ -40897,7 +41134,7 @@
       <c r="K62" s="103"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="133" t="s">
+      <c r="A63" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B63" s="62" t="s">
@@ -40936,13 +41173,13 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="133" t="s">
+      <c r="A64" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C64" s="129" t="s">
+      <c r="C64" s="123" t="s">
         <v>479</v>
       </c>
       <c r="D64" s="100"/>
@@ -40957,7 +41194,7 @@
       <c r="K64" s="103"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="133" t="s">
+      <c r="A65" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B65" s="62" t="s">
@@ -40996,13 +41233,13 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="133" t="s">
+      <c r="A66" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C66" s="129" t="s">
+      <c r="C66" s="123" t="s">
         <v>482</v>
       </c>
       <c r="D66" s="100"/>
@@ -41017,13 +41254,13 @@
       <c r="K66" s="103"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="133" t="s">
+      <c r="A67" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C67" s="129" t="s">
+      <c r="C67" s="123" t="s">
         <v>485</v>
       </c>
       <c r="D67" s="100"/>
@@ -41038,7 +41275,7 @@
       <c r="K67" s="103"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="133" t="s">
+      <c r="A68" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B68" s="62" t="s">
@@ -41079,7 +41316,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="133" t="s">
+      <c r="A69" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B69" s="62" t="s">
@@ -41118,13 +41355,13 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="133" t="s">
+      <c r="A70" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C70" s="129" t="s">
+      <c r="C70" s="123" t="s">
         <v>489</v>
       </c>
       <c r="D70" s="100"/>
@@ -41139,13 +41376,13 @@
       <c r="K70" s="103"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="133" t="s">
+      <c r="A71" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B71" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C71" s="129" t="s">
+      <c r="C71" s="123" t="s">
         <v>487</v>
       </c>
       <c r="D71" s="100"/>
@@ -41160,13 +41397,13 @@
       <c r="K71" s="103"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="133" t="s">
+      <c r="A72" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B72" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C72" s="129" t="s">
+      <c r="C72" s="123" t="s">
         <v>464</v>
       </c>
       <c r="D72" s="100"/>
@@ -41181,13 +41418,13 @@
       <c r="K72" s="103"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="133" t="s">
+      <c r="A73" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B73" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C73" s="129" t="s">
+      <c r="C73" s="123" t="s">
         <v>458</v>
       </c>
       <c r="D73" s="100"/>
@@ -41202,7 +41439,7 @@
       <c r="K73" s="103"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="133" t="s">
+      <c r="A74" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B74" s="62" t="s">
@@ -41241,13 +41478,13 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="133" t="s">
+      <c r="A75" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B75" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C75" s="129" t="s">
+      <c r="C75" s="123" t="s">
         <v>493</v>
       </c>
       <c r="D75" s="100"/>
@@ -41260,13 +41497,13 @@
       <c r="K75" s="103"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="133" t="s">
+      <c r="A76" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B76" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C76" s="129" t="s">
+      <c r="C76" s="123" t="s">
         <v>492</v>
       </c>
       <c r="D76" s="100"/>
@@ -41279,13 +41516,13 @@
       <c r="K76" s="103"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="133" t="s">
+      <c r="A77" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B77" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C77" s="129" t="s">
+      <c r="C77" s="123" t="s">
         <v>460</v>
       </c>
       <c r="D77" s="100"/>
@@ -41300,7 +41537,7 @@
       <c r="K77" s="103"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="133" t="s">
+      <c r="A78" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B78" s="62" t="s">
@@ -41339,13 +41576,13 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="133" t="s">
+      <c r="A79" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B79" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C79" s="129" t="s">
+      <c r="C79" s="123" t="s">
         <v>467</v>
       </c>
       <c r="D79" s="100"/>
@@ -41360,7 +41597,7 @@
       <c r="K79" s="103"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="133" t="s">
+      <c r="A80" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B80" s="62" t="s">
@@ -41401,7 +41638,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="133" t="s">
+      <c r="A81" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B81" s="62" t="s">
@@ -41440,7 +41677,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="133" t="s">
+      <c r="A82" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B82" s="62" t="s">
@@ -41479,7 +41716,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="133" t="s">
+      <c r="A83" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B83" s="62" t="s">
@@ -41520,13 +41757,13 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="133" t="s">
+      <c r="A84" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B84" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C84" s="129" t="s">
+      <c r="C84" s="123" t="s">
         <v>494</v>
       </c>
       <c r="D84" s="100"/>
@@ -41539,7 +41776,7 @@
       <c r="K84" s="103"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B85" s="62" t="s">
@@ -41578,13 +41815,13 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="133" t="s">
+      <c r="A86" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B86" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C86" s="129" t="s">
+      <c r="C86" s="123" t="s">
         <v>481</v>
       </c>
       <c r="D86" s="100"/>
@@ -41599,7 +41836,7 @@
       <c r="K86" s="103"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="133" t="s">
+      <c r="A87" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B87" s="62" t="s">
@@ -41638,7 +41875,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="133" t="s">
+      <c r="A88" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B88" s="62" t="s">
@@ -41677,7 +41914,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="133" t="s">
+      <c r="A89" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B89" s="62" t="s">
@@ -41718,7 +41955,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="133" t="s">
+      <c r="A90" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B90" s="62" t="s">
@@ -41759,13 +41996,13 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="133" t="s">
+      <c r="A91" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B91" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C91" s="129" t="s">
+      <c r="C91" s="123" t="s">
         <v>495</v>
       </c>
       <c r="D91" s="100"/>
@@ -41780,13 +42017,13 @@
       <c r="K91" s="103"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="133" t="s">
+      <c r="A92" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B92" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C92" s="129" t="s">
+      <c r="C92" s="123" t="s">
         <v>501</v>
       </c>
       <c r="D92" s="100"/>
@@ -41801,7 +42038,7 @@
       <c r="K92" s="103"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="133" t="s">
+      <c r="A93" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B93" s="62" t="s">
@@ -41840,7 +42077,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="133" t="s">
+      <c r="A94" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B94" s="62" t="s">
@@ -41879,13 +42116,13 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="133" t="s">
+      <c r="A95" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B95" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C95" s="129" t="s">
+      <c r="C95" s="123" t="s">
         <v>462</v>
       </c>
       <c r="D95" s="100"/>
@@ -41900,7 +42137,7 @@
       <c r="K95" s="103"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="133" t="s">
+      <c r="A96" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B96" s="62" t="s">
@@ -41917,7 +42154,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="101">
-        <f>E96 / D96</f>
+        <f t="shared" ref="F96:F104" si="4">E96 / D96</f>
         <v>0</v>
       </c>
       <c r="G96" s="102">
@@ -41934,12 +42171,12 @@
         <v>2</v>
       </c>
       <c r="K96" s="103" t="b">
-        <f>OR(COUNTIF(F96:H96, "&lt;&gt;0") &gt; 1, J96 = 0)</f>
+        <f t="shared" ref="K96:K104" si="5">OR(COUNTIF(F96:H96, "&lt;&gt;0") &gt; 1, J96 = 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="133" t="s">
+      <c r="A97" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B97" s="62" t="s">
@@ -41956,7 +42193,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="101">
-        <f>E97 / D97</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G97" s="102">
@@ -41975,12 +42212,12 @@
         <v>1</v>
       </c>
       <c r="K97" s="103" t="b">
-        <f>OR(COUNTIF(F97:H97, "&lt;&gt;0") &gt; 1, J97 = 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="133" t="s">
+      <c r="A98" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B98" s="62" t="s">
@@ -41997,7 +42234,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="101">
-        <f>E98 / D98</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G98" s="102">
@@ -42014,12 +42251,12 @@
         <v>1</v>
       </c>
       <c r="K98" s="103" t="b">
-        <f>OR(COUNTIF(F98:H98, "&lt;&gt;0") &gt; 1, J98 = 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="133" t="s">
+      <c r="A99" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B99" s="62" t="s">
@@ -42036,7 +42273,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="101">
-        <f>E99 / D99</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G99" s="102">
@@ -42055,12 +42292,12 @@
         <v>1</v>
       </c>
       <c r="K99" s="103" t="b">
-        <f>OR(COUNTIF(F99:H99, "&lt;&gt;0") &gt; 1, J99 = 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="133" t="s">
+      <c r="A100" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B100" s="62" t="s">
@@ -42077,7 +42314,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="101">
-        <f>E100 / D100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G100" s="102">
@@ -42096,12 +42333,12 @@
         <v>2</v>
       </c>
       <c r="K100" s="103" t="b">
-        <f>OR(COUNTIF(F100:H100, "&lt;&gt;0") &gt; 1, J100 = 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="133" t="s">
+      <c r="A101" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B101" s="62" t="s">
@@ -42118,7 +42355,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="101">
-        <f>E101 / D101</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G101" s="102">
@@ -42137,12 +42374,12 @@
         <v>4</v>
       </c>
       <c r="K101" s="103" t="b">
-        <f>OR(COUNTIF(F101:H101, "&lt;&gt;0") &gt; 1, J101 = 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="133" t="s">
+      <c r="A102" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B102" s="62" t="s">
@@ -42159,7 +42396,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="101">
-        <f>E102 / D102</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G102" s="102">
@@ -42178,12 +42415,12 @@
         <v>2</v>
       </c>
       <c r="K102" s="103" t="b">
-        <f>OR(COUNTIF(F102:H102, "&lt;&gt;0") &gt; 1, J102 = 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="133" t="s">
+      <c r="A103" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B103" s="62" t="s">
@@ -42200,7 +42437,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="101">
-        <f>E103 / D103</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G103" s="102">
@@ -42217,12 +42454,12 @@
         <v>1</v>
       </c>
       <c r="K103" s="103" t="b">
-        <f>OR(COUNTIF(F103:H103, "&lt;&gt;0") &gt; 1, J103 = 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="133" t="s">
+      <c r="A104" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B104" s="62" t="s">
@@ -42239,7 +42476,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="101">
-        <f>E104 / D104</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G104" s="102">
@@ -42258,18 +42495,18 @@
         <v>1</v>
       </c>
       <c r="K104" s="103" t="b">
-        <f>OR(COUNTIF(F104:H104, "&lt;&gt;0") &gt; 1, J104 = 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="133" t="s">
+      <c r="A105" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B105" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C105" s="129" t="s">
+      <c r="C105" s="123" t="s">
         <v>484</v>
       </c>
       <c r="D105" s="100"/>
@@ -42284,13 +42521,13 @@
       <c r="K105" s="103"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="133" t="s">
+      <c r="A106" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B106" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C106" s="129" t="s">
+      <c r="C106" s="123" t="s">
         <v>477</v>
       </c>
       <c r="D106" s="100"/>
@@ -42305,13 +42542,13 @@
       <c r="K106" s="103"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="133" t="s">
+      <c r="A107" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B107" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C107" s="129" t="s">
+      <c r="C107" s="123" t="s">
         <v>262</v>
       </c>
       <c r="D107" s="100"/>
@@ -42326,13 +42563,13 @@
       <c r="K107" s="103"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="133" t="s">
+      <c r="A108" s="127" t="s">
         <v>374</v>
       </c>
       <c r="B108" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C108" s="129" t="s">
+      <c r="C108" s="123" t="s">
         <v>488</v>
       </c>
       <c r="D108" s="100"/>
@@ -42347,10 +42584,10 @@
       <c r="K108" s="103"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="133" t="s">
+      <c r="A109" s="127" t="s">
         <v>371</v>
       </c>
-      <c r="B109" s="131"/>
+      <c r="B109" s="125"/>
       <c r="C109" s="2" t="s">
         <v>58</v>
       </c>
@@ -42386,10 +42623,10 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="133" t="s">
+      <c r="A110" s="127" t="s">
         <v>371</v>
       </c>
-      <c r="B110" s="131"/>
+      <c r="B110" s="125"/>
       <c r="C110" s="2" t="s">
         <v>270</v>
       </c>
@@ -42423,10 +42660,10 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="133" t="s">
+      <c r="A111" s="127" t="s">
         <v>371</v>
       </c>
-      <c r="B111" s="131"/>
+      <c r="B111" s="125"/>
       <c r="C111" s="2" t="s">
         <v>63</v>
       </c>
@@ -42460,10 +42697,10 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="133" t="s">
+      <c r="A112" s="127" t="s">
         <v>371</v>
       </c>
-      <c r="B112" s="131"/>
+      <c r="B112" s="125"/>
       <c r="C112" s="2" t="s">
         <v>64</v>
       </c>
@@ -42497,11 +42734,11 @@
       </c>
     </row>
     <row r="113" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="134" t="s">
+      <c r="A113" s="128" t="s">
         <v>371</v>
       </c>
       <c r="B113" s="107"/>
-      <c r="C113" s="130" t="s">
+      <c r="C113" s="124" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="106">
@@ -42541,10 +42778,10 @@
       <c r="E114" s="112"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K113">
-    <sortCondition ref="B2:B113"/>
-    <sortCondition ref="A2:A113"/>
-    <sortCondition ref="C2:C113"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K88">
+    <sortCondition ref="B2:B88"/>
+    <sortCondition ref="A2:A88"/>
+    <sortCondition ref="C2:C88"/>
   </sortState>
   <conditionalFormatting sqref="E2:H113">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lg\repos\leonardguy\dunedin-zen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF283B15-3E12-43A2-9FF2-36841B3D0488}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D508747D-49B7-4253-8BF7-39B59B9FEA85}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11520" activeTab="2" xr2:uid="{222B344E-0651-4EE9-BCB8-5C41E8873491}"/>
   </bookViews>
@@ -2633,25 +2633,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="12" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8978,7 +8978,7 @@
   <dimension ref="A1:AD435"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9015,12 +9015,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
       <c r="E1" s="7" t="s">
         <v>339</v>
       </c>
@@ -9042,12 +9042,12 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:30" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="39" t="s">
         <v>39</v>
       </c>
@@ -9123,13 +9123,13 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="133" t="str">
+      <c r="A3" s="135" t="str">
         <f>_xlfn.CONCAT(F3," servings")</f>
         <v>12 servings</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="E3" s="39" t="s">
         <v>281</v>
       </c>
@@ -9148,23 +9148,23 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="W3" s="132" t="s">
+      <c r="W3" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AB3" s="132" t="s">
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AB3" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133"/>
     </row>
     <row r="4" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="39" t="s">
         <v>284</v>
       </c>
@@ -9185,27 +9185,27 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="W4" s="132" t="str">
+      <c r="W4" s="133" t="str">
         <f>A1</f>
         <v>WEEKEND BREAKFAST</v>
       </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AB4" s="132" t="str">
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AB4" s="133" t="str">
         <f>A1</f>
         <v>WEEKEND BREAKFAST</v>
       </c>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133"/>
     </row>
     <row r="5" spans="1:30" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
       <c r="I5" s="9"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
@@ -9216,19 +9216,19 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="W5" s="132" t="str">
+      <c r="W5" s="133" t="str">
         <f>A2</f>
         <v>FRUIT SALAD</v>
       </c>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AB5" s="132" t="str">
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AB5" s="133" t="str">
         <f>A2</f>
         <v>FRUIT SALAD</v>
       </c>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="133"/>
     </row>
     <row r="6" spans="1:30" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
@@ -9665,10 +9665,10 @@
       </c>
     </row>
     <row r="11" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
       <c r="I11" s="9"/>
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
@@ -9683,12 +9683,12 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
       <c r="I12" s="9"/>
       <c r="L12" s="10"/>
       <c r="M12" s="11"/>
@@ -9703,12 +9703,12 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:30" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="133" t="s">
         <v>498</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="7" t="s">
         <v>264</v>
       </c>
@@ -9730,12 +9730,12 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:30" s="30" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
@@ -9811,13 +9811,13 @@
       </c>
     </row>
     <row r="15" spans="1:30" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="133" t="str">
+      <c r="A15" s="135" t="str">
         <f>_xlfn.CONCAT(F15," servings")</f>
         <v>15 servings</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="29" t="s">
         <v>281</v>
       </c>
@@ -9836,23 +9836,23 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="W15" s="132" t="s">
+      <c r="W15" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AB15" s="132" t="s">
+      <c r="X15" s="133"/>
+      <c r="Y15" s="133"/>
+      <c r="Z15" s="133"/>
+      <c r="AB15" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
+      <c r="AC15" s="133"/>
+      <c r="AD15" s="133"/>
     </row>
     <row r="16" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="29" t="s">
         <v>284</v>
       </c>
@@ -9873,27 +9873,27 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="W16" s="132" t="str">
+      <c r="W16" s="133" t="str">
         <f>A13</f>
         <v>WEEKEND LUNCH</v>
       </c>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AB16" s="132" t="str">
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AB16" s="133" t="str">
         <f>A13</f>
         <v>WEEKEND LUNCH</v>
       </c>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="133"/>
     </row>
     <row r="17" spans="1:30" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
       <c r="I17" s="11"/>
       <c r="L17" s="10"/>
       <c r="M17" s="11"/>
@@ -9904,20 +9904,20 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="W17" s="132" t="str">
+      <c r="W17" s="133" t="str">
         <f>A14</f>
         <v>SALAD</v>
       </c>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="133"/>
       <c r="AA17" s="41"/>
-      <c r="AB17" s="132" t="str">
+      <c r="AB17" s="133" t="str">
         <f>A14</f>
         <v>SALAD</v>
       </c>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
+      <c r="AC17" s="133"/>
+      <c r="AD17" s="133"/>
     </row>
     <row r="18" spans="1:30" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
@@ -10595,10 +10595,10 @@
       </c>
     </row>
     <row r="26" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
       <c r="I26" s="9"/>
       <c r="L26" s="10"/>
       <c r="M26" s="11"/>
@@ -10636,12 +10636,12 @@
       </c>
     </row>
     <row r="27" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="132" t="s">
         <v>327</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
       <c r="I27" s="9"/>
       <c r="L27" s="10"/>
       <c r="M27" s="11"/>
@@ -10770,10 +10770,10 @@
       </c>
     </row>
     <row r="29" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="131"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
       <c r="I29" s="9"/>
       <c r="L29" s="10"/>
       <c r="M29" s="11"/>
@@ -10788,12 +10788,12 @@
       <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
       <c r="I30" s="9"/>
       <c r="L30" s="10"/>
       <c r="M30" s="11"/>
@@ -10808,12 +10808,12 @@
       <c r="Z30" s="13"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="133" t="s">
         <v>500</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
       <c r="E31" s="7" t="s">
         <v>154</v>
       </c>
@@ -10821,12 +10821,12 @@
       <c r="G31" s="39"/>
     </row>
     <row r="32" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="133" t="s">
         <v>317</v>
       </c>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
       <c r="E32" s="6" t="s">
         <v>39</v>
       </c>
@@ -10902,13 +10902,13 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="133" t="str">
+      <c r="A33" s="135" t="str">
         <f>_xlfn.CONCAT(F33," servings")</f>
         <v>4 servings</v>
       </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="6" t="s">
         <v>281</v>
       </c>
@@ -10917,23 +10917,23 @@
       </c>
       <c r="G33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="W33" s="132" t="s">
+      <c r="W33" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="132"/>
-      <c r="Z33" s="132"/>
-      <c r="AB33" s="132" t="s">
+      <c r="X33" s="133"/>
+      <c r="Y33" s="133"/>
+      <c r="Z33" s="133"/>
+      <c r="AB33" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC33" s="132"/>
-      <c r="AD33" s="132"/>
+      <c r="AC33" s="133"/>
+      <c r="AD33" s="133"/>
     </row>
     <row r="34" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="131"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
+      <c r="A34" s="132"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="6" t="s">
         <v>284</v>
       </c>
@@ -10954,42 +10954,42 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="W34" s="132" t="str">
+      <c r="W34" s="133" t="str">
         <f>A31</f>
         <v>DAILY SAFE MEAL</v>
       </c>
-      <c r="X34" s="132"/>
-      <c r="Y34" s="132"/>
-      <c r="Z34" s="132"/>
-      <c r="AB34" s="132" t="str">
+      <c r="X34" s="133"/>
+      <c r="Y34" s="133"/>
+      <c r="Z34" s="133"/>
+      <c r="AB34" s="133" t="str">
         <f>A31</f>
         <v>DAILY SAFE MEAL</v>
       </c>
-      <c r="AC34" s="132"/>
-      <c r="AD34" s="132"/>
+      <c r="AC34" s="133"/>
+      <c r="AD34" s="133"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="132" t="s">
         <v>318</v>
       </c>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
       <c r="I35" s="11"/>
-      <c r="W35" s="132" t="str">
+      <c r="W35" s="133" t="str">
         <f>A32</f>
         <v>TOFU VEGETABLE STIR FRY</v>
       </c>
-      <c r="X35" s="132"/>
-      <c r="Y35" s="132"/>
-      <c r="Z35" s="132"/>
+      <c r="X35" s="133"/>
+      <c r="Y35" s="133"/>
+      <c r="Z35" s="133"/>
       <c r="AA35" s="41"/>
-      <c r="AB35" s="132" t="str">
+      <c r="AB35" s="133" t="str">
         <f>A32</f>
         <v>TOFU VEGETABLE STIR FRY</v>
       </c>
-      <c r="AC35" s="132"/>
-      <c r="AD35" s="132"/>
+      <c r="AC35" s="133"/>
+      <c r="AD35" s="133"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
@@ -11293,10 +11293,10 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="131"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
+      <c r="A39" s="132"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
       <c r="I39" s="11"/>
       <c r="W39" s="21"/>
       <c r="X39" s="21"/>
@@ -11308,12 +11308,12 @@
       <c r="AD39" s="21"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="131" t="s">
+      <c r="A40" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
       <c r="I40" s="11"/>
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
@@ -11705,10 +11705,10 @@
       </c>
     </row>
     <row r="45" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="131"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
       <c r="I45" s="11"/>
       <c r="L45" s="10"/>
       <c r="M45" s="11"/>
@@ -11728,12 +11728,12 @@
       <c r="AD45" s="21"/>
     </row>
     <row r="46" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="131" t="s">
+      <c r="A46" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="B46" s="131"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
       <c r="I46" s="11"/>
       <c r="L46" s="10"/>
       <c r="M46" s="11"/>
@@ -11848,10 +11848,10 @@
       </c>
     </row>
     <row r="48" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="131"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
+      <c r="A48" s="132"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
       <c r="I48" s="11"/>
       <c r="L48" s="10"/>
       <c r="M48" s="11"/>
@@ -11871,12 +11871,12 @@
       <c r="AD48" s="21"/>
     </row>
     <row r="49" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="131" t="s">
+      <c r="A49" s="132" t="s">
         <v>322</v>
       </c>
-      <c r="B49" s="131"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
       <c r="I49" s="11"/>
       <c r="L49" s="10"/>
       <c r="M49" s="11"/>
@@ -12181,12 +12181,12 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="132" t="s">
+      <c r="A53" s="133" t="s">
         <v>499</v>
       </c>
-      <c r="B53" s="132"/>
-      <c r="C53" s="132"/>
-      <c r="D53" s="132"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="133"/>
       <c r="E53" s="6" t="s">
         <v>99</v>
       </c>
@@ -12196,12 +12196,12 @@
       <c r="G53" s="39"/>
     </row>
     <row r="54" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A54" s="134" t="s">
+      <c r="A54" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="134"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
       <c r="E54" s="6" t="s">
         <v>39</v>
       </c>
@@ -12278,13 +12278,13 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="133" t="str">
+      <c r="A55" s="135" t="str">
         <f>_xlfn.CONCAT(F55," servings")</f>
         <v>12 servings</v>
       </c>
-      <c r="B55" s="133"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="133"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
       <c r="E55" s="29" t="s">
         <v>281</v>
       </c>
@@ -12307,23 +12307,23 @@
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
       <c r="U55" s="6"/>
-      <c r="W55" s="132" t="s">
+      <c r="W55" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X55" s="132"/>
-      <c r="Y55" s="132"/>
-      <c r="Z55" s="132"/>
-      <c r="AB55" s="132" t="s">
+      <c r="X55" s="133"/>
+      <c r="Y55" s="133"/>
+      <c r="Z55" s="133"/>
+      <c r="AB55" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC55" s="132"/>
-      <c r="AD55" s="132"/>
+      <c r="AC55" s="133"/>
+      <c r="AD55" s="133"/>
     </row>
     <row r="56" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="131"/>
-      <c r="B56" s="131"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
+      <c r="A56" s="132"/>
+      <c r="B56" s="132"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
       <c r="E56" s="29" t="s">
         <v>284</v>
       </c>
@@ -12348,46 +12348,46 @@
       <c r="S56" s="26"/>
       <c r="T56" s="26"/>
       <c r="U56" s="39"/>
-      <c r="W56" s="132" t="str">
+      <c r="W56" s="133" t="str">
         <f>A53</f>
         <v>SATURDAY LUNCH</v>
       </c>
-      <c r="X56" s="132"/>
-      <c r="Y56" s="132"/>
-      <c r="Z56" s="132"/>
-      <c r="AB56" s="132" t="str">
+      <c r="X56" s="133"/>
+      <c r="Y56" s="133"/>
+      <c r="Z56" s="133"/>
+      <c r="AB56" s="133" t="str">
         <f>A53</f>
         <v>SATURDAY LUNCH</v>
       </c>
-      <c r="AC56" s="132"/>
-      <c r="AD56" s="132"/>
+      <c r="AC56" s="133"/>
+      <c r="AD56" s="133"/>
     </row>
     <row r="57" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="132" t="s">
         <v>325</v>
       </c>
-      <c r="B57" s="131"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="W57" s="132" t="str">
+      <c r="W57" s="133" t="str">
         <f>A54</f>
         <v>SPLIT PEA COMBINATION CURRY</v>
       </c>
-      <c r="X57" s="132"/>
-      <c r="Y57" s="132"/>
-      <c r="Z57" s="132"/>
+      <c r="X57" s="133"/>
+      <c r="Y57" s="133"/>
+      <c r="Z57" s="133"/>
       <c r="AA57" s="41"/>
-      <c r="AB57" s="132" t="str">
+      <c r="AB57" s="133" t="str">
         <f>A54</f>
         <v>SPLIT PEA COMBINATION CURRY</v>
       </c>
-      <c r="AC57" s="132"/>
-      <c r="AD57" s="132"/>
+      <c r="AC57" s="133"/>
+      <c r="AD57" s="133"/>
     </row>
     <row r="58" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
@@ -12600,10 +12600,10 @@
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" s="131"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
+      <c r="A60" s="132"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="132"/>
       <c r="I60" s="11"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
@@ -12617,12 +12617,12 @@
       <c r="AD60" s="21"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="131" t="s">
+      <c r="A61" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="131"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
       <c r="I61" s="11"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -12821,10 +12821,10 @@
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="131"/>
-      <c r="B64" s="131"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
+      <c r="A64" s="132"/>
+      <c r="B64" s="132"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="132"/>
       <c r="I64" s="11"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
@@ -12838,12 +12838,12 @@
       <c r="AD64" s="21"/>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" s="131" t="s">
+      <c r="A65" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="B65" s="131"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="132"/>
       <c r="I65" s="11"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
@@ -13333,12 +13333,12 @@
       <c r="W71" s="8"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A72" s="131" t="s">
+      <c r="A72" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="B72" s="131"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="131"/>
+      <c r="B72" s="132"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="132"/>
       <c r="I72" s="8"/>
       <c r="L72" s="8"/>
       <c r="W72" s="8"/>
@@ -13395,12 +13395,12 @@
       </c>
     </row>
     <row r="76" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="132" t="s">
+      <c r="A76" s="133" t="s">
         <v>501</v>
       </c>
-      <c r="B76" s="132"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="132"/>
+      <c r="B76" s="133"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="133"/>
       <c r="E76" s="24" t="s">
         <v>100</v>
       </c>
@@ -13410,12 +13410,12 @@
       <c r="G76" s="39"/>
     </row>
     <row r="77" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="132"/>
-      <c r="C77" s="132"/>
-      <c r="D77" s="132"/>
+      <c r="B77" s="133"/>
+      <c r="C77" s="133"/>
+      <c r="D77" s="133"/>
       <c r="E77" s="6" t="s">
         <v>39</v>
       </c>
@@ -13490,13 +13490,13 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="133" t="str">
+      <c r="A78" s="135" t="str">
         <f>_xlfn.CONCAT(F78," servings")</f>
         <v>12 servings</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="133"/>
-      <c r="D78" s="133"/>
+      <c r="B78" s="135"/>
+      <c r="C78" s="135"/>
+      <c r="D78" s="135"/>
       <c r="E78" s="29" t="s">
         <v>281</v>
       </c>
@@ -13518,23 +13518,23 @@
       <c r="S78" s="26"/>
       <c r="T78" s="26"/>
       <c r="U78" s="6"/>
-      <c r="W78" s="132" t="s">
+      <c r="W78" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X78" s="132"/>
-      <c r="Y78" s="132"/>
-      <c r="Z78" s="132"/>
-      <c r="AB78" s="132" t="s">
+      <c r="X78" s="133"/>
+      <c r="Y78" s="133"/>
+      <c r="Z78" s="133"/>
+      <c r="AB78" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC78" s="132"/>
-      <c r="AD78" s="132"/>
+      <c r="AC78" s="133"/>
+      <c r="AD78" s="133"/>
     </row>
     <row r="79" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="131"/>
-      <c r="B79" s="131"/>
-      <c r="C79" s="131"/>
-      <c r="D79" s="131"/>
+      <c r="A79" s="132"/>
+      <c r="B79" s="132"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="132"/>
       <c r="E79" s="29" t="s">
         <v>284</v>
       </c>
@@ -13558,46 +13558,46 @@
       <c r="S79" s="26"/>
       <c r="T79" s="26"/>
       <c r="U79" s="39"/>
-      <c r="W79" s="132" t="str">
+      <c r="W79" s="133" t="str">
         <f>A76</f>
         <v>SATURDAY DINNER</v>
       </c>
-      <c r="X79" s="132"/>
-      <c r="Y79" s="132"/>
-      <c r="Z79" s="132"/>
-      <c r="AB79" s="132" t="str">
+      <c r="X79" s="133"/>
+      <c r="Y79" s="133"/>
+      <c r="Z79" s="133"/>
+      <c r="AB79" s="133" t="str">
         <f>A76</f>
         <v>SATURDAY DINNER</v>
       </c>
-      <c r="AC79" s="132"/>
-      <c r="AD79" s="132"/>
+      <c r="AC79" s="133"/>
+      <c r="AD79" s="133"/>
     </row>
     <row r="80" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="131" t="s">
+      <c r="A80" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="131"/>
-      <c r="C80" s="131"/>
-      <c r="D80" s="131"/>
+      <c r="B80" s="132"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="132"/>
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="W80" s="132" t="str">
+      <c r="W80" s="133" t="str">
         <f>A77</f>
         <v>GYPSY SOUP</v>
       </c>
-      <c r="X80" s="132"/>
-      <c r="Y80" s="132"/>
-      <c r="Z80" s="132"/>
+      <c r="X80" s="133"/>
+      <c r="Y80" s="133"/>
+      <c r="Z80" s="133"/>
       <c r="AA80" s="41"/>
-      <c r="AB80" s="132" t="str">
+      <c r="AB80" s="133" t="str">
         <f>A77</f>
         <v>GYPSY SOUP</v>
       </c>
-      <c r="AC80" s="132"/>
-      <c r="AD80" s="132"/>
+      <c r="AC80" s="133"/>
+      <c r="AD80" s="133"/>
     </row>
     <row r="81" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
@@ -13706,10 +13706,10 @@
       </c>
     </row>
     <row r="82" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="131"/>
-      <c r="B82" s="131"/>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
+      <c r="A82" s="132"/>
+      <c r="B82" s="132"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="132"/>
       <c r="E82" s="29" t="s">
         <v>285</v>
       </c>
@@ -13735,12 +13735,12 @@
       <c r="AD82" s="21"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A83" s="131" t="s">
+      <c r="A83" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="B83" s="131"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
+      <c r="B83" s="132"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
       <c r="I83" s="11"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
@@ -14034,10 +14034,10 @@
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A87" s="131"/>
-      <c r="B87" s="131"/>
-      <c r="C87" s="131"/>
-      <c r="D87" s="131"/>
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
       <c r="I87" s="11"/>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
@@ -14053,12 +14053,12 @@
       <c r="AD87" s="21"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A88" s="131" t="s">
+      <c r="A88" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="131"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="131"/>
+      <c r="B88" s="132"/>
+      <c r="C88" s="132"/>
+      <c r="D88" s="132"/>
       <c r="I88" s="11"/>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
@@ -14637,10 +14637,10 @@
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A95" s="131"/>
-      <c r="B95" s="131"/>
-      <c r="C95" s="131"/>
-      <c r="D95" s="131"/>
+      <c r="A95" s="132"/>
+      <c r="B95" s="132"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="132"/>
       <c r="I95" s="11"/>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
@@ -14656,12 +14656,12 @@
       <c r="AD95" s="21"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A96" s="131" t="s">
+      <c r="A96" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="B96" s="131"/>
-      <c r="C96" s="131"/>
-      <c r="D96" s="131"/>
+      <c r="B96" s="132"/>
+      <c r="C96" s="132"/>
+      <c r="D96" s="132"/>
       <c r="I96" s="11"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
@@ -14677,10 +14677,10 @@
       <c r="AD96" s="21"/>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A97" s="131"/>
-      <c r="B97" s="131"/>
-      <c r="C97" s="131"/>
-      <c r="D97" s="131"/>
+      <c r="A97" s="132"/>
+      <c r="B97" s="132"/>
+      <c r="C97" s="132"/>
+      <c r="D97" s="132"/>
       <c r="I97" s="11"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -14696,12 +14696,12 @@
       <c r="AD97" s="21"/>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A98" s="131" t="s">
+      <c r="A98" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="B98" s="131"/>
-      <c r="C98" s="131"/>
-      <c r="D98" s="131"/>
+      <c r="B98" s="132"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="132"/>
       <c r="I98" s="11"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -14809,10 +14809,10 @@
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A100" s="131"/>
-      <c r="B100" s="131"/>
-      <c r="C100" s="131"/>
-      <c r="D100" s="131"/>
+      <c r="A100" s="132"/>
+      <c r="B100" s="132"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="132"/>
       <c r="I100" s="11"/>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
@@ -14820,12 +14820,12 @@
       <c r="P100" s="8"/>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A101" s="131" t="s">
+      <c r="A101" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="B101" s="131"/>
-      <c r="C101" s="131"/>
-      <c r="D101" s="131"/>
+      <c r="B101" s="132"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="132"/>
       <c r="I101" s="11"/>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
@@ -14846,12 +14846,12 @@
       <c r="P102" s="8"/>
     </row>
     <row r="103" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="132" t="s">
+      <c r="A103" s="133" t="s">
         <v>502</v>
       </c>
-      <c r="B103" s="132"/>
-      <c r="C103" s="132"/>
-      <c r="D103" s="132"/>
+      <c r="B103" s="133"/>
+      <c r="C103" s="133"/>
+      <c r="D103" s="133"/>
       <c r="E103" s="7" t="s">
         <v>106</v>
       </c>
@@ -14862,12 +14862,12 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A104" s="132" t="s">
+      <c r="A104" s="133" t="s">
         <v>230</v>
       </c>
-      <c r="B104" s="132"/>
-      <c r="C104" s="132"/>
-      <c r="D104" s="132"/>
+      <c r="B104" s="133"/>
+      <c r="C104" s="133"/>
+      <c r="D104" s="133"/>
       <c r="E104" s="6" t="s">
         <v>39</v>
       </c>
@@ -14944,13 +14944,13 @@
       </c>
     </row>
     <row r="105" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="133" t="str">
+      <c r="A105" s="135" t="str">
         <f>_xlfn.CONCAT(F105," servings")</f>
         <v>12 servings</v>
       </c>
-      <c r="B105" s="133"/>
-      <c r="C105" s="133"/>
-      <c r="D105" s="133"/>
+      <c r="B105" s="135"/>
+      <c r="C105" s="135"/>
+      <c r="D105" s="135"/>
       <c r="E105" s="29" t="s">
         <v>281</v>
       </c>
@@ -14969,23 +14969,23 @@
       <c r="O105" s="26"/>
       <c r="P105" s="26"/>
       <c r="U105" s="6"/>
-      <c r="W105" s="132" t="s">
+      <c r="W105" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X105" s="132"/>
-      <c r="Y105" s="132"/>
-      <c r="Z105" s="132"/>
-      <c r="AB105" s="132" t="s">
+      <c r="X105" s="133"/>
+      <c r="Y105" s="133"/>
+      <c r="Z105" s="133"/>
+      <c r="AB105" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC105" s="132"/>
-      <c r="AD105" s="132"/>
+      <c r="AC105" s="133"/>
+      <c r="AD105" s="133"/>
     </row>
     <row r="106" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="131"/>
-      <c r="B106" s="131"/>
-      <c r="C106" s="131"/>
-      <c r="D106" s="131"/>
+      <c r="A106" s="132"/>
+      <c r="B106" s="132"/>
+      <c r="C106" s="132"/>
+      <c r="D106" s="132"/>
       <c r="E106" s="29" t="s">
         <v>284</v>
       </c>
@@ -15010,27 +15010,27 @@
       <c r="S106" s="11"/>
       <c r="T106" s="11"/>
       <c r="U106" s="39"/>
-      <c r="W106" s="132" t="str">
+      <c r="W106" s="133" t="str">
         <f>A103</f>
         <v>SUNDAY LUNCH</v>
       </c>
-      <c r="X106" s="132"/>
-      <c r="Y106" s="132"/>
-      <c r="Z106" s="132"/>
-      <c r="AB106" s="132" t="str">
+      <c r="X106" s="133"/>
+      <c r="Y106" s="133"/>
+      <c r="Z106" s="133"/>
+      <c r="AB106" s="133" t="str">
         <f>A103</f>
         <v>SUNDAY LUNCH</v>
       </c>
-      <c r="AC106" s="132"/>
-      <c r="AD106" s="132"/>
+      <c r="AC106" s="133"/>
+      <c r="AD106" s="133"/>
     </row>
     <row r="107" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="131" t="s">
+      <c r="A107" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="B107" s="131"/>
-      <c r="C107" s="131"/>
-      <c r="D107" s="131"/>
+      <c r="B107" s="132"/>
+      <c r="C107" s="132"/>
+      <c r="D107" s="132"/>
       <c r="E107" s="30"/>
       <c r="F107" s="30"/>
       <c r="G107" s="30"/>
@@ -15044,20 +15044,20 @@
       <c r="O107" s="26"/>
       <c r="P107" s="26"/>
       <c r="U107" s="6"/>
-      <c r="W107" s="132" t="str">
+      <c r="W107" s="133" t="str">
         <f>A104</f>
         <v>RED LENTIL DAHL</v>
       </c>
-      <c r="X107" s="132"/>
-      <c r="Y107" s="132"/>
-      <c r="Z107" s="132"/>
+      <c r="X107" s="133"/>
+      <c r="Y107" s="133"/>
+      <c r="Z107" s="133"/>
       <c r="AA107" s="41"/>
-      <c r="AB107" s="132" t="str">
+      <c r="AB107" s="133" t="str">
         <f>A104</f>
         <v>RED LENTIL DAHL</v>
       </c>
-      <c r="AC107" s="132"/>
-      <c r="AD107" s="132"/>
+      <c r="AC107" s="133"/>
+      <c r="AD107" s="133"/>
     </row>
     <row r="108" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
@@ -15165,10 +15165,10 @@
       </c>
     </row>
     <row r="109" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="131"/>
-      <c r="B109" s="131"/>
-      <c r="C109" s="131"/>
-      <c r="D109" s="131"/>
+      <c r="A109" s="132"/>
+      <c r="B109" s="132"/>
+      <c r="C109" s="132"/>
+      <c r="D109" s="132"/>
       <c r="E109" s="29" t="s">
         <v>285</v>
       </c>
@@ -15194,12 +15194,12 @@
       <c r="AD109" s="21"/>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A110" s="131" t="s">
+      <c r="A110" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="131"/>
-      <c r="C110" s="131"/>
-      <c r="D110" s="131"/>
+      <c r="B110" s="132"/>
+      <c r="C110" s="132"/>
+      <c r="D110" s="132"/>
       <c r="I110" s="11"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
@@ -15424,10 +15424,10 @@
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A114" s="131"/>
-      <c r="B114" s="131"/>
-      <c r="C114" s="131"/>
-      <c r="D114" s="131"/>
+      <c r="A114" s="132"/>
+      <c r="B114" s="132"/>
+      <c r="C114" s="132"/>
+      <c r="D114" s="132"/>
       <c r="I114" s="11"/>
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
@@ -15443,12 +15443,12 @@
       <c r="AD114" s="21"/>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A115" s="131" t="s">
+      <c r="A115" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="131"/>
-      <c r="C115" s="131"/>
-      <c r="D115" s="131"/>
+      <c r="B115" s="132"/>
+      <c r="C115" s="132"/>
+      <c r="D115" s="132"/>
       <c r="I115" s="11"/>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
@@ -15649,10 +15649,10 @@
       </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A118" s="131"/>
-      <c r="B118" s="131"/>
-      <c r="C118" s="131"/>
-      <c r="D118" s="131"/>
+      <c r="A118" s="132"/>
+      <c r="B118" s="132"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="132"/>
       <c r="I118" s="11"/>
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
@@ -15668,12 +15668,12 @@
       <c r="AD118" s="21"/>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A119" s="131" t="s">
+      <c r="A119" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="B119" s="131"/>
-      <c r="C119" s="131"/>
-      <c r="D119" s="131"/>
+      <c r="B119" s="132"/>
+      <c r="C119" s="132"/>
+      <c r="D119" s="132"/>
       <c r="I119" s="11"/>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
@@ -15971,10 +15971,10 @@
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A123" s="131"/>
-      <c r="B123" s="131"/>
-      <c r="C123" s="131"/>
-      <c r="D123" s="131"/>
+      <c r="A123" s="132"/>
+      <c r="B123" s="132"/>
+      <c r="C123" s="132"/>
+      <c r="D123" s="132"/>
       <c r="I123" s="8"/>
       <c r="L123" s="8"/>
       <c r="W123" s="21"/>
@@ -15987,12 +15987,12 @@
       <c r="AD123" s="21"/>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A124" s="131" t="s">
+      <c r="A124" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="B124" s="131"/>
-      <c r="C124" s="131"/>
-      <c r="D124" s="131"/>
+      <c r="B124" s="132"/>
+      <c r="C124" s="132"/>
+      <c r="D124" s="132"/>
       <c r="I124" s="8"/>
       <c r="L124" s="8"/>
       <c r="W124" s="21"/>
@@ -16071,10 +16071,10 @@
       <c r="AD127" s="21"/>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A128" s="131"/>
-      <c r="B128" s="131"/>
-      <c r="C128" s="131"/>
-      <c r="D128" s="131"/>
+      <c r="A128" s="132"/>
+      <c r="B128" s="132"/>
+      <c r="C128" s="132"/>
+      <c r="D128" s="132"/>
       <c r="I128" s="8"/>
       <c r="L128" s="8"/>
       <c r="W128" s="21"/>
@@ -16087,12 +16087,12 @@
       <c r="AD128" s="21"/>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A129" s="131" t="s">
+      <c r="A129" s="132" t="s">
         <v>203</v>
       </c>
-      <c r="B129" s="131"/>
-      <c r="C129" s="131"/>
-      <c r="D129" s="131"/>
+      <c r="B129" s="132"/>
+      <c r="C129" s="132"/>
+      <c r="D129" s="132"/>
       <c r="I129" s="8"/>
       <c r="L129" s="8"/>
       <c r="W129" s="21"/>
@@ -16199,10 +16199,10 @@
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A131" s="131"/>
-      <c r="B131" s="131"/>
-      <c r="C131" s="131"/>
-      <c r="D131" s="131"/>
+      <c r="A131" s="132"/>
+      <c r="B131" s="132"/>
+      <c r="C131" s="132"/>
+      <c r="D131" s="132"/>
       <c r="I131" s="8"/>
       <c r="L131" s="8"/>
       <c r="W131" s="21"/>
@@ -16215,12 +16215,12 @@
       <c r="AD131" s="21"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A132" s="131" t="s">
+      <c r="A132" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="B132" s="131"/>
-      <c r="C132" s="131"/>
-      <c r="D132" s="131"/>
+      <c r="B132" s="132"/>
+      <c r="C132" s="132"/>
+      <c r="D132" s="132"/>
       <c r="I132" s="8"/>
       <c r="L132" s="8"/>
       <c r="W132" s="21"/>
@@ -16421,10 +16421,10 @@
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A135" s="131"/>
-      <c r="B135" s="131"/>
-      <c r="C135" s="131"/>
-      <c r="D135" s="131"/>
+      <c r="A135" s="132"/>
+      <c r="B135" s="132"/>
+      <c r="C135" s="132"/>
+      <c r="D135" s="132"/>
       <c r="I135" s="8"/>
       <c r="L135" s="8"/>
       <c r="W135" s="21"/>
@@ -16437,12 +16437,12 @@
       <c r="AD135" s="21"/>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A136" s="131" t="s">
+      <c r="A136" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="B136" s="131"/>
-      <c r="C136" s="131"/>
-      <c r="D136" s="131"/>
+      <c r="B136" s="132"/>
+      <c r="C136" s="132"/>
+      <c r="D136" s="132"/>
       <c r="I136" s="8"/>
       <c r="L136" s="8"/>
       <c r="W136" s="21"/>
@@ -16468,12 +16468,12 @@
       <c r="AD137" s="21"/>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A138" s="131" t="s">
+      <c r="A138" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="B138" s="131"/>
-      <c r="C138" s="131"/>
-      <c r="D138" s="131"/>
+      <c r="B138" s="132"/>
+      <c r="C138" s="132"/>
+      <c r="D138" s="132"/>
       <c r="I138" s="8"/>
       <c r="L138" s="8"/>
       <c r="W138" s="21"/>
@@ -16546,12 +16546,12 @@
       </c>
     </row>
     <row r="140" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="132" t="s">
+      <c r="A140" s="133" t="s">
         <v>503</v>
       </c>
-      <c r="B140" s="132"/>
-      <c r="C140" s="132"/>
-      <c r="D140" s="132"/>
+      <c r="B140" s="133"/>
+      <c r="C140" s="133"/>
+      <c r="D140" s="133"/>
       <c r="E140" s="7" t="s">
         <v>101</v>
       </c>
@@ -16562,12 +16562,12 @@
       <c r="H140" s="11"/>
     </row>
     <row r="141" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A141" s="132" t="s">
+      <c r="A141" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="B141" s="132"/>
-      <c r="C141" s="132"/>
-      <c r="D141" s="132"/>
+      <c r="B141" s="133"/>
+      <c r="C141" s="133"/>
+      <c r="D141" s="133"/>
       <c r="E141" s="6" t="s">
         <v>39</v>
       </c>
@@ -16644,13 +16644,13 @@
       </c>
     </row>
     <row r="142" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="133" t="str">
+      <c r="A142" s="135" t="str">
         <f>_xlfn.CONCAT(F142," servings")</f>
         <v>12 servings</v>
       </c>
-      <c r="B142" s="133"/>
-      <c r="C142" s="133"/>
-      <c r="D142" s="133"/>
+      <c r="B142" s="135"/>
+      <c r="C142" s="135"/>
+      <c r="D142" s="135"/>
       <c r="E142" s="29" t="s">
         <v>281</v>
       </c>
@@ -16661,24 +16661,24 @@
       <c r="G142" s="11"/>
       <c r="I142" s="8"/>
       <c r="L142" s="8"/>
-      <c r="W142" s="132" t="s">
+      <c r="W142" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X142" s="132"/>
-      <c r="Y142" s="132"/>
-      <c r="Z142" s="132"/>
+      <c r="X142" s="133"/>
+      <c r="Y142" s="133"/>
+      <c r="Z142" s="133"/>
       <c r="AA142" s="30"/>
-      <c r="AB142" s="132" t="s">
+      <c r="AB142" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC142" s="132"/>
-      <c r="AD142" s="132"/>
+      <c r="AC142" s="133"/>
+      <c r="AD142" s="133"/>
     </row>
     <row r="143" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="131"/>
-      <c r="B143" s="131"/>
-      <c r="C143" s="131"/>
-      <c r="D143" s="131"/>
+      <c r="A143" s="132"/>
+      <c r="B143" s="132"/>
+      <c r="C143" s="132"/>
+      <c r="D143" s="132"/>
       <c r="E143" s="29" t="s">
         <v>284</v>
       </c>
@@ -16697,46 +16697,46 @@
       <c r="R143" s="11"/>
       <c r="S143" s="11"/>
       <c r="T143" s="11"/>
-      <c r="W143" s="132" t="str">
+      <c r="W143" s="133" t="str">
         <f>A140</f>
         <v>SUNDAY DINNER</v>
       </c>
-      <c r="X143" s="132"/>
-      <c r="Y143" s="132"/>
-      <c r="Z143" s="132"/>
-      <c r="AB143" s="132" t="str">
+      <c r="X143" s="133"/>
+      <c r="Y143" s="133"/>
+      <c r="Z143" s="133"/>
+      <c r="AB143" s="133" t="str">
         <f>A140</f>
         <v>SUNDAY DINNER</v>
       </c>
-      <c r="AC143" s="132"/>
-      <c r="AD143" s="132"/>
+      <c r="AC143" s="133"/>
+      <c r="AD143" s="133"/>
     </row>
     <row r="144" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="131" t="s">
+      <c r="A144" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="B144" s="131"/>
-      <c r="C144" s="131"/>
-      <c r="D144" s="131"/>
+      <c r="B144" s="132"/>
+      <c r="C144" s="132"/>
+      <c r="D144" s="132"/>
       <c r="E144" s="30"/>
       <c r="F144" s="30"/>
       <c r="G144" s="30"/>
       <c r="I144" s="8"/>
       <c r="L144" s="8"/>
-      <c r="W144" s="132" t="str">
+      <c r="W144" s="133" t="str">
         <f>A141</f>
         <v>ITALIAN SOUP</v>
       </c>
-      <c r="X144" s="132"/>
-      <c r="Y144" s="132"/>
-      <c r="Z144" s="132"/>
+      <c r="X144" s="133"/>
+      <c r="Y144" s="133"/>
+      <c r="Z144" s="133"/>
       <c r="AA144" s="41"/>
-      <c r="AB144" s="132" t="str">
+      <c r="AB144" s="133" t="str">
         <f>A141</f>
         <v>ITALIAN SOUP</v>
       </c>
-      <c r="AC144" s="132"/>
-      <c r="AD144" s="132"/>
+      <c r="AC144" s="133"/>
+      <c r="AD144" s="133"/>
     </row>
     <row r="145" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
@@ -17035,10 +17035,10 @@
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A148" s="131"/>
-      <c r="B148" s="131"/>
-      <c r="C148" s="131"/>
-      <c r="D148" s="131"/>
+      <c r="A148" s="132"/>
+      <c r="B148" s="132"/>
+      <c r="C148" s="132"/>
+      <c r="D148" s="132"/>
       <c r="I148" s="8"/>
       <c r="L148" s="8"/>
       <c r="W148" s="21"/>
@@ -17051,12 +17051,12 @@
       <c r="AD148" s="21"/>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A149" s="131" t="s">
+      <c r="A149" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="B149" s="131"/>
-      <c r="C149" s="131"/>
-      <c r="D149" s="131"/>
+      <c r="B149" s="132"/>
+      <c r="C149" s="132"/>
+      <c r="D149" s="132"/>
       <c r="I149" s="8"/>
       <c r="L149" s="8"/>
       <c r="W149" s="21"/>
@@ -17523,10 +17523,10 @@
       </c>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A155" s="131"/>
-      <c r="B155" s="131"/>
-      <c r="C155" s="131"/>
-      <c r="D155" s="131"/>
+      <c r="A155" s="132"/>
+      <c r="B155" s="132"/>
+      <c r="C155" s="132"/>
+      <c r="D155" s="132"/>
       <c r="I155" s="11"/>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
@@ -17543,12 +17543,12 @@
       <c r="AD155" s="21"/>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A156" s="131" t="s">
+      <c r="A156" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="B156" s="131"/>
-      <c r="C156" s="131"/>
-      <c r="D156" s="131"/>
+      <c r="B156" s="132"/>
+      <c r="C156" s="132"/>
+      <c r="D156" s="132"/>
       <c r="I156" s="11"/>
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
@@ -17659,10 +17659,10 @@
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A158" s="131"/>
-      <c r="B158" s="131"/>
-      <c r="C158" s="131"/>
-      <c r="D158" s="131"/>
+      <c r="A158" s="132"/>
+      <c r="B158" s="132"/>
+      <c r="C158" s="132"/>
+      <c r="D158" s="132"/>
       <c r="I158" s="11"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -17679,12 +17679,12 @@
       <c r="AD158" s="21"/>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A159" s="131" t="s">
+      <c r="A159" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="B159" s="131"/>
-      <c r="C159" s="131"/>
-      <c r="D159" s="131"/>
+      <c r="B159" s="132"/>
+      <c r="C159" s="132"/>
+      <c r="D159" s="132"/>
       <c r="I159" s="11"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -17701,10 +17701,10 @@
       <c r="AD159" s="21"/>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A160" s="131"/>
-      <c r="B160" s="131"/>
-      <c r="C160" s="131"/>
-      <c r="D160" s="131"/>
+      <c r="A160" s="132"/>
+      <c r="B160" s="132"/>
+      <c r="C160" s="132"/>
+      <c r="D160" s="132"/>
       <c r="I160" s="11"/>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
@@ -17721,12 +17721,12 @@
       <c r="AD160" s="21"/>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A161" s="131" t="s">
+      <c r="A161" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="B161" s="131"/>
-      <c r="C161" s="131"/>
-      <c r="D161" s="131"/>
+      <c r="B161" s="132"/>
+      <c r="C161" s="132"/>
+      <c r="D161" s="132"/>
       <c r="I161" s="11"/>
       <c r="L161" s="8"/>
       <c r="W161" s="21"/>
@@ -17857,12 +17857,12 @@
       </c>
     </row>
     <row r="164" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="132" t="s">
+      <c r="A164" s="133" t="s">
         <v>504</v>
       </c>
-      <c r="B164" s="132"/>
-      <c r="C164" s="132"/>
-      <c r="D164" s="132"/>
+      <c r="B164" s="133"/>
+      <c r="C164" s="133"/>
+      <c r="D164" s="133"/>
       <c r="E164" s="7" t="s">
         <v>108</v>
       </c>
@@ -17872,12 +17872,12 @@
       <c r="G164" s="39"/>
     </row>
     <row r="165" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A165" s="132" t="s">
+      <c r="A165" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B165" s="132"/>
-      <c r="C165" s="132"/>
-      <c r="D165" s="132"/>
+      <c r="B165" s="133"/>
+      <c r="C165" s="133"/>
+      <c r="D165" s="133"/>
       <c r="E165" s="6" t="s">
         <v>39</v>
       </c>
@@ -17953,13 +17953,13 @@
       </c>
     </row>
     <row r="166" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="133" t="str">
+      <c r="A166" s="135" t="str">
         <f>_xlfn.CONCAT(F166," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B166" s="133"/>
-      <c r="C166" s="133"/>
-      <c r="D166" s="133"/>
+      <c r="B166" s="135"/>
+      <c r="C166" s="135"/>
+      <c r="D166" s="135"/>
       <c r="E166" s="29" t="s">
         <v>281</v>
       </c>
@@ -17969,23 +17969,23 @@
       </c>
       <c r="G166" s="11"/>
       <c r="I166" s="11"/>
-      <c r="W166" s="132" t="s">
+      <c r="W166" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X166" s="132"/>
-      <c r="Y166" s="132"/>
-      <c r="Z166" s="132"/>
-      <c r="AB166" s="132" t="s">
+      <c r="X166" s="133"/>
+      <c r="Y166" s="133"/>
+      <c r="Z166" s="133"/>
+      <c r="AB166" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC166" s="132"/>
-      <c r="AD166" s="132"/>
+      <c r="AC166" s="133"/>
+      <c r="AD166" s="133"/>
     </row>
     <row r="167" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="131"/>
-      <c r="B167" s="131"/>
-      <c r="C167" s="131"/>
-      <c r="D167" s="131"/>
+      <c r="A167" s="132"/>
+      <c r="B167" s="132"/>
+      <c r="C167" s="132"/>
+      <c r="D167" s="132"/>
       <c r="E167" s="29" t="s">
         <v>284</v>
       </c>
@@ -18006,45 +18006,45 @@
       <c r="R167" s="11"/>
       <c r="S167" s="11"/>
       <c r="T167" s="11"/>
-      <c r="W167" s="132" t="str">
+      <c r="W167" s="133" t="str">
         <f>A164</f>
         <v>MONDAY LUNCH</v>
       </c>
-      <c r="X167" s="132"/>
-      <c r="Y167" s="132"/>
-      <c r="Z167" s="132"/>
-      <c r="AB167" s="132" t="str">
+      <c r="X167" s="133"/>
+      <c r="Y167" s="133"/>
+      <c r="Z167" s="133"/>
+      <c r="AB167" s="133" t="str">
         <f>A164</f>
         <v>MONDAY LUNCH</v>
       </c>
-      <c r="AC167" s="132"/>
-      <c r="AD167" s="132"/>
+      <c r="AC167" s="133"/>
+      <c r="AD167" s="133"/>
     </row>
     <row r="168" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="131" t="s">
+      <c r="A168" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="B168" s="131"/>
-      <c r="C168" s="131"/>
-      <c r="D168" s="131"/>
+      <c r="B168" s="132"/>
+      <c r="C168" s="132"/>
+      <c r="D168" s="132"/>
       <c r="E168" s="30"/>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
       <c r="I168" s="11"/>
-      <c r="W168" s="132" t="str">
+      <c r="W168" s="133" t="str">
         <f>A165</f>
         <v>THAI STYLE VEGETABLES</v>
       </c>
-      <c r="X168" s="132"/>
-      <c r="Y168" s="132"/>
-      <c r="Z168" s="132"/>
+      <c r="X168" s="133"/>
+      <c r="Y168" s="133"/>
+      <c r="Z168" s="133"/>
       <c r="AA168" s="41"/>
-      <c r="AB168" s="132" t="str">
+      <c r="AB168" s="133" t="str">
         <f>A165</f>
         <v>THAI STYLE VEGETABLES</v>
       </c>
-      <c r="AC168" s="132"/>
-      <c r="AD168" s="132"/>
+      <c r="AC168" s="133"/>
+      <c r="AD168" s="133"/>
     </row>
     <row r="169" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
@@ -18311,10 +18311,10 @@
       </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A172" s="131"/>
-      <c r="B172" s="131"/>
-      <c r="C172" s="131"/>
-      <c r="D172" s="131"/>
+      <c r="A172" s="132"/>
+      <c r="B172" s="132"/>
+      <c r="C172" s="132"/>
+      <c r="D172" s="132"/>
       <c r="I172" s="11"/>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
@@ -18329,12 +18329,12 @@
       <c r="AD172" s="21"/>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A173" s="131" t="s">
+      <c r="A173" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="B173" s="131"/>
-      <c r="C173" s="131"/>
-      <c r="D173" s="131"/>
+      <c r="B173" s="132"/>
+      <c r="C173" s="132"/>
+      <c r="D173" s="132"/>
       <c r="I173" s="11"/>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
@@ -18815,10 +18815,10 @@
       </c>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A179" s="131"/>
-      <c r="B179" s="131"/>
-      <c r="C179" s="131"/>
-      <c r="D179" s="131"/>
+      <c r="A179" s="132"/>
+      <c r="B179" s="132"/>
+      <c r="C179" s="132"/>
+      <c r="D179" s="132"/>
       <c r="I179" s="11"/>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
@@ -18833,12 +18833,12 @@
       <c r="AD179" s="21"/>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A180" s="131" t="s">
+      <c r="A180" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="B180" s="131"/>
-      <c r="C180" s="131"/>
-      <c r="D180" s="131"/>
+      <c r="B180" s="132"/>
+      <c r="C180" s="132"/>
+      <c r="D180" s="132"/>
       <c r="I180" s="11"/>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
@@ -19313,10 +19313,10 @@
       </c>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A186" s="131"/>
-      <c r="B186" s="131"/>
-      <c r="C186" s="131"/>
-      <c r="D186" s="131"/>
+      <c r="A186" s="132"/>
+      <c r="B186" s="132"/>
+      <c r="C186" s="132"/>
+      <c r="D186" s="132"/>
       <c r="I186" s="11"/>
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
@@ -19331,12 +19331,12 @@
       <c r="AD186" s="21"/>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A187" s="131" t="s">
+      <c r="A187" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B187" s="131"/>
-      <c r="C187" s="131"/>
-      <c r="D187" s="131"/>
+      <c r="B187" s="132"/>
+      <c r="C187" s="132"/>
+      <c r="D187" s="132"/>
       <c r="I187" s="11"/>
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
@@ -19625,10 +19625,10 @@
       </c>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A191" s="131"/>
-      <c r="B191" s="131"/>
-      <c r="C191" s="131"/>
-      <c r="D191" s="131"/>
+      <c r="A191" s="132"/>
+      <c r="B191" s="132"/>
+      <c r="C191" s="132"/>
+      <c r="D191" s="132"/>
       <c r="I191" s="11"/>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -19643,12 +19643,12 @@
       <c r="AD191" s="21"/>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A192" s="131" t="s">
+      <c r="A192" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="B192" s="131"/>
-      <c r="C192" s="131"/>
-      <c r="D192" s="131"/>
+      <c r="B192" s="132"/>
+      <c r="C192" s="132"/>
+      <c r="D192" s="132"/>
       <c r="I192" s="11"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -19663,10 +19663,10 @@
       <c r="AD192" s="21"/>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A193" s="131"/>
-      <c r="B193" s="131"/>
-      <c r="C193" s="131"/>
-      <c r="D193" s="131"/>
+      <c r="A193" s="132"/>
+      <c r="B193" s="132"/>
+      <c r="C193" s="132"/>
+      <c r="D193" s="132"/>
       <c r="I193" s="11"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -19681,12 +19681,12 @@
       <c r="AD193" s="21"/>
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A194" s="131" t="s">
+      <c r="A194" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="B194" s="131"/>
-      <c r="C194" s="131"/>
-      <c r="D194" s="131"/>
+      <c r="B194" s="132"/>
+      <c r="C194" s="132"/>
+      <c r="D194" s="132"/>
       <c r="I194" s="11"/>
       <c r="L194" s="8"/>
       <c r="M194" s="8"/>
@@ -19889,12 +19889,12 @@
       </c>
     </row>
     <row r="198" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="132" t="s">
+      <c r="A198" s="133" t="s">
         <v>505</v>
       </c>
-      <c r="B198" s="132"/>
-      <c r="C198" s="132"/>
-      <c r="D198" s="132"/>
+      <c r="B198" s="133"/>
+      <c r="C198" s="133"/>
+      <c r="D198" s="133"/>
       <c r="E198" s="7" t="s">
         <v>103</v>
       </c>
@@ -19905,12 +19905,12 @@
       <c r="H198" s="11"/>
     </row>
     <row r="199" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A199" s="132" t="s">
+      <c r="A199" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="B199" s="132"/>
-      <c r="C199" s="132"/>
-      <c r="D199" s="132"/>
+      <c r="B199" s="133"/>
+      <c r="C199" s="133"/>
+      <c r="D199" s="133"/>
       <c r="E199" s="6" t="s">
         <v>39</v>
       </c>
@@ -19987,13 +19987,13 @@
       </c>
     </row>
     <row r="200" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="133" t="str">
+      <c r="A200" s="135" t="str">
         <f>_xlfn.CONCAT(F200," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B200" s="133"/>
-      <c r="C200" s="133"/>
-      <c r="D200" s="133"/>
+      <c r="B200" s="135"/>
+      <c r="C200" s="135"/>
+      <c r="D200" s="135"/>
       <c r="E200" s="29" t="s">
         <v>281</v>
       </c>
@@ -20017,24 +20017,24 @@
       <c r="T200" s="26"/>
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
-      <c r="W200" s="132" t="s">
+      <c r="W200" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X200" s="132"/>
-      <c r="Y200" s="132"/>
-      <c r="Z200" s="132"/>
+      <c r="X200" s="133"/>
+      <c r="Y200" s="133"/>
+      <c r="Z200" s="133"/>
       <c r="AA200" s="6"/>
-      <c r="AB200" s="132" t="s">
+      <c r="AB200" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC200" s="132"/>
-      <c r="AD200" s="132"/>
+      <c r="AC200" s="133"/>
+      <c r="AD200" s="133"/>
     </row>
     <row r="201" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="131"/>
-      <c r="B201" s="131"/>
-      <c r="C201" s="131"/>
-      <c r="D201" s="131"/>
+      <c r="A201" s="132"/>
+      <c r="B201" s="132"/>
+      <c r="C201" s="132"/>
+      <c r="D201" s="132"/>
       <c r="E201" s="29" t="s">
         <v>284</v>
       </c>
@@ -20060,46 +20060,46 @@
       <c r="T201" s="26"/>
       <c r="U201" s="39"/>
       <c r="V201" s="39"/>
-      <c r="W201" s="132" t="str">
+      <c r="W201" s="133" t="str">
         <f>A198</f>
         <v>MONDAY DINNER</v>
       </c>
-      <c r="X201" s="132"/>
-      <c r="Y201" s="132"/>
-      <c r="Z201" s="132"/>
-      <c r="AB201" s="132" t="str">
+      <c r="X201" s="133"/>
+      <c r="Y201" s="133"/>
+      <c r="Z201" s="133"/>
+      <c r="AB201" s="133" t="str">
         <f>A198</f>
         <v>MONDAY DINNER</v>
       </c>
-      <c r="AC201" s="132"/>
-      <c r="AD201" s="132"/>
+      <c r="AC201" s="133"/>
+      <c r="AD201" s="133"/>
     </row>
     <row r="202" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="131" t="s">
+      <c r="A202" s="132" t="s">
         <v>217</v>
       </c>
-      <c r="B202" s="131"/>
-      <c r="C202" s="131"/>
-      <c r="D202" s="131"/>
+      <c r="B202" s="132"/>
+      <c r="C202" s="132"/>
+      <c r="D202" s="132"/>
       <c r="E202" s="30"/>
       <c r="F202" s="30"/>
       <c r="G202" s="30"/>
       <c r="H202" s="17"/>
       <c r="I202" s="11"/>
-      <c r="W202" s="132" t="str">
+      <c r="W202" s="133" t="str">
         <f>A199</f>
         <v>KUMARA, CARROT, AND CORN SOUP</v>
       </c>
-      <c r="X202" s="132"/>
-      <c r="Y202" s="132"/>
-      <c r="Z202" s="132"/>
+      <c r="X202" s="133"/>
+      <c r="Y202" s="133"/>
+      <c r="Z202" s="133"/>
       <c r="AA202" s="41"/>
-      <c r="AB202" s="132" t="str">
+      <c r="AB202" s="133" t="str">
         <f>A199</f>
         <v>KUMARA, CARROT, AND CORN SOUP</v>
       </c>
-      <c r="AC202" s="132"/>
-      <c r="AD202" s="132"/>
+      <c r="AC202" s="133"/>
+      <c r="AD202" s="133"/>
     </row>
     <row r="203" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
@@ -20204,10 +20204,10 @@
       </c>
     </row>
     <row r="204" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="135"/>
-      <c r="B204" s="135"/>
-      <c r="C204" s="135"/>
-      <c r="D204" s="135"/>
+      <c r="A204" s="134"/>
+      <c r="B204" s="134"/>
+      <c r="C204" s="134"/>
+      <c r="D204" s="134"/>
       <c r="E204" s="29" t="s">
         <v>285</v>
       </c>
@@ -20242,12 +20242,12 @@
       <c r="AD204" s="21"/>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A205" s="131" t="s">
+      <c r="A205" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="B205" s="131"/>
-      <c r="C205" s="131"/>
-      <c r="D205" s="131"/>
+      <c r="B205" s="132"/>
+      <c r="C205" s="132"/>
+      <c r="D205" s="132"/>
       <c r="H205" s="11"/>
       <c r="I205" s="26"/>
       <c r="J205" s="6"/>
@@ -20515,10 +20515,10 @@
       </c>
     </row>
     <row r="209" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="135"/>
-      <c r="B209" s="135"/>
-      <c r="C209" s="135"/>
-      <c r="D209" s="135"/>
+      <c r="A209" s="134"/>
+      <c r="B209" s="134"/>
+      <c r="C209" s="134"/>
+      <c r="D209" s="134"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="11"/>
@@ -20546,12 +20546,12 @@
       <c r="AD209" s="21"/>
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A210" s="131" t="s">
+      <c r="A210" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="B210" s="131"/>
-      <c r="C210" s="131"/>
-      <c r="D210" s="131"/>
+      <c r="B210" s="132"/>
+      <c r="C210" s="132"/>
+      <c r="D210" s="132"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="11"/>
@@ -20579,10 +20579,10 @@
       <c r="AD210" s="21"/>
     </row>
     <row r="211" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="135"/>
-      <c r="B211" s="135"/>
-      <c r="C211" s="135"/>
-      <c r="D211" s="135"/>
+      <c r="A211" s="134"/>
+      <c r="B211" s="134"/>
+      <c r="C211" s="134"/>
+      <c r="D211" s="134"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="11"/>
@@ -20610,12 +20610,12 @@
       <c r="AD211" s="21"/>
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A212" s="131" t="s">
+      <c r="A212" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="B212" s="131"/>
-      <c r="C212" s="131"/>
-      <c r="D212" s="131"/>
+      <c r="B212" s="132"/>
+      <c r="C212" s="132"/>
+      <c r="D212" s="132"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="11"/>
@@ -20643,10 +20643,10 @@
       <c r="AD212" s="21"/>
     </row>
     <row r="213" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="135"/>
-      <c r="B213" s="135"/>
-      <c r="C213" s="135"/>
-      <c r="D213" s="135"/>
+      <c r="A213" s="134"/>
+      <c r="B213" s="134"/>
+      <c r="C213" s="134"/>
+      <c r="D213" s="134"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="11"/>
@@ -20674,12 +20674,12 @@
       <c r="AD213" s="21"/>
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A214" s="131" t="s">
+      <c r="A214" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="B214" s="131"/>
-      <c r="C214" s="131"/>
-      <c r="D214" s="131"/>
+      <c r="B214" s="132"/>
+      <c r="C214" s="132"/>
+      <c r="D214" s="132"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="11"/>
@@ -20985,10 +20985,10 @@
       </c>
     </row>
     <row r="218" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="135"/>
-      <c r="B218" s="135"/>
-      <c r="C218" s="135"/>
-      <c r="D218" s="135"/>
+      <c r="A218" s="134"/>
+      <c r="B218" s="134"/>
+      <c r="C218" s="134"/>
+      <c r="D218" s="134"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="11"/>
@@ -21016,12 +21016,12 @@
       <c r="AD218" s="21"/>
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A219" s="131" t="s">
+      <c r="A219" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="B219" s="131"/>
-      <c r="C219" s="131"/>
-      <c r="D219" s="131"/>
+      <c r="B219" s="132"/>
+      <c r="C219" s="132"/>
+      <c r="D219" s="132"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="11"/>
@@ -21250,12 +21250,12 @@
       <c r="AD222" s="21"/>
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A223" s="131" t="s">
+      <c r="A223" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="131"/>
-      <c r="C223" s="131"/>
-      <c r="D223" s="131"/>
+      <c r="B223" s="132"/>
+      <c r="C223" s="132"/>
+      <c r="D223" s="132"/>
       <c r="I223" s="8"/>
       <c r="L223" s="8"/>
       <c r="W223" s="21"/>
@@ -21281,12 +21281,12 @@
       <c r="AD224" s="21"/>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A225" s="131" t="s">
+      <c r="A225" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="131"/>
-      <c r="C225" s="131"/>
-      <c r="D225" s="131"/>
+      <c r="B225" s="132"/>
+      <c r="C225" s="132"/>
+      <c r="D225" s="132"/>
       <c r="I225" s="8"/>
       <c r="L225" s="8"/>
       <c r="W225" s="21"/>
@@ -21430,12 +21430,12 @@
       <c r="AD228" s="21"/>
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A229" s="131" t="s">
+      <c r="A229" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="B229" s="131"/>
-      <c r="C229" s="131"/>
-      <c r="D229" s="131"/>
+      <c r="B229" s="132"/>
+      <c r="C229" s="132"/>
+      <c r="D229" s="132"/>
       <c r="I229" s="8"/>
       <c r="L229" s="8"/>
       <c r="W229" s="21"/>
@@ -21504,12 +21504,12 @@
       </c>
     </row>
     <row r="231" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="132" t="s">
+      <c r="A231" s="133" t="s">
         <v>506</v>
       </c>
-      <c r="B231" s="132"/>
-      <c r="C231" s="132"/>
-      <c r="D231" s="132"/>
+      <c r="B231" s="133"/>
+      <c r="C231" s="133"/>
+      <c r="D231" s="133"/>
       <c r="E231" s="7" t="s">
         <v>104</v>
       </c>
@@ -21520,12 +21520,12 @@
       <c r="H231" s="11"/>
     </row>
     <row r="232" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A232" s="132" t="s">
+      <c r="A232" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="B232" s="132"/>
-      <c r="C232" s="132"/>
-      <c r="D232" s="132"/>
+      <c r="B232" s="133"/>
+      <c r="C232" s="133"/>
+      <c r="D232" s="133"/>
       <c r="E232" s="6" t="s">
         <v>39</v>
       </c>
@@ -21602,13 +21602,13 @@
       </c>
     </row>
     <row r="233" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="133" t="str">
+      <c r="A233" s="135" t="str">
         <f>_xlfn.CONCAT(F233," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B233" s="133"/>
-      <c r="C233" s="133"/>
-      <c r="D233" s="133"/>
+      <c r="B233" s="135"/>
+      <c r="C233" s="135"/>
+      <c r="D233" s="135"/>
       <c r="E233" s="29" t="s">
         <v>281</v>
       </c>
@@ -21631,23 +21631,23 @@
       <c r="S233" s="26"/>
       <c r="T233" s="26"/>
       <c r="U233" s="6"/>
-      <c r="W233" s="132" t="s">
+      <c r="W233" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X233" s="132"/>
-      <c r="Y233" s="132"/>
-      <c r="Z233" s="132"/>
-      <c r="AB233" s="132" t="s">
+      <c r="X233" s="133"/>
+      <c r="Y233" s="133"/>
+      <c r="Z233" s="133"/>
+      <c r="AB233" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC233" s="132"/>
-      <c r="AD233" s="132"/>
+      <c r="AC233" s="133"/>
+      <c r="AD233" s="133"/>
     </row>
     <row r="234" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="131"/>
-      <c r="B234" s="131"/>
-      <c r="C234" s="131"/>
-      <c r="D234" s="131"/>
+      <c r="A234" s="132"/>
+      <c r="B234" s="132"/>
+      <c r="C234" s="132"/>
+      <c r="D234" s="132"/>
       <c r="E234" s="29" t="s">
         <v>284</v>
       </c>
@@ -21672,46 +21672,46 @@
       <c r="S234" s="26"/>
       <c r="T234" s="26"/>
       <c r="U234" s="39"/>
-      <c r="W234" s="132" t="str">
+      <c r="W234" s="133" t="str">
         <f>A231</f>
         <v>TUESDAY LUNCH</v>
       </c>
-      <c r="X234" s="132"/>
-      <c r="Y234" s="132"/>
-      <c r="Z234" s="132"/>
-      <c r="AB234" s="132" t="str">
+      <c r="X234" s="133"/>
+      <c r="Y234" s="133"/>
+      <c r="Z234" s="133"/>
+      <c r="AB234" s="133" t="str">
         <f>A231</f>
         <v>TUESDAY LUNCH</v>
       </c>
-      <c r="AC234" s="132"/>
-      <c r="AD234" s="132"/>
+      <c r="AC234" s="133"/>
+      <c r="AD234" s="133"/>
     </row>
     <row r="235" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="131" t="s">
+      <c r="A235" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="B235" s="131"/>
-      <c r="C235" s="131"/>
-      <c r="D235" s="131"/>
+      <c r="B235" s="132"/>
+      <c r="C235" s="132"/>
+      <c r="D235" s="132"/>
       <c r="E235" s="30"/>
       <c r="F235" s="30"/>
       <c r="G235" s="30"/>
       <c r="H235" s="17"/>
       <c r="I235" s="11"/>
-      <c r="W235" s="132" t="str">
+      <c r="W235" s="133" t="str">
         <f>A232</f>
         <v>BROCCOLI AND TOFU WITH PEANUT SAUCE</v>
       </c>
-      <c r="X235" s="132"/>
-      <c r="Y235" s="132"/>
-      <c r="Z235" s="132"/>
+      <c r="X235" s="133"/>
+      <c r="Y235" s="133"/>
+      <c r="Z235" s="133"/>
       <c r="AA235" s="41"/>
-      <c r="AB235" s="132" t="str">
+      <c r="AB235" s="133" t="str">
         <f>A232</f>
         <v>BROCCOLI AND TOFU WITH PEANUT SAUCE</v>
       </c>
-      <c r="AC235" s="132"/>
-      <c r="AD235" s="132"/>
+      <c r="AC235" s="133"/>
+      <c r="AD235" s="133"/>
     </row>
     <row r="236" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
@@ -21920,10 +21920,10 @@
       </c>
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A238" s="131"/>
-      <c r="B238" s="131"/>
-      <c r="C238" s="131"/>
-      <c r="D238" s="131"/>
+      <c r="A238" s="132"/>
+      <c r="B238" s="132"/>
+      <c r="C238" s="132"/>
+      <c r="D238" s="132"/>
       <c r="I238" s="11"/>
       <c r="W238" s="21"/>
       <c r="X238" s="21"/>
@@ -21935,12 +21935,12 @@
       <c r="AD238" s="21"/>
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A239" s="131" t="s">
+      <c r="A239" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="B239" s="131"/>
-      <c r="C239" s="131"/>
-      <c r="D239" s="131"/>
+      <c r="B239" s="132"/>
+      <c r="C239" s="132"/>
+      <c r="D239" s="132"/>
       <c r="I239" s="11"/>
       <c r="W239" s="21"/>
       <c r="X239" s="21"/>
@@ -22140,10 +22140,10 @@
       </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A242" s="131"/>
-      <c r="B242" s="131"/>
-      <c r="C242" s="131"/>
-      <c r="D242" s="131"/>
+      <c r="A242" s="132"/>
+      <c r="B242" s="132"/>
+      <c r="C242" s="132"/>
+      <c r="D242" s="132"/>
       <c r="I242" s="11"/>
       <c r="W242" s="21"/>
       <c r="X242" s="21"/>
@@ -22155,12 +22155,12 @@
       <c r="AD242" s="21"/>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A243" s="131" t="s">
+      <c r="A243" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="B243" s="131"/>
-      <c r="C243" s="131"/>
-      <c r="D243" s="131"/>
+      <c r="B243" s="132"/>
+      <c r="C243" s="132"/>
+      <c r="D243" s="132"/>
       <c r="I243" s="11"/>
       <c r="W243" s="21"/>
       <c r="X243" s="21"/>
@@ -22264,10 +22264,10 @@
       </c>
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A245" s="131"/>
-      <c r="B245" s="131"/>
-      <c r="C245" s="131"/>
-      <c r="D245" s="131"/>
+      <c r="A245" s="132"/>
+      <c r="B245" s="132"/>
+      <c r="C245" s="132"/>
+      <c r="D245" s="132"/>
       <c r="I245" s="11"/>
       <c r="W245" s="21"/>
       <c r="X245" s="21"/>
@@ -22279,12 +22279,12 @@
       <c r="AD245" s="21"/>
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A246" s="131" t="s">
+      <c r="A246" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="B246" s="131"/>
-      <c r="C246" s="131"/>
-      <c r="D246" s="131"/>
+      <c r="B246" s="132"/>
+      <c r="C246" s="132"/>
+      <c r="D246" s="132"/>
       <c r="I246" s="11"/>
       <c r="W246" s="21"/>
       <c r="X246" s="21"/>
@@ -22575,10 +22575,10 @@
       </c>
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A250" s="131"/>
-      <c r="B250" s="131"/>
-      <c r="C250" s="131"/>
-      <c r="D250" s="131"/>
+      <c r="A250" s="132"/>
+      <c r="B250" s="132"/>
+      <c r="C250" s="132"/>
+      <c r="D250" s="132"/>
       <c r="I250" s="11"/>
       <c r="W250" s="21"/>
       <c r="X250" s="21"/>
@@ -22590,12 +22590,12 @@
       <c r="AD250" s="21"/>
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A251" s="131" t="s">
+      <c r="A251" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="B251" s="131"/>
-      <c r="C251" s="131"/>
-      <c r="D251" s="131"/>
+      <c r="B251" s="132"/>
+      <c r="C251" s="132"/>
+      <c r="D251" s="132"/>
       <c r="I251" s="11"/>
       <c r="W251" s="21"/>
       <c r="X251" s="21"/>
@@ -23005,12 +23005,12 @@
       </c>
     </row>
     <row r="258" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="132" t="s">
+      <c r="A258" s="133" t="s">
         <v>507</v>
       </c>
-      <c r="B258" s="132"/>
-      <c r="C258" s="132"/>
-      <c r="D258" s="132"/>
+      <c r="B258" s="133"/>
+      <c r="C258" s="133"/>
+      <c r="D258" s="133"/>
       <c r="E258" s="7" t="s">
         <v>105</v>
       </c>
@@ -23021,12 +23021,12 @@
       <c r="H258" s="11"/>
     </row>
     <row r="259" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A259" s="132" t="s">
+      <c r="A259" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B259" s="132"/>
-      <c r="C259" s="132"/>
-      <c r="D259" s="132"/>
+      <c r="B259" s="133"/>
+      <c r="C259" s="133"/>
+      <c r="D259" s="133"/>
       <c r="E259" s="6" t="s">
         <v>39</v>
       </c>
@@ -23103,13 +23103,13 @@
       </c>
     </row>
     <row r="260" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="133" t="str">
+      <c r="A260" s="135" t="str">
         <f>_xlfn.CONCAT(F260," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B260" s="133"/>
-      <c r="C260" s="133"/>
-      <c r="D260" s="133"/>
+      <c r="B260" s="135"/>
+      <c r="C260" s="135"/>
+      <c r="D260" s="135"/>
       <c r="E260" s="29" t="s">
         <v>281</v>
       </c>
@@ -23119,23 +23119,23 @@
       </c>
       <c r="G260" s="11"/>
       <c r="H260" s="17"/>
-      <c r="W260" s="132" t="s">
+      <c r="W260" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X260" s="132"/>
-      <c r="Y260" s="132"/>
-      <c r="Z260" s="132"/>
-      <c r="AB260" s="132" t="s">
+      <c r="X260" s="133"/>
+      <c r="Y260" s="133"/>
+      <c r="Z260" s="133"/>
+      <c r="AB260" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC260" s="132"/>
-      <c r="AD260" s="132"/>
+      <c r="AC260" s="133"/>
+      <c r="AD260" s="133"/>
     </row>
     <row r="261" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="131"/>
-      <c r="B261" s="131"/>
-      <c r="C261" s="131"/>
-      <c r="D261" s="131"/>
+      <c r="A261" s="132"/>
+      <c r="B261" s="132"/>
+      <c r="C261" s="132"/>
+      <c r="D261" s="132"/>
       <c r="E261" s="29" t="s">
         <v>284</v>
       </c>
@@ -23157,45 +23157,45 @@
       <c r="R261" s="11"/>
       <c r="S261" s="11"/>
       <c r="T261" s="11"/>
-      <c r="W261" s="132" t="str">
+      <c r="W261" s="133" t="str">
         <f>A258</f>
         <v>TUESDAY DINNER</v>
       </c>
-      <c r="X261" s="132"/>
-      <c r="Y261" s="132"/>
-      <c r="Z261" s="132"/>
-      <c r="AB261" s="132" t="str">
+      <c r="X261" s="133"/>
+      <c r="Y261" s="133"/>
+      <c r="Z261" s="133"/>
+      <c r="AB261" s="133" t="str">
         <f>A258</f>
         <v>TUESDAY DINNER</v>
       </c>
-      <c r="AC261" s="132"/>
-      <c r="AD261" s="132"/>
+      <c r="AC261" s="133"/>
+      <c r="AD261" s="133"/>
     </row>
     <row r="262" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="131" t="s">
+      <c r="A262" s="132" t="s">
         <v>231</v>
       </c>
-      <c r="B262" s="131"/>
-      <c r="C262" s="131"/>
-      <c r="D262" s="131"/>
+      <c r="B262" s="132"/>
+      <c r="C262" s="132"/>
+      <c r="D262" s="132"/>
       <c r="E262" s="30"/>
       <c r="F262" s="30"/>
       <c r="G262" s="30"/>
       <c r="I262" s="11"/>
-      <c r="W262" s="132" t="str">
+      <c r="W262" s="133" t="str">
         <f>A259</f>
         <v>MISO AND TOFU SOUP</v>
       </c>
-      <c r="X262" s="132"/>
-      <c r="Y262" s="132"/>
-      <c r="Z262" s="132"/>
+      <c r="X262" s="133"/>
+      <c r="Y262" s="133"/>
+      <c r="Z262" s="133"/>
       <c r="AA262" s="41"/>
-      <c r="AB262" s="132" t="str">
+      <c r="AB262" s="133" t="str">
         <f>A259</f>
         <v>MISO AND TOFU SOUP</v>
       </c>
-      <c r="AC262" s="132"/>
-      <c r="AD262" s="132"/>
+      <c r="AC262" s="133"/>
+      <c r="AD262" s="133"/>
     </row>
     <row r="263" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
@@ -23586,10 +23586,10 @@
       </c>
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A267" s="131"/>
-      <c r="B267" s="131"/>
-      <c r="C267" s="131"/>
-      <c r="D267" s="131"/>
+      <c r="A267" s="132"/>
+      <c r="B267" s="132"/>
+      <c r="C267" s="132"/>
+      <c r="D267" s="132"/>
       <c r="I267" s="11"/>
       <c r="W267" s="21"/>
       <c r="X267" s="21"/>
@@ -23600,12 +23600,12 @@
       <c r="AD267" s="21"/>
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A268" s="131" t="s">
+      <c r="A268" s="132" t="s">
         <v>232</v>
       </c>
-      <c r="B268" s="131"/>
-      <c r="C268" s="131"/>
-      <c r="D268" s="131"/>
+      <c r="B268" s="132"/>
+      <c r="C268" s="132"/>
+      <c r="D268" s="132"/>
       <c r="I268" s="11"/>
       <c r="W268" s="21"/>
       <c r="X268" s="21"/>
@@ -23710,10 +23710,10 @@
       </c>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A270" s="131"/>
-      <c r="B270" s="131"/>
-      <c r="C270" s="131"/>
-      <c r="D270" s="131"/>
+      <c r="A270" s="132"/>
+      <c r="B270" s="132"/>
+      <c r="C270" s="132"/>
+      <c r="D270" s="132"/>
       <c r="I270" s="11"/>
       <c r="W270" s="21"/>
       <c r="X270" s="21"/>
@@ -23724,12 +23724,12 @@
       <c r="AD270" s="21"/>
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A271" s="131" t="s">
+      <c r="A271" s="132" t="s">
         <v>233</v>
       </c>
-      <c r="B271" s="131"/>
-      <c r="C271" s="131"/>
-      <c r="D271" s="131"/>
+      <c r="B271" s="132"/>
+      <c r="C271" s="132"/>
+      <c r="D271" s="132"/>
       <c r="I271" s="11"/>
       <c r="W271" s="21"/>
       <c r="X271" s="21"/>
@@ -23740,10 +23740,10 @@
       <c r="AD271" s="21"/>
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A272" s="131"/>
-      <c r="B272" s="131"/>
-      <c r="C272" s="131"/>
-      <c r="D272" s="131"/>
+      <c r="A272" s="132"/>
+      <c r="B272" s="132"/>
+      <c r="C272" s="132"/>
+      <c r="D272" s="132"/>
       <c r="I272" s="11"/>
       <c r="W272" s="21"/>
       <c r="X272" s="21"/>
@@ -23754,12 +23754,12 @@
       <c r="AD272" s="21"/>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A273" s="131" t="s">
+      <c r="A273" s="132" t="s">
         <v>234</v>
       </c>
-      <c r="B273" s="131"/>
-      <c r="C273" s="131"/>
-      <c r="D273" s="131"/>
+      <c r="B273" s="132"/>
+      <c r="C273" s="132"/>
+      <c r="D273" s="132"/>
       <c r="I273" s="11"/>
       <c r="W273" s="21"/>
       <c r="X273" s="21"/>
@@ -23878,12 +23878,12 @@
       <c r="AD275" s="21"/>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A276" s="131" t="s">
+      <c r="A276" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="B276" s="131"/>
-      <c r="C276" s="131"/>
-      <c r="D276" s="131"/>
+      <c r="B276" s="132"/>
+      <c r="C276" s="132"/>
+      <c r="D276" s="132"/>
       <c r="I276" s="18"/>
       <c r="J276" s="19"/>
       <c r="K276" s="19"/>
@@ -23990,10 +23990,10 @@
       </c>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A278" s="131"/>
-      <c r="B278" s="131"/>
-      <c r="C278" s="131"/>
-      <c r="D278" s="131"/>
+      <c r="A278" s="132"/>
+      <c r="B278" s="132"/>
+      <c r="C278" s="132"/>
+      <c r="D278" s="132"/>
       <c r="I278" s="11"/>
       <c r="W278" s="21"/>
       <c r="X278" s="21"/>
@@ -24004,12 +24004,12 @@
       <c r="AD278" s="21"/>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A279" s="131" t="s">
+      <c r="A279" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="B279" s="131"/>
-      <c r="C279" s="131"/>
-      <c r="D279" s="131"/>
+      <c r="B279" s="132"/>
+      <c r="C279" s="132"/>
+      <c r="D279" s="132"/>
       <c r="I279" s="11"/>
       <c r="W279" s="21"/>
       <c r="X279" s="21"/>
@@ -24114,10 +24114,10 @@
       </c>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A281" s="131"/>
-      <c r="B281" s="131"/>
-      <c r="C281" s="131"/>
-      <c r="D281" s="131"/>
+      <c r="A281" s="132"/>
+      <c r="B281" s="132"/>
+      <c r="C281" s="132"/>
+      <c r="D281" s="132"/>
       <c r="I281" s="11"/>
       <c r="W281" s="30"/>
       <c r="X281" s="30"/>
@@ -24129,12 +24129,12 @@
       <c r="AD281" s="30"/>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A282" s="131" t="s">
+      <c r="A282" s="132" t="s">
         <v>240</v>
       </c>
-      <c r="B282" s="131"/>
-      <c r="C282" s="131"/>
-      <c r="D282" s="131"/>
+      <c r="B282" s="132"/>
+      <c r="C282" s="132"/>
+      <c r="D282" s="132"/>
       <c r="I282" s="11"/>
       <c r="W282" s="30"/>
       <c r="X282" s="30"/>
@@ -24190,12 +24190,12 @@
       <c r="AD284" s="30"/>
     </row>
     <row r="285" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A285" s="132" t="s">
+      <c r="A285" s="133" t="s">
         <v>508</v>
       </c>
-      <c r="B285" s="132"/>
-      <c r="C285" s="132"/>
-      <c r="D285" s="132"/>
+      <c r="B285" s="133"/>
+      <c r="C285" s="133"/>
+      <c r="D285" s="133"/>
       <c r="E285" s="6" t="s">
         <v>110</v>
       </c>
@@ -24204,12 +24204,12 @@
       <c r="H285" s="11"/>
     </row>
     <row r="286" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A286" s="132" t="s">
+      <c r="A286" s="133" t="s">
         <v>242</v>
       </c>
-      <c r="B286" s="132"/>
-      <c r="C286" s="132"/>
-      <c r="D286" s="132"/>
+      <c r="B286" s="133"/>
+      <c r="C286" s="133"/>
+      <c r="D286" s="133"/>
       <c r="E286" s="6" t="s">
         <v>39</v>
       </c>
@@ -24286,13 +24286,13 @@
       </c>
     </row>
     <row r="287" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="133" t="str">
+      <c r="A287" s="135" t="str">
         <f>_xlfn.CONCAT(F287," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B287" s="133"/>
-      <c r="C287" s="133"/>
-      <c r="D287" s="133"/>
+      <c r="B287" s="135"/>
+      <c r="C287" s="135"/>
+      <c r="D287" s="135"/>
       <c r="E287" s="29" t="s">
         <v>281</v>
       </c>
@@ -24304,10 +24304,10 @@
       <c r="H287" s="11"/>
     </row>
     <row r="288" spans="1:30" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="131"/>
-      <c r="B288" s="131"/>
-      <c r="C288" s="131"/>
-      <c r="D288" s="131"/>
+      <c r="A288" s="132"/>
+      <c r="B288" s="132"/>
+      <c r="C288" s="132"/>
+      <c r="D288" s="132"/>
       <c r="E288" s="29" t="s">
         <v>284</v>
       </c>
@@ -24343,23 +24343,23 @@
       <c r="F289" s="30"/>
       <c r="G289" s="30"/>
       <c r="H289" s="11"/>
-      <c r="W289" s="132" t="s">
+      <c r="W289" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X289" s="132"/>
-      <c r="Y289" s="132"/>
-      <c r="Z289" s="132"/>
-      <c r="AB289" s="132" t="s">
+      <c r="X289" s="133"/>
+      <c r="Y289" s="133"/>
+      <c r="Z289" s="133"/>
+      <c r="AB289" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC289" s="132"/>
-      <c r="AD289" s="132"/>
+      <c r="AC289" s="133"/>
+      <c r="AD289" s="133"/>
     </row>
     <row r="290" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="131"/>
-      <c r="B290" s="131"/>
-      <c r="C290" s="131"/>
-      <c r="D290" s="131"/>
+      <c r="A290" s="132"/>
+      <c r="B290" s="132"/>
+      <c r="C290" s="132"/>
+      <c r="D290" s="132"/>
       <c r="E290" s="29" t="s">
         <v>273</v>
       </c>
@@ -24369,28 +24369,28 @@
       </c>
       <c r="G290" s="30"/>
       <c r="I290" s="11"/>
-      <c r="W290" s="132" t="str">
+      <c r="W290" s="133" t="str">
         <f>A285</f>
         <v>WEDNESDAY LUNCH</v>
       </c>
-      <c r="X290" s="132"/>
-      <c r="Y290" s="132"/>
-      <c r="Z290" s="132"/>
+      <c r="X290" s="133"/>
+      <c r="Y290" s="133"/>
+      <c r="Z290" s="133"/>
       <c r="AA290" s="41"/>
-      <c r="AB290" s="132" t="str">
+      <c r="AB290" s="133" t="str">
         <f>A285</f>
         <v>WEDNESDAY LUNCH</v>
       </c>
-      <c r="AC290" s="132"/>
-      <c r="AD290" s="132"/>
+      <c r="AC290" s="133"/>
+      <c r="AD290" s="133"/>
     </row>
     <row r="291" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="131" t="s">
+      <c r="A291" s="132" t="s">
         <v>260</v>
       </c>
-      <c r="B291" s="131"/>
-      <c r="C291" s="131"/>
-      <c r="D291" s="131"/>
+      <c r="B291" s="132"/>
+      <c r="C291" s="132"/>
+      <c r="D291" s="132"/>
       <c r="E291" s="29" t="s">
         <v>285</v>
       </c>
@@ -24402,20 +24402,20 @@
         <v>309</v>
       </c>
       <c r="H291" s="11"/>
-      <c r="W291" s="132" t="str">
+      <c r="W291" s="133" t="str">
         <f>A286</f>
         <v>SHEPHERDESS PIE</v>
       </c>
-      <c r="X291" s="132"/>
-      <c r="Y291" s="132"/>
-      <c r="Z291" s="132"/>
+      <c r="X291" s="133"/>
+      <c r="Y291" s="133"/>
+      <c r="Z291" s="133"/>
       <c r="AA291" s="41"/>
-      <c r="AB291" s="132" t="str">
+      <c r="AB291" s="133" t="str">
         <f>A286</f>
         <v>SHEPHERDESS PIE</v>
       </c>
-      <c r="AC291" s="132"/>
-      <c r="AD291" s="132"/>
+      <c r="AC291" s="133"/>
+      <c r="AD291" s="133"/>
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
@@ -24603,10 +24603,10 @@
       </c>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A294" s="131"/>
-      <c r="B294" s="131"/>
-      <c r="C294" s="131"/>
-      <c r="D294" s="131"/>
+      <c r="A294" s="132"/>
+      <c r="B294" s="132"/>
+      <c r="C294" s="132"/>
+      <c r="D294" s="132"/>
       <c r="I294" s="11"/>
       <c r="W294" s="21"/>
       <c r="X294" s="22"/>
@@ -24618,12 +24618,12 @@
       <c r="AD294" s="21"/>
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A295" s="131" t="s">
+      <c r="A295" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="B295" s="131"/>
-      <c r="C295" s="131"/>
-      <c r="D295" s="131"/>
+      <c r="B295" s="132"/>
+      <c r="C295" s="132"/>
+      <c r="D295" s="132"/>
       <c r="E295" s="7"/>
       <c r="F295" s="24"/>
       <c r="G295" s="24"/>
@@ -24916,10 +24916,10 @@
       </c>
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A299" s="131"/>
-      <c r="B299" s="131"/>
-      <c r="C299" s="131"/>
-      <c r="D299" s="131"/>
+      <c r="A299" s="132"/>
+      <c r="B299" s="132"/>
+      <c r="C299" s="132"/>
+      <c r="D299" s="132"/>
       <c r="I299" s="11"/>
       <c r="W299" s="21"/>
       <c r="X299" s="22"/>
@@ -24931,12 +24931,12 @@
       <c r="AD299" s="21"/>
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A300" s="131" t="s">
+      <c r="A300" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="B300" s="131"/>
-      <c r="C300" s="131"/>
-      <c r="D300" s="131"/>
+      <c r="B300" s="132"/>
+      <c r="C300" s="132"/>
+      <c r="D300" s="132"/>
       <c r="E300" s="7"/>
       <c r="F300" s="24"/>
       <c r="G300" s="24"/>
@@ -25045,10 +25045,10 @@
       </c>
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A302" s="131"/>
-      <c r="B302" s="131"/>
-      <c r="C302" s="131"/>
-      <c r="D302" s="131"/>
+      <c r="A302" s="132"/>
+      <c r="B302" s="132"/>
+      <c r="C302" s="132"/>
+      <c r="D302" s="132"/>
       <c r="I302" s="11"/>
       <c r="W302" s="21"/>
       <c r="X302" s="22"/>
@@ -25060,12 +25060,12 @@
       <c r="AD302" s="21"/>
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A303" s="131" t="s">
+      <c r="A303" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="B303" s="131"/>
-      <c r="C303" s="131"/>
-      <c r="D303" s="131"/>
+      <c r="B303" s="132"/>
+      <c r="C303" s="132"/>
+      <c r="D303" s="132"/>
       <c r="E303" s="7"/>
       <c r="F303" s="24"/>
       <c r="G303" s="24"/>
@@ -25080,10 +25080,10 @@
       <c r="AD303" s="21"/>
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A304" s="131"/>
-      <c r="B304" s="131"/>
-      <c r="C304" s="131"/>
-      <c r="D304" s="131"/>
+      <c r="A304" s="132"/>
+      <c r="B304" s="132"/>
+      <c r="C304" s="132"/>
+      <c r="D304" s="132"/>
       <c r="I304" s="11"/>
       <c r="W304" s="21"/>
       <c r="X304" s="22"/>
@@ -25115,10 +25115,10 @@
       <c r="AD305" s="21"/>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A306" s="131"/>
-      <c r="B306" s="131"/>
-      <c r="C306" s="131"/>
-      <c r="D306" s="131"/>
+      <c r="A306" s="132"/>
+      <c r="B306" s="132"/>
+      <c r="C306" s="132"/>
+      <c r="D306" s="132"/>
       <c r="I306" s="11"/>
       <c r="W306" s="21"/>
       <c r="X306" s="22"/>
@@ -25130,12 +25130,12 @@
       <c r="AD306" s="21"/>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A307" s="131" t="s">
+      <c r="A307" s="132" t="s">
         <v>249</v>
       </c>
-      <c r="B307" s="131"/>
-      <c r="C307" s="131"/>
-      <c r="D307" s="131"/>
+      <c r="B307" s="132"/>
+      <c r="C307" s="132"/>
+      <c r="D307" s="132"/>
       <c r="E307" s="7"/>
       <c r="F307" s="24"/>
       <c r="G307" s="24"/>
@@ -25150,10 +25150,10 @@
       <c r="AD307" s="21"/>
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A308" s="131"/>
-      <c r="B308" s="131"/>
-      <c r="C308" s="131"/>
-      <c r="D308" s="131"/>
+      <c r="A308" s="132"/>
+      <c r="B308" s="132"/>
+      <c r="C308" s="132"/>
+      <c r="D308" s="132"/>
       <c r="I308" s="11"/>
       <c r="W308" s="21"/>
       <c r="X308" s="22"/>
@@ -25165,12 +25165,12 @@
       <c r="AD308" s="21"/>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A309" s="131" t="s">
+      <c r="A309" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="B309" s="131"/>
-      <c r="C309" s="131"/>
-      <c r="D309" s="131"/>
+      <c r="B309" s="132"/>
+      <c r="C309" s="132"/>
+      <c r="D309" s="132"/>
       <c r="E309" s="7"/>
       <c r="F309" s="24"/>
       <c r="G309" s="24"/>
@@ -25655,10 +25655,10 @@
       </c>
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A315" s="131"/>
-      <c r="B315" s="131"/>
-      <c r="C315" s="131"/>
-      <c r="D315" s="131"/>
+      <c r="A315" s="132"/>
+      <c r="B315" s="132"/>
+      <c r="C315" s="132"/>
+      <c r="D315" s="132"/>
       <c r="I315" s="11"/>
       <c r="W315" s="30"/>
       <c r="X315" s="30"/>
@@ -25670,12 +25670,12 @@
       <c r="AD315" s="30"/>
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A316" s="131" t="s">
+      <c r="A316" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="B316" s="131"/>
-      <c r="C316" s="131"/>
-      <c r="D316" s="131"/>
+      <c r="B316" s="132"/>
+      <c r="C316" s="132"/>
+      <c r="D316" s="132"/>
       <c r="E316" s="7"/>
       <c r="F316" s="24"/>
       <c r="G316" s="24"/>
@@ -25690,10 +25690,10 @@
       <c r="AD316" s="30"/>
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A317" s="131"/>
-      <c r="B317" s="131"/>
-      <c r="C317" s="131"/>
-      <c r="D317" s="131"/>
+      <c r="A317" s="132"/>
+      <c r="B317" s="132"/>
+      <c r="C317" s="132"/>
+      <c r="D317" s="132"/>
       <c r="I317" s="11"/>
       <c r="W317" s="30"/>
       <c r="X317" s="30"/>
@@ -25705,24 +25705,24 @@
       <c r="AD317" s="30"/>
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A318" s="131" t="s">
+      <c r="A318" s="132" t="s">
         <v>254</v>
       </c>
-      <c r="B318" s="131"/>
-      <c r="C318" s="131"/>
-      <c r="D318" s="131"/>
+      <c r="B318" s="132"/>
+      <c r="C318" s="132"/>
+      <c r="D318" s="132"/>
       <c r="E318" s="7"/>
       <c r="F318" s="24"/>
       <c r="G318" s="24"/>
       <c r="H318" s="11"/>
     </row>
     <row r="319" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="132" t="s">
+      <c r="A319" s="133" t="s">
         <v>509</v>
       </c>
-      <c r="B319" s="132"/>
-      <c r="C319" s="132"/>
-      <c r="D319" s="132"/>
+      <c r="B319" s="133"/>
+      <c r="C319" s="133"/>
+      <c r="D319" s="133"/>
       <c r="E319" s="7" t="s">
         <v>107</v>
       </c>
@@ -25732,12 +25732,12 @@
       <c r="G319" s="39"/>
     </row>
     <row r="320" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A320" s="132" t="s">
+      <c r="A320" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="B320" s="132"/>
-      <c r="C320" s="132"/>
-      <c r="D320" s="132"/>
+      <c r="B320" s="133"/>
+      <c r="C320" s="133"/>
+      <c r="D320" s="133"/>
       <c r="E320" s="6" t="s">
         <v>39</v>
       </c>
@@ -25813,13 +25813,13 @@
       </c>
     </row>
     <row r="321" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="133" t="str">
+      <c r="A321" s="135" t="str">
         <f>_xlfn.CONCAT(F321," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B321" s="133"/>
-      <c r="C321" s="133"/>
-      <c r="D321" s="133"/>
+      <c r="B321" s="135"/>
+      <c r="C321" s="135"/>
+      <c r="D321" s="135"/>
       <c r="E321" s="29" t="s">
         <v>281</v>
       </c>
@@ -25843,10 +25843,10 @@
       <c r="U321" s="6"/>
     </row>
     <row r="322" spans="1:30" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="131"/>
-      <c r="B322" s="131"/>
-      <c r="C322" s="131"/>
-      <c r="D322" s="131"/>
+      <c r="A322" s="132"/>
+      <c r="B322" s="132"/>
+      <c r="C322" s="132"/>
+      <c r="D322" s="132"/>
       <c r="E322" s="29" t="s">
         <v>284</v>
       </c>
@@ -25874,33 +25874,33 @@
       <c r="Z322" s="13"/>
     </row>
     <row r="323" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="131" t="s">
+      <c r="A323" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="B323" s="131"/>
-      <c r="C323" s="131"/>
-      <c r="D323" s="131"/>
+      <c r="B323" s="132"/>
+      <c r="C323" s="132"/>
+      <c r="D323" s="132"/>
       <c r="E323" s="30"/>
       <c r="F323" s="30"/>
       <c r="G323" s="30"/>
       <c r="I323" s="11"/>
-      <c r="W323" s="132" t="s">
+      <c r="W323" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X323" s="132"/>
-      <c r="Y323" s="132"/>
-      <c r="Z323" s="132"/>
-      <c r="AB323" s="132" t="s">
+      <c r="X323" s="133"/>
+      <c r="Y323" s="133"/>
+      <c r="Z323" s="133"/>
+      <c r="AB323" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC323" s="132"/>
-      <c r="AD323" s="132"/>
+      <c r="AC323" s="133"/>
+      <c r="AD323" s="133"/>
     </row>
     <row r="324" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="131"/>
-      <c r="B324" s="131"/>
-      <c r="C324" s="131"/>
-      <c r="D324" s="131"/>
+      <c r="A324" s="132"/>
+      <c r="B324" s="132"/>
+      <c r="C324" s="132"/>
+      <c r="D324" s="132"/>
       <c r="E324" s="29" t="s">
         <v>273</v>
       </c>
@@ -25910,28 +25910,28 @@
       </c>
       <c r="G324" s="30"/>
       <c r="I324" s="11"/>
-      <c r="W324" s="132" t="str">
+      <c r="W324" s="133" t="str">
         <f>A319</f>
         <v>WEDNESDAY DINNER</v>
       </c>
-      <c r="X324" s="132"/>
-      <c r="Y324" s="132"/>
-      <c r="Z324" s="132"/>
+      <c r="X324" s="133"/>
+      <c r="Y324" s="133"/>
+      <c r="Z324" s="133"/>
       <c r="AA324" s="41"/>
-      <c r="AB324" s="132" t="str">
+      <c r="AB324" s="133" t="str">
         <f>A319</f>
         <v>WEDNESDAY DINNER</v>
       </c>
-      <c r="AC324" s="132"/>
-      <c r="AD324" s="132"/>
+      <c r="AC324" s="133"/>
+      <c r="AD324" s="133"/>
     </row>
     <row r="325" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="131" t="s">
+      <c r="A325" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="B325" s="131"/>
-      <c r="C325" s="131"/>
-      <c r="D325" s="131"/>
+      <c r="B325" s="132"/>
+      <c r="C325" s="132"/>
+      <c r="D325" s="132"/>
       <c r="E325" s="29" t="s">
         <v>285</v>
       </c>
@@ -25943,20 +25943,20 @@
         <v>311</v>
       </c>
       <c r="I325" s="11"/>
-      <c r="W325" s="132" t="str">
+      <c r="W325" s="133" t="str">
         <f>A320</f>
         <v>CURRIED KUMARA AND CARROT SOUP</v>
       </c>
-      <c r="X325" s="132"/>
-      <c r="Y325" s="132"/>
-      <c r="Z325" s="132"/>
+      <c r="X325" s="133"/>
+      <c r="Y325" s="133"/>
+      <c r="Z325" s="133"/>
       <c r="AA325" s="41"/>
-      <c r="AB325" s="132" t="str">
+      <c r="AB325" s="133" t="str">
         <f>A320</f>
         <v>CURRIED KUMARA AND CARROT SOUP</v>
       </c>
-      <c r="AC325" s="132"/>
-      <c r="AD325" s="132"/>
+      <c r="AC325" s="133"/>
+      <c r="AD325" s="133"/>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
@@ -26052,10 +26052,10 @@
       </c>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A327" s="131"/>
-      <c r="B327" s="131"/>
-      <c r="C327" s="131"/>
-      <c r="D327" s="131"/>
+      <c r="A327" s="132"/>
+      <c r="B327" s="132"/>
+      <c r="C327" s="132"/>
+      <c r="D327" s="132"/>
       <c r="E327" s="6"/>
       <c r="F327" s="11"/>
       <c r="G327" s="11"/>
@@ -26070,12 +26070,12 @@
       <c r="AD327" s="21"/>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A328" s="131" t="s">
+      <c r="A328" s="132" t="s">
         <v>256</v>
       </c>
-      <c r="B328" s="131"/>
-      <c r="C328" s="131"/>
-      <c r="D328" s="131"/>
+      <c r="B328" s="132"/>
+      <c r="C328" s="132"/>
+      <c r="D328" s="132"/>
       <c r="I328" s="11"/>
       <c r="W328" s="21"/>
       <c r="X328" s="22"/>
@@ -26837,10 +26837,10 @@
       </c>
     </row>
     <row r="337" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A337" s="131"/>
-      <c r="B337" s="131"/>
-      <c r="C337" s="131"/>
-      <c r="D337" s="131"/>
+      <c r="A337" s="132"/>
+      <c r="B337" s="132"/>
+      <c r="C337" s="132"/>
+      <c r="D337" s="132"/>
       <c r="I337" s="26"/>
       <c r="J337" s="24"/>
       <c r="K337" s="24"/>
@@ -26859,12 +26859,12 @@
       <c r="AD337" s="21"/>
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A338" s="131" t="s">
+      <c r="A338" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="B338" s="131"/>
-      <c r="C338" s="131"/>
-      <c r="D338" s="131"/>
+      <c r="B338" s="132"/>
+      <c r="C338" s="132"/>
+      <c r="D338" s="132"/>
       <c r="I338" s="11"/>
       <c r="L338" s="8"/>
       <c r="M338" s="8"/>
@@ -27253,10 +27253,10 @@
       </c>
     </row>
     <row r="343" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A343" s="131"/>
-      <c r="B343" s="131"/>
-      <c r="C343" s="131"/>
-      <c r="D343" s="131"/>
+      <c r="A343" s="132"/>
+      <c r="B343" s="132"/>
+      <c r="C343" s="132"/>
+      <c r="D343" s="132"/>
       <c r="I343" s="26"/>
       <c r="J343" s="24"/>
       <c r="K343" s="24"/>
@@ -27275,12 +27275,12 @@
       <c r="AD343" s="21"/>
     </row>
     <row r="344" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A344" s="131" t="s">
+      <c r="A344" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="B344" s="131"/>
-      <c r="C344" s="131"/>
-      <c r="D344" s="131"/>
+      <c r="B344" s="132"/>
+      <c r="C344" s="132"/>
+      <c r="D344" s="132"/>
       <c r="I344" s="11"/>
       <c r="L344" s="8"/>
       <c r="M344" s="8"/>
@@ -27295,10 +27295,10 @@
       <c r="AD344" s="21"/>
     </row>
     <row r="345" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A345" s="131"/>
-      <c r="B345" s="131"/>
-      <c r="C345" s="131"/>
-      <c r="D345" s="131"/>
+      <c r="A345" s="132"/>
+      <c r="B345" s="132"/>
+      <c r="C345" s="132"/>
+      <c r="D345" s="132"/>
       <c r="I345" s="26"/>
       <c r="J345" s="24"/>
       <c r="K345" s="24"/>
@@ -27317,12 +27317,12 @@
       <c r="AD345" s="21"/>
     </row>
     <row r="346" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A346" s="131" t="s">
+      <c r="A346" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B346" s="131"/>
-      <c r="C346" s="131"/>
-      <c r="D346" s="131"/>
+      <c r="B346" s="132"/>
+      <c r="C346" s="132"/>
+      <c r="D346" s="132"/>
       <c r="I346" s="11"/>
       <c r="L346" s="8"/>
       <c r="M346" s="8"/>
@@ -27694,10 +27694,10 @@
       </c>
     </row>
     <row r="352" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A352" s="131"/>
-      <c r="B352" s="131"/>
-      <c r="C352" s="131"/>
-      <c r="D352" s="131"/>
+      <c r="A352" s="132"/>
+      <c r="B352" s="132"/>
+      <c r="C352" s="132"/>
+      <c r="D352" s="132"/>
       <c r="I352" s="26"/>
       <c r="J352" s="24"/>
       <c r="K352" s="24"/>
@@ -27708,24 +27708,24 @@
       <c r="P352" s="24"/>
     </row>
     <row r="353" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A353" s="131" t="s">
+      <c r="A353" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="B353" s="131"/>
-      <c r="C353" s="131"/>
-      <c r="D353" s="131"/>
+      <c r="B353" s="132"/>
+      <c r="C353" s="132"/>
+      <c r="D353" s="132"/>
       <c r="I353" s="11"/>
       <c r="L353" s="8"/>
       <c r="M353" s="8"/>
       <c r="N353" s="8"/>
     </row>
     <row r="354" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A354" s="132" t="s">
+      <c r="A354" s="133" t="s">
         <v>510</v>
       </c>
-      <c r="B354" s="132"/>
-      <c r="C354" s="132"/>
-      <c r="D354" s="132"/>
+      <c r="B354" s="133"/>
+      <c r="C354" s="133"/>
+      <c r="D354" s="133"/>
       <c r="E354" s="7" t="s">
         <v>102</v>
       </c>
@@ -27736,12 +27736,12 @@
       <c r="H354" s="11"/>
     </row>
     <row r="355" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A355" s="132" t="s">
+      <c r="A355" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="B355" s="132"/>
-      <c r="C355" s="132"/>
-      <c r="D355" s="132"/>
+      <c r="B355" s="133"/>
+      <c r="C355" s="133"/>
+      <c r="D355" s="133"/>
       <c r="E355" s="6" t="s">
         <v>39</v>
       </c>
@@ -27818,13 +27818,13 @@
       </c>
     </row>
     <row r="356" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="133" t="str">
+      <c r="A356" s="135" t="str">
         <f>_xlfn.CONCAT(F356," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B356" s="133"/>
-      <c r="C356" s="133"/>
-      <c r="D356" s="133"/>
+      <c r="B356" s="135"/>
+      <c r="C356" s="135"/>
+      <c r="D356" s="135"/>
       <c r="E356" s="29" t="s">
         <v>281</v>
       </c>
@@ -27847,23 +27847,23 @@
       <c r="S356" s="26"/>
       <c r="T356" s="26"/>
       <c r="U356" s="6"/>
-      <c r="W356" s="132" t="s">
+      <c r="W356" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X356" s="132"/>
-      <c r="Y356" s="132"/>
-      <c r="Z356" s="132"/>
-      <c r="AB356" s="132" t="s">
+      <c r="X356" s="133"/>
+      <c r="Y356" s="133"/>
+      <c r="Z356" s="133"/>
+      <c r="AB356" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC356" s="132"/>
-      <c r="AD356" s="132"/>
+      <c r="AC356" s="133"/>
+      <c r="AD356" s="133"/>
     </row>
     <row r="357" spans="1:30" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="131"/>
-      <c r="B357" s="131"/>
-      <c r="C357" s="131"/>
-      <c r="D357" s="131"/>
+      <c r="A357" s="132"/>
+      <c r="B357" s="132"/>
+      <c r="C357" s="132"/>
+      <c r="D357" s="132"/>
       <c r="E357" s="29" t="s">
         <v>284</v>
       </c>
@@ -27888,27 +27888,27 @@
       <c r="S357" s="26"/>
       <c r="T357" s="26"/>
       <c r="U357" s="39"/>
-      <c r="W357" s="132" t="str">
+      <c r="W357" s="133" t="str">
         <f>A354</f>
         <v>THURSDAY LUNCH</v>
       </c>
-      <c r="X357" s="132"/>
-      <c r="Y357" s="132"/>
-      <c r="Z357" s="132"/>
-      <c r="AB357" s="132" t="str">
+      <c r="X357" s="133"/>
+      <c r="Y357" s="133"/>
+      <c r="Z357" s="133"/>
+      <c r="AB357" s="133" t="str">
         <f>A354</f>
         <v>THURSDAY LUNCH</v>
       </c>
-      <c r="AC357" s="132"/>
-      <c r="AD357" s="132"/>
+      <c r="AC357" s="133"/>
+      <c r="AD357" s="133"/>
     </row>
     <row r="358" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A358" s="131" t="s">
+      <c r="A358" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="B358" s="131"/>
-      <c r="C358" s="131"/>
-      <c r="D358" s="131"/>
+      <c r="B358" s="132"/>
+      <c r="C358" s="132"/>
+      <c r="D358" s="132"/>
       <c r="E358" s="30"/>
       <c r="F358" s="30"/>
       <c r="G358" s="30"/>
@@ -27926,20 +27926,20 @@
       <c r="S358" s="26"/>
       <c r="T358" s="26"/>
       <c r="U358" s="6"/>
-      <c r="W358" s="132" t="str">
+      <c r="W358" s="133" t="str">
         <f>A355</f>
         <v>COURGETTE AND CHICKPEA CURRY</v>
       </c>
-      <c r="X358" s="132"/>
-      <c r="Y358" s="132"/>
-      <c r="Z358" s="132"/>
+      <c r="X358" s="133"/>
+      <c r="Y358" s="133"/>
+      <c r="Z358" s="133"/>
       <c r="AA358" s="41"/>
-      <c r="AB358" s="132" t="str">
+      <c r="AB358" s="133" t="str">
         <f>A355</f>
         <v>COURGETTE AND CHICKPEA CURRY</v>
       </c>
-      <c r="AC358" s="132"/>
-      <c r="AD358" s="132"/>
+      <c r="AC358" s="133"/>
+      <c r="AD358" s="133"/>
     </row>
     <row r="359" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
@@ -28430,10 +28430,10 @@
       </c>
     </row>
     <row r="364" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A364" s="135"/>
-      <c r="B364" s="135"/>
-      <c r="C364" s="135"/>
-      <c r="D364" s="135"/>
+      <c r="A364" s="134"/>
+      <c r="B364" s="134"/>
+      <c r="C364" s="134"/>
+      <c r="D364" s="134"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="11"/>
@@ -28461,12 +28461,12 @@
       <c r="AD364" s="21"/>
     </row>
     <row r="365" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A365" s="131" t="s">
+      <c r="A365" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="B365" s="131"/>
-      <c r="C365" s="131"/>
-      <c r="D365" s="131"/>
+      <c r="B365" s="132"/>
+      <c r="C365" s="132"/>
+      <c r="D365" s="132"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="11"/>
@@ -28683,10 +28683,10 @@
       </c>
     </row>
     <row r="368" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="135"/>
-      <c r="B368" s="135"/>
-      <c r="C368" s="135"/>
-      <c r="D368" s="135"/>
+      <c r="A368" s="134"/>
+      <c r="B368" s="134"/>
+      <c r="C368" s="134"/>
+      <c r="D368" s="134"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="11"/>
@@ -28714,12 +28714,12 @@
       <c r="AD368" s="21"/>
     </row>
     <row r="369" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A369" s="131" t="s">
+      <c r="A369" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="B369" s="131"/>
-      <c r="C369" s="131"/>
-      <c r="D369" s="131"/>
+      <c r="B369" s="132"/>
+      <c r="C369" s="132"/>
+      <c r="D369" s="132"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="11"/>
@@ -28931,10 +28931,10 @@
       </c>
     </row>
     <row r="372" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="135"/>
-      <c r="B372" s="135"/>
-      <c r="C372" s="135"/>
-      <c r="D372" s="135"/>
+      <c r="A372" s="134"/>
+      <c r="B372" s="134"/>
+      <c r="C372" s="134"/>
+      <c r="D372" s="134"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="11"/>
@@ -28962,12 +28962,12 @@
       <c r="AD372" s="21"/>
     </row>
     <row r="373" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A373" s="131" t="s">
+      <c r="A373" s="132" t="s">
         <v>213</v>
       </c>
-      <c r="B373" s="131"/>
-      <c r="C373" s="131"/>
-      <c r="D373" s="131"/>
+      <c r="B373" s="132"/>
+      <c r="C373" s="132"/>
+      <c r="D373" s="132"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="11"/>
@@ -29365,10 +29365,10 @@
       </c>
     </row>
     <row r="378" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A378" s="135"/>
-      <c r="B378" s="135"/>
-      <c r="C378" s="135"/>
-      <c r="D378" s="135"/>
+      <c r="A378" s="134"/>
+      <c r="B378" s="134"/>
+      <c r="C378" s="134"/>
+      <c r="D378" s="134"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="11"/>
@@ -29396,12 +29396,12 @@
       <c r="AD378" s="21"/>
     </row>
     <row r="379" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A379" s="131" t="s">
+      <c r="A379" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="B379" s="131"/>
-      <c r="C379" s="131"/>
-      <c r="D379" s="131"/>
+      <c r="B379" s="132"/>
+      <c r="C379" s="132"/>
+      <c r="D379" s="132"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="11"/>
@@ -29789,10 +29789,10 @@
       </c>
     </row>
     <row r="385" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A385" s="135"/>
-      <c r="B385" s="135"/>
-      <c r="C385" s="135"/>
-      <c r="D385" s="135"/>
+      <c r="A385" s="134"/>
+      <c r="B385" s="134"/>
+      <c r="C385" s="134"/>
+      <c r="D385" s="134"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" s="11"/>
@@ -29812,12 +29812,12 @@
       <c r="U385" s="6"/>
     </row>
     <row r="386" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A386" s="131" t="s">
+      <c r="A386" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="B386" s="131"/>
-      <c r="C386" s="131"/>
-      <c r="D386" s="131"/>
+      <c r="B386" s="132"/>
+      <c r="C386" s="132"/>
+      <c r="D386" s="132"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="11"/>
@@ -29837,12 +29837,12 @@
       <c r="U386" s="6"/>
     </row>
     <row r="387" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A387" s="132" t="s">
+      <c r="A387" s="133" t="s">
         <v>511</v>
       </c>
-      <c r="B387" s="132"/>
-      <c r="C387" s="132"/>
-      <c r="D387" s="132"/>
+      <c r="B387" s="133"/>
+      <c r="C387" s="133"/>
+      <c r="D387" s="133"/>
       <c r="E387" s="7" t="s">
         <v>109</v>
       </c>
@@ -29852,12 +29852,12 @@
       <c r="G387" s="39"/>
     </row>
     <row r="388" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A388" s="132" t="s">
+      <c r="A388" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="B388" s="132"/>
-      <c r="C388" s="132"/>
-      <c r="D388" s="132"/>
+      <c r="B388" s="133"/>
+      <c r="C388" s="133"/>
+      <c r="D388" s="133"/>
       <c r="E388" s="6" t="s">
         <v>39</v>
       </c>
@@ -29933,13 +29933,13 @@
       </c>
     </row>
     <row r="389" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="133" t="str">
+      <c r="A389" s="135" t="str">
         <f>_xlfn.CONCAT(F389," servings")</f>
         <v>10 servings</v>
       </c>
-      <c r="B389" s="133"/>
-      <c r="C389" s="133"/>
-      <c r="D389" s="133"/>
+      <c r="B389" s="135"/>
+      <c r="C389" s="135"/>
+      <c r="D389" s="135"/>
       <c r="E389" s="29" t="s">
         <v>281</v>
       </c>
@@ -29963,10 +29963,10 @@
       <c r="U389" s="6"/>
     </row>
     <row r="390" spans="1:30" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="131"/>
-      <c r="B390" s="131"/>
-      <c r="C390" s="131"/>
-      <c r="D390" s="131"/>
+      <c r="A390" s="132"/>
+      <c r="B390" s="132"/>
+      <c r="C390" s="132"/>
+      <c r="D390" s="132"/>
       <c r="E390" s="29" t="s">
         <v>284</v>
       </c>
@@ -29994,12 +29994,12 @@
       <c r="Z390" s="13"/>
     </row>
     <row r="391" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A391" s="131" t="s">
+      <c r="A391" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="B391" s="131"/>
-      <c r="C391" s="131"/>
-      <c r="D391" s="131"/>
+      <c r="B391" s="132"/>
+      <c r="C391" s="132"/>
+      <c r="D391" s="132"/>
       <c r="E391" s="30"/>
       <c r="F391" s="30"/>
       <c r="G391" s="30"/>
@@ -30016,23 +30016,23 @@
       <c r="S391" s="26"/>
       <c r="T391" s="26"/>
       <c r="U391" s="6"/>
-      <c r="W391" s="132" t="s">
+      <c r="W391" s="133" t="s">
         <v>515</v>
       </c>
-      <c r="X391" s="132"/>
-      <c r="Y391" s="132"/>
-      <c r="Z391" s="132"/>
-      <c r="AB391" s="132" t="s">
+      <c r="X391" s="133"/>
+      <c r="Y391" s="133"/>
+      <c r="Z391" s="133"/>
+      <c r="AB391" s="133" t="s">
         <v>516</v>
       </c>
-      <c r="AC391" s="132"/>
-      <c r="AD391" s="132"/>
+      <c r="AC391" s="133"/>
+      <c r="AD391" s="133"/>
     </row>
     <row r="392" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="131"/>
-      <c r="B392" s="131"/>
-      <c r="C392" s="131"/>
-      <c r="D392" s="131"/>
+      <c r="A392" s="132"/>
+      <c r="B392" s="132"/>
+      <c r="C392" s="132"/>
+      <c r="D392" s="132"/>
       <c r="E392" s="29" t="s">
         <v>273</v>
       </c>
@@ -30042,28 +30042,28 @@
       </c>
       <c r="G392" s="30"/>
       <c r="I392" s="11"/>
-      <c r="W392" s="132" t="str">
+      <c r="W392" s="133" t="str">
         <f>A387</f>
         <v>THURSDAY DINNER</v>
       </c>
-      <c r="X392" s="132"/>
-      <c r="Y392" s="132"/>
-      <c r="Z392" s="132"/>
+      <c r="X392" s="133"/>
+      <c r="Y392" s="133"/>
+      <c r="Z392" s="133"/>
       <c r="AA392" s="41"/>
-      <c r="AB392" s="132" t="str">
+      <c r="AB392" s="133" t="str">
         <f>A387</f>
         <v>THURSDAY DINNER</v>
       </c>
-      <c r="AC392" s="132"/>
-      <c r="AD392" s="132"/>
+      <c r="AC392" s="133"/>
+      <c r="AD392" s="133"/>
     </row>
     <row r="393" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="131" t="s">
+      <c r="A393" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="B393" s="131"/>
-      <c r="C393" s="131"/>
-      <c r="D393" s="131"/>
+      <c r="B393" s="132"/>
+      <c r="C393" s="132"/>
+      <c r="D393" s="132"/>
       <c r="E393" s="29" t="s">
         <v>285</v>
       </c>
@@ -30075,20 +30075,20 @@
         <v>315</v>
       </c>
       <c r="I393" s="11"/>
-      <c r="W393" s="132" t="str">
+      <c r="W393" s="133" t="str">
         <f>A388</f>
         <v>VEGGIE AND SPLIT PEA SOUP</v>
       </c>
-      <c r="X393" s="132"/>
-      <c r="Y393" s="132"/>
-      <c r="Z393" s="132"/>
+      <c r="X393" s="133"/>
+      <c r="Y393" s="133"/>
+      <c r="Z393" s="133"/>
       <c r="AA393" s="41"/>
-      <c r="AB393" s="132" t="str">
+      <c r="AB393" s="133" t="str">
         <f>A388</f>
         <v>VEGGIE AND SPLIT PEA SOUP</v>
       </c>
-      <c r="AC393" s="132"/>
-      <c r="AD393" s="132"/>
+      <c r="AC393" s="133"/>
+      <c r="AD393" s="133"/>
     </row>
     <row r="394" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
@@ -30188,10 +30188,10 @@
       </c>
     </row>
     <row r="395" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A395" s="131"/>
-      <c r="B395" s="131"/>
-      <c r="C395" s="131"/>
-      <c r="D395" s="131"/>
+      <c r="A395" s="132"/>
+      <c r="B395" s="132"/>
+      <c r="C395" s="132"/>
+      <c r="D395" s="132"/>
       <c r="I395" s="11"/>
       <c r="W395" s="21"/>
       <c r="X395" s="22"/>
@@ -30202,12 +30202,12 @@
       <c r="AD395" s="21"/>
     </row>
     <row r="396" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A396" s="131" t="s">
+      <c r="A396" s="132" t="s">
         <v>258</v>
       </c>
-      <c r="B396" s="131"/>
-      <c r="C396" s="131"/>
-      <c r="D396" s="131"/>
+      <c r="B396" s="132"/>
+      <c r="C396" s="132"/>
+      <c r="D396" s="132"/>
       <c r="I396" s="11"/>
       <c r="W396" s="21"/>
       <c r="X396" s="22"/>
@@ -30687,10 +30687,10 @@
       </c>
     </row>
     <row r="402" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A402" s="131"/>
-      <c r="B402" s="131"/>
-      <c r="C402" s="131"/>
-      <c r="D402" s="131"/>
+      <c r="A402" s="132"/>
+      <c r="B402" s="132"/>
+      <c r="C402" s="132"/>
+      <c r="D402" s="132"/>
       <c r="I402" s="8"/>
       <c r="L402" s="8"/>
       <c r="M402" s="8"/>
@@ -30708,12 +30708,12 @@
       <c r="AD402" s="21"/>
     </row>
     <row r="403" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A403" s="131" t="s">
+      <c r="A403" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="B403" s="131"/>
-      <c r="C403" s="131"/>
-      <c r="D403" s="131"/>
+      <c r="B403" s="132"/>
+      <c r="C403" s="132"/>
+      <c r="D403" s="132"/>
       <c r="I403" s="8"/>
       <c r="L403" s="8"/>
       <c r="M403" s="8"/>
@@ -31104,10 +31104,10 @@
       </c>
     </row>
     <row r="408" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A408" s="131"/>
-      <c r="B408" s="131"/>
-      <c r="C408" s="131"/>
-      <c r="D408" s="131"/>
+      <c r="A408" s="132"/>
+      <c r="B408" s="132"/>
+      <c r="C408" s="132"/>
+      <c r="D408" s="132"/>
       <c r="I408" s="11"/>
       <c r="L408" s="8"/>
       <c r="M408" s="8"/>
@@ -31121,12 +31121,12 @@
       <c r="AD408" s="21"/>
     </row>
     <row r="409" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A409" s="131" t="s">
+      <c r="A409" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B409" s="131"/>
-      <c r="C409" s="131"/>
-      <c r="D409" s="131"/>
+      <c r="B409" s="132"/>
+      <c r="C409" s="132"/>
+      <c r="D409" s="132"/>
       <c r="I409" s="11"/>
       <c r="L409" s="8"/>
       <c r="M409" s="8"/>
@@ -31370,10 +31370,10 @@
       </c>
     </row>
     <row r="414" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A414" s="131"/>
-      <c r="B414" s="131"/>
-      <c r="C414" s="131"/>
-      <c r="D414" s="131"/>
+      <c r="A414" s="132"/>
+      <c r="B414" s="132"/>
+      <c r="C414" s="132"/>
+      <c r="D414" s="132"/>
       <c r="I414" s="8"/>
       <c r="L414" s="8"/>
       <c r="M414" s="8"/>
@@ -31388,12 +31388,12 @@
       <c r="Z414" s="8"/>
     </row>
     <row r="415" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A415" s="131" t="s">
+      <c r="A415" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="B415" s="131"/>
-      <c r="C415" s="131"/>
-      <c r="D415" s="131"/>
+      <c r="B415" s="132"/>
+      <c r="C415" s="132"/>
+      <c r="D415" s="132"/>
       <c r="I415" s="8"/>
       <c r="L415" s="8"/>
       <c r="M415" s="8"/>
@@ -31408,12 +31408,12 @@
       <c r="Z415" s="8"/>
     </row>
     <row r="416" spans="1:30" ht="24" x14ac:dyDescent="0.2">
-      <c r="A416" s="132" t="s">
+      <c r="A416" s="133" t="s">
         <v>440</v>
       </c>
-      <c r="B416" s="132"/>
-      <c r="C416" s="132"/>
-      <c r="D416" s="132"/>
+      <c r="B416" s="133"/>
+      <c r="C416" s="133"/>
+      <c r="D416" s="133"/>
       <c r="G416" s="129" t="s">
         <v>548</v>
       </c>
@@ -31460,20 +31460,20 @@
       <c r="Z416" s="8"/>
     </row>
     <row r="417" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="131"/>
-      <c r="B417" s="131"/>
-      <c r="C417" s="131"/>
-      <c r="D417" s="131"/>
+      <c r="A417" s="132"/>
+      <c r="B417" s="132"/>
+      <c r="C417" s="132"/>
+      <c r="D417" s="132"/>
       <c r="I417" s="9"/>
       <c r="L417" s="10"/>
     </row>
     <row r="418" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="131" t="s">
+      <c r="A418" s="132" t="s">
         <v>439</v>
       </c>
-      <c r="B418" s="131"/>
-      <c r="C418" s="131"/>
-      <c r="D418" s="131"/>
+      <c r="B418" s="132"/>
+      <c r="C418" s="132"/>
+      <c r="D418" s="132"/>
       <c r="I418" s="9"/>
       <c r="L418" s="10"/>
     </row>
@@ -31641,15 +31641,15 @@
       </c>
       <c r="M421" s="11">
         <f t="shared" si="342"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N421" s="11">
         <f t="shared" si="343"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O421" s="11">
         <f t="shared" si="344"/>
-        <v>0</v>
+        <v>5.32323532125E-2</v>
       </c>
       <c r="P421" s="11">
         <f t="shared" si="345"/>
@@ -31661,11 +31661,11 @@
       </c>
       <c r="R421" s="11">
         <f t="shared" si="347"/>
-        <v>0</v>
+        <v>3.3004058991749998</v>
       </c>
       <c r="S421" s="11">
         <f t="shared" si="348"/>
-        <v>7.3342353314999995</v>
+        <v>0</v>
       </c>
       <c r="T421" s="11">
         <f t="shared" si="349"/>
@@ -32224,12 +32224,12 @@
       <c r="Z429" s="13"/>
     </row>
     <row r="430" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A430" s="132" t="s">
+      <c r="A430" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="B430" s="132"/>
-      <c r="C430" s="132"/>
-      <c r="D430" s="132"/>
+      <c r="B430" s="133"/>
+      <c r="C430" s="133"/>
+      <c r="D430" s="133"/>
       <c r="M430" s="8"/>
       <c r="N430" s="8"/>
       <c r="O430" s="8"/>
@@ -32242,10 +32242,10 @@
       <c r="Z430" s="8"/>
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A431" s="131"/>
-      <c r="B431" s="131"/>
-      <c r="C431" s="131"/>
-      <c r="D431" s="131"/>
+      <c r="A431" s="132"/>
+      <c r="B431" s="132"/>
+      <c r="C431" s="132"/>
+      <c r="D431" s="132"/>
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C432" s="42" t="s">
@@ -32321,6 +32321,294 @@
     </row>
   </sheetData>
   <mergeCells count="312">
+    <mergeCell ref="A418:D418"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A192:D192"/>
+    <mergeCell ref="A396:D396"/>
+    <mergeCell ref="A358:D358"/>
+    <mergeCell ref="A389:D389"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A369:D369"/>
+    <mergeCell ref="A372:D372"/>
+    <mergeCell ref="A373:D373"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A392:D392"/>
+    <mergeCell ref="A395:D395"/>
+    <mergeCell ref="A393:D393"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A328:D328"/>
+    <mergeCell ref="A338:D338"/>
+    <mergeCell ref="A337:D337"/>
+    <mergeCell ref="A343:D343"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A291:D291"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A294:D294"/>
+    <mergeCell ref="A295:D295"/>
+    <mergeCell ref="A299:D299"/>
+    <mergeCell ref="A300:D300"/>
+    <mergeCell ref="A344:D344"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A388:D388"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A319:D319"/>
+    <mergeCell ref="A320:D320"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A378:D378"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A385:D385"/>
+    <mergeCell ref="A386:D386"/>
+    <mergeCell ref="A408:D408"/>
+    <mergeCell ref="A409:D409"/>
+    <mergeCell ref="A414:D414"/>
+    <mergeCell ref="A415:D415"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="A250:D250"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A430:D430"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A417:D417"/>
+    <mergeCell ref="A353:D353"/>
+    <mergeCell ref="A321:D321"/>
+    <mergeCell ref="A327:D327"/>
+    <mergeCell ref="A302:D302"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A307:D307"/>
+    <mergeCell ref="A356:D356"/>
+    <mergeCell ref="A364:D364"/>
+    <mergeCell ref="A402:D402"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A387:D387"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A352:D352"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A317:D317"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A309:D309"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A315:D315"/>
+    <mergeCell ref="A354:D354"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="W56:Z56"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="W57:Z57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="W79:Z79"/>
+    <mergeCell ref="AB79:AD79"/>
+    <mergeCell ref="AB80:AD80"/>
+    <mergeCell ref="W106:Z106"/>
+    <mergeCell ref="W291:Z291"/>
+    <mergeCell ref="AB291:AD291"/>
+    <mergeCell ref="AB324:AD324"/>
+    <mergeCell ref="W325:Z325"/>
+    <mergeCell ref="AB325:AD325"/>
+    <mergeCell ref="W201:Z201"/>
+    <mergeCell ref="AB201:AD201"/>
+    <mergeCell ref="W202:Z202"/>
+    <mergeCell ref="AB202:AD202"/>
+    <mergeCell ref="W234:Z234"/>
+    <mergeCell ref="AB234:AD234"/>
+    <mergeCell ref="AB235:AD235"/>
+    <mergeCell ref="W261:Z261"/>
+    <mergeCell ref="AB261:AD261"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="AB78:AD78"/>
+    <mergeCell ref="AB105:AD105"/>
+    <mergeCell ref="AB142:AD142"/>
+    <mergeCell ref="AB166:AD166"/>
+    <mergeCell ref="W262:Z262"/>
+    <mergeCell ref="AB262:AD262"/>
+    <mergeCell ref="AB106:AD106"/>
+    <mergeCell ref="W107:Z107"/>
+    <mergeCell ref="AB107:AD107"/>
+    <mergeCell ref="W143:Z143"/>
+    <mergeCell ref="AB143:AD143"/>
+    <mergeCell ref="W144:Z144"/>
+    <mergeCell ref="AB144:AD144"/>
+    <mergeCell ref="AB167:AD167"/>
+    <mergeCell ref="W168:Z168"/>
+    <mergeCell ref="AB168:AD168"/>
+    <mergeCell ref="W393:Z393"/>
+    <mergeCell ref="AB393:AD393"/>
+    <mergeCell ref="W391:Z391"/>
+    <mergeCell ref="W356:Z356"/>
+    <mergeCell ref="W323:Z323"/>
+    <mergeCell ref="W289:Z289"/>
+    <mergeCell ref="W260:Z260"/>
+    <mergeCell ref="W233:Z233"/>
+    <mergeCell ref="W200:Z200"/>
+    <mergeCell ref="AB200:AD200"/>
+    <mergeCell ref="AB233:AD233"/>
+    <mergeCell ref="AB260:AD260"/>
+    <mergeCell ref="AB289:AD289"/>
+    <mergeCell ref="AB323:AD323"/>
+    <mergeCell ref="AB356:AD356"/>
+    <mergeCell ref="AB391:AD391"/>
+    <mergeCell ref="W357:Z357"/>
+    <mergeCell ref="AB357:AD357"/>
+    <mergeCell ref="W358:Z358"/>
+    <mergeCell ref="AB358:AD358"/>
+    <mergeCell ref="W392:Z392"/>
+    <mergeCell ref="AB392:AD392"/>
+    <mergeCell ref="W290:Z290"/>
+    <mergeCell ref="AB290:AD290"/>
     <mergeCell ref="A431:D431"/>
     <mergeCell ref="W166:Z166"/>
     <mergeCell ref="W142:Z142"/>
@@ -32345,294 +32633,6 @@
     <mergeCell ref="A262:D262"/>
     <mergeCell ref="A267:D267"/>
     <mergeCell ref="A268:D268"/>
-    <mergeCell ref="W393:Z393"/>
-    <mergeCell ref="AB393:AD393"/>
-    <mergeCell ref="W391:Z391"/>
-    <mergeCell ref="W356:Z356"/>
-    <mergeCell ref="W323:Z323"/>
-    <mergeCell ref="W289:Z289"/>
-    <mergeCell ref="W260:Z260"/>
-    <mergeCell ref="W233:Z233"/>
-    <mergeCell ref="W200:Z200"/>
-    <mergeCell ref="AB200:AD200"/>
-    <mergeCell ref="AB233:AD233"/>
-    <mergeCell ref="AB260:AD260"/>
-    <mergeCell ref="AB289:AD289"/>
-    <mergeCell ref="AB323:AD323"/>
-    <mergeCell ref="AB356:AD356"/>
-    <mergeCell ref="AB391:AD391"/>
-    <mergeCell ref="W357:Z357"/>
-    <mergeCell ref="AB357:AD357"/>
-    <mergeCell ref="W358:Z358"/>
-    <mergeCell ref="AB358:AD358"/>
-    <mergeCell ref="W392:Z392"/>
-    <mergeCell ref="AB392:AD392"/>
-    <mergeCell ref="W290:Z290"/>
-    <mergeCell ref="AB290:AD290"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB55:AD55"/>
-    <mergeCell ref="AB78:AD78"/>
-    <mergeCell ref="AB105:AD105"/>
-    <mergeCell ref="AB142:AD142"/>
-    <mergeCell ref="AB166:AD166"/>
-    <mergeCell ref="W262:Z262"/>
-    <mergeCell ref="AB262:AD262"/>
-    <mergeCell ref="AB106:AD106"/>
-    <mergeCell ref="W107:Z107"/>
-    <mergeCell ref="AB107:AD107"/>
-    <mergeCell ref="W143:Z143"/>
-    <mergeCell ref="AB143:AD143"/>
-    <mergeCell ref="W144:Z144"/>
-    <mergeCell ref="AB144:AD144"/>
-    <mergeCell ref="AB167:AD167"/>
-    <mergeCell ref="W168:Z168"/>
-    <mergeCell ref="AB168:AD168"/>
-    <mergeCell ref="W291:Z291"/>
-    <mergeCell ref="AB291:AD291"/>
-    <mergeCell ref="AB324:AD324"/>
-    <mergeCell ref="W325:Z325"/>
-    <mergeCell ref="AB325:AD325"/>
-    <mergeCell ref="W201:Z201"/>
-    <mergeCell ref="AB201:AD201"/>
-    <mergeCell ref="W202:Z202"/>
-    <mergeCell ref="AB202:AD202"/>
-    <mergeCell ref="W234:Z234"/>
-    <mergeCell ref="AB234:AD234"/>
-    <mergeCell ref="AB235:AD235"/>
-    <mergeCell ref="W261:Z261"/>
-    <mergeCell ref="AB261:AD261"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="W56:Z56"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="W57:Z57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="W79:Z79"/>
-    <mergeCell ref="AB79:AD79"/>
-    <mergeCell ref="AB80:AD80"/>
-    <mergeCell ref="W106:Z106"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A309:D309"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A315:D315"/>
-    <mergeCell ref="A354:D354"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A317:D317"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A387:D387"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A271:D271"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A352:D352"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A430:D430"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A417:D417"/>
-    <mergeCell ref="A353:D353"/>
-    <mergeCell ref="A321:D321"/>
-    <mergeCell ref="A327:D327"/>
-    <mergeCell ref="A302:D302"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A307:D307"/>
-    <mergeCell ref="A356:D356"/>
-    <mergeCell ref="A364:D364"/>
-    <mergeCell ref="A402:D402"/>
-    <mergeCell ref="A403:D403"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A355:D355"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="A388:D388"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A319:D319"/>
-    <mergeCell ref="A320:D320"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A378:D378"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A385:D385"/>
-    <mergeCell ref="A386:D386"/>
-    <mergeCell ref="A408:D408"/>
-    <mergeCell ref="A409:D409"/>
-    <mergeCell ref="A414:D414"/>
-    <mergeCell ref="A415:D415"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="A250:D250"/>
-    <mergeCell ref="A392:D392"/>
-    <mergeCell ref="A395:D395"/>
-    <mergeCell ref="A393:D393"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A328:D328"/>
-    <mergeCell ref="A338:D338"/>
-    <mergeCell ref="A337:D337"/>
-    <mergeCell ref="A343:D343"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A291:D291"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A294:D294"/>
-    <mergeCell ref="A295:D295"/>
-    <mergeCell ref="A299:D299"/>
-    <mergeCell ref="A300:D300"/>
-    <mergeCell ref="A344:D344"/>
-    <mergeCell ref="A369:D369"/>
-    <mergeCell ref="A372:D372"/>
-    <mergeCell ref="A373:D373"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A345:D345"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A418:D418"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="A396:D396"/>
-    <mergeCell ref="A358:D358"/>
-    <mergeCell ref="A389:D389"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="M31:T31 M55:T57 M78:T80 M200:T202 M233:T235 M260:T262 M287:T291 M47:P47 M53:T53 M13:T13 M28:P28 M321:T325 M142:T144 M356:T358 M15:T17 Q14:T14 M33:T35 M105:T107 M389:T393 M430:T1048576 M166:T169 M18:P22 R18:T22 R28:T28 M39:T40 M36:P38 R36:T38 M41:P44 R41:T44 R47:T47 M52:P52 R52:T52 M60:T61 M58:P59 R58:T59 M64:T65 M62:P63 R62:T63 M71:T76 M66:P70 R66:T70 M82:T83 M81:P81 R81:T81 M87:T88 M84:P86 R84:T86 M95:T98 M89:P94 R89:T94 M100:T103 M99:P99 R99:T99 M109:T111 M108:P108 R108:T108 M114:T115 M112:P113 R112:T113 M118:T119 M116:P117 R116:T117 M123:T129 M120:P122 R120:T122 M131:T132 M130:P130 R130:T130 M135:T140 M133:P134 R133:T134 M148:T149 M145:P147 R145:T147 M155:T156 M150:P154 R150:T154 M158:T164 M157:P157 R157:T157 M172:T173 M170:P171 R170:T171 M179:T180 M174:P178 R174:T178 M186:T187 M181:P185 R181:T185 M191:T194 M188:P190 R188:T190 M196:T198 M195:P195 R195:T195 M204:T205 M203:P203 R203:T203 M208:T214 M206:P207 R206:T207 M218:T219 M215:P217 R215:T217 M222:T231 M220:P221 R220:T221 M238:T239 M236:P237 R236:T237 M242:T243 M240:P241 R240:T241 M245:T246 M244:P244 R244:T244 M250:T251 M247:P249 R247:T249 M256:T258 M252:P255 R252:T255 M267:T268 M263:P266 R263:T266 M270:T273 M269:P269 R269:T269 M275:T276 M274:P274 R274:T274 M278:T279 M277:P277 R277:T277 M281:T285 M280:P280 R280:T280 M294:T295 M292:P293 R292:T293 M299:T300 M296:P298 R296:T298 M302:T309 M301:P301 R301:T301 M315:T319 M310:P314 R310:T314 M327:T328 M326:P326 R326:T326 M337:T338 M329:P336 R329:T336 M343:T346 M339:P342 R339:T342 M349:T354 M347:P348 R347:T348 M364:T365 M359:P363 R359:T363 M368:T369 M366:P367 R366:T367 M372:T373 M370:P371 R370:T371 M378:T379 M374:P377 R374:T377 M382:T387 M380:P381 R380:T381 M395:T396 M394:P394 R394:T394 M402:T403 M397:P401 R397:T401 M408:T409 M404:P407 R404:T407 M411:T415 M410:P410 R410:T410 M419:P419 R419:T419 M423:P427 R423:T427 M429:P429 R429:T429 M417:T418">
     <cfRule type="cellIs" dxfId="467" priority="655" operator="equal">
@@ -34385,7 +34385,7 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34466,11 +34466,11 @@
       <c r="E2" s="116"/>
       <c r="F2" s="116"/>
       <c r="G2" s="78">
-        <f>IF(D2&lt;&gt;0, E2/D2, 0)</f>
+        <f t="shared" ref="G2:G33" si="0">IF(D2&lt;&gt;0, E2/D2, 0)</f>
         <v>0</v>
       </c>
       <c r="H2" s="78">
-        <f>IF(D2&lt;&gt;0, F2/D2, 0)</f>
+        <f t="shared" ref="H2:H33" si="1">IF(D2&lt;&gt;0, F2/D2, 0)</f>
         <v>0</v>
       </c>
       <c r="I2" s="78">
@@ -34513,11 +34513,11 @@
       <c r="E3" s="117"/>
       <c r="F3" s="117"/>
       <c r="G3" s="69">
-        <f>IF(D3&lt;&gt;0, E3/D3, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="69">
-        <f>IF(D3&lt;&gt;0, F3/D3, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="69">
@@ -34560,11 +34560,11 @@
       <c r="E4" s="117"/>
       <c r="F4" s="117"/>
       <c r="G4" s="69">
-        <f>IF(D4&lt;&gt;0, E4/D4, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="69">
-        <f>IF(D4&lt;&gt;0, F4/D4, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="69">
@@ -34602,11 +34602,11 @@
       <c r="E5" s="117"/>
       <c r="F5" s="117"/>
       <c r="G5" s="69">
-        <f>IF(D5&lt;&gt;0, E5/D5, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="69">
-        <f>IF(D5&lt;&gt;0, F5/D5, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="69">
@@ -34647,11 +34647,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G6" s="69">
-        <f>IF(D6&lt;&gt;0, E6/D6, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
       <c r="H6" s="69">
-        <f>IF(D6&lt;&gt;0, F6/D6, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I6" s="69">
@@ -34694,11 +34694,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G7" s="69">
-        <f>IF(D7&lt;&gt;0, E7/D7, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.27300000000000002</v>
       </c>
       <c r="H7" s="69">
-        <f>IF(D7&lt;&gt;0, F7/D7, 0)</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="I7" s="69">
@@ -34739,11 +34739,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="69">
-        <f>IF(D8&lt;&gt;0, E8/D8, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.85899999999999999</v>
       </c>
       <c r="H8" s="69">
-        <f>IF(D8&lt;&gt;0, F8/D8, 0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="69">
@@ -34778,11 +34778,11 @@
       <c r="E9" s="117"/>
       <c r="F9" s="117"/>
       <c r="G9" s="69">
-        <f>IF(D9&lt;&gt;0, E9/D9, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="69">
-        <f>IF(D9&lt;&gt;0, F9/D9, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="69">
@@ -34825,11 +34825,11 @@
         <v>0.6</v>
       </c>
       <c r="G10" s="69">
-        <f>IF(D10&lt;&gt;0, E10/D10, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.14833333333333334</v>
       </c>
       <c r="H10" s="69">
-        <f>IF(D10&lt;&gt;0, F10/D10, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="I10" s="69">
@@ -34872,11 +34872,11 @@
         <v>0.4</v>
       </c>
       <c r="G11" s="69">
-        <f>IF(D11&lt;&gt;0, E11/D11, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.1265</v>
       </c>
       <c r="H11" s="69">
-        <f>IF(D11&lt;&gt;0, F11/D11, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I11" s="69">
@@ -34916,11 +34916,11 @@
         <v>0.29573529999999998</v>
       </c>
       <c r="G12" s="69">
-        <f>IF(D12&lt;&gt;0, E12/D12, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.157</v>
       </c>
       <c r="H12" s="69">
-        <f>IF(D12&lt;&gt;0, F12/D12, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.29573529999999998</v>
       </c>
       <c r="I12" s="69">
@@ -34960,11 +34960,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G13" s="69">
-        <f>IF(D13&lt;&gt;0, E13/D13, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="H13" s="69">
-        <f>IF(D13&lt;&gt;0, F13/D13, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="I13" s="69">
@@ -34996,11 +34996,11 @@
       <c r="E14" s="117"/>
       <c r="F14" s="117"/>
       <c r="G14" s="69">
-        <f>IF(D14&lt;&gt;0, E14/D14, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="69">
-        <f>IF(D14&lt;&gt;0, F14/D14, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="69">
@@ -35040,11 +35040,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G15" s="69">
-        <f>IF(D15&lt;&gt;0, E15/D15, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.68899999999999995</v>
       </c>
       <c r="H15" s="69">
-        <f>IF(D15&lt;&gt;0, F15/D15, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="I15" s="69">
@@ -35084,11 +35084,11 @@
         <v>0.4</v>
       </c>
       <c r="G16" s="69">
-        <f>IF(D16&lt;&gt;0, E16/D16, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.1045</v>
       </c>
       <c r="H16" s="69">
-        <f>IF(D16&lt;&gt;0, F16/D16, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I16" s="69">
@@ -35128,11 +35128,11 @@
         <v>0.33</v>
       </c>
       <c r="G17" s="69">
-        <f>IF(D17&lt;&gt;0, E17/D17, 0)</f>
+        <f t="shared" si="0"/>
         <v>5.4666666666666669E-2</v>
       </c>
       <c r="H17" s="69">
-        <f>IF(D17&lt;&gt;0, F17/D17, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
       <c r="I17" s="69">
@@ -35172,11 +35172,11 @@
         <v>0.4</v>
       </c>
       <c r="G18" s="69">
-        <f>IF(D18&lt;&gt;0, E18/D18, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="H18" s="69">
-        <f>IF(D18&lt;&gt;0, F18/D18, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I18" s="69">
@@ -35208,11 +35208,11 @@
       <c r="E19" s="117"/>
       <c r="F19" s="117"/>
       <c r="G19" s="69">
-        <f>IF(D19&lt;&gt;0, E19/D19, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="69">
-        <f>IF(D19&lt;&gt;0, F19/D19, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="69">
@@ -35244,11 +35244,11 @@
       <c r="E20" s="117"/>
       <c r="F20" s="117"/>
       <c r="G20" s="69">
-        <f>IF(D20&lt;&gt;0, E20/D20, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="69">
-        <f>IF(D20&lt;&gt;0, F20/D20, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="69">
@@ -35286,11 +35286,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G21" s="69">
-        <f>IF(D21&lt;&gt;0, E21/D21, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H21" s="69">
-        <f>IF(D21&lt;&gt;0, F21/D21, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I21" s="69">
@@ -35324,11 +35324,11 @@
       <c r="E22" s="120"/>
       <c r="F22" s="120"/>
       <c r="G22" s="69">
-        <f>IF(D22&lt;&gt;0, E22/D22, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="69">
-        <f>IF(D22&lt;&gt;0, F22/D22, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="69">
@@ -35366,11 +35366,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G23" s="69">
-        <f>IF(D23&lt;&gt;0, E23/D23, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H23" s="69">
-        <f>IF(D23&lt;&gt;0, F23/D23, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I23" s="69">
@@ -35408,11 +35408,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G24" s="69">
-        <f>IF(D24&lt;&gt;0, E24/D24, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
       <c r="H24" s="69">
-        <f>IF(D24&lt;&gt;0, F24/D24, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I24" s="69">
@@ -35444,11 +35444,11 @@
       <c r="E25" s="117"/>
       <c r="F25" s="117"/>
       <c r="G25" s="69">
-        <f>IF(D25&lt;&gt;0, E25/D25, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="69">
-        <f>IF(D25&lt;&gt;0, F25/D25, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="69">
@@ -35486,11 +35486,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G26" s="69">
-        <f>IF(D26&lt;&gt;0, E26/D26, 0)</f>
+        <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H26" s="69">
-        <f>IF(D26&lt;&gt;0, F26/D26, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I26" s="69">
@@ -35528,11 +35528,11 @@
         <v>1.2</v>
       </c>
       <c r="G27" s="69">
-        <f>IF(D27&lt;&gt;0, E27/D27, 0)</f>
+        <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
       <c r="H27" s="69">
-        <f>IF(D27&lt;&gt;0, F27/D27, 0)</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="I27" s="69">
@@ -35572,11 +35572,11 @@
         <v>0.946353</v>
       </c>
       <c r="G28" s="69">
-        <f>IF(D28&lt;&gt;0, E28/D28, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.76300000000000001</v>
       </c>
       <c r="H28" s="69">
-        <f>IF(D28&lt;&gt;0, F28/D28, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.946353</v>
       </c>
       <c r="I28" s="69">
@@ -35616,11 +35616,11 @@
         <v>0.946353</v>
       </c>
       <c r="G29" s="69">
-        <f>IF(D29&lt;&gt;0, E29/D29, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.80800000000000005</v>
       </c>
       <c r="H29" s="69">
-        <f>IF(D29&lt;&gt;0, F29/D29, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.946353</v>
       </c>
       <c r="I29" s="69">
@@ -35658,11 +35658,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G30" s="69">
-        <f>IF(D30&lt;&gt;0, E30/D30, 0)</f>
+        <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H30" s="69">
-        <f>IF(D30&lt;&gt;0, F30/D30, 0)</f>
+        <f t="shared" si="1"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I30" s="69">
@@ -35702,11 +35702,11 @@
         <v>0.946353</v>
       </c>
       <c r="G31" s="69">
-        <f>IF(D31&lt;&gt;0, E31/D31, 0)</f>
+        <f t="shared" si="0"/>
         <v>0.84699999999999998</v>
       </c>
       <c r="H31" s="69">
-        <f>IF(D31&lt;&gt;0, F31/D31, 0)</f>
+        <f t="shared" si="1"/>
         <v>0.946353</v>
       </c>
       <c r="I31" s="69">
@@ -35740,11 +35740,11 @@
       <c r="E32" s="117"/>
       <c r="F32" s="117"/>
       <c r="G32" s="69">
-        <f>IF(D32&lt;&gt;0, E32/D32, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="69">
-        <f>IF(D32&lt;&gt;0, F32/D32, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="69">
@@ -35778,11 +35778,11 @@
       <c r="E33" s="117"/>
       <c r="F33" s="117"/>
       <c r="G33" s="69">
-        <f>IF(D33&lt;&gt;0, E33/D33, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="69">
-        <f>IF(D33&lt;&gt;0, F33/D33, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="69">
@@ -35814,11 +35814,11 @@
       <c r="E34" s="117"/>
       <c r="F34" s="117"/>
       <c r="G34" s="69">
-        <f>IF(D34&lt;&gt;0, E34/D34, 0)</f>
+        <f t="shared" ref="G34:G65" si="2">IF(D34&lt;&gt;0, E34/D34, 0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="69">
-        <f>IF(D34&lt;&gt;0, F34/D34, 0)</f>
+        <f t="shared" ref="H34:H65" si="3">IF(D34&lt;&gt;0, F34/D34, 0)</f>
         <v>0</v>
       </c>
       <c r="I34" s="69">
@@ -35850,11 +35850,11 @@
       <c r="E35" s="117"/>
       <c r="F35" s="117"/>
       <c r="G35" s="69">
-        <f>IF(D35&lt;&gt;0, E35/D35, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="69">
-        <f>IF(D35&lt;&gt;0, F35/D35, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="69">
@@ -35886,11 +35886,11 @@
       <c r="E36" s="117"/>
       <c r="F36" s="117"/>
       <c r="G36" s="69">
-        <f>IF(D36&lt;&gt;0, E36/D36, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="69">
-        <f>IF(D36&lt;&gt;0, F36/D36, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="69">
@@ -35922,11 +35922,11 @@
       <c r="E37" s="117"/>
       <c r="F37" s="117"/>
       <c r="G37" s="69">
-        <f>IF(D37&lt;&gt;0, E37/D37, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="69">
-        <f>IF(D37&lt;&gt;0, F37/D37, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="69">
@@ -35958,11 +35958,11 @@
       <c r="E38" s="117"/>
       <c r="F38" s="117"/>
       <c r="G38" s="69">
-        <f>IF(D38&lt;&gt;0, E38/D38, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="69">
-        <f>IF(D38&lt;&gt;0, F38/D38, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="69">
@@ -35994,11 +35994,11 @@
       <c r="E39" s="117"/>
       <c r="F39" s="117"/>
       <c r="G39" s="69">
-        <f>IF(D39&lt;&gt;0, E39/D39, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="69">
-        <f>IF(D39&lt;&gt;0, F39/D39, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="69">
@@ -36036,11 +36036,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G40" s="69">
-        <f>IF(D40&lt;&gt;0, E40/D40, 0)</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="H40" s="69">
-        <f>IF(D40&lt;&gt;0, F40/D40, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I40" s="69">
@@ -36072,11 +36072,11 @@
       <c r="E41" s="117"/>
       <c r="F41" s="117"/>
       <c r="G41" s="69">
-        <f>IF(D41&lt;&gt;0, E41/D41, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="69">
-        <f>IF(D41&lt;&gt;0, F41/D41, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="69">
@@ -36116,11 +36116,11 @@
         <v>3.4501958300000003E-2</v>
       </c>
       <c r="G42" s="69">
-        <f>IF(D42&lt;&gt;0, E42/D42, 0)</f>
+        <f t="shared" si="2"/>
         <v>2.4E-2</v>
       </c>
       <c r="H42" s="69">
-        <f>IF(D42&lt;&gt;0, F42/D42, 0)</f>
+        <f t="shared" si="3"/>
         <v>3.4501958300000003E-2</v>
       </c>
       <c r="I42" s="69">
@@ -36152,11 +36152,11 @@
       <c r="E43" s="117"/>
       <c r="F43" s="117"/>
       <c r="G43" s="69">
-        <f>IF(D43&lt;&gt;0, E43/D43, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="69">
-        <f>IF(D43&lt;&gt;0, F43/D43, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="69">
@@ -36188,11 +36188,11 @@
       <c r="E44" s="117"/>
       <c r="F44" s="117"/>
       <c r="G44" s="69">
-        <f>IF(D44&lt;&gt;0, E44/D44, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="69">
-        <f>IF(D44&lt;&gt;0, F44/D44, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="69">
@@ -36232,11 +36232,11 @@
         <v>0.29573529999999998</v>
       </c>
       <c r="G45" s="69">
-        <f>IF(D45&lt;&gt;0, E45/D45, 0)</f>
+        <f t="shared" si="2"/>
         <v>0.223</v>
       </c>
       <c r="H45" s="69">
-        <f>IF(D45&lt;&gt;0, F45/D45, 0)</f>
+        <f t="shared" si="3"/>
         <v>0.29573529999999998</v>
       </c>
       <c r="I45" s="69">
@@ -36274,11 +36274,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G46" s="69">
-        <f>IF(D46&lt;&gt;0, E46/D46, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H46" s="69">
-        <f>IF(D46&lt;&gt;0, F46/D46, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I46" s="69">
@@ -36316,11 +36316,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G47" s="69">
-        <f>IF(D47&lt;&gt;0, E47/D47, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H47" s="69">
-        <f>IF(D47&lt;&gt;0, F47/D47, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I47" s="69">
@@ -36358,11 +36358,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G48" s="69">
-        <f>IF(D48&lt;&gt;0, E48/D48, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H48" s="69">
-        <f>IF(D48&lt;&gt;0, F48/D48, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I48" s="69">
@@ -36400,11 +36400,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G49" s="69">
-        <f>IF(D49&lt;&gt;0, E49/D49, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.4E-2</v>
       </c>
       <c r="H49" s="69">
-        <f>IF(D49&lt;&gt;0, F49/D49, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I49" s="69">
@@ -36436,11 +36436,11 @@
       <c r="E50" s="117"/>
       <c r="F50" s="117"/>
       <c r="G50" s="69">
-        <f>IF(D50&lt;&gt;0, E50/D50, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="69">
-        <f>IF(D50&lt;&gt;0, F50/D50, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I50" s="69">
@@ -36480,11 +36480,11 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G51" s="69">
-        <f>IF(D51&lt;&gt;0, E51/D51, 0)</f>
+        <f t="shared" si="2"/>
         <v>0.30149999999999999</v>
       </c>
       <c r="H51" s="69">
-        <f>IF(D51&lt;&gt;0, F51/D51, 0)</f>
+        <f t="shared" si="3"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="I51" s="69">
@@ -36518,11 +36518,11 @@
       <c r="E52" s="117"/>
       <c r="F52" s="117"/>
       <c r="G52" s="69">
-        <f>IF(D52&lt;&gt;0, E52/D52, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="69">
-        <f>IF(D52&lt;&gt;0, F52/D52, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I52" s="69">
@@ -36556,11 +36556,11 @@
       <c r="E53" s="120"/>
       <c r="F53" s="120"/>
       <c r="G53" s="69">
-        <f>IF(D53&lt;&gt;0, E53/D53, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="69">
-        <f>IF(D53&lt;&gt;0, F53/D53, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I53" s="69">
@@ -36592,11 +36592,11 @@
       <c r="E54" s="117"/>
       <c r="F54" s="117"/>
       <c r="G54" s="69">
-        <f>IF(D54&lt;&gt;0, E54/D54, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="69">
-        <f>IF(D54&lt;&gt;0, F54/D54, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I54" s="69">
@@ -36628,11 +36628,11 @@
       <c r="E55" s="117"/>
       <c r="F55" s="117"/>
       <c r="G55" s="69">
-        <f>IF(D55&lt;&gt;0, E55/D55, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="69">
-        <f>IF(D55&lt;&gt;0, F55/D55, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I55" s="69">
@@ -36664,11 +36664,11 @@
       <c r="E56" s="117"/>
       <c r="F56" s="117"/>
       <c r="G56" s="69">
-        <f>IF(D56&lt;&gt;0, E56/D56, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="69">
-        <f>IF(D56&lt;&gt;0, F56/D56, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I56" s="69">
@@ -36700,11 +36700,11 @@
       <c r="E57" s="117"/>
       <c r="F57" s="117"/>
       <c r="G57" s="69">
-        <f>IF(D57&lt;&gt;0, E57/D57, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57" s="69">
-        <f>IF(D57&lt;&gt;0, F57/D57, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I57" s="69">
@@ -36736,11 +36736,11 @@
       <c r="E58" s="117"/>
       <c r="F58" s="117"/>
       <c r="G58" s="69">
-        <f>IF(D58&lt;&gt;0, E58/D58, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="69">
-        <f>IF(D58&lt;&gt;0, F58/D58, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I58" s="69">
@@ -36772,11 +36772,11 @@
       <c r="E59" s="117"/>
       <c r="F59" s="117"/>
       <c r="G59" s="69">
-        <f>IF(D59&lt;&gt;0, E59/D59, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59" s="69">
-        <f>IF(D59&lt;&gt;0, F59/D59, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I59" s="69">
@@ -36816,11 +36816,11 @@
         <v>0.6</v>
       </c>
       <c r="G60" s="69">
-        <f>IF(D60&lt;&gt;0, E60/D60, 0)</f>
+        <f t="shared" si="2"/>
         <v>0.185</v>
       </c>
       <c r="H60" s="69">
-        <f>IF(D60&lt;&gt;0, F60/D60, 0)</f>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="I60" s="69">
@@ -36852,11 +36852,11 @@
       <c r="E61" s="117"/>
       <c r="F61" s="117"/>
       <c r="G61" s="69">
-        <f>IF(D61&lt;&gt;0, E61/D61, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H61" s="69">
-        <f>IF(D61&lt;&gt;0, F61/D61, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I61" s="69">
@@ -36894,11 +36894,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G62" s="69">
-        <f>IF(D62&lt;&gt;0, E62/D62, 0)</f>
+        <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
       <c r="H62" s="69">
-        <f>IF(D62&lt;&gt;0, F62/D62, 0)</f>
+        <f t="shared" si="3"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I62" s="69">
@@ -36930,11 +36930,11 @@
       <c r="E63" s="117"/>
       <c r="F63" s="117"/>
       <c r="G63" s="69">
-        <f>IF(D63&lt;&gt;0, E63/D63, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H63" s="69">
-        <f>IF(D63&lt;&gt;0, F63/D63, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I63" s="69">
@@ -36966,11 +36966,11 @@
       <c r="E64" s="117"/>
       <c r="F64" s="117"/>
       <c r="G64" s="69">
-        <f>IF(D64&lt;&gt;0, E64/D64, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H64" s="69">
-        <f>IF(D64&lt;&gt;0, F64/D64, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I64" s="69">
@@ -37004,11 +37004,11 @@
       <c r="E65" s="117"/>
       <c r="F65" s="117"/>
       <c r="G65" s="69">
-        <f>IF(D65&lt;&gt;0, E65/D65, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H65" s="69">
-        <f>IF(D65&lt;&gt;0, F65/D65, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I65" s="69">
@@ -37048,11 +37048,11 @@
         <v>1.35</v>
       </c>
       <c r="G66" s="69">
-        <f>IF(D66&lt;&gt;0, E66/D66, 0)</f>
+        <f t="shared" ref="G66:G101" si="4">IF(D66&lt;&gt;0, E66/D66, 0)</f>
         <v>0.22500000000000001</v>
       </c>
       <c r="H66" s="69">
-        <f>IF(D66&lt;&gt;0, F66/D66, 0)</f>
+        <f t="shared" ref="H66:H101" si="5">IF(D66&lt;&gt;0, F66/D66, 0)</f>
         <v>0.33750000000000002</v>
       </c>
       <c r="I66" s="69">
@@ -37092,11 +37092,11 @@
         <v>0.5</v>
       </c>
       <c r="G67" s="69">
-        <f>IF(D67&lt;&gt;0, E67/D67, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.1885</v>
       </c>
       <c r="H67" s="69">
-        <f>IF(D67&lt;&gt;0, F67/D67, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="I67" s="69">
@@ -37136,11 +37136,11 @@
         <v>0.45</v>
       </c>
       <c r="G68" s="69">
-        <f>IF(D68&lt;&gt;0, E68/D68, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.19900000000000001</v>
       </c>
       <c r="H68" s="69">
-        <f>IF(D68&lt;&gt;0, F68/D68, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
       <c r="I68" s="69">
@@ -37168,24 +37168,30 @@
       <c r="C69" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="117"/>
-      <c r="F69" s="117"/>
+      <c r="D69" s="61">
+        <v>1</v>
+      </c>
+      <c r="E69" s="117">
+        <v>0.45</v>
+      </c>
+      <c r="F69" s="117">
+        <v>1</v>
+      </c>
       <c r="G69" s="69">
-        <f>IF(D69&lt;&gt;0, E69/D69, 0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.45</v>
       </c>
       <c r="H69" s="69">
-        <f>IF(D69&lt;&gt;0, F69/D69, 0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I69" s="69">
         <f>SUMIF(recipes!K:K,A69,recipes!R:R)</f>
-        <v>0</v>
+        <v>3.3004058991749998</v>
       </c>
       <c r="J69" s="69">
         <f>SUMIF(recipes!K:K,A69,recipes!S:S)</f>
-        <v>7.3342353314999995</v>
+        <v>0</v>
       </c>
       <c r="K69" s="69">
         <f>SUMIF(recipes!K:K,A69,recipes!T:T)</f>
@@ -37214,11 +37220,11 @@
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="G70" s="69">
-        <f>IF(D70&lt;&gt;0, E70/D70, 0)</f>
+        <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H70" s="69">
-        <f>IF(D70&lt;&gt;0, F70/D70, 0)</f>
+        <f t="shared" si="5"/>
         <v>2.2180100000000001E-2</v>
       </c>
       <c r="I70" s="69">
@@ -37250,11 +37256,11 @@
       <c r="E71" s="117"/>
       <c r="F71" s="117"/>
       <c r="G71" s="69">
-        <f>IF(D71&lt;&gt;0, E71/D71, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71" s="69">
-        <f>IF(D71&lt;&gt;0, F71/D71, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I71" s="69">
@@ -37294,11 +37300,11 @@
         <v>1.3</v>
       </c>
       <c r="G72" s="69">
-        <f>IF(D72&lt;&gt;0, E72/D72, 0)</f>
+        <f t="shared" si="4"/>
         <v>3.3600000000000005E-2</v>
       </c>
       <c r="H72" s="69">
-        <f>IF(D72&lt;&gt;0, F72/D72, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
       <c r="I72" s="69">
@@ -37338,11 +37344,11 @@
         <v>1</v>
       </c>
       <c r="G73" s="69">
-        <f>IF(D73&lt;&gt;0, E73/D73, 0)</f>
+        <f t="shared" si="4"/>
         <v>3.1E-2</v>
       </c>
       <c r="H73" s="69">
-        <f>IF(D73&lt;&gt;0, F73/D73, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="I73" s="69">
@@ -37374,11 +37380,11 @@
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="69">
-        <f>IF(D74&lt;&gt;0, E74/D74, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74" s="69">
-        <f>IF(D74&lt;&gt;0, F74/D74, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I74" s="69">
@@ -37410,11 +37416,11 @@
       <c r="E75" s="117"/>
       <c r="F75" s="117"/>
       <c r="G75" s="69">
-        <f>IF(D75&lt;&gt;0, E75/D75, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75" s="69">
-        <f>IF(D75&lt;&gt;0, F75/D75, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I75" s="69">
@@ -37446,11 +37452,11 @@
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
       <c r="G76" s="69">
-        <f>IF(D76&lt;&gt;0, E76/D76, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76" s="69">
-        <f>IF(D76&lt;&gt;0, F76/D76, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I76" s="69">
@@ -37482,11 +37488,11 @@
       <c r="E77" s="117"/>
       <c r="F77" s="117"/>
       <c r="G77" s="69">
-        <f>IF(D77&lt;&gt;0, E77/D77, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77" s="69">
-        <f>IF(D77&lt;&gt;0, F77/D77, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I77" s="69">
@@ -37526,11 +37532,11 @@
         <v>0.75</v>
       </c>
       <c r="G78" s="69">
-        <f>IF(D78&lt;&gt;0, E78/D78, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.13400000000000001</v>
       </c>
       <c r="H78" s="69">
-        <f>IF(D78&lt;&gt;0, F78/D78, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="I78" s="69">
@@ -37562,11 +37568,11 @@
       <c r="E79" s="117"/>
       <c r="F79" s="117"/>
       <c r="G79" s="69">
-        <f>IF(D79&lt;&gt;0, E79/D79, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79" s="69">
-        <f>IF(D79&lt;&gt;0, F79/D79, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I79" s="69">
@@ -37598,11 +37604,11 @@
       <c r="E80" s="117"/>
       <c r="F80" s="117"/>
       <c r="G80" s="69">
-        <f>IF(D80&lt;&gt;0, E80/D80, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80" s="69">
-        <f>IF(D80&lt;&gt;0, F80/D80, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I80" s="69">
@@ -37634,11 +37640,11 @@
       <c r="E81" s="117"/>
       <c r="F81" s="117"/>
       <c r="G81" s="69">
-        <f>IF(D81&lt;&gt;0, E81/D81, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81" s="69">
-        <f>IF(D81&lt;&gt;0, F81/D81, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I81" s="69">
@@ -37670,11 +37676,11 @@
       <c r="E82" s="117"/>
       <c r="F82" s="117"/>
       <c r="G82" s="69">
-        <f>IF(D82&lt;&gt;0, E82/D82, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82" s="69">
-        <f>IF(D82&lt;&gt;0, F82/D82, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I82" s="69">
@@ -37706,11 +37712,11 @@
       <c r="E83" s="117"/>
       <c r="F83" s="117"/>
       <c r="G83" s="69">
-        <f>IF(D83&lt;&gt;0, E83/D83, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83" s="69">
-        <f>IF(D83&lt;&gt;0, F83/D83, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I83" s="69">
@@ -37742,11 +37748,11 @@
       <c r="E84" s="117"/>
       <c r="F84" s="117"/>
       <c r="G84" s="69">
-        <f>IF(D84&lt;&gt;0, E84/D84, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84" s="69">
-        <f>IF(D84&lt;&gt;0, F84/D84, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I84" s="69">
@@ -37778,11 +37784,11 @@
       <c r="E85" s="117"/>
       <c r="F85" s="117"/>
       <c r="G85" s="69">
-        <f>IF(D85&lt;&gt;0, E85/D85, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85" s="69">
-        <f>IF(D85&lt;&gt;0, F85/D85, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I85" s="69">
@@ -37814,11 +37820,11 @@
       <c r="E86" s="117"/>
       <c r="F86" s="117"/>
       <c r="G86" s="69">
-        <f>IF(D86&lt;&gt;0, E86/D86, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86" s="69">
-        <f>IF(D86&lt;&gt;0, F86/D86, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I86" s="69">
@@ -37850,11 +37856,11 @@
       <c r="E87" s="117"/>
       <c r="F87" s="117"/>
       <c r="G87" s="69">
-        <f>IF(D87&lt;&gt;0, E87/D87, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H87" s="69">
-        <f>IF(D87&lt;&gt;0, F87/D87, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I87" s="69">
@@ -37886,11 +37892,11 @@
       <c r="E88" s="117"/>
       <c r="F88" s="117"/>
       <c r="G88" s="69">
-        <f>IF(D88&lt;&gt;0, E88/D88, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H88" s="69">
-        <f>IF(D88&lt;&gt;0, F88/D88, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I88" s="69">
@@ -37922,11 +37928,11 @@
       <c r="E89" s="117"/>
       <c r="F89" s="117"/>
       <c r="G89" s="69">
-        <f>IF(D89&lt;&gt;0, E89/D89, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H89" s="69">
-        <f>IF(D89&lt;&gt;0, F89/D89, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I89" s="69">
@@ -37962,11 +37968,11 @@
       </c>
       <c r="F90" s="117"/>
       <c r="G90" s="69">
-        <f>IF(D90&lt;&gt;0, E90/D90, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.82</v>
       </c>
       <c r="H90" s="69">
-        <f>IF(D90&lt;&gt;0, F90/D90, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I90" s="69">
@@ -37998,11 +38004,11 @@
       <c r="E91" s="117"/>
       <c r="F91" s="117"/>
       <c r="G91" s="69">
-        <f>IF(D91&lt;&gt;0, E91/D91, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H91" s="69">
-        <f>IF(D91&lt;&gt;0, F91/D91, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I91" s="69">
@@ -38042,11 +38048,11 @@
         <v>0.5</v>
       </c>
       <c r="G92" s="69">
-        <f>IF(D92&lt;&gt;0, E92/D92, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.311</v>
       </c>
       <c r="H92" s="69">
-        <f>IF(D92&lt;&gt;0, F92/D92, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I92" s="69">
@@ -38086,11 +38092,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G93" s="69">
-        <f>IF(D93&lt;&gt;0, E93/D93, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.315</v>
       </c>
       <c r="H93" s="69">
-        <f>IF(D93&lt;&gt;0, F93/D93, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I93" s="69">
@@ -38124,11 +38130,11 @@
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
       <c r="G94" s="69">
-        <f>IF(D94&lt;&gt;0, E94/D94, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H94" s="69">
-        <f>IF(D94&lt;&gt;0, F94/D94, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I94" s="69">
@@ -38160,11 +38166,11 @@
       <c r="E95" s="117"/>
       <c r="F95" s="117"/>
       <c r="G95" s="69">
-        <f>IF(D95&lt;&gt;0, E95/D95, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95" s="69">
-        <f>IF(D95&lt;&gt;0, F95/D95, 0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I95" s="69">
@@ -38204,11 +38210,11 @@
         <v>0.65</v>
       </c>
       <c r="G96" s="69">
-        <f>IF(D96&lt;&gt;0, E96/D96, 0)</f>
+        <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H96" s="69">
-        <f>IF(D96&lt;&gt;0, F96/D96, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="I96" s="69">
@@ -38248,11 +38254,11 @@
         <v>0.5</v>
       </c>
       <c r="G97" s="69">
-        <f>IF(D97&lt;&gt;0, E97/D97, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.1885</v>
       </c>
       <c r="H97" s="69">
-        <f>IF(D97&lt;&gt;0, F97/D97, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="I97" s="69">
@@ -38292,11 +38298,11 @@
         <v>0.315</v>
       </c>
       <c r="G98" s="69">
-        <f>IF(D98&lt;&gt;0, E98/D98, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.161</v>
       </c>
       <c r="H98" s="69">
-        <f>IF(D98&lt;&gt;0, F98/D98, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.315</v>
       </c>
       <c r="I98" s="69">
@@ -38336,11 +38342,11 @@
         <v>0.35</v>
       </c>
       <c r="G99" s="69">
-        <f>IF(D99&lt;&gt;0, E99/D99, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.16900000000000001</v>
       </c>
       <c r="H99" s="69">
-        <f>IF(D99&lt;&gt;0, F99/D99, 0)</f>
+        <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
       <c r="I99" s="69">
@@ -38376,11 +38382,11 @@
         <v>1</v>
       </c>
       <c r="G100" s="69">
-        <f>IF(D100&lt;&gt;0, E100/D100, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H100" s="69">
-        <f>IF(D100&lt;&gt;0, F100/D100, 0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I100" s="69">
@@ -38416,11 +38422,11 @@
         <v>1</v>
       </c>
       <c r="G101" s="83">
-        <f>IF(D101&lt;&gt;0, E101/D101, 0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H101" s="83">
-        <f>IF(D101&lt;&gt;0, F101/D101, 0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I101" s="83">
@@ -38648,8 +38654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2944F1E-C26E-4F90-A95D-D6E10706BE4A}">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42483,15 +42489,15 @@
       </c>
       <c r="E85" s="69">
         <f>SUMIF(support!C:C,C85,support!I:I)</f>
-        <v>0</v>
+        <v>3.3004058991749998</v>
       </c>
       <c r="F85" s="101">
         <f>E85 / D85</f>
-        <v>0</v>
+        <v>3.3004058991749998</v>
       </c>
       <c r="G85" s="102">
         <f>SUMIF(support!C:C,C85,support!J:J)</f>
-        <v>7.3342353314999995</v>
+        <v>0</v>
       </c>
       <c r="H85" s="102">
         <f>SUMIF(support!C:C,C85,support!K:K)</f>
@@ -42511,7 +42517,7 @@
       </c>
       <c r="O85" s="68">
         <f t="shared" si="6"/>
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="P85" s="68" t="s">
         <v>536</v>
@@ -43612,7 +43618,7 @@
       <c r="A112" s="128" t="s">
         <v>371</v>
       </c>
-      <c r="B112" s="137"/>
+      <c r="B112" s="131"/>
       <c r="C112" s="124" t="s">
         <v>64</v>
       </c>
